--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>21046300</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>21237800</v>
+        <v>22649800</v>
       </c>
       <c r="F8" s="3">
-        <v>22123100</v>
+        <v>21509400</v>
       </c>
       <c r="G8" s="3">
-        <v>22857700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>21643900</v>
+        <v>21705100</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I8" s="3">
+        <v>23360600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>22120100</v>
+      </c>
+      <c r="K8" s="3">
         <v>20659600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>21338700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>21697300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>20114700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>19762000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>20574300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>20486400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12377400</v>
+        <v>-5987100</v>
       </c>
       <c r="E9" s="3">
-        <v>12142900</v>
+        <v>13303400</v>
       </c>
       <c r="F9" s="3">
-        <v>13774200</v>
+        <v>12649700</v>
       </c>
       <c r="G9" s="3">
-        <v>13724200</v>
+        <v>12410100</v>
       </c>
       <c r="H9" s="3">
-        <v>12779400</v>
+        <v>-6179400</v>
       </c>
       <c r="I9" s="3">
+        <v>14026200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>13060600</v>
+      </c>
+      <c r="K9" s="3">
         <v>11968400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>13484000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>13469600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11743500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11346300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>13146800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12612300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>8669000</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>9094900</v>
+        <v>9346400</v>
       </c>
       <c r="F10" s="3">
-        <v>8348900</v>
+        <v>8859700</v>
       </c>
       <c r="G10" s="3">
-        <v>9133500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>8864500</v>
+        <v>9295000</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I10" s="3">
+        <v>9334500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9059500</v>
+      </c>
+      <c r="K10" s="3">
         <v>8691200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7854700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>8227600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>8371200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8415700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7427500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7874200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,52 +992,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8451700</v>
+        <v>10460300</v>
       </c>
       <c r="E14" s="3">
-        <v>-3407900</v>
+        <v>-869100</v>
       </c>
       <c r="F14" s="3">
-        <v>-4079300</v>
+        <v>8637600</v>
       </c>
       <c r="G14" s="3">
-        <v>-1142500</v>
+        <v>-3482900</v>
       </c>
       <c r="H14" s="3">
-        <v>-3977900</v>
+        <v>-4476200</v>
       </c>
       <c r="I14" s="3">
+        <v>-1167700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-4065500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-573900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-606200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-850800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>16700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>9200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1092,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27189000</v>
+        <v>4081500</v>
       </c>
       <c r="E17" s="3">
-        <v>14976500</v>
+        <v>19913500</v>
       </c>
       <c r="F17" s="3">
-        <v>17591300</v>
+        <v>27787200</v>
       </c>
       <c r="G17" s="3">
-        <v>19283200</v>
+        <v>15306000</v>
       </c>
       <c r="H17" s="3">
-        <v>14954300</v>
+        <v>-12389200</v>
       </c>
       <c r="I17" s="3">
+        <v>19707500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15283300</v>
+      </c>
+      <c r="K17" s="3">
         <v>14160300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>19873100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>19207400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16199900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>15429300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>19913900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>17985400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-6142600</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>6261300</v>
+        <v>2736300</v>
       </c>
       <c r="F18" s="3">
-        <v>4531800</v>
+        <v>-6277800</v>
       </c>
       <c r="G18" s="3">
-        <v>3574500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6689700</v>
+        <v>6399100</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I18" s="3">
+        <v>3653100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6836900</v>
+      </c>
+      <c r="K18" s="3">
         <v>6499300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1465600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2489800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3914800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4332600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>660400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2501000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1233,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>2363400</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>10429600</v>
+        <v>808400</v>
       </c>
       <c r="F20" s="3">
-        <v>-4206000</v>
+        <v>2415400</v>
       </c>
       <c r="G20" s="3">
-        <v>1559500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2433600</v>
+        <v>10659100</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I20" s="3">
+        <v>1593900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2487100</v>
+      </c>
+      <c r="K20" s="3">
         <v>52500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1891500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1199700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>576200</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>21210500</v>
+        <v>8538000</v>
       </c>
       <c r="F21" s="3">
-        <v>4324700</v>
+        <v>588900</v>
       </c>
       <c r="G21" s="3">
-        <v>9040400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>12935300</v>
+        <v>21677200</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3">
+        <v>9239300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>13219900</v>
+      </c>
+      <c r="K21" s="3">
         <v>10234600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3518900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>8014200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5808700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>5156700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2459900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>6994000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>1360700</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>1398500</v>
+        <v>1422100</v>
       </c>
       <c r="F22" s="3">
-        <v>1403300</v>
+        <v>1390600</v>
       </c>
       <c r="G22" s="3">
-        <v>1427600</v>
+        <v>1429200</v>
       </c>
       <c r="H22" s="3">
-        <v>1580500</v>
+        <v>1434100</v>
       </c>
       <c r="I22" s="3">
+        <v>1459000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1615300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1349600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1207100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1264500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1108200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1092700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1099400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1076300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5139900</v>
+        <v>-12168800</v>
       </c>
       <c r="E23" s="3">
-        <v>15292500</v>
+        <v>2122600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1077500</v>
+        <v>-5253000</v>
       </c>
       <c r="G23" s="3">
-        <v>3706400</v>
+        <v>15629000</v>
       </c>
       <c r="H23" s="3">
-        <v>7542700</v>
+        <v>-1181300</v>
       </c>
       <c r="I23" s="3">
+        <v>3788000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>7708700</v>
+      </c>
+      <c r="K23" s="3">
         <v>5202200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3116800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1278700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>701200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2624500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>725800</v>
+        <v>1010600</v>
       </c>
       <c r="E24" s="3">
-        <v>4589200</v>
+        <v>968100</v>
       </c>
       <c r="F24" s="3">
-        <v>11900</v>
+        <v>741800</v>
       </c>
       <c r="G24" s="3">
-        <v>-2691000</v>
+        <v>4690200</v>
       </c>
       <c r="H24" s="3">
-        <v>2611000</v>
+        <v>15300</v>
       </c>
       <c r="I24" s="3">
+        <v>-2750200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2668400</v>
+      </c>
+      <c r="K24" s="3">
         <v>2219600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>255400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>425100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1761000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5865700</v>
+        <v>-13179400</v>
       </c>
       <c r="E26" s="3">
-        <v>10703300</v>
+        <v>1154500</v>
       </c>
       <c r="F26" s="3">
-        <v>-1089300</v>
+        <v>-5994800</v>
       </c>
       <c r="G26" s="3">
-        <v>6397400</v>
+        <v>10938800</v>
       </c>
       <c r="H26" s="3">
-        <v>4931800</v>
+        <v>-1196600</v>
       </c>
       <c r="I26" s="3">
+        <v>6538200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5040300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2982600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>318800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9573400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1023300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>276100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>5047000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>863400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6434200</v>
+        <v>-13075500</v>
       </c>
       <c r="E27" s="3">
-        <v>10128200</v>
+        <v>437800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1229900</v>
+        <v>-6575700</v>
       </c>
       <c r="G27" s="3">
-        <v>6276800</v>
+        <v>10351000</v>
       </c>
       <c r="H27" s="3">
-        <v>4701600</v>
+        <v>-1340200</v>
       </c>
       <c r="I27" s="3">
+        <v>6414900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4805000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2788300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>151100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>8174400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>819600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>49900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>5032700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>758700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,13 +1679,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>-358200</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1582,8 +1702,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>83300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1600,17 +1720,23 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>13300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-46800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-2363400</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-10429600</v>
+        <v>-808400</v>
       </c>
       <c r="F32" s="3">
-        <v>4206000</v>
+        <v>-2415400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1559500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2433600</v>
+        <v>-10659100</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I32" s="3">
+        <v>-1593900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2487100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-52500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1887200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1527900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2538700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1891400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6434200</v>
+        <v>-13433700</v>
       </c>
       <c r="E33" s="3">
-        <v>10128200</v>
+        <v>437800</v>
       </c>
       <c r="F33" s="3">
-        <v>-1229900</v>
+        <v>-6575700</v>
       </c>
       <c r="G33" s="3">
-        <v>6276800</v>
+        <v>10351000</v>
       </c>
       <c r="H33" s="3">
-        <v>4701600</v>
+        <v>-1256900</v>
       </c>
       <c r="I33" s="3">
+        <v>6414900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4805000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2788300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>151100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>8174400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>819600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>49900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>5045900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>711900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6434200</v>
+        <v>-13433700</v>
       </c>
       <c r="E35" s="3">
-        <v>10128200</v>
+        <v>437800</v>
       </c>
       <c r="F35" s="3">
-        <v>-1229900</v>
+        <v>-6575700</v>
       </c>
       <c r="G35" s="3">
-        <v>6276800</v>
+        <v>10351000</v>
       </c>
       <c r="H35" s="3">
-        <v>4701600</v>
+        <v>-1256900</v>
       </c>
       <c r="I35" s="3">
+        <v>6414900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4805000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2788300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>151100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>8174400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>819600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>49900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>5045900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>711900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,404 +2128,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38715900</v>
+        <v>31298100</v>
       </c>
       <c r="E41" s="3">
-        <v>26656800</v>
+        <v>35345800</v>
       </c>
       <c r="F41" s="3">
-        <v>35073900</v>
+        <v>39567800</v>
       </c>
       <c r="G41" s="3">
-        <v>48216700</v>
+        <v>27243300</v>
       </c>
       <c r="H41" s="3">
-        <v>28739600</v>
+        <v>35851300</v>
       </c>
       <c r="I41" s="3">
+        <v>49277600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>29371900</v>
+      </c>
+      <c r="K41" s="3">
         <v>24800100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>30312000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>30196800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>31303200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11643200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>19364100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>22163900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1640500</v>
+        <v>2912300</v>
       </c>
       <c r="E42" s="3">
-        <v>1744600</v>
+        <v>1398000</v>
       </c>
       <c r="F42" s="3">
-        <v>1849600</v>
+        <v>1676500</v>
       </c>
       <c r="G42" s="3">
-        <v>5558600</v>
+        <v>1782900</v>
       </c>
       <c r="H42" s="3">
-        <v>5923400</v>
+        <v>1884600</v>
       </c>
       <c r="I42" s="3">
+        <v>5680900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>6053700</v>
+      </c>
+      <c r="K42" s="3">
         <v>7167800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4721700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1881400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>4880300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>6051800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>7048900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4023600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20747200</v>
+        <v>19251900</v>
       </c>
       <c r="E43" s="3">
-        <v>20769400</v>
+        <v>24584900</v>
       </c>
       <c r="F43" s="3">
-        <v>21270400</v>
+        <v>21203600</v>
       </c>
       <c r="G43" s="3">
-        <v>21933300</v>
+        <v>21226400</v>
       </c>
       <c r="H43" s="3">
-        <v>20651000</v>
+        <v>27416800</v>
       </c>
       <c r="I43" s="3">
+        <v>22415900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>21105400</v>
+      </c>
+      <c r="K43" s="3">
         <v>20322500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>21037500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>21080500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>19335800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>18760900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>19631000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>19570700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2743700</v>
+        <v>1719600</v>
       </c>
       <c r="E44" s="3">
-        <v>2893600</v>
+        <v>3046300</v>
       </c>
       <c r="F44" s="3">
-        <v>3320200</v>
+        <v>2804100</v>
       </c>
       <c r="G44" s="3">
-        <v>3571000</v>
+        <v>2957300</v>
       </c>
       <c r="H44" s="3">
-        <v>3109200</v>
+        <v>3393300</v>
       </c>
       <c r="I44" s="3">
+        <v>3649600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3177600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3016300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3291000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3276200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3070400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3217800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3027700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3646500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3853100</v>
+        <v>90085300</v>
       </c>
       <c r="E45" s="3">
-        <v>8161000</v>
+        <v>5313300</v>
       </c>
       <c r="F45" s="3">
-        <v>9006000</v>
+        <v>3937800</v>
       </c>
       <c r="G45" s="3">
-        <v>2900200</v>
+        <v>8340600</v>
       </c>
       <c r="H45" s="3">
-        <v>2682800</v>
+        <v>3525800</v>
       </c>
       <c r="I45" s="3">
+        <v>2964000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2741800</v>
+      </c>
+      <c r="K45" s="3">
         <v>7241400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3130400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2768500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2546200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3420900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1700000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1589500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>67700300</v>
+        <v>145267200</v>
       </c>
       <c r="E46" s="3">
-        <v>60225400</v>
+        <v>69688300</v>
       </c>
       <c r="F46" s="3">
-        <v>70520100</v>
+        <v>69189900</v>
       </c>
       <c r="G46" s="3">
-        <v>82179800</v>
+        <v>61550500</v>
       </c>
       <c r="H46" s="3">
-        <v>61106000</v>
+        <v>72071700</v>
       </c>
       <c r="I46" s="3">
+        <v>83987900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>62450400</v>
+      </c>
+      <c r="K46" s="3">
         <v>62548000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>62492500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>59203400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>61136000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>43094700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>50771700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>50994200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47329000</v>
+        <v>52134000</v>
       </c>
       <c r="E47" s="3">
-        <v>45862200</v>
+        <v>56302100</v>
       </c>
       <c r="F47" s="3">
-        <v>43191300</v>
+        <v>48370300</v>
       </c>
       <c r="G47" s="3">
-        <v>42449500</v>
+        <v>46871300</v>
       </c>
       <c r="H47" s="3">
-        <v>60746200</v>
+        <v>42099500</v>
       </c>
       <c r="I47" s="3">
+        <v>43383500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>62082800</v>
+      </c>
+      <c r="K47" s="3">
         <v>56022200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>51496000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>35578100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>30224400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>34602700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>28588600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>28078900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47230600</v>
+        <v>23765800</v>
       </c>
       <c r="E48" s="3">
-        <v>47513600</v>
+        <v>49224900</v>
       </c>
       <c r="F48" s="3">
-        <v>37002700</v>
+        <v>48269800</v>
       </c>
       <c r="G48" s="3">
-        <v>37154700</v>
+        <v>48559000</v>
       </c>
       <c r="H48" s="3">
-        <v>37163700</v>
+        <v>37816800</v>
       </c>
       <c r="I48" s="3">
+        <v>37972200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>37981400</v>
+      </c>
+      <c r="K48" s="3">
         <v>36141000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>35058700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>35804300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>35314700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>35342200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>35278200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>36248600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>97366900</v>
+        <v>55592700</v>
       </c>
       <c r="E49" s="3">
-        <v>98300400</v>
+        <v>108816500</v>
       </c>
       <c r="F49" s="3">
-        <v>101932200</v>
+        <v>99509200</v>
       </c>
       <c r="G49" s="3">
-        <v>101081500</v>
+        <v>100463200</v>
       </c>
       <c r="H49" s="3">
-        <v>104300200</v>
+        <v>104174900</v>
       </c>
       <c r="I49" s="3">
+        <v>103305500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>106595000</v>
+      </c>
+      <c r="K49" s="3">
         <v>101651800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>100781800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>104424800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>102922300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>101709400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>98653100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>100523000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>75327900</v>
+        <v>69360600</v>
       </c>
       <c r="E52" s="3">
-        <v>80673900</v>
+        <v>82054000</v>
       </c>
       <c r="F52" s="3">
-        <v>75470700</v>
+        <v>76985300</v>
       </c>
       <c r="G52" s="3">
-        <v>68551100</v>
+        <v>82448900</v>
       </c>
       <c r="H52" s="3">
-        <v>43994500</v>
+        <v>79173300</v>
       </c>
       <c r="I52" s="3">
+        <v>70059400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>44962500</v>
+      </c>
+      <c r="K52" s="3">
         <v>36956300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>33601500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>30880300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>23282900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>10194500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5213900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4725800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>334954700</v>
+        <v>346120200</v>
       </c>
       <c r="E54" s="3">
-        <v>332575500</v>
+        <v>366085800</v>
       </c>
       <c r="F54" s="3">
-        <v>328117000</v>
+        <v>342324400</v>
       </c>
       <c r="G54" s="3">
-        <v>331416600</v>
+        <v>339892900</v>
       </c>
       <c r="H54" s="3">
-        <v>307310700</v>
+        <v>335336300</v>
       </c>
       <c r="I54" s="3">
+        <v>338708500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>314072200</v>
+      </c>
+      <c r="K54" s="3">
         <v>293319400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>283430400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>265891000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>252880300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>224943500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>218505500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>220570600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2868,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15942400</v>
+        <v>14727700</v>
       </c>
       <c r="E57" s="3">
-        <v>15933900</v>
+        <v>18700000</v>
       </c>
       <c r="F57" s="3">
-        <v>17358300</v>
+        <v>16293100</v>
       </c>
       <c r="G57" s="3">
-        <v>16934000</v>
+        <v>16284500</v>
       </c>
       <c r="H57" s="3">
-        <v>16482300</v>
+        <v>15770300</v>
       </c>
       <c r="I57" s="3">
+        <v>17306600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>16844900</v>
+      </c>
+      <c r="K57" s="3">
         <v>15159300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>16507500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>15766500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>14560700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>13257100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>14258100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>14983600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35397100</v>
+        <v>39236600</v>
       </c>
       <c r="E58" s="3">
-        <v>35440700</v>
+        <v>37955700</v>
       </c>
       <c r="F58" s="3">
-        <v>31641900</v>
+        <v>36175900</v>
       </c>
       <c r="G58" s="3">
-        <v>38693300</v>
+        <v>36220500</v>
       </c>
       <c r="H58" s="3">
-        <v>45199600</v>
+        <v>32338100</v>
       </c>
       <c r="I58" s="3">
+        <v>39544600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>46194100</v>
+      </c>
+      <c r="K58" s="3">
         <v>37659800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>29246200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>27039100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>39373000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>29719200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>23896600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>30472600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16439000</v>
+        <v>77871300</v>
       </c>
       <c r="E59" s="3">
-        <v>16036000</v>
+        <v>18473600</v>
       </c>
       <c r="F59" s="3">
-        <v>29916400</v>
+        <v>16800700</v>
       </c>
       <c r="G59" s="3">
-        <v>22066900</v>
+        <v>16388800</v>
       </c>
       <c r="H59" s="3">
-        <v>21429700</v>
+        <v>32544600</v>
       </c>
       <c r="I59" s="3">
+        <v>22552500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>21901200</v>
+      </c>
+      <c r="K59" s="3">
         <v>21746600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15410600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7715700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7180600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7091800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>8208100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7792700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67778400</v>
+        <v>131835600</v>
       </c>
       <c r="E60" s="3">
-        <v>67410700</v>
+        <v>75129200</v>
       </c>
       <c r="F60" s="3">
-        <v>78916600</v>
+        <v>69269700</v>
       </c>
       <c r="G60" s="3">
-        <v>77694300</v>
+        <v>68893900</v>
       </c>
       <c r="H60" s="3">
-        <v>83111600</v>
+        <v>80653000</v>
       </c>
       <c r="I60" s="3">
+        <v>79403700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>84940200</v>
+      </c>
+      <c r="K60" s="3">
         <v>74565700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>61164400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>50521300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>61114300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>50068100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>46362800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>53248900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>129028400</v>
+        <v>93352200</v>
       </c>
       <c r="E61" s="3">
-        <v>122085000</v>
+        <v>140876900</v>
       </c>
       <c r="F61" s="3">
-        <v>110935700</v>
+        <v>131867300</v>
       </c>
       <c r="G61" s="3">
-        <v>116325600</v>
+        <v>124771100</v>
       </c>
       <c r="H61" s="3">
-        <v>118309100</v>
+        <v>113376500</v>
       </c>
       <c r="I61" s="3">
+        <v>118885000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>120912200</v>
+      </c>
+      <c r="K61" s="3">
         <v>120042200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>125667300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>116199700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>102072600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>105642400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>110444900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>102823600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>59759200</v>
+        <v>52438100</v>
       </c>
       <c r="E62" s="3">
-        <v>57221700</v>
+        <v>64691400</v>
       </c>
       <c r="F62" s="3">
-        <v>56371000</v>
+        <v>61074000</v>
       </c>
       <c r="G62" s="3">
-        <v>52983500</v>
+        <v>58480800</v>
       </c>
       <c r="H62" s="3">
-        <v>39140800</v>
+        <v>57611300</v>
       </c>
       <c r="I62" s="3">
+        <v>54149300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>40002000</v>
+      </c>
+      <c r="K62" s="3">
         <v>36707000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>39577000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>39787300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>40259300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>27154100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>22051300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>29180400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>268486100</v>
+        <v>291182800</v>
       </c>
       <c r="E66" s="3">
-        <v>258150500</v>
+        <v>294516400</v>
       </c>
       <c r="F66" s="3">
-        <v>258837700</v>
+        <v>274393400</v>
       </c>
       <c r="G66" s="3">
-        <v>259492500</v>
+        <v>263830400</v>
       </c>
       <c r="H66" s="3">
-        <v>249634300</v>
+        <v>264532700</v>
       </c>
       <c r="I66" s="3">
+        <v>265201900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>255126800</v>
+      </c>
+      <c r="K66" s="3">
         <v>241599300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>236306300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>216119500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>211602200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>190835400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>186694500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>193103600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>49019100</v>
+        <v>36656700</v>
       </c>
       <c r="E72" s="3">
-        <v>55695300</v>
+        <v>50266100</v>
       </c>
       <c r="F72" s="3">
-        <v>50643000</v>
+        <v>50097600</v>
       </c>
       <c r="G72" s="3">
-        <v>51947500</v>
+        <v>56920700</v>
       </c>
       <c r="H72" s="3">
-        <v>45824300</v>
+        <v>51757200</v>
       </c>
       <c r="I72" s="3">
+        <v>53090500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>46832600</v>
+      </c>
+      <c r="K72" s="3">
         <v>41186600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>35817000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>35543700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>27448000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>26570200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>26240600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>21110400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66468600</v>
+        <v>54937500</v>
       </c>
       <c r="E76" s="3">
-        <v>74424900</v>
+        <v>71569400</v>
       </c>
       <c r="F76" s="3">
-        <v>69279300</v>
+        <v>67931000</v>
       </c>
       <c r="G76" s="3">
-        <v>71924100</v>
+        <v>76062500</v>
       </c>
       <c r="H76" s="3">
-        <v>57676400</v>
+        <v>70803600</v>
       </c>
       <c r="I76" s="3">
+        <v>73506600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>58945400</v>
+      </c>
+      <c r="K76" s="3">
         <v>51720100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>47124200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>49771400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>41278100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>34108100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>31810900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>27467000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6434200</v>
+        <v>-13433700</v>
       </c>
       <c r="E81" s="3">
-        <v>10128200</v>
+        <v>437800</v>
       </c>
       <c r="F81" s="3">
-        <v>-1229900</v>
+        <v>-6575700</v>
       </c>
       <c r="G81" s="3">
-        <v>6276800</v>
+        <v>10351000</v>
       </c>
       <c r="H81" s="3">
-        <v>4701600</v>
+        <v>-1256900</v>
       </c>
       <c r="I81" s="3">
+        <v>6414900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4805000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2788300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>151100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>8174400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>819600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>49900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>5045900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>711900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4355500</v>
+        <v>4994600</v>
       </c>
       <c r="E83" s="3">
-        <v>4519500</v>
+        <v>4993400</v>
       </c>
       <c r="F83" s="3">
-        <v>3998900</v>
+        <v>4451300</v>
       </c>
       <c r="G83" s="3">
-        <v>3906400</v>
+        <v>4619000</v>
       </c>
       <c r="H83" s="3">
-        <v>3812000</v>
+        <v>4086900</v>
       </c>
       <c r="I83" s="3">
+        <v>3992300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3895900</v>
+      </c>
+      <c r="K83" s="3">
         <v>3682800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3940500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3632900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3421800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3362800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3690900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3293200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8370500</v>
+        <v>2352100</v>
       </c>
       <c r="E89" s="3">
-        <v>-4974000</v>
+        <v>2323000</v>
       </c>
       <c r="F89" s="3">
-        <v>2369500</v>
+        <v>8554700</v>
       </c>
       <c r="G89" s="3">
-        <v>1167300</v>
+        <v>-5083400</v>
       </c>
       <c r="H89" s="3">
-        <v>4621000</v>
+        <v>2421700</v>
       </c>
       <c r="I89" s="3">
+        <v>1193000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4722600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2494500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1862100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1224800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4993100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1771400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3292700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>991900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2878900</v>
+        <v>-2742000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2902000</v>
+        <v>-2800400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2720600</v>
+        <v>-2942200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3315200</v>
+        <v>-2965800</v>
       </c>
       <c r="H91" s="3">
-        <v>-3341300</v>
+        <v>-2780400</v>
       </c>
       <c r="I91" s="3">
+        <v>-3388100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3414800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>3726200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6886900</v>
+        <v>-4903900</v>
       </c>
       <c r="E94" s="3">
-        <v>-12435000</v>
+        <v>-15174600</v>
       </c>
       <c r="F94" s="3">
-        <v>-7273400</v>
+        <v>-7038400</v>
       </c>
       <c r="G94" s="3">
-        <v>-8997200</v>
+        <v>-12708600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2054000</v>
+        <v>-7433500</v>
       </c>
       <c r="I94" s="3">
+        <v>-9195100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2099200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4300</v>
+        <v>-1400</v>
       </c>
       <c r="E96" s="3">
-        <v>-206200</v>
+        <v>-421300</v>
       </c>
       <c r="F96" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-210700</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-216900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-5300</v>
-      </c>
       <c r="I96" s="3">
+        <v>-221600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-212400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-215200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-7400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-209400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-195500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4799,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10587400</v>
+        <v>-1335600</v>
       </c>
       <c r="E100" s="3">
-        <v>9329100</v>
+        <v>8115700</v>
       </c>
       <c r="F100" s="3">
-        <v>-8285300</v>
+        <v>10820300</v>
       </c>
       <c r="G100" s="3">
-        <v>27732000</v>
+        <v>9534300</v>
       </c>
       <c r="H100" s="3">
-        <v>1013100</v>
+        <v>-8467600</v>
       </c>
       <c r="I100" s="3">
+        <v>28342100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1035400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-440900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>15008200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>7083500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>20048900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-235200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1511600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11900</v>
+        <v>-160300</v>
       </c>
       <c r="E101" s="3">
-        <v>-337200</v>
+        <v>513900</v>
       </c>
       <c r="F101" s="3">
-        <v>46400</v>
+        <v>-12200</v>
       </c>
       <c r="G101" s="3">
-        <v>-425000</v>
+        <v>-344600</v>
       </c>
       <c r="H101" s="3">
-        <v>359400</v>
+        <v>47500</v>
       </c>
       <c r="I101" s="3">
+        <v>-434300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>367400</v>
+      </c>
+      <c r="K101" s="3">
         <v>543800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-956200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>92900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>117100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>29700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-233700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1223700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12059100</v>
+        <v>-4047600</v>
       </c>
       <c r="E102" s="3">
-        <v>-8417100</v>
+        <v>-4222000</v>
       </c>
       <c r="F102" s="3">
-        <v>-13142800</v>
+        <v>12324400</v>
       </c>
       <c r="G102" s="3">
-        <v>19477100</v>
+        <v>-8602300</v>
       </c>
       <c r="H102" s="3">
-        <v>3939500</v>
+        <v>-13431900</v>
       </c>
       <c r="I102" s="3">
+        <v>19905600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>4026200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-51800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>19659900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-4926800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -737,22 +737,22 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>22649800</v>
+        <v>23015500</v>
       </c>
       <c r="F8" s="3">
-        <v>21509400</v>
+        <v>21856700</v>
       </c>
       <c r="G8" s="3">
-        <v>21705100</v>
+        <v>22055600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="3">
-        <v>23360600</v>
+        <v>23737800</v>
       </c>
       <c r="J8" s="3">
-        <v>22120100</v>
+        <v>22477300</v>
       </c>
       <c r="K8" s="3">
         <v>20659600</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-5987100</v>
+        <v>-6083800</v>
       </c>
       <c r="E9" s="3">
-        <v>13303400</v>
+        <v>13518200</v>
       </c>
       <c r="F9" s="3">
-        <v>12649700</v>
+        <v>12853900</v>
       </c>
       <c r="G9" s="3">
-        <v>12410100</v>
+        <v>12610500</v>
       </c>
       <c r="H9" s="3">
-        <v>-6179400</v>
+        <v>-6279200</v>
       </c>
       <c r="I9" s="3">
-        <v>14026200</v>
+        <v>14252600</v>
       </c>
       <c r="J9" s="3">
-        <v>13060600</v>
+        <v>13271500</v>
       </c>
       <c r="K9" s="3">
         <v>11968400</v>
@@ -837,22 +837,22 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>9346400</v>
+        <v>9497300</v>
       </c>
       <c r="F10" s="3">
-        <v>8859700</v>
+        <v>9002700</v>
       </c>
       <c r="G10" s="3">
-        <v>9295000</v>
+        <v>9445100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="3">
-        <v>9334500</v>
+        <v>9485200</v>
       </c>
       <c r="J10" s="3">
-        <v>9059500</v>
+        <v>9205800</v>
       </c>
       <c r="K10" s="3">
         <v>8691200</v>
@@ -1004,25 +1004,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10460300</v>
+        <v>10629200</v>
       </c>
       <c r="E14" s="3">
-        <v>-869100</v>
+        <v>-883100</v>
       </c>
       <c r="F14" s="3">
-        <v>8637600</v>
+        <v>8777100</v>
       </c>
       <c r="G14" s="3">
-        <v>-3482900</v>
+        <v>-3539100</v>
       </c>
       <c r="H14" s="3">
-        <v>-4476200</v>
+        <v>-4548500</v>
       </c>
       <c r="I14" s="3">
-        <v>-1167700</v>
+        <v>-1186500</v>
       </c>
       <c r="J14" s="3">
-        <v>-4065500</v>
+        <v>-4131100</v>
       </c>
       <c r="K14" s="3">
         <v>-3647700</v>
@@ -1121,25 +1121,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4081500</v>
+        <v>4147400</v>
       </c>
       <c r="E17" s="3">
-        <v>19913500</v>
+        <v>20235000</v>
       </c>
       <c r="F17" s="3">
-        <v>27787200</v>
+        <v>28235800</v>
       </c>
       <c r="G17" s="3">
-        <v>15306000</v>
+        <v>15553200</v>
       </c>
       <c r="H17" s="3">
-        <v>-12389200</v>
+        <v>-12589200</v>
       </c>
       <c r="I17" s="3">
-        <v>19707500</v>
+        <v>20025700</v>
       </c>
       <c r="J17" s="3">
-        <v>15283300</v>
+        <v>15530100</v>
       </c>
       <c r="K17" s="3">
         <v>14160300</v>
@@ -1174,22 +1174,22 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>2736300</v>
+        <v>2780400</v>
       </c>
       <c r="F18" s="3">
-        <v>-6277800</v>
+        <v>-6379100</v>
       </c>
       <c r="G18" s="3">
-        <v>6399100</v>
+        <v>6502400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="3">
-        <v>3653100</v>
+        <v>3712100</v>
       </c>
       <c r="J18" s="3">
-        <v>6836900</v>
+        <v>6947200</v>
       </c>
       <c r="K18" s="3">
         <v>6499300</v>
@@ -1244,22 +1244,22 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>808400</v>
+        <v>821500</v>
       </c>
       <c r="F20" s="3">
-        <v>2415400</v>
+        <v>2454400</v>
       </c>
       <c r="G20" s="3">
-        <v>10659100</v>
+        <v>10831200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
-        <v>1593900</v>
+        <v>1619600</v>
       </c>
       <c r="J20" s="3">
-        <v>2487100</v>
+        <v>2527300</v>
       </c>
       <c r="K20" s="3">
         <v>52500</v>
@@ -1294,22 +1294,22 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>8538000</v>
+        <v>8675900</v>
       </c>
       <c r="F21" s="3">
-        <v>588900</v>
+        <v>598400</v>
       </c>
       <c r="G21" s="3">
-        <v>21677200</v>
+        <v>22027200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>9239300</v>
+        <v>9388500</v>
       </c>
       <c r="J21" s="3">
-        <v>13219900</v>
+        <v>13433300</v>
       </c>
       <c r="K21" s="3">
         <v>10234600</v>
@@ -1344,22 +1344,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>1422100</v>
+        <v>1445100</v>
       </c>
       <c r="F22" s="3">
-        <v>1390600</v>
+        <v>1413100</v>
       </c>
       <c r="G22" s="3">
-        <v>1429200</v>
+        <v>1452300</v>
       </c>
       <c r="H22" s="3">
-        <v>1434100</v>
+        <v>1457300</v>
       </c>
       <c r="I22" s="3">
-        <v>1459000</v>
+        <v>1482600</v>
       </c>
       <c r="J22" s="3">
-        <v>1615300</v>
+        <v>1641400</v>
       </c>
       <c r="K22" s="3">
         <v>1349600</v>
@@ -1391,25 +1391,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12168800</v>
+        <v>-12365300</v>
       </c>
       <c r="E23" s="3">
-        <v>2122600</v>
+        <v>2156900</v>
       </c>
       <c r="F23" s="3">
-        <v>-5253000</v>
+        <v>-5337800</v>
       </c>
       <c r="G23" s="3">
-        <v>15629000</v>
+        <v>15881300</v>
       </c>
       <c r="H23" s="3">
-        <v>-1181300</v>
+        <v>-1200400</v>
       </c>
       <c r="I23" s="3">
-        <v>3788000</v>
+        <v>3849100</v>
       </c>
       <c r="J23" s="3">
-        <v>7708700</v>
+        <v>7833200</v>
       </c>
       <c r="K23" s="3">
         <v>5202200</v>
@@ -1441,25 +1441,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1010600</v>
+        <v>1026900</v>
       </c>
       <c r="E24" s="3">
-        <v>968100</v>
+        <v>983700</v>
       </c>
       <c r="F24" s="3">
-        <v>741800</v>
+        <v>753800</v>
       </c>
       <c r="G24" s="3">
-        <v>4690200</v>
+        <v>4765900</v>
       </c>
       <c r="H24" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="I24" s="3">
-        <v>-2750200</v>
+        <v>-2794600</v>
       </c>
       <c r="J24" s="3">
-        <v>2668400</v>
+        <v>2711500</v>
       </c>
       <c r="K24" s="3">
         <v>2219600</v>
@@ -1541,25 +1541,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13179400</v>
+        <v>-13392200</v>
       </c>
       <c r="E26" s="3">
-        <v>1154500</v>
+        <v>1173200</v>
       </c>
       <c r="F26" s="3">
-        <v>-5994800</v>
+        <v>-6091600</v>
       </c>
       <c r="G26" s="3">
-        <v>10938800</v>
+        <v>11115400</v>
       </c>
       <c r="H26" s="3">
-        <v>-1196600</v>
+        <v>-1215900</v>
       </c>
       <c r="I26" s="3">
-        <v>6538200</v>
+        <v>6643700</v>
       </c>
       <c r="J26" s="3">
-        <v>5040300</v>
+        <v>5121700</v>
       </c>
       <c r="K26" s="3">
         <v>2982600</v>
@@ -1591,25 +1591,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13075500</v>
+        <v>-13286600</v>
       </c>
       <c r="E27" s="3">
-        <v>437800</v>
+        <v>444900</v>
       </c>
       <c r="F27" s="3">
-        <v>-6575700</v>
+        <v>-6681900</v>
       </c>
       <c r="G27" s="3">
-        <v>10351000</v>
+        <v>10518200</v>
       </c>
       <c r="H27" s="3">
-        <v>-1340200</v>
+        <v>-1361900</v>
       </c>
       <c r="I27" s="3">
-        <v>6414900</v>
+        <v>6518500</v>
       </c>
       <c r="J27" s="3">
-        <v>4805000</v>
+        <v>4882600</v>
       </c>
       <c r="K27" s="3">
         <v>2788300</v>
@@ -1691,7 +1691,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-358200</v>
+        <v>-364000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1703,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>83300</v>
+        <v>84700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1844,22 +1844,22 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-808400</v>
+        <v>-821500</v>
       </c>
       <c r="F32" s="3">
-        <v>-2415400</v>
+        <v>-2454400</v>
       </c>
       <c r="G32" s="3">
-        <v>-10659100</v>
+        <v>-10831200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
-        <v>-1593900</v>
+        <v>-1619600</v>
       </c>
       <c r="J32" s="3">
-        <v>-2487100</v>
+        <v>-2527300</v>
       </c>
       <c r="K32" s="3">
         <v>-52500</v>
@@ -1891,25 +1891,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13433700</v>
+        <v>-13650600</v>
       </c>
       <c r="E33" s="3">
-        <v>437800</v>
+        <v>444900</v>
       </c>
       <c r="F33" s="3">
-        <v>-6575700</v>
+        <v>-6681900</v>
       </c>
       <c r="G33" s="3">
-        <v>10351000</v>
+        <v>10518200</v>
       </c>
       <c r="H33" s="3">
-        <v>-1256900</v>
+        <v>-1277200</v>
       </c>
       <c r="I33" s="3">
-        <v>6414900</v>
+        <v>6518500</v>
       </c>
       <c r="J33" s="3">
-        <v>4805000</v>
+        <v>4882600</v>
       </c>
       <c r="K33" s="3">
         <v>2788300</v>
@@ -1991,25 +1991,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13433700</v>
+        <v>-13650600</v>
       </c>
       <c r="E35" s="3">
-        <v>437800</v>
+        <v>444900</v>
       </c>
       <c r="F35" s="3">
-        <v>-6575700</v>
+        <v>-6681900</v>
       </c>
       <c r="G35" s="3">
-        <v>10351000</v>
+        <v>10518200</v>
       </c>
       <c r="H35" s="3">
-        <v>-1256900</v>
+        <v>-1277200</v>
       </c>
       <c r="I35" s="3">
-        <v>6414900</v>
+        <v>6518500</v>
       </c>
       <c r="J35" s="3">
-        <v>4805000</v>
+        <v>4882600</v>
       </c>
       <c r="K35" s="3">
         <v>2788300</v>
@@ -2136,25 +2136,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31298100</v>
+        <v>31803500</v>
       </c>
       <c r="E41" s="3">
-        <v>35345800</v>
+        <v>35916500</v>
       </c>
       <c r="F41" s="3">
-        <v>39567800</v>
+        <v>40206600</v>
       </c>
       <c r="G41" s="3">
-        <v>27243300</v>
+        <v>27683200</v>
       </c>
       <c r="H41" s="3">
-        <v>35851300</v>
+        <v>36430200</v>
       </c>
       <c r="I41" s="3">
-        <v>49277600</v>
+        <v>50073200</v>
       </c>
       <c r="J41" s="3">
-        <v>29371900</v>
+        <v>29846200</v>
       </c>
       <c r="K41" s="3">
         <v>24800100</v>
@@ -2186,25 +2186,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2912300</v>
+        <v>2959300</v>
       </c>
       <c r="E42" s="3">
-        <v>1398000</v>
+        <v>1420600</v>
       </c>
       <c r="F42" s="3">
-        <v>1676500</v>
+        <v>1703600</v>
       </c>
       <c r="G42" s="3">
-        <v>1782900</v>
+        <v>1811700</v>
       </c>
       <c r="H42" s="3">
-        <v>1884600</v>
+        <v>1915000</v>
       </c>
       <c r="I42" s="3">
-        <v>5680900</v>
+        <v>5772600</v>
       </c>
       <c r="J42" s="3">
-        <v>6053700</v>
+        <v>6151500</v>
       </c>
       <c r="K42" s="3">
         <v>7167800</v>
@@ -2236,25 +2236,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19251900</v>
+        <v>19562800</v>
       </c>
       <c r="E43" s="3">
-        <v>24584900</v>
+        <v>24981900</v>
       </c>
       <c r="F43" s="3">
-        <v>21203600</v>
+        <v>21546000</v>
       </c>
       <c r="G43" s="3">
-        <v>21226400</v>
+        <v>21569100</v>
       </c>
       <c r="H43" s="3">
-        <v>27416800</v>
+        <v>27859400</v>
       </c>
       <c r="I43" s="3">
-        <v>22415900</v>
+        <v>22777800</v>
       </c>
       <c r="J43" s="3">
-        <v>21105400</v>
+        <v>21446200</v>
       </c>
       <c r="K43" s="3">
         <v>20322500</v>
@@ -2286,25 +2286,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1719600</v>
+        <v>1747300</v>
       </c>
       <c r="E44" s="3">
-        <v>3046300</v>
+        <v>3095500</v>
       </c>
       <c r="F44" s="3">
-        <v>2804100</v>
+        <v>2849400</v>
       </c>
       <c r="G44" s="3">
-        <v>2957300</v>
+        <v>3005000</v>
       </c>
       <c r="H44" s="3">
-        <v>3393300</v>
+        <v>3448100</v>
       </c>
       <c r="I44" s="3">
-        <v>3649600</v>
+        <v>3708500</v>
       </c>
       <c r="J44" s="3">
-        <v>3177600</v>
+        <v>3228900</v>
       </c>
       <c r="K44" s="3">
         <v>3016300</v>
@@ -2336,25 +2336,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>90085300</v>
+        <v>91539800</v>
       </c>
       <c r="E45" s="3">
-        <v>5313300</v>
+        <v>5399100</v>
       </c>
       <c r="F45" s="3">
-        <v>3937800</v>
+        <v>4001400</v>
       </c>
       <c r="G45" s="3">
-        <v>8340600</v>
+        <v>8475300</v>
       </c>
       <c r="H45" s="3">
-        <v>3525800</v>
+        <v>3582700</v>
       </c>
       <c r="I45" s="3">
-        <v>2964000</v>
+        <v>3011900</v>
       </c>
       <c r="J45" s="3">
-        <v>2741800</v>
+        <v>2786100</v>
       </c>
       <c r="K45" s="3">
         <v>7241400</v>
@@ -2386,25 +2386,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>145267200</v>
+        <v>147612700</v>
       </c>
       <c r="E46" s="3">
-        <v>69688300</v>
+        <v>70813500</v>
       </c>
       <c r="F46" s="3">
-        <v>69189900</v>
+        <v>70307000</v>
       </c>
       <c r="G46" s="3">
-        <v>61550500</v>
+        <v>62544300</v>
       </c>
       <c r="H46" s="3">
-        <v>72071700</v>
+        <v>73235400</v>
       </c>
       <c r="I46" s="3">
-        <v>83987900</v>
+        <v>85344000</v>
       </c>
       <c r="J46" s="3">
-        <v>62450400</v>
+        <v>63458800</v>
       </c>
       <c r="K46" s="3">
         <v>62548000</v>
@@ -2436,25 +2436,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>52134000</v>
+        <v>52975800</v>
       </c>
       <c r="E47" s="3">
-        <v>56302100</v>
+        <v>57211200</v>
       </c>
       <c r="F47" s="3">
-        <v>48370300</v>
+        <v>49151300</v>
       </c>
       <c r="G47" s="3">
-        <v>46871300</v>
+        <v>47628100</v>
       </c>
       <c r="H47" s="3">
-        <v>42099500</v>
+        <v>42779200</v>
       </c>
       <c r="I47" s="3">
-        <v>43383500</v>
+        <v>44084000</v>
       </c>
       <c r="J47" s="3">
-        <v>62082800</v>
+        <v>63085200</v>
       </c>
       <c r="K47" s="3">
         <v>56022200</v>
@@ -2486,25 +2486,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23765800</v>
+        <v>24149500</v>
       </c>
       <c r="E48" s="3">
-        <v>49224900</v>
+        <v>50019700</v>
       </c>
       <c r="F48" s="3">
-        <v>48269800</v>
+        <v>49049200</v>
       </c>
       <c r="G48" s="3">
-        <v>48559000</v>
+        <v>49343000</v>
       </c>
       <c r="H48" s="3">
-        <v>37816800</v>
+        <v>38427400</v>
       </c>
       <c r="I48" s="3">
-        <v>37972200</v>
+        <v>38585300</v>
       </c>
       <c r="J48" s="3">
-        <v>37981400</v>
+        <v>38594700</v>
       </c>
       <c r="K48" s="3">
         <v>36141000</v>
@@ -2536,25 +2536,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55592700</v>
+        <v>56490300</v>
       </c>
       <c r="E49" s="3">
-        <v>108816500</v>
+        <v>110573500</v>
       </c>
       <c r="F49" s="3">
-        <v>99509200</v>
+        <v>101115900</v>
       </c>
       <c r="G49" s="3">
-        <v>100463200</v>
+        <v>102085300</v>
       </c>
       <c r="H49" s="3">
-        <v>104174900</v>
+        <v>105857000</v>
       </c>
       <c r="I49" s="3">
-        <v>103305500</v>
+        <v>104973500</v>
       </c>
       <c r="J49" s="3">
-        <v>106595000</v>
+        <v>108316200</v>
       </c>
       <c r="K49" s="3">
         <v>101651800</v>
@@ -2686,25 +2686,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69360600</v>
+        <v>70480500</v>
       </c>
       <c r="E52" s="3">
-        <v>82054000</v>
+        <v>83378900</v>
       </c>
       <c r="F52" s="3">
-        <v>76985300</v>
+        <v>78228300</v>
       </c>
       <c r="G52" s="3">
-        <v>82448900</v>
+        <v>83780200</v>
       </c>
       <c r="H52" s="3">
-        <v>79173300</v>
+        <v>80451700</v>
       </c>
       <c r="I52" s="3">
-        <v>70059400</v>
+        <v>71190600</v>
       </c>
       <c r="J52" s="3">
-        <v>44962500</v>
+        <v>45688500</v>
       </c>
       <c r="K52" s="3">
         <v>36956300</v>
@@ -2786,25 +2786,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>346120200</v>
+        <v>351708800</v>
       </c>
       <c r="E54" s="3">
-        <v>366085800</v>
+        <v>371996800</v>
       </c>
       <c r="F54" s="3">
-        <v>342324400</v>
+        <v>347851700</v>
       </c>
       <c r="G54" s="3">
-        <v>339892900</v>
+        <v>345380900</v>
       </c>
       <c r="H54" s="3">
-        <v>335336300</v>
+        <v>340750700</v>
       </c>
       <c r="I54" s="3">
-        <v>338708500</v>
+        <v>344177500</v>
       </c>
       <c r="J54" s="3">
-        <v>314072200</v>
+        <v>319143300</v>
       </c>
       <c r="K54" s="3">
         <v>293319400</v>
@@ -2876,25 +2876,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14727700</v>
+        <v>14965500</v>
       </c>
       <c r="E57" s="3">
-        <v>18700000</v>
+        <v>19001900</v>
       </c>
       <c r="F57" s="3">
-        <v>16293100</v>
+        <v>16556200</v>
       </c>
       <c r="G57" s="3">
-        <v>16284500</v>
+        <v>16547400</v>
       </c>
       <c r="H57" s="3">
-        <v>15770300</v>
+        <v>16024900</v>
       </c>
       <c r="I57" s="3">
-        <v>17306600</v>
+        <v>17586000</v>
       </c>
       <c r="J57" s="3">
-        <v>16844900</v>
+        <v>17116900</v>
       </c>
       <c r="K57" s="3">
         <v>15159300</v>
@@ -2926,25 +2926,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39236600</v>
+        <v>39870200</v>
       </c>
       <c r="E58" s="3">
-        <v>37955700</v>
+        <v>38568500</v>
       </c>
       <c r="F58" s="3">
-        <v>36175900</v>
+        <v>36760000</v>
       </c>
       <c r="G58" s="3">
-        <v>36220500</v>
+        <v>36805300</v>
       </c>
       <c r="H58" s="3">
-        <v>32338100</v>
+        <v>32860300</v>
       </c>
       <c r="I58" s="3">
-        <v>39544600</v>
+        <v>40183100</v>
       </c>
       <c r="J58" s="3">
-        <v>46194100</v>
+        <v>46940000</v>
       </c>
       <c r="K58" s="3">
         <v>37659800</v>
@@ -2976,25 +2976,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>77871300</v>
+        <v>79128600</v>
       </c>
       <c r="E59" s="3">
-        <v>18473600</v>
+        <v>18771900</v>
       </c>
       <c r="F59" s="3">
-        <v>16800700</v>
+        <v>17071900</v>
       </c>
       <c r="G59" s="3">
-        <v>16388800</v>
+        <v>16653500</v>
       </c>
       <c r="H59" s="3">
-        <v>32544600</v>
+        <v>33070000</v>
       </c>
       <c r="I59" s="3">
-        <v>22552500</v>
+        <v>22916600</v>
       </c>
       <c r="J59" s="3">
-        <v>21901200</v>
+        <v>22254800</v>
       </c>
       <c r="K59" s="3">
         <v>21746600</v>
@@ -3026,25 +3026,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>131835600</v>
+        <v>133964300</v>
       </c>
       <c r="E60" s="3">
-        <v>75129200</v>
+        <v>76342200</v>
       </c>
       <c r="F60" s="3">
-        <v>69269700</v>
+        <v>70388100</v>
       </c>
       <c r="G60" s="3">
-        <v>68893900</v>
+        <v>70006200</v>
       </c>
       <c r="H60" s="3">
-        <v>80653000</v>
+        <v>81955200</v>
       </c>
       <c r="I60" s="3">
-        <v>79403700</v>
+        <v>80685800</v>
       </c>
       <c r="J60" s="3">
-        <v>84940200</v>
+        <v>86311700</v>
       </c>
       <c r="K60" s="3">
         <v>74565700</v>
@@ -3076,25 +3076,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>93352200</v>
+        <v>94859500</v>
       </c>
       <c r="E61" s="3">
-        <v>140876900</v>
+        <v>143151600</v>
       </c>
       <c r="F61" s="3">
-        <v>131867300</v>
+        <v>133996400</v>
       </c>
       <c r="G61" s="3">
-        <v>124771100</v>
+        <v>126785700</v>
       </c>
       <c r="H61" s="3">
-        <v>113376500</v>
+        <v>115207100</v>
       </c>
       <c r="I61" s="3">
-        <v>118885000</v>
+        <v>120804600</v>
       </c>
       <c r="J61" s="3">
-        <v>120912200</v>
+        <v>122864500</v>
       </c>
       <c r="K61" s="3">
         <v>120042200</v>
@@ -3126,25 +3126,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>52438100</v>
+        <v>53284700</v>
       </c>
       <c r="E62" s="3">
-        <v>64691400</v>
+        <v>65735900</v>
       </c>
       <c r="F62" s="3">
-        <v>61074000</v>
+        <v>62060100</v>
       </c>
       <c r="G62" s="3">
-        <v>58480800</v>
+        <v>59425000</v>
       </c>
       <c r="H62" s="3">
-        <v>57611300</v>
+        <v>58541500</v>
       </c>
       <c r="I62" s="3">
-        <v>54149300</v>
+        <v>55023600</v>
       </c>
       <c r="J62" s="3">
-        <v>40002000</v>
+        <v>40647900</v>
       </c>
       <c r="K62" s="3">
         <v>36707000</v>
@@ -3326,25 +3326,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>291182800</v>
+        <v>295884300</v>
       </c>
       <c r="E66" s="3">
-        <v>294516400</v>
+        <v>299271800</v>
       </c>
       <c r="F66" s="3">
-        <v>274393400</v>
+        <v>278823900</v>
       </c>
       <c r="G66" s="3">
-        <v>263830400</v>
+        <v>268090300</v>
       </c>
       <c r="H66" s="3">
-        <v>264532700</v>
+        <v>268804000</v>
       </c>
       <c r="I66" s="3">
-        <v>265201900</v>
+        <v>269484000</v>
       </c>
       <c r="J66" s="3">
-        <v>255126800</v>
+        <v>259246200</v>
       </c>
       <c r="K66" s="3">
         <v>241599300</v>
@@ -3596,25 +3596,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36656700</v>
+        <v>37248500</v>
       </c>
       <c r="E72" s="3">
-        <v>50266100</v>
+        <v>51077700</v>
       </c>
       <c r="F72" s="3">
-        <v>50097600</v>
+        <v>50906500</v>
       </c>
       <c r="G72" s="3">
-        <v>56920700</v>
+        <v>57839800</v>
       </c>
       <c r="H72" s="3">
-        <v>51757200</v>
+        <v>52592900</v>
       </c>
       <c r="I72" s="3">
-        <v>53090500</v>
+        <v>53947700</v>
       </c>
       <c r="J72" s="3">
-        <v>46832600</v>
+        <v>47588800</v>
       </c>
       <c r="K72" s="3">
         <v>41186600</v>
@@ -3796,25 +3796,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54937500</v>
+        <v>55824500</v>
       </c>
       <c r="E76" s="3">
-        <v>71569400</v>
+        <v>72725000</v>
       </c>
       <c r="F76" s="3">
-        <v>67931000</v>
+        <v>69027900</v>
       </c>
       <c r="G76" s="3">
-        <v>76062500</v>
+        <v>77290600</v>
       </c>
       <c r="H76" s="3">
-        <v>70803600</v>
+        <v>71946800</v>
       </c>
       <c r="I76" s="3">
-        <v>73506600</v>
+        <v>74693500</v>
       </c>
       <c r="J76" s="3">
-        <v>58945400</v>
+        <v>59897100</v>
       </c>
       <c r="K76" s="3">
         <v>51720100</v>
@@ -3951,25 +3951,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13433700</v>
+        <v>-13650600</v>
       </c>
       <c r="E81" s="3">
-        <v>437800</v>
+        <v>444900</v>
       </c>
       <c r="F81" s="3">
-        <v>-6575700</v>
+        <v>-6681900</v>
       </c>
       <c r="G81" s="3">
-        <v>10351000</v>
+        <v>10518200</v>
       </c>
       <c r="H81" s="3">
-        <v>-1256900</v>
+        <v>-1277200</v>
       </c>
       <c r="I81" s="3">
-        <v>6414900</v>
+        <v>6518500</v>
       </c>
       <c r="J81" s="3">
-        <v>4805000</v>
+        <v>4882600</v>
       </c>
       <c r="K81" s="3">
         <v>2788300</v>
@@ -4021,25 +4021,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4994600</v>
+        <v>5075200</v>
       </c>
       <c r="E83" s="3">
-        <v>4993400</v>
+        <v>5074000</v>
       </c>
       <c r="F83" s="3">
-        <v>4451300</v>
+        <v>4523200</v>
       </c>
       <c r="G83" s="3">
-        <v>4619000</v>
+        <v>4693500</v>
       </c>
       <c r="H83" s="3">
-        <v>4086900</v>
+        <v>4152900</v>
       </c>
       <c r="I83" s="3">
-        <v>3992300</v>
+        <v>4056800</v>
       </c>
       <c r="J83" s="3">
-        <v>3895900</v>
+        <v>3958800</v>
       </c>
       <c r="K83" s="3">
         <v>3682800</v>
@@ -4321,25 +4321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2352100</v>
+        <v>2390100</v>
       </c>
       <c r="E89" s="3">
-        <v>2323000</v>
+        <v>2360500</v>
       </c>
       <c r="F89" s="3">
-        <v>8554700</v>
+        <v>8692800</v>
       </c>
       <c r="G89" s="3">
-        <v>-5083400</v>
+        <v>-5165500</v>
       </c>
       <c r="H89" s="3">
-        <v>2421700</v>
+        <v>2460800</v>
       </c>
       <c r="I89" s="3">
-        <v>1193000</v>
+        <v>1212200</v>
       </c>
       <c r="J89" s="3">
-        <v>4722600</v>
+        <v>4798900</v>
       </c>
       <c r="K89" s="3">
         <v>2494500</v>
@@ -4391,25 +4391,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2742000</v>
+        <v>-2786200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2800400</v>
+        <v>-2845700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2942200</v>
+        <v>-2989700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2965800</v>
+        <v>-3013700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2780400</v>
+        <v>-2825300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3388100</v>
+        <v>-3442800</v>
       </c>
       <c r="J91" s="3">
-        <v>-3414800</v>
+        <v>-3469900</v>
       </c>
       <c r="K91" s="3">
         <v>-3030400</v>
@@ -4541,25 +4541,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4903900</v>
+        <v>-4983000</v>
       </c>
       <c r="E94" s="3">
-        <v>-15174600</v>
+        <v>-15419600</v>
       </c>
       <c r="F94" s="3">
-        <v>-7038400</v>
+        <v>-7152000</v>
       </c>
       <c r="G94" s="3">
-        <v>-12708600</v>
+        <v>-12913800</v>
       </c>
       <c r="H94" s="3">
-        <v>-7433500</v>
+        <v>-7553500</v>
       </c>
       <c r="I94" s="3">
-        <v>-9195100</v>
+        <v>-9343600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2099200</v>
+        <v>-2133100</v>
       </c>
       <c r="K94" s="3">
         <v>-8109300</v>
@@ -4614,22 +4614,22 @@
         <v>-1400</v>
       </c>
       <c r="E96" s="3">
-        <v>-421300</v>
+        <v>-428100</v>
       </c>
       <c r="F96" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="G96" s="3">
-        <v>-210700</v>
+        <v>-214100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="I96" s="3">
-        <v>-221600</v>
+        <v>-225200</v>
       </c>
       <c r="J96" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="K96" s="3">
         <v>-212400</v>
@@ -4811,25 +4811,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1335600</v>
+        <v>-1357200</v>
       </c>
       <c r="E100" s="3">
-        <v>8115700</v>
+        <v>8246800</v>
       </c>
       <c r="F100" s="3">
-        <v>10820300</v>
+        <v>10995000</v>
       </c>
       <c r="G100" s="3">
-        <v>9534300</v>
+        <v>9688300</v>
       </c>
       <c r="H100" s="3">
-        <v>-8467600</v>
+        <v>-8604300</v>
       </c>
       <c r="I100" s="3">
-        <v>28342100</v>
+        <v>28799800</v>
       </c>
       <c r="J100" s="3">
-        <v>1035400</v>
+        <v>1052100</v>
       </c>
       <c r="K100" s="3">
         <v>-440900</v>
@@ -4861,25 +4861,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-160300</v>
+        <v>-162900</v>
       </c>
       <c r="E101" s="3">
-        <v>513900</v>
+        <v>522200</v>
       </c>
       <c r="F101" s="3">
-        <v>-12200</v>
+        <v>-12400</v>
       </c>
       <c r="G101" s="3">
-        <v>-344600</v>
+        <v>-350200</v>
       </c>
       <c r="H101" s="3">
-        <v>47500</v>
+        <v>48200</v>
       </c>
       <c r="I101" s="3">
-        <v>-434300</v>
+        <v>-441300</v>
       </c>
       <c r="J101" s="3">
-        <v>367400</v>
+        <v>373300</v>
       </c>
       <c r="K101" s="3">
         <v>543800</v>
@@ -4911,25 +4911,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4047600</v>
+        <v>-4113000</v>
       </c>
       <c r="E102" s="3">
-        <v>-4222000</v>
+        <v>-4290200</v>
       </c>
       <c r="F102" s="3">
-        <v>12324400</v>
+        <v>12523400</v>
       </c>
       <c r="G102" s="3">
-        <v>-8602300</v>
+        <v>-8741200</v>
       </c>
       <c r="H102" s="3">
-        <v>-13431900</v>
+        <v>-13648800</v>
       </c>
       <c r="I102" s="3">
-        <v>19905600</v>
+        <v>20227000</v>
       </c>
       <c r="J102" s="3">
-        <v>4026200</v>
+        <v>4091200</v>
       </c>
       <c r="K102" s="3">
         <v>-5511900</v>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -737,22 +737,22 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>23015500</v>
+        <v>23429900</v>
       </c>
       <c r="F8" s="3">
-        <v>21856700</v>
+        <v>22250300</v>
       </c>
       <c r="G8" s="3">
-        <v>22055600</v>
+        <v>22452800</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="3">
-        <v>23737800</v>
+        <v>24165300</v>
       </c>
       <c r="J8" s="3">
-        <v>22477300</v>
+        <v>22882100</v>
       </c>
       <c r="K8" s="3">
         <v>20659600</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-6083800</v>
+        <v>-6193300</v>
       </c>
       <c r="E9" s="3">
-        <v>13518200</v>
+        <v>13761600</v>
       </c>
       <c r="F9" s="3">
-        <v>12853900</v>
+        <v>13085400</v>
       </c>
       <c r="G9" s="3">
-        <v>12610500</v>
+        <v>12837600</v>
       </c>
       <c r="H9" s="3">
-        <v>-6279200</v>
+        <v>-6392300</v>
       </c>
       <c r="I9" s="3">
-        <v>14252600</v>
+        <v>14509300</v>
       </c>
       <c r="J9" s="3">
-        <v>13271500</v>
+        <v>13510500</v>
       </c>
       <c r="K9" s="3">
         <v>11968400</v>
@@ -837,22 +837,22 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>9497300</v>
+        <v>9668400</v>
       </c>
       <c r="F10" s="3">
-        <v>9002700</v>
+        <v>9164900</v>
       </c>
       <c r="G10" s="3">
-        <v>9445100</v>
+        <v>9615200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="3">
-        <v>9485200</v>
+        <v>9656000</v>
       </c>
       <c r="J10" s="3">
-        <v>9205800</v>
+        <v>9371600</v>
       </c>
       <c r="K10" s="3">
         <v>8691200</v>
@@ -1004,25 +1004,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10629200</v>
+        <v>10820600</v>
       </c>
       <c r="E14" s="3">
-        <v>-883100</v>
+        <v>-899000</v>
       </c>
       <c r="F14" s="3">
-        <v>8777100</v>
+        <v>8935200</v>
       </c>
       <c r="G14" s="3">
-        <v>-3539100</v>
+        <v>-3602800</v>
       </c>
       <c r="H14" s="3">
-        <v>-4548500</v>
+        <v>-4630400</v>
       </c>
       <c r="I14" s="3">
-        <v>-1186500</v>
+        <v>-1207900</v>
       </c>
       <c r="J14" s="3">
-        <v>-4131100</v>
+        <v>-4205500</v>
       </c>
       <c r="K14" s="3">
         <v>-3647700</v>
@@ -1121,25 +1121,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4147400</v>
+        <v>4222100</v>
       </c>
       <c r="E17" s="3">
-        <v>20235000</v>
+        <v>20599400</v>
       </c>
       <c r="F17" s="3">
-        <v>28235800</v>
+        <v>28744300</v>
       </c>
       <c r="G17" s="3">
-        <v>15553200</v>
+        <v>15833300</v>
       </c>
       <c r="H17" s="3">
-        <v>-12589200</v>
+        <v>-12815900</v>
       </c>
       <c r="I17" s="3">
-        <v>20025700</v>
+        <v>20386300</v>
       </c>
       <c r="J17" s="3">
-        <v>15530100</v>
+        <v>15809700</v>
       </c>
       <c r="K17" s="3">
         <v>14160300</v>
@@ -1174,22 +1174,22 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>2780400</v>
+        <v>2830500</v>
       </c>
       <c r="F18" s="3">
-        <v>-6379100</v>
+        <v>-6494000</v>
       </c>
       <c r="G18" s="3">
-        <v>6502400</v>
+        <v>6619500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="3">
-        <v>3712100</v>
+        <v>3779000</v>
       </c>
       <c r="J18" s="3">
-        <v>6947200</v>
+        <v>7072400</v>
       </c>
       <c r="K18" s="3">
         <v>6499300</v>
@@ -1244,22 +1244,22 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>821500</v>
+        <v>836300</v>
       </c>
       <c r="F20" s="3">
-        <v>2454400</v>
+        <v>2498600</v>
       </c>
       <c r="G20" s="3">
-        <v>10831200</v>
+        <v>11026300</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
-        <v>1619600</v>
+        <v>1648800</v>
       </c>
       <c r="J20" s="3">
-        <v>2527300</v>
+        <v>2572800</v>
       </c>
       <c r="K20" s="3">
         <v>52500</v>
@@ -1294,22 +1294,22 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>8675900</v>
+        <v>8832100</v>
       </c>
       <c r="F21" s="3">
-        <v>598400</v>
+        <v>609200</v>
       </c>
       <c r="G21" s="3">
-        <v>22027200</v>
+        <v>22423900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>9388500</v>
+        <v>9557600</v>
       </c>
       <c r="J21" s="3">
-        <v>13433300</v>
+        <v>13675300</v>
       </c>
       <c r="K21" s="3">
         <v>10234600</v>
@@ -1344,22 +1344,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>1445100</v>
+        <v>1471100</v>
       </c>
       <c r="F22" s="3">
-        <v>1413100</v>
+        <v>1438500</v>
       </c>
       <c r="G22" s="3">
-        <v>1452300</v>
+        <v>1478500</v>
       </c>
       <c r="H22" s="3">
-        <v>1457300</v>
+        <v>1483500</v>
       </c>
       <c r="I22" s="3">
-        <v>1482600</v>
+        <v>1509300</v>
       </c>
       <c r="J22" s="3">
-        <v>1641400</v>
+        <v>1670900</v>
       </c>
       <c r="K22" s="3">
         <v>1349600</v>
@@ -1391,25 +1391,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12365300</v>
+        <v>-12588000</v>
       </c>
       <c r="E23" s="3">
-        <v>2156900</v>
+        <v>2195700</v>
       </c>
       <c r="F23" s="3">
-        <v>-5337800</v>
+        <v>-5433900</v>
       </c>
       <c r="G23" s="3">
-        <v>15881300</v>
+        <v>16167300</v>
       </c>
       <c r="H23" s="3">
-        <v>-1200400</v>
+        <v>-1222000</v>
       </c>
       <c r="I23" s="3">
-        <v>3849100</v>
+        <v>3918400</v>
       </c>
       <c r="J23" s="3">
-        <v>7833200</v>
+        <v>7974200</v>
       </c>
       <c r="K23" s="3">
         <v>5202200</v>
@@ -1441,25 +1441,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1026900</v>
+        <v>1045400</v>
       </c>
       <c r="E24" s="3">
-        <v>983700</v>
+        <v>1001400</v>
       </c>
       <c r="F24" s="3">
-        <v>753800</v>
+        <v>767300</v>
       </c>
       <c r="G24" s="3">
-        <v>4765900</v>
+        <v>4851800</v>
       </c>
       <c r="H24" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="I24" s="3">
-        <v>-2794600</v>
+        <v>-2845000</v>
       </c>
       <c r="J24" s="3">
-        <v>2711500</v>
+        <v>2760300</v>
       </c>
       <c r="K24" s="3">
         <v>2219600</v>
@@ -1541,25 +1541,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13392200</v>
+        <v>-13633400</v>
       </c>
       <c r="E26" s="3">
-        <v>1173200</v>
+        <v>1194300</v>
       </c>
       <c r="F26" s="3">
-        <v>-6091600</v>
+        <v>-6201300</v>
       </c>
       <c r="G26" s="3">
-        <v>11115400</v>
+        <v>11315600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1215900</v>
+        <v>-1237800</v>
       </c>
       <c r="I26" s="3">
-        <v>6643700</v>
+        <v>6763400</v>
       </c>
       <c r="J26" s="3">
-        <v>5121700</v>
+        <v>5213900</v>
       </c>
       <c r="K26" s="3">
         <v>2982600</v>
@@ -1591,25 +1591,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13286600</v>
+        <v>-13525900</v>
       </c>
       <c r="E27" s="3">
-        <v>444900</v>
+        <v>452900</v>
       </c>
       <c r="F27" s="3">
-        <v>-6681900</v>
+        <v>-6802200</v>
       </c>
       <c r="G27" s="3">
-        <v>10518200</v>
+        <v>10707600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1361900</v>
+        <v>-1386400</v>
       </c>
       <c r="I27" s="3">
-        <v>6518500</v>
+        <v>6635900</v>
       </c>
       <c r="J27" s="3">
-        <v>4882600</v>
+        <v>4970500</v>
       </c>
       <c r="K27" s="3">
         <v>2788300</v>
@@ -1691,7 +1691,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-364000</v>
+        <v>-370500</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1703,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>84700</v>
+        <v>86200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1844,22 +1844,22 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-821500</v>
+        <v>-836300</v>
       </c>
       <c r="F32" s="3">
-        <v>-2454400</v>
+        <v>-2498600</v>
       </c>
       <c r="G32" s="3">
-        <v>-10831200</v>
+        <v>-11026300</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
-        <v>-1619600</v>
+        <v>-1648800</v>
       </c>
       <c r="J32" s="3">
-        <v>-2527300</v>
+        <v>-2572800</v>
       </c>
       <c r="K32" s="3">
         <v>-52500</v>
@@ -1891,25 +1891,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13650600</v>
+        <v>-13896400</v>
       </c>
       <c r="E33" s="3">
-        <v>444900</v>
+        <v>452900</v>
       </c>
       <c r="F33" s="3">
-        <v>-6681900</v>
+        <v>-6802200</v>
       </c>
       <c r="G33" s="3">
-        <v>10518200</v>
+        <v>10707600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1277200</v>
+        <v>-1300200</v>
       </c>
       <c r="I33" s="3">
-        <v>6518500</v>
+        <v>6635900</v>
       </c>
       <c r="J33" s="3">
-        <v>4882600</v>
+        <v>4970500</v>
       </c>
       <c r="K33" s="3">
         <v>2788300</v>
@@ -1991,25 +1991,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13650600</v>
+        <v>-13896400</v>
       </c>
       <c r="E35" s="3">
-        <v>444900</v>
+        <v>452900</v>
       </c>
       <c r="F35" s="3">
-        <v>-6681900</v>
+        <v>-6802200</v>
       </c>
       <c r="G35" s="3">
-        <v>10518200</v>
+        <v>10707600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1277200</v>
+        <v>-1300200</v>
       </c>
       <c r="I35" s="3">
-        <v>6518500</v>
+        <v>6635900</v>
       </c>
       <c r="J35" s="3">
-        <v>4882600</v>
+        <v>4970500</v>
       </c>
       <c r="K35" s="3">
         <v>2788300</v>
@@ -2136,25 +2136,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31803500</v>
+        <v>32376200</v>
       </c>
       <c r="E41" s="3">
-        <v>35916500</v>
+        <v>36563300</v>
       </c>
       <c r="F41" s="3">
-        <v>40206600</v>
+        <v>40930700</v>
       </c>
       <c r="G41" s="3">
-        <v>27683200</v>
+        <v>28181700</v>
       </c>
       <c r="H41" s="3">
-        <v>36430200</v>
+        <v>37086300</v>
       </c>
       <c r="I41" s="3">
-        <v>50073200</v>
+        <v>50975000</v>
       </c>
       <c r="J41" s="3">
-        <v>29846200</v>
+        <v>30383700</v>
       </c>
       <c r="K41" s="3">
         <v>24800100</v>
@@ -2186,25 +2186,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2959300</v>
+        <v>3012600</v>
       </c>
       <c r="E42" s="3">
-        <v>1420600</v>
+        <v>1446200</v>
       </c>
       <c r="F42" s="3">
-        <v>1703600</v>
+        <v>1734300</v>
       </c>
       <c r="G42" s="3">
-        <v>1811700</v>
+        <v>1844400</v>
       </c>
       <c r="H42" s="3">
-        <v>1915000</v>
+        <v>1949500</v>
       </c>
       <c r="I42" s="3">
-        <v>5772600</v>
+        <v>5876500</v>
       </c>
       <c r="J42" s="3">
-        <v>6151500</v>
+        <v>6262300</v>
       </c>
       <c r="K42" s="3">
         <v>7167800</v>
@@ -2236,25 +2236,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19562800</v>
+        <v>19915100</v>
       </c>
       <c r="E43" s="3">
-        <v>24981900</v>
+        <v>25431800</v>
       </c>
       <c r="F43" s="3">
-        <v>21546000</v>
+        <v>21934000</v>
       </c>
       <c r="G43" s="3">
-        <v>21569100</v>
+        <v>21957500</v>
       </c>
       <c r="H43" s="3">
-        <v>27859400</v>
+        <v>28361100</v>
       </c>
       <c r="I43" s="3">
-        <v>22777800</v>
+        <v>23188000</v>
       </c>
       <c r="J43" s="3">
-        <v>21446200</v>
+        <v>21832400</v>
       </c>
       <c r="K43" s="3">
         <v>20322500</v>
@@ -2286,25 +2286,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1747300</v>
+        <v>1778800</v>
       </c>
       <c r="E44" s="3">
-        <v>3095500</v>
+        <v>3151200</v>
       </c>
       <c r="F44" s="3">
-        <v>2849400</v>
+        <v>2900700</v>
       </c>
       <c r="G44" s="3">
-        <v>3005000</v>
+        <v>3059100</v>
       </c>
       <c r="H44" s="3">
-        <v>3448100</v>
+        <v>3510100</v>
       </c>
       <c r="I44" s="3">
-        <v>3708500</v>
+        <v>3775300</v>
       </c>
       <c r="J44" s="3">
-        <v>3228900</v>
+        <v>3287000</v>
       </c>
       <c r="K44" s="3">
         <v>3016300</v>
@@ -2336,25 +2336,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>91539800</v>
+        <v>93188300</v>
       </c>
       <c r="E45" s="3">
-        <v>5399100</v>
+        <v>5496300</v>
       </c>
       <c r="F45" s="3">
-        <v>4001400</v>
+        <v>4073500</v>
       </c>
       <c r="G45" s="3">
-        <v>8475300</v>
+        <v>8627900</v>
       </c>
       <c r="H45" s="3">
-        <v>3582700</v>
+        <v>3647200</v>
       </c>
       <c r="I45" s="3">
-        <v>3011900</v>
+        <v>3066100</v>
       </c>
       <c r="J45" s="3">
-        <v>2786100</v>
+        <v>2836200</v>
       </c>
       <c r="K45" s="3">
         <v>7241400</v>
@@ -2386,25 +2386,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>147612700</v>
+        <v>150271000</v>
       </c>
       <c r="E46" s="3">
-        <v>70813500</v>
+        <v>72088800</v>
       </c>
       <c r="F46" s="3">
-        <v>70307000</v>
+        <v>71573100</v>
       </c>
       <c r="G46" s="3">
-        <v>62544300</v>
+        <v>63670600</v>
       </c>
       <c r="H46" s="3">
-        <v>73235400</v>
+        <v>74554300</v>
       </c>
       <c r="I46" s="3">
-        <v>85344000</v>
+        <v>86880900</v>
       </c>
       <c r="J46" s="3">
-        <v>63458800</v>
+        <v>64601600</v>
       </c>
       <c r="K46" s="3">
         <v>62548000</v>
@@ -2436,25 +2436,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>52975800</v>
+        <v>53929800</v>
       </c>
       <c r="E47" s="3">
-        <v>57211200</v>
+        <v>58241500</v>
       </c>
       <c r="F47" s="3">
-        <v>49151300</v>
+        <v>50036500</v>
       </c>
       <c r="G47" s="3">
-        <v>47628100</v>
+        <v>48485800</v>
       </c>
       <c r="H47" s="3">
-        <v>42779200</v>
+        <v>43549600</v>
       </c>
       <c r="I47" s="3">
-        <v>44084000</v>
+        <v>44877900</v>
       </c>
       <c r="J47" s="3">
-        <v>63085200</v>
+        <v>64221300</v>
       </c>
       <c r="K47" s="3">
         <v>56022200</v>
@@ -2486,25 +2486,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24149500</v>
+        <v>24584400</v>
       </c>
       <c r="E48" s="3">
-        <v>50019700</v>
+        <v>50920500</v>
       </c>
       <c r="F48" s="3">
-        <v>49049200</v>
+        <v>49932500</v>
       </c>
       <c r="G48" s="3">
-        <v>49343000</v>
+        <v>50231600</v>
       </c>
       <c r="H48" s="3">
-        <v>38427400</v>
+        <v>39119500</v>
       </c>
       <c r="I48" s="3">
-        <v>38585300</v>
+        <v>39280200</v>
       </c>
       <c r="J48" s="3">
-        <v>38594700</v>
+        <v>39289700</v>
       </c>
       <c r="K48" s="3">
         <v>36141000</v>
@@ -2536,25 +2536,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56490300</v>
+        <v>57507600</v>
       </c>
       <c r="E49" s="3">
-        <v>110573500</v>
+        <v>112564800</v>
       </c>
       <c r="F49" s="3">
-        <v>101115900</v>
+        <v>102936800</v>
       </c>
       <c r="G49" s="3">
-        <v>102085300</v>
+        <v>103923700</v>
       </c>
       <c r="H49" s="3">
-        <v>105857000</v>
+        <v>107763300</v>
       </c>
       <c r="I49" s="3">
-        <v>104973500</v>
+        <v>106864000</v>
       </c>
       <c r="J49" s="3">
-        <v>108316200</v>
+        <v>110266800</v>
       </c>
       <c r="K49" s="3">
         <v>101651800</v>
@@ -2686,25 +2686,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70480500</v>
+        <v>71749800</v>
       </c>
       <c r="E52" s="3">
-        <v>83378900</v>
+        <v>84880400</v>
       </c>
       <c r="F52" s="3">
-        <v>78228300</v>
+        <v>79637100</v>
       </c>
       <c r="G52" s="3">
-        <v>83780200</v>
+        <v>85288900</v>
       </c>
       <c r="H52" s="3">
-        <v>80451700</v>
+        <v>81900500</v>
       </c>
       <c r="I52" s="3">
-        <v>71190600</v>
+        <v>72472600</v>
       </c>
       <c r="J52" s="3">
-        <v>45688500</v>
+        <v>46511300</v>
       </c>
       <c r="K52" s="3">
         <v>36956300</v>
@@ -2786,25 +2786,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>351708800</v>
+        <v>358042600</v>
       </c>
       <c r="E54" s="3">
-        <v>371996800</v>
+        <v>378695900</v>
       </c>
       <c r="F54" s="3">
-        <v>347851700</v>
+        <v>354116000</v>
       </c>
       <c r="G54" s="3">
-        <v>345380900</v>
+        <v>351600700</v>
       </c>
       <c r="H54" s="3">
-        <v>340750700</v>
+        <v>346887100</v>
       </c>
       <c r="I54" s="3">
-        <v>344177500</v>
+        <v>350375600</v>
       </c>
       <c r="J54" s="3">
-        <v>319143300</v>
+        <v>324890600</v>
       </c>
       <c r="K54" s="3">
         <v>293319400</v>
@@ -2876,25 +2876,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14965500</v>
+        <v>15235000</v>
       </c>
       <c r="E57" s="3">
-        <v>19001900</v>
+        <v>19344100</v>
       </c>
       <c r="F57" s="3">
-        <v>16556200</v>
+        <v>16854300</v>
       </c>
       <c r="G57" s="3">
-        <v>16547400</v>
+        <v>16845400</v>
       </c>
       <c r="H57" s="3">
-        <v>16024900</v>
+        <v>16313500</v>
       </c>
       <c r="I57" s="3">
-        <v>17586000</v>
+        <v>17902700</v>
       </c>
       <c r="J57" s="3">
-        <v>17116900</v>
+        <v>17425100</v>
       </c>
       <c r="K57" s="3">
         <v>15159300</v>
@@ -2926,25 +2926,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39870200</v>
+        <v>40588200</v>
       </c>
       <c r="E58" s="3">
-        <v>38568500</v>
+        <v>39263100</v>
       </c>
       <c r="F58" s="3">
-        <v>36760000</v>
+        <v>37422000</v>
       </c>
       <c r="G58" s="3">
-        <v>36805300</v>
+        <v>37468200</v>
       </c>
       <c r="H58" s="3">
-        <v>32860300</v>
+        <v>33452000</v>
       </c>
       <c r="I58" s="3">
-        <v>40183100</v>
+        <v>40906800</v>
       </c>
       <c r="J58" s="3">
-        <v>46940000</v>
+        <v>47785300</v>
       </c>
       <c r="K58" s="3">
         <v>37659800</v>
@@ -2976,25 +2976,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79128600</v>
+        <v>80553600</v>
       </c>
       <c r="E59" s="3">
-        <v>18771900</v>
+        <v>19109900</v>
       </c>
       <c r="F59" s="3">
-        <v>17071900</v>
+        <v>17379400</v>
       </c>
       <c r="G59" s="3">
-        <v>16653500</v>
+        <v>16953400</v>
       </c>
       <c r="H59" s="3">
-        <v>33070000</v>
+        <v>33665600</v>
       </c>
       <c r="I59" s="3">
-        <v>22916600</v>
+        <v>23329300</v>
       </c>
       <c r="J59" s="3">
-        <v>22254800</v>
+        <v>22655600</v>
       </c>
       <c r="K59" s="3">
         <v>21746600</v>
@@ -3026,25 +3026,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>133964300</v>
+        <v>136376800</v>
       </c>
       <c r="E60" s="3">
-        <v>76342200</v>
+        <v>77717100</v>
       </c>
       <c r="F60" s="3">
-        <v>70388100</v>
+        <v>71655700</v>
       </c>
       <c r="G60" s="3">
-        <v>70006200</v>
+        <v>71267000</v>
       </c>
       <c r="H60" s="3">
-        <v>81955200</v>
+        <v>83431100</v>
       </c>
       <c r="I60" s="3">
-        <v>80685800</v>
+        <v>82138800</v>
       </c>
       <c r="J60" s="3">
-        <v>86311700</v>
+        <v>87866000</v>
       </c>
       <c r="K60" s="3">
         <v>74565700</v>
@@ -3076,25 +3076,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>94859500</v>
+        <v>96567700</v>
       </c>
       <c r="E61" s="3">
-        <v>143151600</v>
+        <v>145729500</v>
       </c>
       <c r="F61" s="3">
-        <v>133996400</v>
+        <v>136409500</v>
       </c>
       <c r="G61" s="3">
-        <v>126785700</v>
+        <v>129068900</v>
       </c>
       <c r="H61" s="3">
-        <v>115207100</v>
+        <v>117281800</v>
       </c>
       <c r="I61" s="3">
-        <v>120804600</v>
+        <v>122980100</v>
       </c>
       <c r="J61" s="3">
-        <v>122864500</v>
+        <v>125077100</v>
       </c>
       <c r="K61" s="3">
         <v>120042200</v>
@@ -3126,25 +3126,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53284700</v>
+        <v>54244300</v>
       </c>
       <c r="E62" s="3">
-        <v>65735900</v>
+        <v>66919800</v>
       </c>
       <c r="F62" s="3">
-        <v>62060100</v>
+        <v>63177800</v>
       </c>
       <c r="G62" s="3">
-        <v>59425000</v>
+        <v>60495200</v>
       </c>
       <c r="H62" s="3">
-        <v>58541500</v>
+        <v>59595700</v>
       </c>
       <c r="I62" s="3">
-        <v>55023600</v>
+        <v>56014500</v>
       </c>
       <c r="J62" s="3">
-        <v>40647900</v>
+        <v>41379900</v>
       </c>
       <c r="K62" s="3">
         <v>36707000</v>
@@ -3326,25 +3326,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>295884300</v>
+        <v>301212800</v>
       </c>
       <c r="E66" s="3">
-        <v>299271800</v>
+        <v>304661200</v>
       </c>
       <c r="F66" s="3">
-        <v>278823900</v>
+        <v>283845100</v>
       </c>
       <c r="G66" s="3">
-        <v>268090300</v>
+        <v>272918200</v>
       </c>
       <c r="H66" s="3">
-        <v>268804000</v>
+        <v>273644700</v>
       </c>
       <c r="I66" s="3">
-        <v>269484000</v>
+        <v>274337000</v>
       </c>
       <c r="J66" s="3">
-        <v>259246200</v>
+        <v>263914800</v>
       </c>
       <c r="K66" s="3">
         <v>241599300</v>
@@ -3596,25 +3596,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37248500</v>
+        <v>37919300</v>
       </c>
       <c r="E72" s="3">
-        <v>51077700</v>
+        <v>51997600</v>
       </c>
       <c r="F72" s="3">
-        <v>50906500</v>
+        <v>51823200</v>
       </c>
       <c r="G72" s="3">
-        <v>57839800</v>
+        <v>58881400</v>
       </c>
       <c r="H72" s="3">
-        <v>52592900</v>
+        <v>53540000</v>
       </c>
       <c r="I72" s="3">
-        <v>53947700</v>
+        <v>54919200</v>
       </c>
       <c r="J72" s="3">
-        <v>47588800</v>
+        <v>48445800</v>
       </c>
       <c r="K72" s="3">
         <v>41186600</v>
@@ -3796,25 +3796,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55824500</v>
+        <v>56829800</v>
       </c>
       <c r="E76" s="3">
-        <v>72725000</v>
+        <v>74034700</v>
       </c>
       <c r="F76" s="3">
-        <v>69027900</v>
+        <v>70271000</v>
       </c>
       <c r="G76" s="3">
-        <v>77290600</v>
+        <v>78682500</v>
       </c>
       <c r="H76" s="3">
-        <v>71946800</v>
+        <v>73242400</v>
       </c>
       <c r="I76" s="3">
-        <v>74693500</v>
+        <v>76038600</v>
       </c>
       <c r="J76" s="3">
-        <v>59897100</v>
+        <v>60975800</v>
       </c>
       <c r="K76" s="3">
         <v>51720100</v>
@@ -3951,25 +3951,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13650600</v>
+        <v>-13896400</v>
       </c>
       <c r="E81" s="3">
-        <v>444900</v>
+        <v>452900</v>
       </c>
       <c r="F81" s="3">
-        <v>-6681900</v>
+        <v>-6802200</v>
       </c>
       <c r="G81" s="3">
-        <v>10518200</v>
+        <v>10707600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1277200</v>
+        <v>-1300200</v>
       </c>
       <c r="I81" s="3">
-        <v>6518500</v>
+        <v>6635900</v>
       </c>
       <c r="J81" s="3">
-        <v>4882600</v>
+        <v>4970500</v>
       </c>
       <c r="K81" s="3">
         <v>2788300</v>
@@ -4021,25 +4021,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5075200</v>
+        <v>5166600</v>
       </c>
       <c r="E83" s="3">
-        <v>5074000</v>
+        <v>5165400</v>
       </c>
       <c r="F83" s="3">
-        <v>4523200</v>
+        <v>4604600</v>
       </c>
       <c r="G83" s="3">
-        <v>4693500</v>
+        <v>4778100</v>
       </c>
       <c r="H83" s="3">
-        <v>4152900</v>
+        <v>4227700</v>
       </c>
       <c r="I83" s="3">
-        <v>4056800</v>
+        <v>4129800</v>
       </c>
       <c r="J83" s="3">
-        <v>3958800</v>
+        <v>4030100</v>
       </c>
       <c r="K83" s="3">
         <v>3682800</v>
@@ -4321,25 +4321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2390100</v>
+        <v>2433100</v>
       </c>
       <c r="E89" s="3">
-        <v>2360500</v>
+        <v>2403000</v>
       </c>
       <c r="F89" s="3">
-        <v>8692800</v>
+        <v>8849400</v>
       </c>
       <c r="G89" s="3">
-        <v>-5165500</v>
+        <v>-5258500</v>
       </c>
       <c r="H89" s="3">
-        <v>2460800</v>
+        <v>2505100</v>
       </c>
       <c r="I89" s="3">
-        <v>1212200</v>
+        <v>1234000</v>
       </c>
       <c r="J89" s="3">
-        <v>4798900</v>
+        <v>4885300</v>
       </c>
       <c r="K89" s="3">
         <v>2494500</v>
@@ -4391,25 +4391,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2786200</v>
+        <v>-2836400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2845700</v>
+        <v>-2896900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2989700</v>
+        <v>-3043500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3013700</v>
+        <v>-3068000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2825300</v>
+        <v>-2876200</v>
       </c>
       <c r="I91" s="3">
-        <v>-3442800</v>
+        <v>-3504800</v>
       </c>
       <c r="J91" s="3">
-        <v>-3469900</v>
+        <v>-3532400</v>
       </c>
       <c r="K91" s="3">
         <v>-3030400</v>
@@ -4541,25 +4541,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4983000</v>
+        <v>-5072800</v>
       </c>
       <c r="E94" s="3">
-        <v>-15419600</v>
+        <v>-15697300</v>
       </c>
       <c r="F94" s="3">
-        <v>-7152000</v>
+        <v>-7280800</v>
       </c>
       <c r="G94" s="3">
-        <v>-12913800</v>
+        <v>-13146400</v>
       </c>
       <c r="H94" s="3">
-        <v>-7553500</v>
+        <v>-7689500</v>
       </c>
       <c r="I94" s="3">
-        <v>-9343600</v>
+        <v>-9511900</v>
       </c>
       <c r="J94" s="3">
-        <v>-2133100</v>
+        <v>-2171500</v>
       </c>
       <c r="K94" s="3">
         <v>-8109300</v>
@@ -4614,22 +4614,22 @@
         <v>-1400</v>
       </c>
       <c r="E96" s="3">
-        <v>-428100</v>
+        <v>-435800</v>
       </c>
       <c r="F96" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="G96" s="3">
-        <v>-214100</v>
+        <v>-218000</v>
       </c>
       <c r="H96" s="3">
         <v>-1100</v>
       </c>
       <c r="I96" s="3">
-        <v>-225200</v>
+        <v>-229300</v>
       </c>
       <c r="J96" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="K96" s="3">
         <v>-212400</v>
@@ -4811,25 +4811,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1357200</v>
+        <v>-1381600</v>
       </c>
       <c r="E100" s="3">
-        <v>8246800</v>
+        <v>8395300</v>
       </c>
       <c r="F100" s="3">
-        <v>10995000</v>
+        <v>11193000</v>
       </c>
       <c r="G100" s="3">
-        <v>9688300</v>
+        <v>9862800</v>
       </c>
       <c r="H100" s="3">
-        <v>-8604300</v>
+        <v>-8759300</v>
       </c>
       <c r="I100" s="3">
-        <v>28799800</v>
+        <v>29318400</v>
       </c>
       <c r="J100" s="3">
-        <v>1052100</v>
+        <v>1071100</v>
       </c>
       <c r="K100" s="3">
         <v>-440900</v>
@@ -4861,25 +4861,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-162900</v>
+        <v>-165800</v>
       </c>
       <c r="E101" s="3">
-        <v>522200</v>
+        <v>531600</v>
       </c>
       <c r="F101" s="3">
-        <v>-12400</v>
+        <v>-12600</v>
       </c>
       <c r="G101" s="3">
-        <v>-350200</v>
+        <v>-356500</v>
       </c>
       <c r="H101" s="3">
-        <v>48200</v>
+        <v>49100</v>
       </c>
       <c r="I101" s="3">
-        <v>-441300</v>
+        <v>-449300</v>
       </c>
       <c r="J101" s="3">
-        <v>373300</v>
+        <v>380000</v>
       </c>
       <c r="K101" s="3">
         <v>543800</v>
@@ -4911,25 +4911,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4113000</v>
+        <v>-4187000</v>
       </c>
       <c r="E102" s="3">
-        <v>-4290200</v>
+        <v>-4367400</v>
       </c>
       <c r="F102" s="3">
-        <v>12523400</v>
+        <v>12749000</v>
       </c>
       <c r="G102" s="3">
-        <v>-8741200</v>
+        <v>-8898600</v>
       </c>
       <c r="H102" s="3">
-        <v>-13648800</v>
+        <v>-13894600</v>
       </c>
       <c r="I102" s="3">
-        <v>20227000</v>
+        <v>20591300</v>
       </c>
       <c r="J102" s="3">
-        <v>4091200</v>
+        <v>4164900</v>
       </c>
       <c r="K102" s="3">
         <v>-5511900</v>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -737,22 +737,22 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>23429900</v>
+        <v>22332800</v>
       </c>
       <c r="F8" s="3">
-        <v>22250300</v>
+        <v>21208400</v>
       </c>
       <c r="G8" s="3">
-        <v>22452800</v>
+        <v>21401400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="3">
-        <v>24165300</v>
+        <v>23033700</v>
       </c>
       <c r="J8" s="3">
-        <v>22882100</v>
+        <v>21810600</v>
       </c>
       <c r="K8" s="3">
         <v>20659600</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-6193300</v>
+        <v>-5903300</v>
       </c>
       <c r="E9" s="3">
-        <v>13761600</v>
+        <v>13117200</v>
       </c>
       <c r="F9" s="3">
-        <v>13085400</v>
+        <v>12472700</v>
       </c>
       <c r="G9" s="3">
-        <v>12837600</v>
+        <v>12236400</v>
       </c>
       <c r="H9" s="3">
-        <v>-6392300</v>
+        <v>-6092900</v>
       </c>
       <c r="I9" s="3">
-        <v>14509300</v>
+        <v>13829900</v>
       </c>
       <c r="J9" s="3">
-        <v>13510500</v>
+        <v>12877900</v>
       </c>
       <c r="K9" s="3">
         <v>11968400</v>
@@ -837,22 +837,22 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>9668400</v>
+        <v>9215600</v>
       </c>
       <c r="F10" s="3">
-        <v>9164900</v>
+        <v>8735700</v>
       </c>
       <c r="G10" s="3">
-        <v>9615200</v>
+        <v>9165000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="3">
-        <v>9656000</v>
+        <v>9203800</v>
       </c>
       <c r="J10" s="3">
-        <v>9371600</v>
+        <v>8932700</v>
       </c>
       <c r="K10" s="3">
         <v>8691200</v>
@@ -1004,25 +1004,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10820600</v>
+        <v>10313900</v>
       </c>
       <c r="E14" s="3">
-        <v>-899000</v>
+        <v>-856900</v>
       </c>
       <c r="F14" s="3">
-        <v>8935200</v>
+        <v>8516800</v>
       </c>
       <c r="G14" s="3">
-        <v>-3602800</v>
+        <v>-3434100</v>
       </c>
       <c r="H14" s="3">
-        <v>-4630400</v>
+        <v>-4413600</v>
       </c>
       <c r="I14" s="3">
-        <v>-1207900</v>
+        <v>-1151300</v>
       </c>
       <c r="J14" s="3">
-        <v>-4205500</v>
+        <v>-4008600</v>
       </c>
       <c r="K14" s="3">
         <v>-3647700</v>
@@ -1121,25 +1121,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4222100</v>
+        <v>4024400</v>
       </c>
       <c r="E17" s="3">
-        <v>20599400</v>
+        <v>19634800</v>
       </c>
       <c r="F17" s="3">
-        <v>28744300</v>
+        <v>27398300</v>
       </c>
       <c r="G17" s="3">
-        <v>15833300</v>
+        <v>15091800</v>
       </c>
       <c r="H17" s="3">
-        <v>-12815900</v>
+        <v>-12215800</v>
       </c>
       <c r="I17" s="3">
-        <v>20386300</v>
+        <v>19431700</v>
       </c>
       <c r="J17" s="3">
-        <v>15809700</v>
+        <v>15069400</v>
       </c>
       <c r="K17" s="3">
         <v>14160300</v>
@@ -1174,22 +1174,22 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>2830500</v>
+        <v>2698000</v>
       </c>
       <c r="F18" s="3">
-        <v>-6494000</v>
+        <v>-6189900</v>
       </c>
       <c r="G18" s="3">
-        <v>6619500</v>
+        <v>6309600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="3">
-        <v>3779000</v>
+        <v>3602000</v>
       </c>
       <c r="J18" s="3">
-        <v>7072400</v>
+        <v>6741200</v>
       </c>
       <c r="K18" s="3">
         <v>6499300</v>
@@ -1244,22 +1244,22 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>836300</v>
+        <v>797100</v>
       </c>
       <c r="F20" s="3">
-        <v>2498600</v>
+        <v>2381600</v>
       </c>
       <c r="G20" s="3">
-        <v>11026300</v>
+        <v>10509900</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
-        <v>1648800</v>
+        <v>1571600</v>
       </c>
       <c r="J20" s="3">
-        <v>2572800</v>
+        <v>2452300</v>
       </c>
       <c r="K20" s="3">
         <v>52500</v>
@@ -1294,22 +1294,22 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>8832100</v>
+        <v>8418600</v>
       </c>
       <c r="F21" s="3">
-        <v>609200</v>
+        <v>580700</v>
       </c>
       <c r="G21" s="3">
-        <v>22423900</v>
+        <v>21373800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>9557600</v>
+        <v>9110000</v>
       </c>
       <c r="J21" s="3">
-        <v>13675300</v>
+        <v>13034900</v>
       </c>
       <c r="K21" s="3">
         <v>10234600</v>
@@ -1344,22 +1344,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>1471100</v>
+        <v>1402200</v>
       </c>
       <c r="F22" s="3">
-        <v>1438500</v>
+        <v>1371200</v>
       </c>
       <c r="G22" s="3">
-        <v>1478500</v>
+        <v>1409200</v>
       </c>
       <c r="H22" s="3">
-        <v>1483500</v>
+        <v>1414100</v>
       </c>
       <c r="I22" s="3">
-        <v>1509300</v>
+        <v>1438600</v>
       </c>
       <c r="J22" s="3">
-        <v>1670900</v>
+        <v>1592700</v>
       </c>
       <c r="K22" s="3">
         <v>1349600</v>
@@ -1391,25 +1391,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12588000</v>
+        <v>-11998600</v>
       </c>
       <c r="E23" s="3">
-        <v>2195700</v>
+        <v>2092900</v>
       </c>
       <c r="F23" s="3">
-        <v>-5433900</v>
+        <v>-5179500</v>
       </c>
       <c r="G23" s="3">
-        <v>16167300</v>
+        <v>15410300</v>
       </c>
       <c r="H23" s="3">
-        <v>-1222000</v>
+        <v>-1164800</v>
       </c>
       <c r="I23" s="3">
-        <v>3918400</v>
+        <v>3734900</v>
       </c>
       <c r="J23" s="3">
-        <v>7974200</v>
+        <v>7600800</v>
       </c>
       <c r="K23" s="3">
         <v>5202200</v>
@@ -1441,25 +1441,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1045400</v>
+        <v>996400</v>
       </c>
       <c r="E24" s="3">
-        <v>1001400</v>
+        <v>954500</v>
       </c>
       <c r="F24" s="3">
-        <v>767300</v>
+        <v>731400</v>
       </c>
       <c r="G24" s="3">
-        <v>4851800</v>
+        <v>4624600</v>
       </c>
       <c r="H24" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="I24" s="3">
-        <v>-2845000</v>
+        <v>-2711700</v>
       </c>
       <c r="J24" s="3">
-        <v>2760300</v>
+        <v>2631100</v>
       </c>
       <c r="K24" s="3">
         <v>2219600</v>
@@ -1541,25 +1541,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13633400</v>
+        <v>-12995000</v>
       </c>
       <c r="E26" s="3">
-        <v>1194300</v>
+        <v>1138400</v>
       </c>
       <c r="F26" s="3">
-        <v>-6201300</v>
+        <v>-5910900</v>
       </c>
       <c r="G26" s="3">
-        <v>11315600</v>
+        <v>10785700</v>
       </c>
       <c r="H26" s="3">
-        <v>-1237800</v>
+        <v>-1179900</v>
       </c>
       <c r="I26" s="3">
-        <v>6763400</v>
+        <v>6446700</v>
       </c>
       <c r="J26" s="3">
-        <v>5213900</v>
+        <v>4969800</v>
       </c>
       <c r="K26" s="3">
         <v>2982600</v>
@@ -1591,25 +1591,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13525900</v>
+        <v>-12892500</v>
       </c>
       <c r="E27" s="3">
-        <v>452900</v>
+        <v>431700</v>
       </c>
       <c r="F27" s="3">
-        <v>-6802200</v>
+        <v>-6483700</v>
       </c>
       <c r="G27" s="3">
-        <v>10707600</v>
+        <v>10206200</v>
       </c>
       <c r="H27" s="3">
-        <v>-1386400</v>
+        <v>-1321500</v>
       </c>
       <c r="I27" s="3">
-        <v>6635900</v>
+        <v>6325200</v>
       </c>
       <c r="J27" s="3">
-        <v>4970500</v>
+        <v>4737800</v>
       </c>
       <c r="K27" s="3">
         <v>2788300</v>
@@ -1691,7 +1691,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-370500</v>
+        <v>-353200</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1703,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>86200</v>
+        <v>82100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1844,22 +1844,22 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-836300</v>
+        <v>-797100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2498600</v>
+        <v>-2381600</v>
       </c>
       <c r="G32" s="3">
-        <v>-11026300</v>
+        <v>-10509900</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
-        <v>-1648800</v>
+        <v>-1571600</v>
       </c>
       <c r="J32" s="3">
-        <v>-2572800</v>
+        <v>-2452300</v>
       </c>
       <c r="K32" s="3">
         <v>-52500</v>
@@ -1891,25 +1891,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13896400</v>
+        <v>-13245700</v>
       </c>
       <c r="E33" s="3">
-        <v>452900</v>
+        <v>431700</v>
       </c>
       <c r="F33" s="3">
-        <v>-6802200</v>
+        <v>-6483700</v>
       </c>
       <c r="G33" s="3">
-        <v>10707600</v>
+        <v>10206200</v>
       </c>
       <c r="H33" s="3">
-        <v>-1300200</v>
+        <v>-1239300</v>
       </c>
       <c r="I33" s="3">
-        <v>6635900</v>
+        <v>6325200</v>
       </c>
       <c r="J33" s="3">
-        <v>4970500</v>
+        <v>4737800</v>
       </c>
       <c r="K33" s="3">
         <v>2788300</v>
@@ -1991,25 +1991,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13896400</v>
+        <v>-13245700</v>
       </c>
       <c r="E35" s="3">
-        <v>452900</v>
+        <v>431700</v>
       </c>
       <c r="F35" s="3">
-        <v>-6802200</v>
+        <v>-6483700</v>
       </c>
       <c r="G35" s="3">
-        <v>10707600</v>
+        <v>10206200</v>
       </c>
       <c r="H35" s="3">
-        <v>-1300200</v>
+        <v>-1239300</v>
       </c>
       <c r="I35" s="3">
-        <v>6635900</v>
+        <v>6325200</v>
       </c>
       <c r="J35" s="3">
-        <v>4970500</v>
+        <v>4737800</v>
       </c>
       <c r="K35" s="3">
         <v>2788300</v>
@@ -2136,25 +2136,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32376200</v>
+        <v>30860200</v>
       </c>
       <c r="E41" s="3">
-        <v>36563300</v>
+        <v>34851200</v>
       </c>
       <c r="F41" s="3">
-        <v>40930700</v>
+        <v>39014100</v>
       </c>
       <c r="G41" s="3">
-        <v>28181700</v>
+        <v>26862100</v>
       </c>
       <c r="H41" s="3">
-        <v>37086300</v>
+        <v>35349600</v>
       </c>
       <c r="I41" s="3">
-        <v>50975000</v>
+        <v>48588000</v>
       </c>
       <c r="J41" s="3">
-        <v>30383700</v>
+        <v>28960900</v>
       </c>
       <c r="K41" s="3">
         <v>24800100</v>
@@ -2186,25 +2186,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3012600</v>
+        <v>2871500</v>
       </c>
       <c r="E42" s="3">
-        <v>1446200</v>
+        <v>1378500</v>
       </c>
       <c r="F42" s="3">
-        <v>1734300</v>
+        <v>1653100</v>
       </c>
       <c r="G42" s="3">
-        <v>1844400</v>
+        <v>1758000</v>
       </c>
       <c r="H42" s="3">
-        <v>1949500</v>
+        <v>1858200</v>
       </c>
       <c r="I42" s="3">
-        <v>5876500</v>
+        <v>5601400</v>
       </c>
       <c r="J42" s="3">
-        <v>6262300</v>
+        <v>5969000</v>
       </c>
       <c r="K42" s="3">
         <v>7167800</v>
@@ -2236,25 +2236,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19915100</v>
+        <v>18982500</v>
       </c>
       <c r="E43" s="3">
-        <v>25431800</v>
+        <v>24240900</v>
       </c>
       <c r="F43" s="3">
-        <v>21934000</v>
+        <v>20906900</v>
       </c>
       <c r="G43" s="3">
-        <v>21957500</v>
+        <v>20929300</v>
       </c>
       <c r="H43" s="3">
-        <v>28361100</v>
+        <v>27033100</v>
       </c>
       <c r="I43" s="3">
-        <v>23188000</v>
+        <v>22102200</v>
       </c>
       <c r="J43" s="3">
-        <v>21832400</v>
+        <v>20810100</v>
       </c>
       <c r="K43" s="3">
         <v>20322500</v>
@@ -2286,25 +2286,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1778800</v>
+        <v>1695500</v>
       </c>
       <c r="E44" s="3">
-        <v>3151200</v>
+        <v>3003600</v>
       </c>
       <c r="F44" s="3">
-        <v>2900700</v>
+        <v>2764800</v>
       </c>
       <c r="G44" s="3">
-        <v>3059100</v>
+        <v>2915900</v>
       </c>
       <c r="H44" s="3">
-        <v>3510100</v>
+        <v>3345800</v>
       </c>
       <c r="I44" s="3">
-        <v>3775300</v>
+        <v>3598500</v>
       </c>
       <c r="J44" s="3">
-        <v>3287000</v>
+        <v>3133100</v>
       </c>
       <c r="K44" s="3">
         <v>3016300</v>
@@ -2336,25 +2336,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>93188300</v>
+        <v>88824700</v>
       </c>
       <c r="E45" s="3">
-        <v>5496300</v>
+        <v>5239000</v>
       </c>
       <c r="F45" s="3">
-        <v>4073500</v>
+        <v>3882700</v>
       </c>
       <c r="G45" s="3">
-        <v>8627900</v>
+        <v>8223900</v>
       </c>
       <c r="H45" s="3">
-        <v>3647200</v>
+        <v>3476400</v>
       </c>
       <c r="I45" s="3">
-        <v>3066100</v>
+        <v>2922600</v>
       </c>
       <c r="J45" s="3">
-        <v>2836200</v>
+        <v>2703400</v>
       </c>
       <c r="K45" s="3">
         <v>7241400</v>
@@ -2386,25 +2386,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>150271000</v>
+        <v>143234400</v>
       </c>
       <c r="E46" s="3">
-        <v>72088800</v>
+        <v>68713100</v>
       </c>
       <c r="F46" s="3">
-        <v>71573100</v>
+        <v>68221600</v>
       </c>
       <c r="G46" s="3">
-        <v>63670600</v>
+        <v>60689100</v>
       </c>
       <c r="H46" s="3">
-        <v>74554300</v>
+        <v>71063200</v>
       </c>
       <c r="I46" s="3">
-        <v>86880900</v>
+        <v>82812600</v>
       </c>
       <c r="J46" s="3">
-        <v>64601600</v>
+        <v>61576500</v>
       </c>
       <c r="K46" s="3">
         <v>62548000</v>
@@ -2436,25 +2436,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>53929800</v>
+        <v>51404500</v>
       </c>
       <c r="E47" s="3">
-        <v>58241500</v>
+        <v>55514200</v>
       </c>
       <c r="F47" s="3">
-        <v>50036500</v>
+        <v>47693500</v>
       </c>
       <c r="G47" s="3">
-        <v>48485800</v>
+        <v>46215400</v>
       </c>
       <c r="H47" s="3">
-        <v>43549600</v>
+        <v>41510400</v>
       </c>
       <c r="I47" s="3">
-        <v>44877900</v>
+        <v>42776400</v>
       </c>
       <c r="J47" s="3">
-        <v>64221300</v>
+        <v>61214000</v>
       </c>
       <c r="K47" s="3">
         <v>56022200</v>
@@ -2486,25 +2486,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24584400</v>
+        <v>23433200</v>
       </c>
       <c r="E48" s="3">
-        <v>50920500</v>
+        <v>48536100</v>
       </c>
       <c r="F48" s="3">
-        <v>49932500</v>
+        <v>47594400</v>
       </c>
       <c r="G48" s="3">
-        <v>50231600</v>
+        <v>47879500</v>
       </c>
       <c r="H48" s="3">
-        <v>39119500</v>
+        <v>37287600</v>
       </c>
       <c r="I48" s="3">
-        <v>39280200</v>
+        <v>37440800</v>
       </c>
       <c r="J48" s="3">
-        <v>39289700</v>
+        <v>37449900</v>
       </c>
       <c r="K48" s="3">
         <v>36141000</v>
@@ -2536,25 +2536,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>57507600</v>
+        <v>54814700</v>
       </c>
       <c r="E49" s="3">
-        <v>112564800</v>
+        <v>107293800</v>
       </c>
       <c r="F49" s="3">
-        <v>102936800</v>
+        <v>98116700</v>
       </c>
       <c r="G49" s="3">
-        <v>103923700</v>
+        <v>99057400</v>
       </c>
       <c r="H49" s="3">
-        <v>107763300</v>
+        <v>102717100</v>
       </c>
       <c r="I49" s="3">
-        <v>106864000</v>
+        <v>101859900</v>
       </c>
       <c r="J49" s="3">
-        <v>110266800</v>
+        <v>105103400</v>
       </c>
       <c r="K49" s="3">
         <v>101651800</v>
@@ -2686,25 +2686,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>71749800</v>
+        <v>68390000</v>
       </c>
       <c r="E52" s="3">
-        <v>84880400</v>
+        <v>80905800</v>
       </c>
       <c r="F52" s="3">
-        <v>79637100</v>
+        <v>75908000</v>
       </c>
       <c r="G52" s="3">
-        <v>85288900</v>
+        <v>81295200</v>
       </c>
       <c r="H52" s="3">
-        <v>81900500</v>
+        <v>78065400</v>
       </c>
       <c r="I52" s="3">
-        <v>72472600</v>
+        <v>69079000</v>
       </c>
       <c r="J52" s="3">
-        <v>46511300</v>
+        <v>44333300</v>
       </c>
       <c r="K52" s="3">
         <v>36956300</v>
@@ -2786,25 +2786,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>358042600</v>
+        <v>341276800</v>
       </c>
       <c r="E54" s="3">
-        <v>378695900</v>
+        <v>360963000</v>
       </c>
       <c r="F54" s="3">
-        <v>354116000</v>
+        <v>337534100</v>
       </c>
       <c r="G54" s="3">
-        <v>351600700</v>
+        <v>335136600</v>
       </c>
       <c r="H54" s="3">
-        <v>346887100</v>
+        <v>330643700</v>
       </c>
       <c r="I54" s="3">
-        <v>350375600</v>
+        <v>333968800</v>
       </c>
       <c r="J54" s="3">
-        <v>324890600</v>
+        <v>309677200</v>
       </c>
       <c r="K54" s="3">
         <v>293319400</v>
@@ -2876,25 +2876,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15235000</v>
+        <v>14521600</v>
       </c>
       <c r="E57" s="3">
-        <v>19344100</v>
+        <v>18438300</v>
       </c>
       <c r="F57" s="3">
-        <v>16854300</v>
+        <v>16065100</v>
       </c>
       <c r="G57" s="3">
-        <v>16845400</v>
+        <v>16056600</v>
       </c>
       <c r="H57" s="3">
-        <v>16313500</v>
+        <v>15549600</v>
       </c>
       <c r="I57" s="3">
-        <v>17902700</v>
+        <v>17064400</v>
       </c>
       <c r="J57" s="3">
-        <v>17425100</v>
+        <v>16609200</v>
       </c>
       <c r="K57" s="3">
         <v>15159300</v>
@@ -2926,25 +2926,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40588200</v>
+        <v>38687600</v>
       </c>
       <c r="E58" s="3">
-        <v>39263100</v>
+        <v>37424500</v>
       </c>
       <c r="F58" s="3">
-        <v>37422000</v>
+        <v>35669600</v>
       </c>
       <c r="G58" s="3">
-        <v>37468200</v>
+        <v>35713700</v>
       </c>
       <c r="H58" s="3">
-        <v>33452000</v>
+        <v>31885600</v>
       </c>
       <c r="I58" s="3">
-        <v>40906800</v>
+        <v>38991300</v>
       </c>
       <c r="J58" s="3">
-        <v>47785300</v>
+        <v>45547700</v>
       </c>
       <c r="K58" s="3">
         <v>37659800</v>
@@ -2976,25 +2976,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80553600</v>
+        <v>76781600</v>
       </c>
       <c r="E59" s="3">
-        <v>19109900</v>
+        <v>18215100</v>
       </c>
       <c r="F59" s="3">
-        <v>17379400</v>
+        <v>16565600</v>
       </c>
       <c r="G59" s="3">
-        <v>16953400</v>
+        <v>16159500</v>
       </c>
       <c r="H59" s="3">
-        <v>33665600</v>
+        <v>32089100</v>
       </c>
       <c r="I59" s="3">
-        <v>23329300</v>
+        <v>22236900</v>
       </c>
       <c r="J59" s="3">
-        <v>22655600</v>
+        <v>21594700</v>
       </c>
       <c r="K59" s="3">
         <v>21746600</v>
@@ -3026,25 +3026,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>136376800</v>
+        <v>129990800</v>
       </c>
       <c r="E60" s="3">
-        <v>77717100</v>
+        <v>74077900</v>
       </c>
       <c r="F60" s="3">
-        <v>71655700</v>
+        <v>68300300</v>
       </c>
       <c r="G60" s="3">
-        <v>71267000</v>
+        <v>67929800</v>
       </c>
       <c r="H60" s="3">
-        <v>83431100</v>
+        <v>79524300</v>
       </c>
       <c r="I60" s="3">
-        <v>82138800</v>
+        <v>78292600</v>
       </c>
       <c r="J60" s="3">
-        <v>87866000</v>
+        <v>83751600</v>
       </c>
       <c r="K60" s="3">
         <v>74565700</v>
@@ -3076,25 +3076,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>96567700</v>
+        <v>92045800</v>
       </c>
       <c r="E61" s="3">
-        <v>145729500</v>
+        <v>138905600</v>
       </c>
       <c r="F61" s="3">
-        <v>136409500</v>
+        <v>130022000</v>
       </c>
       <c r="G61" s="3">
-        <v>129068900</v>
+        <v>123025100</v>
       </c>
       <c r="H61" s="3">
-        <v>117281800</v>
+        <v>111790000</v>
       </c>
       <c r="I61" s="3">
-        <v>122980100</v>
+        <v>117221400</v>
       </c>
       <c r="J61" s="3">
-        <v>125077100</v>
+        <v>119220200</v>
       </c>
       <c r="K61" s="3">
         <v>120042200</v>
@@ -3126,25 +3126,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54244300</v>
+        <v>51704300</v>
       </c>
       <c r="E62" s="3">
-        <v>66919800</v>
+        <v>63786200</v>
       </c>
       <c r="F62" s="3">
-        <v>63177800</v>
+        <v>60219400</v>
       </c>
       <c r="G62" s="3">
-        <v>60495200</v>
+        <v>57662400</v>
       </c>
       <c r="H62" s="3">
-        <v>59595700</v>
+        <v>56805100</v>
       </c>
       <c r="I62" s="3">
-        <v>56014500</v>
+        <v>53391500</v>
       </c>
       <c r="J62" s="3">
-        <v>41379900</v>
+        <v>39442200</v>
       </c>
       <c r="K62" s="3">
         <v>36707000</v>
@@ -3326,25 +3326,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>301212800</v>
+        <v>287108100</v>
       </c>
       <c r="E66" s="3">
-        <v>304661200</v>
+        <v>290395100</v>
       </c>
       <c r="F66" s="3">
-        <v>283845100</v>
+        <v>270553700</v>
       </c>
       <c r="G66" s="3">
-        <v>272918200</v>
+        <v>260138500</v>
       </c>
       <c r="H66" s="3">
-        <v>273644700</v>
+        <v>260831000</v>
       </c>
       <c r="I66" s="3">
-        <v>274337000</v>
+        <v>261490800</v>
       </c>
       <c r="J66" s="3">
-        <v>263914800</v>
+        <v>251556700</v>
       </c>
       <c r="K66" s="3">
         <v>241599300</v>
@@ -3596,25 +3596,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37919300</v>
+        <v>36143700</v>
       </c>
       <c r="E72" s="3">
-        <v>51997600</v>
+        <v>49562700</v>
       </c>
       <c r="F72" s="3">
-        <v>51823200</v>
+        <v>49396500</v>
       </c>
       <c r="G72" s="3">
-        <v>58881400</v>
+        <v>56124200</v>
       </c>
       <c r="H72" s="3">
-        <v>53540000</v>
+        <v>51033000</v>
       </c>
       <c r="I72" s="3">
-        <v>54919200</v>
+        <v>52347500</v>
       </c>
       <c r="J72" s="3">
-        <v>48445800</v>
+        <v>46177200</v>
       </c>
       <c r="K72" s="3">
         <v>41186600</v>
@@ -3796,25 +3796,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56829800</v>
+        <v>54168700</v>
       </c>
       <c r="E76" s="3">
-        <v>74034700</v>
+        <v>70567900</v>
       </c>
       <c r="F76" s="3">
-        <v>70271000</v>
+        <v>66980400</v>
       </c>
       <c r="G76" s="3">
-        <v>78682500</v>
+        <v>74998100</v>
       </c>
       <c r="H76" s="3">
-        <v>73242400</v>
+        <v>69812800</v>
       </c>
       <c r="I76" s="3">
-        <v>76038600</v>
+        <v>72478000</v>
       </c>
       <c r="J76" s="3">
-        <v>60975800</v>
+        <v>58120500</v>
       </c>
       <c r="K76" s="3">
         <v>51720100</v>
@@ -3951,25 +3951,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13896400</v>
+        <v>-13245700</v>
       </c>
       <c r="E81" s="3">
-        <v>452900</v>
+        <v>431700</v>
       </c>
       <c r="F81" s="3">
-        <v>-6802200</v>
+        <v>-6483700</v>
       </c>
       <c r="G81" s="3">
-        <v>10707600</v>
+        <v>10206200</v>
       </c>
       <c r="H81" s="3">
-        <v>-1300200</v>
+        <v>-1239300</v>
       </c>
       <c r="I81" s="3">
-        <v>6635900</v>
+        <v>6325200</v>
       </c>
       <c r="J81" s="3">
-        <v>4970500</v>
+        <v>4737800</v>
       </c>
       <c r="K81" s="3">
         <v>2788300</v>
@@ -4021,25 +4021,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5166600</v>
+        <v>4924700</v>
       </c>
       <c r="E83" s="3">
-        <v>5165400</v>
+        <v>4923500</v>
       </c>
       <c r="F83" s="3">
-        <v>4604600</v>
+        <v>4389000</v>
       </c>
       <c r="G83" s="3">
-        <v>4778100</v>
+        <v>4554300</v>
       </c>
       <c r="H83" s="3">
-        <v>4227700</v>
+        <v>4029700</v>
       </c>
       <c r="I83" s="3">
-        <v>4129800</v>
+        <v>3936500</v>
       </c>
       <c r="J83" s="3">
-        <v>4030100</v>
+        <v>3841400</v>
       </c>
       <c r="K83" s="3">
         <v>3682800</v>
@@ -4321,25 +4321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2433100</v>
+        <v>2319200</v>
       </c>
       <c r="E89" s="3">
-        <v>2403000</v>
+        <v>2290500</v>
       </c>
       <c r="F89" s="3">
-        <v>8849400</v>
+        <v>8435000</v>
       </c>
       <c r="G89" s="3">
-        <v>-5258500</v>
+        <v>-5012300</v>
       </c>
       <c r="H89" s="3">
-        <v>2505100</v>
+        <v>2387800</v>
       </c>
       <c r="I89" s="3">
-        <v>1234000</v>
+        <v>1176300</v>
       </c>
       <c r="J89" s="3">
-        <v>4885300</v>
+        <v>4656500</v>
       </c>
       <c r="K89" s="3">
         <v>2494500</v>
@@ -4391,25 +4391,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2836400</v>
+        <v>-2703600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2896900</v>
+        <v>-2761200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3043500</v>
+        <v>-2901000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3068000</v>
+        <v>-2924300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2876200</v>
+        <v>-2741500</v>
       </c>
       <c r="I91" s="3">
-        <v>-3504800</v>
+        <v>-3340700</v>
       </c>
       <c r="J91" s="3">
-        <v>-3532400</v>
+        <v>-3367000</v>
       </c>
       <c r="K91" s="3">
         <v>-3030400</v>
@@ -4541,25 +4541,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5072800</v>
+        <v>-4835200</v>
       </c>
       <c r="E94" s="3">
-        <v>-15697300</v>
+        <v>-14962300</v>
       </c>
       <c r="F94" s="3">
-        <v>-7280800</v>
+        <v>-6939900</v>
       </c>
       <c r="G94" s="3">
-        <v>-13146400</v>
+        <v>-12530800</v>
       </c>
       <c r="H94" s="3">
-        <v>-7689500</v>
+        <v>-7329500</v>
       </c>
       <c r="I94" s="3">
-        <v>-9511900</v>
+        <v>-9066500</v>
       </c>
       <c r="J94" s="3">
-        <v>-2171500</v>
+        <v>-2069800</v>
       </c>
       <c r="K94" s="3">
         <v>-8109300</v>
@@ -4614,22 +4614,22 @@
         <v>-1400</v>
       </c>
       <c r="E96" s="3">
-        <v>-435800</v>
+        <v>-415400</v>
       </c>
       <c r="F96" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="G96" s="3">
-        <v>-218000</v>
+        <v>-207800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I96" s="3">
-        <v>-229300</v>
+        <v>-218500</v>
       </c>
       <c r="J96" s="3">
-        <v>-5600</v>
+        <v>-5300</v>
       </c>
       <c r="K96" s="3">
         <v>-212400</v>
@@ -4811,25 +4811,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1381600</v>
+        <v>-1316900</v>
       </c>
       <c r="E100" s="3">
-        <v>8395300</v>
+        <v>8002200</v>
       </c>
       <c r="F100" s="3">
-        <v>11193000</v>
+        <v>10668900</v>
       </c>
       <c r="G100" s="3">
-        <v>9862800</v>
+        <v>9400900</v>
       </c>
       <c r="H100" s="3">
-        <v>-8759300</v>
+        <v>-8349100</v>
       </c>
       <c r="I100" s="3">
-        <v>29318400</v>
+        <v>27945500</v>
       </c>
       <c r="J100" s="3">
-        <v>1071100</v>
+        <v>1020900</v>
       </c>
       <c r="K100" s="3">
         <v>-440900</v>
@@ -4861,25 +4861,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-165800</v>
+        <v>-158000</v>
       </c>
       <c r="E101" s="3">
-        <v>531600</v>
+        <v>506700</v>
       </c>
       <c r="F101" s="3">
-        <v>-12600</v>
+        <v>-12000</v>
       </c>
       <c r="G101" s="3">
-        <v>-356500</v>
+        <v>-339800</v>
       </c>
       <c r="H101" s="3">
-        <v>49100</v>
+        <v>46800</v>
       </c>
       <c r="I101" s="3">
-        <v>-449300</v>
+        <v>-428200</v>
       </c>
       <c r="J101" s="3">
-        <v>380000</v>
+        <v>362200</v>
       </c>
       <c r="K101" s="3">
         <v>543800</v>
@@ -4911,25 +4911,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4187000</v>
+        <v>-3991000</v>
       </c>
       <c r="E102" s="3">
-        <v>-4367400</v>
+        <v>-4162900</v>
       </c>
       <c r="F102" s="3">
-        <v>12749000</v>
+        <v>12152000</v>
       </c>
       <c r="G102" s="3">
-        <v>-8898600</v>
+        <v>-8481900</v>
       </c>
       <c r="H102" s="3">
-        <v>-13894600</v>
+        <v>-13244000</v>
       </c>
       <c r="I102" s="3">
-        <v>20591300</v>
+        <v>19627100</v>
       </c>
       <c r="J102" s="3">
-        <v>4164900</v>
+        <v>3969900</v>
       </c>
       <c r="K102" s="3">
         <v>-5511900</v>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,269 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>13694300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13854000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12411600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11763000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12292900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>12512900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11877700</v>
+      </c>
+      <c r="K8" s="3">
+        <v>21401400</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
-        <v>22332800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>21208400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>21401400</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>23033700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>21810600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>20659600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>21338700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>21697300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
         <v>20114700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>19762000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>20574300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="U8" s="3">
         <v>20486400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="V8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-5903300</v>
+        <v>7200400</v>
       </c>
       <c r="E9" s="3">
-        <v>13117200</v>
+        <v>6975400</v>
       </c>
       <c r="F9" s="3">
-        <v>12472700</v>
+        <v>5773300</v>
       </c>
       <c r="G9" s="3">
+        <v>5353200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6347200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6144800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5827500</v>
+      </c>
+      <c r="K9" s="3">
         <v>12236400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>-6092900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>13829900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>12877900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>11968400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>13484000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>13469600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
         <v>11743500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="S9" s="3">
         <v>11346300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="T9" s="3">
         <v>13146800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="U9" s="3">
         <v>12612300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="V9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>6493900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6878600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6638300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6409800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5945700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6368100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6050200</v>
+      </c>
+      <c r="K10" s="3">
+        <v>9165000</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
-        <v>9215600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8735700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>9165000</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>9203800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>8932700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>8691200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>7854700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
         <v>8227600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="R10" s="3">
         <v>8371200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="S10" s="3">
         <v>8415700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="T10" s="3">
         <v>7427500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="U10" s="3">
         <v>7874200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="V10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +946,12 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +1000,20 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,58 +1062,82 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10313900</v>
+        <v>512600</v>
       </c>
       <c r="E14" s="3">
-        <v>-856900</v>
+        <v>-444300</v>
       </c>
       <c r="F14" s="3">
-        <v>8516800</v>
+        <v>-320900</v>
       </c>
       <c r="G14" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>16277400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-3650000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8287900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3434100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="L14" s="3">
         <v>-4413600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="M14" s="3">
         <v>-1151300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <v>-4008600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="P14" s="3">
         <v>-573900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="Q14" s="3">
         <v>-606200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="R14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="S14" s="3">
         <v>-850800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="T14" s="3">
         <v>16700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="U14" s="3">
         <v>9200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1186,20 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1215,136 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4024400</v>
+        <v>-20162700</v>
       </c>
       <c r="E17" s="3">
-        <v>19634800</v>
+        <v>-4517500</v>
       </c>
       <c r="F17" s="3">
-        <v>27398300</v>
+        <v>456200</v>
       </c>
       <c r="G17" s="3">
+        <v>911500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>26792400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9001600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23043600</v>
+      </c>
+      <c r="K17" s="3">
         <v>15091800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>-12215800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>19431700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>15069400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>14160300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>19873100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>19207400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
         <v>16199900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="S17" s="3">
         <v>15429300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="T17" s="3">
         <v>19913900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="U17" s="3">
         <v>17985400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="V17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="3">
+        <v>33857000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>18371500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>11955500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10851400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-14499500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3511400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-11166000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6309600</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
-        <v>2698000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-6189900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6309600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>3602000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>6741200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>6499300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>1465600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>2489800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <v>3914800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>4332600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
         <v>660400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="U18" s="3">
         <v>2501000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="V18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,258 +1363,322 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="3">
+        <v>-11875600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-78400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-5668000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2478300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5187200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-341300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6990200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>10509900</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
-        <v>797100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2381600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>10509900</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>1571600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>2452300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>52500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>1891500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="R20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="S20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="T20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="U20" s="3">
         <v>1199700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="V20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <v>24029200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20290800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>8165800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10272900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-4371500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8109700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>227600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>21373800</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
-        <v>8418600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>580700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>21373800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>9110000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>13034900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>10234600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>3518900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>8014200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
         <v>5808700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>5156700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="T21" s="3">
         <v>2459900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="U21" s="3">
         <v>6994000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="V21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>762100</v>
       </c>
       <c r="E22" s="3">
-        <v>1402200</v>
+        <v>648000</v>
       </c>
       <c r="F22" s="3">
-        <v>1371200</v>
+        <v>705900</v>
       </c>
       <c r="G22" s="3">
+        <v>707600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3486000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>688800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>650500</v>
+      </c>
+      <c r="K22" s="3">
         <v>1409200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>1414100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>1438600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>1592700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>1349600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>1207100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
         <v>1264500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="R22" s="3">
         <v>1108200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="S22" s="3">
         <v>1092700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="T22" s="3">
         <v>1099400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="U22" s="3">
         <v>1076300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="V22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11998600</v>
+        <v>21219300</v>
       </c>
       <c r="E23" s="3">
-        <v>2092900</v>
+        <v>17645100</v>
       </c>
       <c r="F23" s="3">
-        <v>-5179500</v>
+        <v>5581600</v>
       </c>
       <c r="G23" s="3">
+        <v>7665600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-12798200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2481200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-4826200</v>
+      </c>
+      <c r="K23" s="3">
         <v>15410300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>-1164800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>3734900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>7600800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>5202200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>3116800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>1278700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>701200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="U23" s="3">
         <v>2624500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="V23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>996400</v>
+        <v>3006800</v>
       </c>
       <c r="E24" s="3">
-        <v>954500</v>
+        <v>6467000</v>
       </c>
       <c r="F24" s="3">
-        <v>731400</v>
+        <v>184900</v>
       </c>
       <c r="G24" s="3">
+        <v>2317300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>558300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1290600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>788100</v>
+      </c>
+      <c r="K24" s="3">
         <v>4624600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>15100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>-2711700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>2631100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>2219600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="Q24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="R24" s="3">
         <v>255400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="S24" s="3">
         <v>425100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="T24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="U24" s="3">
         <v>1761000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="V24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1727,144 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12995000</v>
+        <v>18212400</v>
       </c>
       <c r="E26" s="3">
-        <v>1138400</v>
+        <v>11178100</v>
       </c>
       <c r="F26" s="3">
-        <v>-5910900</v>
+        <v>5396600</v>
       </c>
       <c r="G26" s="3">
+        <v>5348200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-13356500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1190600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-5614400</v>
+      </c>
+      <c r="K26" s="3">
         <v>10785700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>-1179900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>6446700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>4969800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>2982600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>318800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>9573400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>1023300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>276100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>5047000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="U26" s="3">
         <v>863400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="V26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12892500</v>
+        <v>17692600</v>
       </c>
       <c r="E27" s="3">
-        <v>431700</v>
+        <v>10694500</v>
       </c>
       <c r="F27" s="3">
-        <v>-6483700</v>
+        <v>5920500</v>
       </c>
       <c r="G27" s="3">
+        <v>4720300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-13253700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>481600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-6189100</v>
+      </c>
+      <c r="K27" s="3">
         <v>10206200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>-1321500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>6325200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>4737800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>2788300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>151100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>8174400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>819600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>49900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="T27" s="3">
         <v>5032700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="U27" s="3">
         <v>758700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="V27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,37 +1913,49 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-353200</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>-2100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-223100</v>
+      </c>
+      <c r="G29" s="3">
+        <v>6749700</v>
       </c>
       <c r="H29" s="3">
-        <v>82100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>-35300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-315900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>82100</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1726,17 +1966,29 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>13300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="U29" s="3">
         <v>-46800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="V29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +2037,20 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +2099,144 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="3">
+        <v>11875600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>78400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5668000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2478300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-5187200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>341300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-6990200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-10509900</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
-        <v>-797100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2381600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-10509900</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-1571600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>-2452300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-52500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>1887200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="R32" s="3">
         <v>1527900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="S32" s="3">
         <v>2538700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="T32" s="3">
         <v>1891400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="U32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="V32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13245700</v>
+        <v>17690500</v>
       </c>
       <c r="E33" s="3">
-        <v>431700</v>
+        <v>10703600</v>
       </c>
       <c r="F33" s="3">
-        <v>-6483700</v>
+        <v>5697400</v>
       </c>
       <c r="G33" s="3">
+        <v>11469900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-13289100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>433100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-6504900</v>
+      </c>
+      <c r="K33" s="3">
         <v>10206200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>-1239300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>6325200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>4737800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>2788300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>151100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>8174400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>819600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>49900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="T33" s="3">
         <v>5045900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="U33" s="3">
         <v>711900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="V33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2285,149 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13245700</v>
+        <v>17690500</v>
       </c>
       <c r="E35" s="3">
-        <v>431700</v>
+        <v>10703600</v>
       </c>
       <c r="F35" s="3">
-        <v>-6483700</v>
+        <v>5697400</v>
       </c>
       <c r="G35" s="3">
+        <v>11469900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-13289100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>433100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-6504900</v>
+      </c>
+      <c r="K35" s="3">
         <v>10206200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>-1239300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>6325200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>4737800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>2788300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>151100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>8174400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>819600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>49900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="T35" s="3">
         <v>5045900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="U35" s="3">
         <v>711900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="V35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2446,12 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,458 +2470,570 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30860200</v>
+        <v>42850400</v>
       </c>
       <c r="E41" s="3">
-        <v>34851200</v>
+        <v>40914800</v>
       </c>
       <c r="F41" s="3">
-        <v>39014100</v>
+        <v>46916400</v>
       </c>
       <c r="G41" s="3">
+        <v>56806300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>30961200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>34965300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>39141800</v>
+      </c>
+      <c r="K41" s="3">
         <v>26862100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>35349600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>48588000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>28960900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>24800100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>30312000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>30196800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="R41" s="3">
         <v>31303200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="S41" s="3">
         <v>11643200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="T41" s="3">
         <v>19364100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="U41" s="3">
         <v>22163900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="V41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2871500</v>
+        <v>21029100</v>
       </c>
       <c r="E42" s="3">
-        <v>1378500</v>
+        <v>22105600</v>
       </c>
       <c r="F42" s="3">
-        <v>1653100</v>
+        <v>17397800</v>
       </c>
       <c r="G42" s="3">
+        <v>2415700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2880900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1658500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1758000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>1858200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>5601400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>5969000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>7167800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>4721700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="Q42" s="3">
         <v>1881400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="R42" s="3">
         <v>4880300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="S42" s="3">
         <v>6051800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="T42" s="3">
         <v>7048900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="U42" s="3">
         <v>4023600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="V42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18982500</v>
+        <v>20268500</v>
       </c>
       <c r="E43" s="3">
-        <v>24240900</v>
+        <v>20556100</v>
       </c>
       <c r="F43" s="3">
-        <v>20906900</v>
+        <v>17909000</v>
       </c>
       <c r="G43" s="3">
+        <v>20746100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>22326600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>24320300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>20975400</v>
+      </c>
+      <c r="K43" s="3">
         <v>20929300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>27033100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>22102200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>20810100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>20322500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>21037500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="Q43" s="3">
         <v>21080500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="R43" s="3">
         <v>19335800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="S43" s="3">
         <v>18760900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="T43" s="3">
         <v>19631000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="U43" s="3">
         <v>19570700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="V43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1695500</v>
+        <v>1165600</v>
       </c>
       <c r="E44" s="3">
-        <v>3003600</v>
+        <v>1469700</v>
       </c>
       <c r="F44" s="3">
-        <v>2764800</v>
+        <v>1224500</v>
       </c>
       <c r="G44" s="3">
+        <v>1689200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1701000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3013500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2773900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2915900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>3345800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>3598500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>3133100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>3016300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>3291000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>3276200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="R44" s="3">
         <v>3070400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="S44" s="3">
         <v>3217800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="T44" s="3">
         <v>3027700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="U44" s="3">
         <v>3646500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="V44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>88824700</v>
+        <v>14123700</v>
       </c>
       <c r="E45" s="3">
-        <v>5239000</v>
+        <v>7469000</v>
       </c>
       <c r="F45" s="3">
-        <v>3882700</v>
+        <v>12186400</v>
       </c>
       <c r="G45" s="3">
+        <v>4462800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>85833600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>5256100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3895400</v>
+      </c>
+      <c r="K45" s="3">
         <v>8223900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>3476400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>2922600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>2703400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>7241400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>3130400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>2768500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="R45" s="3">
         <v>2546200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="S45" s="3">
         <v>3420900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="T45" s="3">
         <v>1700000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="U45" s="3">
         <v>1589500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="V45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>143234400</v>
+        <v>99437300</v>
       </c>
       <c r="E46" s="3">
-        <v>68713100</v>
+        <v>92515100</v>
       </c>
       <c r="F46" s="3">
-        <v>68221600</v>
+        <v>95634200</v>
       </c>
       <c r="G46" s="3">
+        <v>86119900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>143703500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>68938200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>68445100</v>
+      </c>
+      <c r="K46" s="3">
         <v>60689100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>71063200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>82812600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>61576500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>62548000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>62492500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>59203400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="R46" s="3">
         <v>61136000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="S46" s="3">
         <v>43094700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="T46" s="3">
         <v>50771700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="U46" s="3">
         <v>50994200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="V46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51404500</v>
+        <v>91679600</v>
       </c>
       <c r="E47" s="3">
-        <v>55514200</v>
+        <v>77128800</v>
       </c>
       <c r="F47" s="3">
-        <v>47693500</v>
+        <v>70357800</v>
       </c>
       <c r="G47" s="3">
+        <v>69257600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>50603400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>55696000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>47849700</v>
+      </c>
+      <c r="K47" s="3">
         <v>46215400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>41510400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>42776400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>61214000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>56022200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>51496000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="Q47" s="3">
         <v>35578100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="R47" s="3">
         <v>30224400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="S47" s="3">
         <v>34602700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="T47" s="3">
         <v>28588600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="U47" s="3">
         <v>28078900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="V47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23433200</v>
+        <v>25875300</v>
       </c>
       <c r="E48" s="3">
-        <v>48536100</v>
+        <v>24589000</v>
       </c>
       <c r="F48" s="3">
-        <v>47594400</v>
+        <v>24472000</v>
       </c>
       <c r="G48" s="3">
+        <v>23194200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>23509900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>48695000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>47750200</v>
+      </c>
+      <c r="K48" s="3">
         <v>47879500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>37287600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>37440800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>37449900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>36141000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>35058700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>35804300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="R48" s="3">
         <v>35314700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="S48" s="3">
         <v>35342200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="T48" s="3">
         <v>35278200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="U48" s="3">
         <v>36248600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="V48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54814700</v>
+        <v>64263700</v>
       </c>
       <c r="E49" s="3">
-        <v>107293800</v>
+        <v>52704400</v>
       </c>
       <c r="F49" s="3">
-        <v>98116700</v>
+        <v>53677300</v>
       </c>
       <c r="G49" s="3">
+        <v>54814600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>54994200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>107645200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>98438000</v>
+      </c>
+      <c r="K49" s="3">
         <v>99057400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>102717100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>101859900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>105103400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>101651800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>100781800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="Q49" s="3">
         <v>104424800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="R49" s="3">
         <v>102922300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="S49" s="3">
         <v>101709400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="T49" s="3">
         <v>98653100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="U49" s="3">
         <v>100523000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="V49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +3082,20 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +3144,82 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68390000</v>
+        <v>139190700</v>
       </c>
       <c r="E52" s="3">
-        <v>80905800</v>
+        <v>100985000</v>
       </c>
       <c r="F52" s="3">
-        <v>75908000</v>
+        <v>83465600</v>
       </c>
       <c r="G52" s="3">
+        <v>75060800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>69583400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>81170700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>76156600</v>
+      </c>
+      <c r="K52" s="3">
         <v>81295200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>78065400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>69079000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>44333300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>36956300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>33601500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="Q52" s="3">
         <v>30880300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="R52" s="3">
         <v>23282900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="S52" s="3">
         <v>10194500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="T52" s="3">
         <v>5213900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="U52" s="3">
         <v>4725800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="V52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +3268,82 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>341276800</v>
+        <v>420446700</v>
       </c>
       <c r="E54" s="3">
-        <v>360963000</v>
+        <v>347922300</v>
       </c>
       <c r="F54" s="3">
-        <v>337534100</v>
+        <v>327606900</v>
       </c>
       <c r="G54" s="3">
+        <v>308447200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>342394500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>362145200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>338639600</v>
+      </c>
+      <c r="K54" s="3">
         <v>335136600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>330643700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>333968800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>309677200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>293319400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>283430400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>265891000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>252880300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>224943500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="T54" s="3">
         <v>218505500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="U54" s="3">
         <v>220570600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="V54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +3362,12 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +3386,384 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14521600</v>
+        <v>18106800</v>
       </c>
       <c r="E57" s="3">
-        <v>18438300</v>
+        <v>14967500</v>
       </c>
       <c r="F57" s="3">
-        <v>16065100</v>
+        <v>12223600</v>
       </c>
       <c r="G57" s="3">
+        <v>14744200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>11856800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>18498700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>16117700</v>
+      </c>
+      <c r="K57" s="3">
         <v>16056600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>15549600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>17064400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>16609200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>15159300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>16507500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>15766500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
         <v>14560700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="S57" s="3">
         <v>13257100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="T57" s="3">
         <v>14258100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="U57" s="3">
         <v>14983600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="V57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38687600</v>
+        <v>73912300</v>
       </c>
       <c r="E58" s="3">
-        <v>37424500</v>
+        <v>52102500</v>
       </c>
       <c r="F58" s="3">
-        <v>35669600</v>
+        <v>29765900</v>
       </c>
       <c r="G58" s="3">
+        <v>35680000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>38814300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>37547100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>35786500</v>
+      </c>
+      <c r="K58" s="3">
         <v>35713700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>31885600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>38991300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>45547700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>37659800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>29246200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>27039100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="R58" s="3">
         <v>39373000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="S58" s="3">
         <v>29719200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="T58" s="3">
         <v>23896600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="U58" s="3">
         <v>30472600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="V58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>76781600</v>
+        <v>26448800</v>
       </c>
       <c r="E59" s="3">
-        <v>18215100</v>
+        <v>23090100</v>
       </c>
       <c r="F59" s="3">
-        <v>16565600</v>
+        <v>27848100</v>
       </c>
       <c r="G59" s="3">
+        <v>19650200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>79745400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>18274700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>16619800</v>
+      </c>
+      <c r="K59" s="3">
         <v>16159500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>32089100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>22236900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>21594700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>21746600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>15410600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>7715700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
         <v>7180600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>7091800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="T59" s="3">
         <v>8208100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="U59" s="3">
         <v>7792700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="V59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>129990800</v>
+        <v>118467900</v>
       </c>
       <c r="E60" s="3">
-        <v>74077900</v>
+        <v>90160000</v>
       </c>
       <c r="F60" s="3">
-        <v>68300300</v>
+        <v>69837600</v>
       </c>
       <c r="G60" s="3">
+        <v>70074500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>130416500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>74320500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>68524000</v>
+      </c>
+      <c r="K60" s="3">
         <v>67929800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>79524300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>78292600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>83751600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>74565700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>61164400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>50521300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>61114300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>50068100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="T60" s="3">
         <v>46362800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="U60" s="3">
         <v>53248900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="V60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>92045800</v>
+        <v>105733600</v>
       </c>
       <c r="E61" s="3">
-        <v>138905600</v>
+        <v>109856200</v>
       </c>
       <c r="F61" s="3">
-        <v>130022000</v>
+        <v>112659000</v>
       </c>
       <c r="G61" s="3">
+        <v>110157100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>92347300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>139360500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>130447800</v>
+      </c>
+      <c r="K61" s="3">
         <v>123025100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>111790000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>117221400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>119220200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>120042200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>125667300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>116199700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="R61" s="3">
         <v>102072600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="S61" s="3">
         <v>105642400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="T61" s="3">
         <v>110444900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="U61" s="3">
         <v>102823600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="V61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51704300</v>
+        <v>86373300</v>
       </c>
       <c r="E62" s="3">
-        <v>63786200</v>
+        <v>68667100</v>
       </c>
       <c r="F62" s="3">
-        <v>60219400</v>
+        <v>67724900</v>
       </c>
       <c r="G62" s="3">
+        <v>58585000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>51873600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>63995100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>60416600</v>
+      </c>
+      <c r="K62" s="3">
         <v>57662400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>56805100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>53391500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>39442200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>36707000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>39577000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="Q62" s="3">
         <v>39787300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="R62" s="3">
         <v>40259300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="S62" s="3">
         <v>27154100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="T62" s="3">
         <v>22051300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="U62" s="3">
         <v>29180400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="V62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3812,20 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3874,20 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3936,82 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>287108100</v>
+        <v>326588300</v>
       </c>
       <c r="E66" s="3">
-        <v>290395100</v>
+        <v>277848200</v>
       </c>
       <c r="F66" s="3">
-        <v>270553700</v>
+        <v>260494600</v>
       </c>
       <c r="G66" s="3">
+        <v>248414100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>288048400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>291346100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>271439800</v>
+      </c>
+      <c r="K66" s="3">
         <v>260138500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>260831000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>261490800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>251556700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>241599300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>236306300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>216119500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>211602200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>190835400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>186694500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>193103600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="V66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +4030,12 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +4084,20 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +4146,20 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +4208,20 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +4270,82 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36143700</v>
+        <v>80967800</v>
       </c>
       <c r="E72" s="3">
-        <v>49562700</v>
+        <v>63405000</v>
       </c>
       <c r="F72" s="3">
-        <v>49396500</v>
+        <v>53016300</v>
       </c>
       <c r="G72" s="3">
+        <v>47383500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>36262100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>49725000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>49558300</v>
+      </c>
+      <c r="K72" s="3">
         <v>56124200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>51033000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>52347500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>46177200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>41186600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>35817000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>35543700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>27448000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>26570200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>26240600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>21110400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +4394,20 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +4456,20 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +4518,82 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54168700</v>
+        <v>93858300</v>
       </c>
       <c r="E76" s="3">
-        <v>70567900</v>
+        <v>70074100</v>
       </c>
       <c r="F76" s="3">
-        <v>66980400</v>
+        <v>67112300</v>
       </c>
       <c r="G76" s="3">
+        <v>60033100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>54346100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>70799000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>67199800</v>
+      </c>
+      <c r="K76" s="3">
         <v>74998100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>69812800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>72478000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>58120500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>51720100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>47124200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>49771400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>41278100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>34108100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>31810900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="U76" s="3">
         <v>27467000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="V76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4642,149 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13245700</v>
+        <v>17690500</v>
       </c>
       <c r="E81" s="3">
-        <v>431700</v>
+        <v>10703600</v>
       </c>
       <c r="F81" s="3">
-        <v>-6483700</v>
+        <v>5697400</v>
       </c>
       <c r="G81" s="3">
+        <v>11469900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-13289100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>433100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-6504900</v>
+      </c>
+      <c r="K81" s="3">
         <v>10206200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>-1239300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>6325200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>4737800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>2788300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>151100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>8174400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>819600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>49900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="T81" s="3">
         <v>5045900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="U81" s="3">
         <v>711900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="V81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4803,74 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4924700</v>
+        <v>2047800</v>
       </c>
       <c r="E83" s="3">
-        <v>4923500</v>
+        <v>1997700</v>
       </c>
       <c r="F83" s="3">
-        <v>4389000</v>
+        <v>1878300</v>
       </c>
       <c r="G83" s="3">
+        <v>1899800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4940800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>4939600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4403400</v>
+      </c>
+      <c r="K83" s="3">
         <v>4554300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>4029700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>3936500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>3841400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>3682800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>3940500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
         <v>3632900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="R83" s="3">
         <v>3421800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="S83" s="3">
         <v>3362800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="T83" s="3">
         <v>3690900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="U83" s="3">
         <v>3293200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="V83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4919,20 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4981,20 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +5043,20 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +5105,20 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +5167,82 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2319200</v>
+        <v>5833400</v>
       </c>
       <c r="E89" s="3">
-        <v>2290500</v>
+        <v>-5184300</v>
       </c>
       <c r="F89" s="3">
-        <v>8435000</v>
+        <v>3045100</v>
       </c>
       <c r="G89" s="3">
+        <v>1415500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2326800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2298000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>8462600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5012300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>2387800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>1176300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>4656500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>2494500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>1862100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>1224800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
         <v>4993100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="S89" s="3">
         <v>1771400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="T89" s="3">
         <v>3292700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="U89" s="3">
         <v>991900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="V89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +5261,74 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2703600</v>
+        <v>-1452400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2761200</v>
+        <v>-1375400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2901000</v>
+        <v>-1741800</v>
       </c>
       <c r="G91" s="3">
+        <v>-1375400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2712400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2770300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2910500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2924300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-2741500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-3340700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-3367000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="Q91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="R91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="S91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="T91" s="3">
         <v>3726200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="U91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="V91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +5377,20 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +5439,82 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4835200</v>
+        <v>-6089900</v>
       </c>
       <c r="E94" s="3">
-        <v>-14962300</v>
+        <v>-4445600</v>
       </c>
       <c r="F94" s="3">
-        <v>-6939900</v>
+        <v>-14366600</v>
       </c>
       <c r="G94" s="3">
+        <v>11405700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-4851100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-15011300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6962600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12530800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-7329500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-9066500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-2069800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="R94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="S94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="T94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="U94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="V94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +5533,74 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-377300</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-408100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1400</v>
       </c>
-      <c r="E96" s="3">
-        <v>-415400</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="I96" s="3">
+        <v>-416700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-4400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="K96" s="3">
         <v>-207800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="L96" s="3">
         <v>-1000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="M96" s="3">
         <v>-218500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="N96" s="3">
         <v>-5300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
         <v>-212400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="P96" s="3">
         <v>-1200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="Q96" s="3">
         <v>-215200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="R96" s="3">
         <v>-7400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="S96" s="3">
         <v>-209400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="T96" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="U96" s="3">
         <v>-195500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="V96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +5649,20 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +5711,20 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5773,202 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1316900</v>
+        <v>1272100</v>
       </c>
       <c r="E100" s="3">
-        <v>8002200</v>
+        <v>4269600</v>
       </c>
       <c r="F100" s="3">
-        <v>10668900</v>
+        <v>1614600</v>
       </c>
       <c r="G100" s="3">
+        <v>13007300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1321200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>8028400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>10703900</v>
+      </c>
+      <c r="K100" s="3">
         <v>9400900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-8349100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>27945500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>1020900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>-440900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>15008200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>7083500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="R100" s="3">
         <v>20048900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="S100" s="3">
         <v>-235200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="T100" s="3">
         <v>1511600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="U100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="V100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-158000</v>
+        <v>920100</v>
       </c>
       <c r="E101" s="3">
-        <v>506700</v>
+        <v>-641300</v>
       </c>
       <c r="F101" s="3">
-        <v>-12000</v>
+        <v>-182900</v>
       </c>
       <c r="G101" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-158600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>508400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-339800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>46800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>-428200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>362200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>543800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>-956200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="Q101" s="3">
         <v>92900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="R101" s="3">
         <v>117100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="S101" s="3">
         <v>29700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="T101" s="3">
         <v>-233700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="U101" s="3">
         <v>1223700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="V101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3991000</v>
+        <v>1935700</v>
       </c>
       <c r="E102" s="3">
-        <v>-4162900</v>
+        <v>-6001600</v>
       </c>
       <c r="F102" s="3">
-        <v>12152000</v>
+        <v>-9889800</v>
       </c>
       <c r="G102" s="3">
+        <v>25845000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-4004000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-4176500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>12191800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8481900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>-13244000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>19627100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>3969900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-51800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="R102" s="3">
         <v>19659900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="S102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="T102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="U102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="V102" s="3">
         <v>-4926800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13694300</v>
+        <v>13474900</v>
       </c>
       <c r="E8" s="3">
-        <v>13854000</v>
+        <v>13575100</v>
       </c>
       <c r="F8" s="3">
-        <v>12411600</v>
+        <v>13733400</v>
       </c>
       <c r="G8" s="3">
-        <v>11763000</v>
+        <v>12303600</v>
       </c>
       <c r="H8" s="3">
-        <v>12292900</v>
+        <v>11660600</v>
       </c>
       <c r="I8" s="3">
-        <v>12512900</v>
+        <v>12185900</v>
       </c>
       <c r="J8" s="3">
+        <v>12404000</v>
+      </c>
+      <c r="K8" s="3">
         <v>11877700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21401400</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23033700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21810600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20659600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21338700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21697300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20114700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19762000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20574300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20486400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7200400</v>
+        <v>6077900</v>
       </c>
       <c r="E9" s="3">
-        <v>6975400</v>
+        <v>7137700</v>
       </c>
       <c r="F9" s="3">
-        <v>5773300</v>
+        <v>6914700</v>
       </c>
       <c r="G9" s="3">
-        <v>5353200</v>
+        <v>5723100</v>
       </c>
       <c r="H9" s="3">
-        <v>6347200</v>
+        <v>5306600</v>
       </c>
       <c r="I9" s="3">
-        <v>6144800</v>
+        <v>6292000</v>
       </c>
       <c r="J9" s="3">
+        <v>6091300</v>
+      </c>
+      <c r="K9" s="3">
         <v>5827500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12236400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-6092900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13829900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12877900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11968400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13484000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13469600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11743500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11346300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13146800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12612300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6493900</v>
+        <v>7397100</v>
       </c>
       <c r="E10" s="3">
-        <v>6878600</v>
+        <v>6437400</v>
       </c>
       <c r="F10" s="3">
-        <v>6638300</v>
+        <v>6818700</v>
       </c>
       <c r="G10" s="3">
-        <v>6409800</v>
+        <v>6580500</v>
       </c>
       <c r="H10" s="3">
-        <v>5945700</v>
+        <v>6354000</v>
       </c>
       <c r="I10" s="3">
-        <v>6368100</v>
+        <v>5893900</v>
       </c>
       <c r="J10" s="3">
+        <v>6312700</v>
+      </c>
+      <c r="K10" s="3">
         <v>6050200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9165000</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9203800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8932700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8691200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7854700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8227600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8371200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8415700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7427500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7874200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,70 +1090,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>512600</v>
+        <v>-737700</v>
       </c>
       <c r="E14" s="3">
-        <v>-444300</v>
+        <v>508100</v>
       </c>
       <c r="F14" s="3">
-        <v>-320900</v>
+        <v>-440500</v>
       </c>
       <c r="G14" s="3">
-        <v>-45600</v>
+        <v>-318100</v>
       </c>
       <c r="H14" s="3">
-        <v>16277400</v>
+        <v>-45200</v>
       </c>
       <c r="I14" s="3">
-        <v>-3650000</v>
+        <v>-1458800</v>
       </c>
       <c r="J14" s="3">
+        <v>-5669100</v>
+      </c>
+      <c r="K14" s="3">
         <v>8287900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3434100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-4413600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1151300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-4008600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-573900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-606200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-850800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>16700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-20162700</v>
+        <v>-760300</v>
       </c>
       <c r="E17" s="3">
-        <v>-4517500</v>
+        <v>-19987200</v>
       </c>
       <c r="F17" s="3">
-        <v>456200</v>
+        <v>-4478200</v>
       </c>
       <c r="G17" s="3">
-        <v>911500</v>
+        <v>452200</v>
       </c>
       <c r="H17" s="3">
-        <v>26792400</v>
+        <v>903600</v>
       </c>
       <c r="I17" s="3">
-        <v>9001600</v>
+        <v>26559200</v>
       </c>
       <c r="J17" s="3">
+        <v>8923200</v>
+      </c>
+      <c r="K17" s="3">
         <v>23043600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15091800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-12215800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19431700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15069400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14160300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19873100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19207400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16199900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15429300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19913900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17985400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33857000</v>
+        <v>14235200</v>
       </c>
       <c r="E18" s="3">
-        <v>18371500</v>
+        <v>33562300</v>
       </c>
       <c r="F18" s="3">
-        <v>11955500</v>
+        <v>18211600</v>
       </c>
       <c r="G18" s="3">
-        <v>10851400</v>
+        <v>11851400</v>
       </c>
       <c r="H18" s="3">
-        <v>-14499500</v>
+        <v>10757000</v>
       </c>
       <c r="I18" s="3">
-        <v>3511400</v>
+        <v>-14373300</v>
       </c>
       <c r="J18" s="3">
+        <v>3480800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-11166000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6309600</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3602000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6741200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6499300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1465600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2489800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3914800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4332600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>660400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2501000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,318 +1399,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11875600</v>
+        <v>-1706400</v>
       </c>
       <c r="E20" s="3">
-        <v>-78400</v>
+        <v>-11772200</v>
       </c>
       <c r="F20" s="3">
-        <v>-5668000</v>
+        <v>-77700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2478300</v>
+        <v>-5618600</v>
       </c>
       <c r="H20" s="3">
-        <v>5187200</v>
+        <v>-2456700</v>
       </c>
       <c r="I20" s="3">
-        <v>-341300</v>
+        <v>5142000</v>
       </c>
       <c r="J20" s="3">
+        <v>-338400</v>
+      </c>
+      <c r="K20" s="3">
         <v>6990200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10509900</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1571600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2452300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>52500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1891500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1199700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>24029200</v>
+        <v>14468400</v>
       </c>
       <c r="E21" s="3">
-        <v>20290800</v>
+        <v>23820000</v>
       </c>
       <c r="F21" s="3">
-        <v>8165800</v>
+        <v>20114200</v>
       </c>
       <c r="G21" s="3">
-        <v>10272900</v>
+        <v>8094700</v>
       </c>
       <c r="H21" s="3">
-        <v>-4371500</v>
+        <v>10183500</v>
       </c>
       <c r="I21" s="3">
-        <v>8109700</v>
+        <v>-4333400</v>
       </c>
       <c r="J21" s="3">
+        <v>8039100</v>
+      </c>
+      <c r="K21" s="3">
         <v>227600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21373800</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9110000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13034900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10234600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3518900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8014200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5808700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5156700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2459900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6994000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>762100</v>
+        <v>754300</v>
       </c>
       <c r="E22" s="3">
-        <v>648000</v>
+        <v>755500</v>
       </c>
       <c r="F22" s="3">
-        <v>705900</v>
+        <v>642400</v>
       </c>
       <c r="G22" s="3">
-        <v>707600</v>
+        <v>699800</v>
       </c>
       <c r="H22" s="3">
-        <v>3486000</v>
+        <v>701400</v>
       </c>
       <c r="I22" s="3">
-        <v>688800</v>
+        <v>3455600</v>
       </c>
       <c r="J22" s="3">
+        <v>682800</v>
+      </c>
+      <c r="K22" s="3">
         <v>650500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1409200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1414100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1438600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1592700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1349600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1207100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1264500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1108200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1092700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1099400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1076300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>21219300</v>
+        <v>11774500</v>
       </c>
       <c r="E23" s="3">
-        <v>17645100</v>
+        <v>21034600</v>
       </c>
       <c r="F23" s="3">
-        <v>5581600</v>
+        <v>17491500</v>
       </c>
       <c r="G23" s="3">
-        <v>7665600</v>
+        <v>5533000</v>
       </c>
       <c r="H23" s="3">
-        <v>-12798200</v>
+        <v>7598800</v>
       </c>
       <c r="I23" s="3">
-        <v>2481200</v>
+        <v>-12686800</v>
       </c>
       <c r="J23" s="3">
+        <v>2459600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4826200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15410300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1164800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3734900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7600800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5202200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3116800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1278700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>701200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2624500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3006800</v>
+        <v>3279500</v>
       </c>
       <c r="E24" s="3">
-        <v>6467000</v>
+        <v>2980700</v>
       </c>
       <c r="F24" s="3">
-        <v>184900</v>
+        <v>6410700</v>
       </c>
       <c r="G24" s="3">
-        <v>2317300</v>
+        <v>183300</v>
       </c>
       <c r="H24" s="3">
-        <v>558300</v>
+        <v>2297200</v>
       </c>
       <c r="I24" s="3">
-        <v>1290600</v>
+        <v>553400</v>
       </c>
       <c r="J24" s="3">
+        <v>1279400</v>
+      </c>
+      <c r="K24" s="3">
         <v>788100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4624600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2711700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2631100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2219600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>255400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>425100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1761000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18212400</v>
+        <v>8495000</v>
       </c>
       <c r="E26" s="3">
-        <v>11178100</v>
+        <v>18053900</v>
       </c>
       <c r="F26" s="3">
-        <v>5396600</v>
+        <v>11080800</v>
       </c>
       <c r="G26" s="3">
-        <v>5348200</v>
+        <v>5349700</v>
       </c>
       <c r="H26" s="3">
-        <v>-13356500</v>
+        <v>5301700</v>
       </c>
       <c r="I26" s="3">
-        <v>1190600</v>
+        <v>-13240200</v>
       </c>
       <c r="J26" s="3">
+        <v>1180300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-5614400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10785700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1179900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6446700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4969800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2982600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>318800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9573400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1023300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>276100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5047000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>863400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17692600</v>
+        <v>6865600</v>
       </c>
       <c r="E27" s="3">
-        <v>10694500</v>
+        <v>17538600</v>
       </c>
       <c r="F27" s="3">
-        <v>5920500</v>
+        <v>10601400</v>
       </c>
       <c r="G27" s="3">
-        <v>4720300</v>
+        <v>5868900</v>
       </c>
       <c r="H27" s="3">
-        <v>-13253700</v>
+        <v>4679200</v>
       </c>
       <c r="I27" s="3">
-        <v>481600</v>
+        <v>-13138300</v>
       </c>
       <c r="J27" s="3">
+        <v>477400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6189100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10206200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1321500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6325200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4737800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2788300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>151100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8174400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>819600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>49900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5032700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>758700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,40 +1982,43 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>-2100</v>
       </c>
-      <c r="E29" s="3">
-        <v>9100</v>
-      </c>
       <c r="F29" s="3">
-        <v>-223100</v>
+        <v>9000</v>
       </c>
       <c r="G29" s="3">
-        <v>6749700</v>
+        <v>-221100</v>
       </c>
       <c r="H29" s="3">
-        <v>-35300</v>
+        <v>6690900</v>
       </c>
       <c r="I29" s="3">
-        <v>-48500</v>
+        <v>-35000</v>
       </c>
       <c r="J29" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="K29" s="3">
         <v>-315900</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>82100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1978,17 +2038,20 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>13300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-46800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11875600</v>
+        <v>1706400</v>
       </c>
       <c r="E32" s="3">
-        <v>78400</v>
+        <v>11772200</v>
       </c>
       <c r="F32" s="3">
-        <v>5668000</v>
+        <v>77700</v>
       </c>
       <c r="G32" s="3">
-        <v>2478300</v>
+        <v>5618600</v>
       </c>
       <c r="H32" s="3">
-        <v>-5187200</v>
+        <v>2456700</v>
       </c>
       <c r="I32" s="3">
-        <v>341300</v>
+        <v>-5142000</v>
       </c>
       <c r="J32" s="3">
+        <v>338400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6990200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10509900</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1571600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2452300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-52500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1887200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1527900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2538700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1891400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17690500</v>
+        <v>6865600</v>
       </c>
       <c r="E33" s="3">
-        <v>10703600</v>
+        <v>17536500</v>
       </c>
       <c r="F33" s="3">
-        <v>5697400</v>
+        <v>10610400</v>
       </c>
       <c r="G33" s="3">
-        <v>11469900</v>
+        <v>5647800</v>
       </c>
       <c r="H33" s="3">
-        <v>-13289100</v>
+        <v>11370100</v>
       </c>
       <c r="I33" s="3">
-        <v>433100</v>
+        <v>-13173400</v>
       </c>
       <c r="J33" s="3">
+        <v>429300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6504900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10206200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1239300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6325200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4737800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2788300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>151100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8174400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>819600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>49900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5045900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>711900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17690500</v>
+        <v>6865600</v>
       </c>
       <c r="E35" s="3">
-        <v>10703600</v>
+        <v>17536500</v>
       </c>
       <c r="F35" s="3">
-        <v>5697400</v>
+        <v>10610400</v>
       </c>
       <c r="G35" s="3">
-        <v>11469900</v>
+        <v>5647800</v>
       </c>
       <c r="H35" s="3">
-        <v>-13289100</v>
+        <v>11370100</v>
       </c>
       <c r="I35" s="3">
-        <v>433100</v>
+        <v>-13173400</v>
       </c>
       <c r="J35" s="3">
+        <v>429300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6504900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10206200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1239300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6325200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4737800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2788300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>151100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8174400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>819600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>49900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5045900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>711900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,566 +2559,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42850400</v>
+        <v>45368400</v>
       </c>
       <c r="E41" s="3">
-        <v>40914800</v>
+        <v>42477400</v>
       </c>
       <c r="F41" s="3">
-        <v>46916400</v>
+        <v>40558600</v>
       </c>
       <c r="G41" s="3">
-        <v>56806300</v>
+        <v>46508000</v>
       </c>
       <c r="H41" s="3">
-        <v>30961200</v>
+        <v>56311800</v>
       </c>
       <c r="I41" s="3">
-        <v>34965300</v>
+        <v>30691700</v>
       </c>
       <c r="J41" s="3">
+        <v>34660900</v>
+      </c>
+      <c r="K41" s="3">
         <v>39141800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26862100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35349600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48588000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28960900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24800100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30312000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30196800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31303200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11643200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19364100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>22163900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21029100</v>
+        <v>13713300</v>
       </c>
       <c r="E42" s="3">
-        <v>22105600</v>
+        <v>20846000</v>
       </c>
       <c r="F42" s="3">
-        <v>17397800</v>
+        <v>21913100</v>
       </c>
       <c r="G42" s="3">
-        <v>2415700</v>
+        <v>17246400</v>
       </c>
       <c r="H42" s="3">
-        <v>2880900</v>
+        <v>2394600</v>
       </c>
       <c r="I42" s="3">
-        <v>1383000</v>
+        <v>2855900</v>
       </c>
       <c r="J42" s="3">
+        <v>1370900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1658500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1758000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1858200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5601400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5969000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7167800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4721700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1881400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4880300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6051800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7048900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4023600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20268500</v>
+        <v>19503000</v>
       </c>
       <c r="E43" s="3">
-        <v>20556100</v>
+        <v>22909000</v>
       </c>
       <c r="F43" s="3">
-        <v>17909000</v>
+        <v>20377100</v>
       </c>
       <c r="G43" s="3">
-        <v>20746100</v>
+        <v>17753100</v>
       </c>
       <c r="H43" s="3">
-        <v>22326600</v>
+        <v>20565500</v>
       </c>
       <c r="I43" s="3">
-        <v>24320300</v>
+        <v>22132300</v>
       </c>
       <c r="J43" s="3">
+        <v>24108600</v>
+      </c>
+      <c r="K43" s="3">
         <v>20975400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20929300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27033100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>22102200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20810100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20322500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21037500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21080500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19335800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>18760900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19631000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>19570700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1165600</v>
+        <v>1092300</v>
       </c>
       <c r="E44" s="3">
-        <v>1469700</v>
+        <v>1155400</v>
       </c>
       <c r="F44" s="3">
-        <v>1224500</v>
+        <v>1456900</v>
       </c>
       <c r="G44" s="3">
-        <v>1689200</v>
+        <v>1213900</v>
       </c>
       <c r="H44" s="3">
-        <v>1701000</v>
+        <v>1674500</v>
       </c>
       <c r="I44" s="3">
-        <v>3013500</v>
+        <v>1686200</v>
       </c>
       <c r="J44" s="3">
+        <v>2987300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2773900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2915900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3345800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3598500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3133100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3016300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3291000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3276200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3070400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3217800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3027700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3646500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14123700</v>
+        <v>12346300</v>
       </c>
       <c r="E45" s="3">
-        <v>7469000</v>
+        <v>11183900</v>
       </c>
       <c r="F45" s="3">
-        <v>12186400</v>
+        <v>7404000</v>
       </c>
       <c r="G45" s="3">
-        <v>4462800</v>
+        <v>12080300</v>
       </c>
       <c r="H45" s="3">
-        <v>85833600</v>
+        <v>4423900</v>
       </c>
       <c r="I45" s="3">
-        <v>5256100</v>
+        <v>85086400</v>
       </c>
       <c r="J45" s="3">
+        <v>5210400</v>
+      </c>
+      <c r="K45" s="3">
         <v>3895400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8223900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3476400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2922600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2703400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7241400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3130400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2768500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2546200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3420900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1700000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1589500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>99437300</v>
+        <v>92023300</v>
       </c>
       <c r="E46" s="3">
-        <v>92515100</v>
+        <v>98571700</v>
       </c>
       <c r="F46" s="3">
-        <v>95634200</v>
+        <v>91709700</v>
       </c>
       <c r="G46" s="3">
-        <v>86119900</v>
+        <v>94801700</v>
       </c>
       <c r="H46" s="3">
-        <v>143703500</v>
+        <v>85370300</v>
       </c>
       <c r="I46" s="3">
-        <v>68938200</v>
+        <v>142452600</v>
       </c>
       <c r="J46" s="3">
+        <v>68338100</v>
+      </c>
+      <c r="K46" s="3">
         <v>68445100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>60689100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>71063200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>82812600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>61576500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>62548000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>62492500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>59203400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>61136000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>43094700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>50771700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>50994200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>91679600</v>
+        <v>99477000</v>
       </c>
       <c r="E47" s="3">
-        <v>77128800</v>
+        <v>90213300</v>
       </c>
       <c r="F47" s="3">
-        <v>70357800</v>
+        <v>76457400</v>
       </c>
       <c r="G47" s="3">
-        <v>69257600</v>
+        <v>69745300</v>
       </c>
       <c r="H47" s="3">
-        <v>50603400</v>
+        <v>68654700</v>
       </c>
       <c r="I47" s="3">
-        <v>55696000</v>
+        <v>50162900</v>
       </c>
       <c r="J47" s="3">
+        <v>55211200</v>
+      </c>
+      <c r="K47" s="3">
         <v>47849700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>46215400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>41510400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42776400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>61214000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>56022200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>51496000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>35578100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>30224400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>34602700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>28588600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>28078900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25875300</v>
+        <v>25934300</v>
       </c>
       <c r="E48" s="3">
-        <v>24589000</v>
+        <v>25650100</v>
       </c>
       <c r="F48" s="3">
-        <v>24472000</v>
+        <v>24375000</v>
       </c>
       <c r="G48" s="3">
-        <v>23194200</v>
+        <v>24259000</v>
       </c>
       <c r="H48" s="3">
-        <v>23509900</v>
+        <v>22992300</v>
       </c>
       <c r="I48" s="3">
-        <v>48695000</v>
+        <v>23305300</v>
       </c>
       <c r="J48" s="3">
+        <v>48271100</v>
+      </c>
+      <c r="K48" s="3">
         <v>47750200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>47879500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37287600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37440800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37449900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36141000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35058700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35804300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35314700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35342200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35278200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>36248600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>64263700</v>
+        <v>63399400</v>
       </c>
       <c r="E49" s="3">
-        <v>52704400</v>
+        <v>63704300</v>
       </c>
       <c r="F49" s="3">
-        <v>53677300</v>
+        <v>52245600</v>
       </c>
       <c r="G49" s="3">
-        <v>54814600</v>
+        <v>53210100</v>
       </c>
       <c r="H49" s="3">
-        <v>54994200</v>
+        <v>54337500</v>
       </c>
       <c r="I49" s="3">
-        <v>107645200</v>
+        <v>54515500</v>
       </c>
       <c r="J49" s="3">
+        <v>106708100</v>
+      </c>
+      <c r="K49" s="3">
         <v>98438000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>99057400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>102717100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>101859900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>105103400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>101651800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>100781800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>104424800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>102922300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>101709400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>98653100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>100523000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>139190700</v>
+        <v>149026800</v>
       </c>
       <c r="E52" s="3">
-        <v>100985000</v>
+        <v>138647300</v>
       </c>
       <c r="F52" s="3">
-        <v>83465600</v>
+        <v>100105900</v>
       </c>
       <c r="G52" s="3">
-        <v>75060800</v>
+        <v>82739000</v>
       </c>
       <c r="H52" s="3">
-        <v>69583400</v>
+        <v>74407400</v>
       </c>
       <c r="I52" s="3">
-        <v>81170700</v>
+        <v>68977700</v>
       </c>
       <c r="J52" s="3">
+        <v>80464100</v>
+      </c>
+      <c r="K52" s="3">
         <v>76156600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>81295200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78065400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>69079000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>44333300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>36956300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33601500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>30880300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23282900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10194500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5213900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4725800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>420446700</v>
+        <v>429860800</v>
       </c>
       <c r="E54" s="3">
-        <v>347922300</v>
+        <v>416786600</v>
       </c>
       <c r="F54" s="3">
-        <v>327606900</v>
+        <v>344893600</v>
       </c>
       <c r="G54" s="3">
-        <v>308447200</v>
+        <v>324755100</v>
       </c>
       <c r="H54" s="3">
-        <v>342394500</v>
+        <v>305762100</v>
       </c>
       <c r="I54" s="3">
-        <v>362145200</v>
+        <v>339413900</v>
       </c>
       <c r="J54" s="3">
+        <v>358992600</v>
+      </c>
+      <c r="K54" s="3">
         <v>338639600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>335136600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>330643700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>333968800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>309677200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>293319400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>283430400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>265891000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>252880300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>224943500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>218505500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>220570600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3519,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18106800</v>
+        <v>15442700</v>
       </c>
       <c r="E57" s="3">
-        <v>14967500</v>
+        <v>14039200</v>
       </c>
       <c r="F57" s="3">
-        <v>12223600</v>
+        <v>14837200</v>
       </c>
       <c r="G57" s="3">
-        <v>14744200</v>
+        <v>12117200</v>
       </c>
       <c r="H57" s="3">
-        <v>11856800</v>
+        <v>14615900</v>
       </c>
       <c r="I57" s="3">
-        <v>18498700</v>
+        <v>11753600</v>
       </c>
       <c r="J57" s="3">
+        <v>18337600</v>
+      </c>
+      <c r="K57" s="3">
         <v>16117700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16056600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15549600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17064400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16609200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15159300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16507500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15766500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14560700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13257100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14258100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14983600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>73912300</v>
+        <v>81398800</v>
       </c>
       <c r="E58" s="3">
-        <v>52102500</v>
+        <v>73268900</v>
       </c>
       <c r="F58" s="3">
-        <v>29765900</v>
+        <v>51648900</v>
       </c>
       <c r="G58" s="3">
-        <v>35680000</v>
+        <v>29506800</v>
       </c>
       <c r="H58" s="3">
-        <v>38814300</v>
+        <v>35369400</v>
       </c>
       <c r="I58" s="3">
-        <v>37547100</v>
+        <v>38476400</v>
       </c>
       <c r="J58" s="3">
+        <v>37220200</v>
+      </c>
+      <c r="K58" s="3">
         <v>35786500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>35713700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31885600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>38991300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>45547700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>37659800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>29246200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27039100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>39373000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>29719200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23896600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>30472600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26448800</v>
+        <v>21085800</v>
       </c>
       <c r="E59" s="3">
-        <v>23090100</v>
+        <v>30128500</v>
       </c>
       <c r="F59" s="3">
-        <v>27848100</v>
+        <v>22889100</v>
       </c>
       <c r="G59" s="3">
-        <v>19650200</v>
+        <v>27605700</v>
       </c>
       <c r="H59" s="3">
-        <v>79745400</v>
+        <v>19479200</v>
       </c>
       <c r="I59" s="3">
-        <v>18274700</v>
+        <v>79051300</v>
       </c>
       <c r="J59" s="3">
+        <v>18115600</v>
+      </c>
+      <c r="K59" s="3">
         <v>16619800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16159500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32089100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22236900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21594700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21746600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15410600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7715700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7180600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7091800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8208100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7792700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>118467900</v>
+        <v>117927300</v>
       </c>
       <c r="E60" s="3">
-        <v>90160000</v>
+        <v>117436600</v>
       </c>
       <c r="F60" s="3">
-        <v>69837600</v>
+        <v>89375200</v>
       </c>
       <c r="G60" s="3">
-        <v>70074500</v>
+        <v>69229700</v>
       </c>
       <c r="H60" s="3">
-        <v>130416500</v>
+        <v>69464500</v>
       </c>
       <c r="I60" s="3">
-        <v>74320500</v>
+        <v>129281200</v>
       </c>
       <c r="J60" s="3">
+        <v>73673500</v>
+      </c>
+      <c r="K60" s="3">
         <v>68524000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67929800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79524300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78292600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83751600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>74565700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>61164400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>50521300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>61114300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50068100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>46362800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>53248900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>105733600</v>
+        <v>112040800</v>
       </c>
       <c r="E61" s="3">
-        <v>109856200</v>
+        <v>104813200</v>
       </c>
       <c r="F61" s="3">
-        <v>112659000</v>
+        <v>108899900</v>
       </c>
       <c r="G61" s="3">
-        <v>110157100</v>
+        <v>111678300</v>
       </c>
       <c r="H61" s="3">
-        <v>92347300</v>
+        <v>109198200</v>
       </c>
       <c r="I61" s="3">
-        <v>139360500</v>
+        <v>91543400</v>
       </c>
       <c r="J61" s="3">
+        <v>138147300</v>
+      </c>
+      <c r="K61" s="3">
         <v>130447800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>123025100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>111790000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>117221400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>119220200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>120042200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>125667300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>116199700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>102072600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>105642400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>110444900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>102823600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>86373300</v>
+        <v>86098700</v>
       </c>
       <c r="E62" s="3">
-        <v>68667100</v>
+        <v>85621400</v>
       </c>
       <c r="F62" s="3">
-        <v>67724900</v>
+        <v>68069300</v>
       </c>
       <c r="G62" s="3">
-        <v>58585000</v>
+        <v>67135400</v>
       </c>
       <c r="H62" s="3">
-        <v>51873600</v>
+        <v>58075000</v>
       </c>
       <c r="I62" s="3">
-        <v>63995100</v>
+        <v>51422000</v>
       </c>
       <c r="J62" s="3">
+        <v>63438000</v>
+      </c>
+      <c r="K62" s="3">
         <v>60416600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>57662400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>56805100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>53391500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39442200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36707000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39577000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>39787300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40259300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27154100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22051300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29180400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>326588300</v>
+        <v>332151100</v>
       </c>
       <c r="E66" s="3">
-        <v>277848200</v>
+        <v>323745300</v>
       </c>
       <c r="F66" s="3">
-        <v>260494600</v>
+        <v>275429500</v>
       </c>
       <c r="G66" s="3">
-        <v>248414100</v>
+        <v>258227000</v>
       </c>
       <c r="H66" s="3">
-        <v>288048400</v>
+        <v>246251600</v>
       </c>
       <c r="I66" s="3">
-        <v>291346100</v>
+        <v>285540900</v>
       </c>
       <c r="J66" s="3">
+        <v>288809900</v>
+      </c>
+      <c r="K66" s="3">
         <v>271439800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>260138500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>260831000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>261490800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>251556700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>241599300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>236306300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>216119500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>211602200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>190835400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>186694500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>193103600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>80967800</v>
+        <v>64285600</v>
       </c>
       <c r="E72" s="3">
-        <v>63405000</v>
+        <v>80262900</v>
       </c>
       <c r="F72" s="3">
-        <v>53016300</v>
+        <v>62853100</v>
       </c>
       <c r="G72" s="3">
-        <v>47383500</v>
+        <v>52554800</v>
       </c>
       <c r="H72" s="3">
-        <v>36262100</v>
+        <v>46971000</v>
       </c>
       <c r="I72" s="3">
-        <v>49725000</v>
+        <v>35946400</v>
       </c>
       <c r="J72" s="3">
+        <v>49292200</v>
+      </c>
+      <c r="K72" s="3">
         <v>49558300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>56124200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>51033000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52347500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46177200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41186600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>35817000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>35543700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27448000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26570200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26240600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21110400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>93858300</v>
+        <v>97709700</v>
       </c>
       <c r="E76" s="3">
-        <v>70074100</v>
+        <v>93041300</v>
       </c>
       <c r="F76" s="3">
-        <v>67112300</v>
+        <v>69464100</v>
       </c>
       <c r="G76" s="3">
-        <v>60033100</v>
+        <v>66528100</v>
       </c>
       <c r="H76" s="3">
-        <v>54346100</v>
+        <v>59510500</v>
       </c>
       <c r="I76" s="3">
-        <v>70799000</v>
+        <v>53873000</v>
       </c>
       <c r="J76" s="3">
+        <v>70182700</v>
+      </c>
+      <c r="K76" s="3">
         <v>67199800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74998100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>69812800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72478000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>58120500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>51720100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>47124200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>49771400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41278100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34108100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31810900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27467000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17690500</v>
+        <v>6865600</v>
       </c>
       <c r="E81" s="3">
-        <v>10703600</v>
+        <v>17536500</v>
       </c>
       <c r="F81" s="3">
-        <v>5697400</v>
+        <v>10610400</v>
       </c>
       <c r="G81" s="3">
-        <v>11469900</v>
+        <v>5647800</v>
       </c>
       <c r="H81" s="3">
-        <v>-13289100</v>
+        <v>11370100</v>
       </c>
       <c r="I81" s="3">
-        <v>433100</v>
+        <v>-13173400</v>
       </c>
       <c r="J81" s="3">
+        <v>429300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6504900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10206200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1239300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6325200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4737800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2788300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>151100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8174400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>819600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>49900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5045900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>711900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2047800</v>
+        <v>1939600</v>
       </c>
       <c r="E83" s="3">
-        <v>1997700</v>
+        <v>2030000</v>
       </c>
       <c r="F83" s="3">
-        <v>1878300</v>
+        <v>1980300</v>
       </c>
       <c r="G83" s="3">
-        <v>1899800</v>
+        <v>1861900</v>
       </c>
       <c r="H83" s="3">
-        <v>4940800</v>
+        <v>1883300</v>
       </c>
       <c r="I83" s="3">
-        <v>4939600</v>
+        <v>4897800</v>
       </c>
       <c r="J83" s="3">
+        <v>4896600</v>
+      </c>
+      <c r="K83" s="3">
         <v>4403400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4554300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4029700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3936500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3841400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3682800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3940500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3632900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3421800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3362800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3690900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3293200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5833400</v>
+        <v>4622800</v>
       </c>
       <c r="E89" s="3">
-        <v>-5184300</v>
+        <v>5782600</v>
       </c>
       <c r="F89" s="3">
-        <v>3045100</v>
+        <v>-5139100</v>
       </c>
       <c r="G89" s="3">
-        <v>1415500</v>
+        <v>3018600</v>
       </c>
       <c r="H89" s="3">
-        <v>2326800</v>
+        <v>1403200</v>
       </c>
       <c r="I89" s="3">
-        <v>2298000</v>
+        <v>2306500</v>
       </c>
       <c r="J89" s="3">
+        <v>2278000</v>
+      </c>
+      <c r="K89" s="3">
         <v>8462600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5012300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2387800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1176300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4656500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2494500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1862100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1224800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4993100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1771400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3292700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>991900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1452400</v>
+        <v>-1609000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1375400</v>
+        <v>-1439700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1741800</v>
+        <v>-1363400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1375400</v>
+        <v>-1726600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2712400</v>
+        <v>-1363400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2770300</v>
+        <v>-2688800</v>
       </c>
       <c r="J91" s="3">
+        <v>-2746200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2910500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2924300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2741500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3340700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3367000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>3726200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6089900</v>
+        <v>-8889700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4445600</v>
+        <v>-6036900</v>
       </c>
       <c r="F94" s="3">
-        <v>-14366600</v>
+        <v>-4406900</v>
       </c>
       <c r="G94" s="3">
-        <v>11405700</v>
+        <v>-14241600</v>
       </c>
       <c r="H94" s="3">
-        <v>-4851100</v>
+        <v>11306400</v>
       </c>
       <c r="I94" s="3">
-        <v>-15011300</v>
+        <v>-4808800</v>
       </c>
       <c r="J94" s="3">
+        <v>-14880600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6962600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12530800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7329500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9066500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2069800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-340900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2300</v>
       </c>
-      <c r="E96" s="3">
-        <v>-377300</v>
-      </c>
       <c r="F96" s="3">
-        <v>-9600</v>
+        <v>-374100</v>
       </c>
       <c r="G96" s="3">
-        <v>-408100</v>
+        <v>-9500</v>
       </c>
       <c r="H96" s="3">
+        <v>-404500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1400</v>
       </c>
-      <c r="I96" s="3">
-        <v>-416700</v>
-      </c>
       <c r="J96" s="3">
+        <v>-413100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-207800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-218500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-212400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-215200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-7400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-209400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-195500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1272100</v>
+        <v>7161300</v>
       </c>
       <c r="E100" s="3">
-        <v>4269600</v>
+        <v>1261000</v>
       </c>
       <c r="F100" s="3">
-        <v>1614600</v>
+        <v>4232400</v>
       </c>
       <c r="G100" s="3">
-        <v>13007300</v>
+        <v>1600600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1321200</v>
+        <v>12894100</v>
       </c>
       <c r="I100" s="3">
-        <v>8028400</v>
+        <v>-1309700</v>
       </c>
       <c r="J100" s="3">
+        <v>7958500</v>
+      </c>
+      <c r="K100" s="3">
         <v>10703900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9400900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8349100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>27945500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1020900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-440900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15008200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7083500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>20048900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-235200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1511600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>920100</v>
+        <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>-641300</v>
+        <v>912100</v>
       </c>
       <c r="F101" s="3">
-        <v>-182900</v>
+        <v>-635700</v>
       </c>
       <c r="G101" s="3">
-        <v>16500</v>
+        <v>-181300</v>
       </c>
       <c r="H101" s="3">
-        <v>-158600</v>
+        <v>16400</v>
       </c>
       <c r="I101" s="3">
-        <v>508400</v>
+        <v>-157200</v>
       </c>
       <c r="J101" s="3">
+        <v>504000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-12100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-339800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>46800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-428200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>362200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>543800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-956200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>92900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>117100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>29700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-233700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1223700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1935700</v>
+        <v>2890900</v>
       </c>
       <c r="E102" s="3">
-        <v>-6001600</v>
+        <v>1918800</v>
       </c>
       <c r="F102" s="3">
-        <v>-9889800</v>
+        <v>-5949400</v>
       </c>
       <c r="G102" s="3">
-        <v>25845000</v>
+        <v>-9803800</v>
       </c>
       <c r="H102" s="3">
-        <v>-4004000</v>
+        <v>25620100</v>
       </c>
       <c r="I102" s="3">
-        <v>-4176500</v>
+        <v>-3969200</v>
       </c>
       <c r="J102" s="3">
+        <v>-4140200</v>
+      </c>
+      <c r="K102" s="3">
         <v>12191800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8481900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13244000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19627100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3969900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19659900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4926800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13474900</v>
+        <v>13253500</v>
       </c>
       <c r="E8" s="3">
-        <v>13575100</v>
+        <v>13031200</v>
       </c>
       <c r="F8" s="3">
-        <v>13733400</v>
+        <v>13128000</v>
       </c>
       <c r="G8" s="3">
-        <v>12303600</v>
+        <v>13281100</v>
       </c>
       <c r="H8" s="3">
-        <v>11660600</v>
+        <v>11898400</v>
       </c>
       <c r="I8" s="3">
-        <v>12185900</v>
+        <v>11276600</v>
       </c>
       <c r="J8" s="3">
+        <v>11784600</v>
+      </c>
+      <c r="K8" s="3">
         <v>12404000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11877700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21401400</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23033700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21810600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20659600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21338700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21697300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20114700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19762000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20574300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20486400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6077900</v>
+        <v>6002300</v>
       </c>
       <c r="E9" s="3">
-        <v>7137700</v>
+        <v>5877700</v>
       </c>
       <c r="F9" s="3">
-        <v>6914700</v>
+        <v>6902600</v>
       </c>
       <c r="G9" s="3">
-        <v>5723100</v>
+        <v>6687000</v>
       </c>
       <c r="H9" s="3">
-        <v>5306600</v>
+        <v>5534600</v>
       </c>
       <c r="I9" s="3">
-        <v>6292000</v>
+        <v>5131800</v>
       </c>
       <c r="J9" s="3">
+        <v>6084800</v>
+      </c>
+      <c r="K9" s="3">
         <v>6091300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5827500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12236400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-6092900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13829900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12877900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11968400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13484000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13469600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11743500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11346300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13146800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12612300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7397100</v>
+        <v>7251200</v>
       </c>
       <c r="E10" s="3">
-        <v>6437400</v>
+        <v>7153500</v>
       </c>
       <c r="F10" s="3">
-        <v>6818700</v>
+        <v>6225400</v>
       </c>
       <c r="G10" s="3">
-        <v>6580500</v>
+        <v>6594200</v>
       </c>
       <c r="H10" s="3">
-        <v>6354000</v>
+        <v>6363800</v>
       </c>
       <c r="I10" s="3">
-        <v>5893900</v>
+        <v>6144700</v>
       </c>
       <c r="J10" s="3">
+        <v>5699800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6312700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6050200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9165000</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9203800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8932700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8691200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7854700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8227600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8371200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8415700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7427500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7874200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,73 +1109,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-737700</v>
+        <v>-573800</v>
       </c>
       <c r="E14" s="3">
-        <v>508100</v>
+        <v>-713400</v>
       </c>
       <c r="F14" s="3">
-        <v>-440500</v>
+        <v>491400</v>
       </c>
       <c r="G14" s="3">
-        <v>-318100</v>
+        <v>-426000</v>
       </c>
       <c r="H14" s="3">
-        <v>-45200</v>
+        <v>-307600</v>
       </c>
       <c r="I14" s="3">
-        <v>-1458800</v>
+        <v>-43800</v>
       </c>
       <c r="J14" s="3">
+        <v>-1410800</v>
+      </c>
+      <c r="K14" s="3">
         <v>-5669100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8287900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3434100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-4413600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1151300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-4008600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-573900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-606200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-850800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>16700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1245,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-760300</v>
+        <v>25264700</v>
       </c>
       <c r="E17" s="3">
-        <v>-19987200</v>
+        <v>-735200</v>
       </c>
       <c r="F17" s="3">
-        <v>-4478200</v>
+        <v>-19329000</v>
       </c>
       <c r="G17" s="3">
-        <v>452200</v>
+        <v>-4330700</v>
       </c>
       <c r="H17" s="3">
-        <v>903600</v>
+        <v>437300</v>
       </c>
       <c r="I17" s="3">
-        <v>26559200</v>
+        <v>873800</v>
       </c>
       <c r="J17" s="3">
+        <v>25684500</v>
+      </c>
+      <c r="K17" s="3">
         <v>8923200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23043600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15091800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-12215800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19431700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15069400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14160300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19873100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19207400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16199900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15429300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19913900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17985400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14235200</v>
+        <v>-12011200</v>
       </c>
       <c r="E18" s="3">
-        <v>33562300</v>
+        <v>13766400</v>
       </c>
       <c r="F18" s="3">
-        <v>18211600</v>
+        <v>32457000</v>
       </c>
       <c r="G18" s="3">
-        <v>11851400</v>
+        <v>17611900</v>
       </c>
       <c r="H18" s="3">
-        <v>10757000</v>
+        <v>11461100</v>
       </c>
       <c r="I18" s="3">
-        <v>-14373300</v>
+        <v>10402700</v>
       </c>
       <c r="J18" s="3">
+        <v>-13900000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3480800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11166000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6309600</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3602000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6741200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6499300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1465600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2489800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3914800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4332600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>660400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2501000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,333 +1432,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1706400</v>
+        <v>10753900</v>
       </c>
       <c r="E20" s="3">
-        <v>-11772200</v>
+        <v>-1650200</v>
       </c>
       <c r="F20" s="3">
-        <v>-77700</v>
+        <v>-11384600</v>
       </c>
       <c r="G20" s="3">
-        <v>-5618600</v>
+        <v>-75200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2456700</v>
+        <v>-5433600</v>
       </c>
       <c r="I20" s="3">
-        <v>5142000</v>
+        <v>-2375800</v>
       </c>
       <c r="J20" s="3">
+        <v>4972700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-338400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6990200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10509900</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1571600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2452300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>52500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1891500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1199700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14468400</v>
+        <v>591400</v>
       </c>
       <c r="E21" s="3">
-        <v>23820000</v>
+        <v>13992000</v>
       </c>
       <c r="F21" s="3">
-        <v>20114200</v>
+        <v>23035600</v>
       </c>
       <c r="G21" s="3">
-        <v>8094700</v>
+        <v>19451800</v>
       </c>
       <c r="H21" s="3">
-        <v>10183500</v>
+        <v>7828100</v>
       </c>
       <c r="I21" s="3">
-        <v>-4333400</v>
+        <v>9848200</v>
       </c>
       <c r="J21" s="3">
+        <v>-4190700</v>
+      </c>
+      <c r="K21" s="3">
         <v>8039100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>227600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21373800</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9110000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13034900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10234600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3518900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8014200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5808700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5156700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2459900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6994000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>754300</v>
+        <v>905700</v>
       </c>
       <c r="E22" s="3">
-        <v>755500</v>
+        <v>729500</v>
       </c>
       <c r="F22" s="3">
-        <v>642400</v>
+        <v>730600</v>
       </c>
       <c r="G22" s="3">
-        <v>699800</v>
+        <v>621200</v>
       </c>
       <c r="H22" s="3">
-        <v>701400</v>
+        <v>676700</v>
       </c>
       <c r="I22" s="3">
-        <v>3455600</v>
+        <v>678300</v>
       </c>
       <c r="J22" s="3">
+        <v>3341800</v>
+      </c>
+      <c r="K22" s="3">
         <v>682800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>650500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1409200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1414100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1438600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1592700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1349600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1207100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1264500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1108200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1092700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1099400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1076300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11774500</v>
+        <v>-2162900</v>
       </c>
       <c r="E23" s="3">
-        <v>21034600</v>
+        <v>11386700</v>
       </c>
       <c r="F23" s="3">
-        <v>17491500</v>
+        <v>20341900</v>
       </c>
       <c r="G23" s="3">
-        <v>5533000</v>
+        <v>16915500</v>
       </c>
       <c r="H23" s="3">
-        <v>7598800</v>
+        <v>5350800</v>
       </c>
       <c r="I23" s="3">
-        <v>-12686800</v>
+        <v>7348600</v>
       </c>
       <c r="J23" s="3">
+        <v>-12269000</v>
+      </c>
+      <c r="K23" s="3">
         <v>2459600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4826200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15410300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1164800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3734900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7600800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5202200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3116800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1278700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>701200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2624500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3279500</v>
+        <v>853300</v>
       </c>
       <c r="E24" s="3">
-        <v>2980700</v>
+        <v>3171500</v>
       </c>
       <c r="F24" s="3">
-        <v>6410700</v>
+        <v>2882500</v>
       </c>
       <c r="G24" s="3">
-        <v>183300</v>
+        <v>6199600</v>
       </c>
       <c r="H24" s="3">
-        <v>2297200</v>
+        <v>177300</v>
       </c>
       <c r="I24" s="3">
-        <v>553400</v>
+        <v>2221500</v>
       </c>
       <c r="J24" s="3">
+        <v>535200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1279400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>788100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4624600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2711700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2631100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2219600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>255400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>425100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1761000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8495000</v>
+        <v>-3016200</v>
       </c>
       <c r="E26" s="3">
-        <v>18053900</v>
+        <v>8215200</v>
       </c>
       <c r="F26" s="3">
-        <v>11080800</v>
+        <v>17459400</v>
       </c>
       <c r="G26" s="3">
-        <v>5349700</v>
+        <v>10715900</v>
       </c>
       <c r="H26" s="3">
-        <v>5301700</v>
+        <v>5173500</v>
       </c>
       <c r="I26" s="3">
-        <v>-13240200</v>
+        <v>5127100</v>
       </c>
       <c r="J26" s="3">
+        <v>-12804200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1180300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5614400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10785700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1179900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6446700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4969800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2982600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>318800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9573400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1023300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>276100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5047000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>863400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6865600</v>
+        <v>-3575100</v>
       </c>
       <c r="E27" s="3">
-        <v>17538600</v>
+        <v>6639500</v>
       </c>
       <c r="F27" s="3">
-        <v>10601400</v>
+        <v>16961000</v>
       </c>
       <c r="G27" s="3">
-        <v>5868900</v>
+        <v>10252300</v>
       </c>
       <c r="H27" s="3">
-        <v>4679200</v>
+        <v>5675700</v>
       </c>
       <c r="I27" s="3">
-        <v>-13138300</v>
+        <v>4525100</v>
       </c>
       <c r="J27" s="3">
+        <v>-12705700</v>
+      </c>
+      <c r="K27" s="3">
         <v>477400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6189100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10206200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1321500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6325200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4737800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2788300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>151100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8174400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>819600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>49900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5032700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>758700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,43 +2042,46 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>-2100</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>9000</v>
+        <v>-2000</v>
       </c>
       <c r="G29" s="3">
-        <v>-221100</v>
+        <v>8700</v>
       </c>
       <c r="H29" s="3">
-        <v>6690900</v>
+        <v>-213800</v>
       </c>
       <c r="I29" s="3">
-        <v>-35000</v>
+        <v>6470600</v>
       </c>
       <c r="J29" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-48100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-315900</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>82100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2041,17 +2101,20 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>13300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-46800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1706400</v>
+        <v>-10753900</v>
       </c>
       <c r="E32" s="3">
-        <v>11772200</v>
+        <v>1650200</v>
       </c>
       <c r="F32" s="3">
-        <v>77700</v>
+        <v>11384600</v>
       </c>
       <c r="G32" s="3">
-        <v>5618600</v>
+        <v>75200</v>
       </c>
       <c r="H32" s="3">
-        <v>2456700</v>
+        <v>5433600</v>
       </c>
       <c r="I32" s="3">
-        <v>-5142000</v>
+        <v>2375800</v>
       </c>
       <c r="J32" s="3">
+        <v>-4972700</v>
+      </c>
+      <c r="K32" s="3">
         <v>338400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6990200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10509900</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1571600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2452300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-52500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1887200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1527900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2538700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1891400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6865600</v>
+        <v>-3575100</v>
       </c>
       <c r="E33" s="3">
-        <v>17536500</v>
+        <v>6639500</v>
       </c>
       <c r="F33" s="3">
-        <v>10610400</v>
+        <v>16959000</v>
       </c>
       <c r="G33" s="3">
-        <v>5647800</v>
+        <v>10261000</v>
       </c>
       <c r="H33" s="3">
-        <v>11370100</v>
+        <v>5461800</v>
       </c>
       <c r="I33" s="3">
-        <v>-13173400</v>
+        <v>10995700</v>
       </c>
       <c r="J33" s="3">
+        <v>-12739600</v>
+      </c>
+      <c r="K33" s="3">
         <v>429300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6504900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10206200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1239300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6325200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4737800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2788300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>151100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8174400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>819600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>49900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5045900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>711900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6865600</v>
+        <v>-3575100</v>
       </c>
       <c r="E35" s="3">
-        <v>17536500</v>
+        <v>6639500</v>
       </c>
       <c r="F35" s="3">
-        <v>10610400</v>
+        <v>16959000</v>
       </c>
       <c r="G35" s="3">
-        <v>5647800</v>
+        <v>10261000</v>
       </c>
       <c r="H35" s="3">
-        <v>11370100</v>
+        <v>5461800</v>
       </c>
       <c r="I35" s="3">
-        <v>-13173400</v>
+        <v>10995700</v>
       </c>
       <c r="J35" s="3">
+        <v>-12739600</v>
+      </c>
+      <c r="K35" s="3">
         <v>429300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6504900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10206200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1239300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6325200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4737800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2788300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>151100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8174400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>819600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>49900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5045900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>711900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,593 +2645,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45368400</v>
+        <v>44872600</v>
       </c>
       <c r="E41" s="3">
-        <v>42477400</v>
+        <v>43874300</v>
       </c>
       <c r="F41" s="3">
-        <v>40558600</v>
+        <v>41078600</v>
       </c>
       <c r="G41" s="3">
-        <v>46508000</v>
+        <v>39223000</v>
       </c>
       <c r="H41" s="3">
-        <v>56311800</v>
+        <v>44976500</v>
       </c>
       <c r="I41" s="3">
-        <v>30691700</v>
+        <v>54457400</v>
       </c>
       <c r="J41" s="3">
+        <v>29681000</v>
+      </c>
+      <c r="K41" s="3">
         <v>34660900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39141800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26862100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35349600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48588000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28960900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24800100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30312000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30196800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31303200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11643200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19364100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>22163900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13713300</v>
+        <v>5606400</v>
       </c>
       <c r="E42" s="3">
-        <v>20846000</v>
+        <v>13261700</v>
       </c>
       <c r="F42" s="3">
-        <v>21913100</v>
+        <v>20159500</v>
       </c>
       <c r="G42" s="3">
-        <v>17246400</v>
+        <v>21191500</v>
       </c>
       <c r="H42" s="3">
-        <v>2394600</v>
+        <v>16678400</v>
       </c>
       <c r="I42" s="3">
-        <v>2855900</v>
+        <v>2315800</v>
       </c>
       <c r="J42" s="3">
+        <v>2761800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1370900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1658500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1758000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1858200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5601400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5969000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7167800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4721700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1881400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4880300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6051800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7048900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4023600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19503000</v>
+        <v>17593600</v>
       </c>
       <c r="E43" s="3">
-        <v>22909000</v>
+        <v>18860800</v>
       </c>
       <c r="F43" s="3">
-        <v>20377100</v>
+        <v>22154600</v>
       </c>
       <c r="G43" s="3">
-        <v>17753100</v>
+        <v>19706100</v>
       </c>
       <c r="H43" s="3">
-        <v>20565500</v>
+        <v>17168500</v>
       </c>
       <c r="I43" s="3">
-        <v>22132300</v>
+        <v>19888200</v>
       </c>
       <c r="J43" s="3">
+        <v>21403400</v>
+      </c>
+      <c r="K43" s="3">
         <v>24108600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20975400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20929300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27033100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22102200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20810100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20322500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21037500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21080500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19335800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>18760900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>19631000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>19570700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1092300</v>
+        <v>1133000</v>
       </c>
       <c r="E44" s="3">
-        <v>1155400</v>
+        <v>1056300</v>
       </c>
       <c r="F44" s="3">
-        <v>1456900</v>
+        <v>1117400</v>
       </c>
       <c r="G44" s="3">
-        <v>1213900</v>
+        <v>1408900</v>
       </c>
       <c r="H44" s="3">
-        <v>1674500</v>
+        <v>1173900</v>
       </c>
       <c r="I44" s="3">
-        <v>1686200</v>
+        <v>1619300</v>
       </c>
       <c r="J44" s="3">
+        <v>1630700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2987300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2773900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2915900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3345800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3598500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3133100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3016300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3291000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3276200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3070400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3217800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3027700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3646500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12346300</v>
+        <v>9904900</v>
       </c>
       <c r="E45" s="3">
-        <v>11183900</v>
+        <v>11939700</v>
       </c>
       <c r="F45" s="3">
-        <v>7404000</v>
+        <v>10815600</v>
       </c>
       <c r="G45" s="3">
-        <v>12080300</v>
+        <v>7160100</v>
       </c>
       <c r="H45" s="3">
-        <v>4423900</v>
+        <v>11682500</v>
       </c>
       <c r="I45" s="3">
-        <v>85086400</v>
+        <v>4278200</v>
       </c>
       <c r="J45" s="3">
+        <v>82284500</v>
+      </c>
+      <c r="K45" s="3">
         <v>5210400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3895400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8223900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3476400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2922600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2703400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7241400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3130400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2768500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2546200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3420900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1700000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1589500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>92023300</v>
+        <v>79110500</v>
       </c>
       <c r="E46" s="3">
-        <v>98571700</v>
+        <v>88992900</v>
       </c>
       <c r="F46" s="3">
-        <v>91709700</v>
+        <v>95325700</v>
       </c>
       <c r="G46" s="3">
-        <v>94801700</v>
+        <v>88689600</v>
       </c>
       <c r="H46" s="3">
-        <v>85370300</v>
+        <v>91679800</v>
       </c>
       <c r="I46" s="3">
-        <v>142452600</v>
+        <v>82558900</v>
       </c>
       <c r="J46" s="3">
+        <v>137761500</v>
+      </c>
+      <c r="K46" s="3">
         <v>68338100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>68445100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>60689100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>71063200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>82812600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>61576500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>62548000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>62492500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>59203400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>61136000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>43094700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>50771700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>50994200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>99477000</v>
+        <v>96744300</v>
       </c>
       <c r="E47" s="3">
-        <v>90213300</v>
+        <v>96201200</v>
       </c>
       <c r="F47" s="3">
-        <v>76457400</v>
+        <v>87242500</v>
       </c>
       <c r="G47" s="3">
-        <v>69745300</v>
+        <v>73939600</v>
       </c>
       <c r="H47" s="3">
-        <v>68654700</v>
+        <v>67448500</v>
       </c>
       <c r="I47" s="3">
-        <v>50162900</v>
+        <v>66393800</v>
       </c>
       <c r="J47" s="3">
+        <v>48511000</v>
+      </c>
+      <c r="K47" s="3">
         <v>55211200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>47849700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>46215400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>41510400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42776400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>61214000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>56022200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>51496000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>35578100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>30224400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>34602700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>28588600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>28078900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25934300</v>
+        <v>23938700</v>
       </c>
       <c r="E48" s="3">
-        <v>25650100</v>
+        <v>25080300</v>
       </c>
       <c r="F48" s="3">
-        <v>24375000</v>
+        <v>24805400</v>
       </c>
       <c r="G48" s="3">
-        <v>24259000</v>
+        <v>23572300</v>
       </c>
       <c r="H48" s="3">
-        <v>22992300</v>
+        <v>23460100</v>
       </c>
       <c r="I48" s="3">
-        <v>23305300</v>
+        <v>22235200</v>
       </c>
       <c r="J48" s="3">
+        <v>22537800</v>
+      </c>
+      <c r="K48" s="3">
         <v>48271100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>47750200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>47879500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37287600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37440800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>37449900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36141000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35058700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35804300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35314700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35342200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35278200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>36248600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>63399400</v>
+        <v>62711400</v>
       </c>
       <c r="E49" s="3">
-        <v>63704300</v>
+        <v>61311600</v>
       </c>
       <c r="F49" s="3">
-        <v>52245600</v>
+        <v>61606500</v>
       </c>
       <c r="G49" s="3">
-        <v>53210100</v>
+        <v>50525100</v>
       </c>
       <c r="H49" s="3">
-        <v>54337500</v>
+        <v>51457800</v>
       </c>
       <c r="I49" s="3">
-        <v>54515500</v>
+        <v>52548100</v>
       </c>
       <c r="J49" s="3">
+        <v>52720300</v>
+      </c>
+      <c r="K49" s="3">
         <v>106708100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>98438000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>99057400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>102717100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>101859900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>105103400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>101651800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>100781800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>104424800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>102922300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>101709400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>98653100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>100523000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>149026800</v>
+        <v>144700400</v>
       </c>
       <c r="E52" s="3">
-        <v>138647300</v>
+        <v>144119200</v>
       </c>
       <c r="F52" s="3">
-        <v>100105900</v>
+        <v>134081500</v>
       </c>
       <c r="G52" s="3">
-        <v>82739000</v>
+        <v>96809400</v>
       </c>
       <c r="H52" s="3">
-        <v>74407400</v>
+        <v>80014300</v>
       </c>
       <c r="I52" s="3">
-        <v>68977700</v>
+        <v>71957100</v>
       </c>
       <c r="J52" s="3">
+        <v>66706200</v>
+      </c>
+      <c r="K52" s="3">
         <v>80464100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76156600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>81295200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>78065400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>69079000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>44333300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>36956300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33601500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>30880300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>23282900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10194500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5213900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4725800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>429860800</v>
+        <v>407205100</v>
       </c>
       <c r="E54" s="3">
-        <v>416786600</v>
+        <v>415705100</v>
       </c>
       <c r="F54" s="3">
-        <v>344893600</v>
+        <v>403061500</v>
       </c>
       <c r="G54" s="3">
-        <v>324755100</v>
+        <v>333536000</v>
       </c>
       <c r="H54" s="3">
-        <v>305762100</v>
+        <v>314060600</v>
       </c>
       <c r="I54" s="3">
-        <v>339413900</v>
+        <v>295693100</v>
       </c>
       <c r="J54" s="3">
+        <v>328236700</v>
+      </c>
+      <c r="K54" s="3">
         <v>358992600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>338639600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>335136600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>330643700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>333968800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>309677200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>293319400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>283430400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>265891000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>252880300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>224943500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>218505500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>220570600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,398 +3649,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15442700</v>
+        <v>13589100</v>
       </c>
       <c r="E57" s="3">
-        <v>14039200</v>
+        <v>14934200</v>
       </c>
       <c r="F57" s="3">
-        <v>14837200</v>
+        <v>13576900</v>
       </c>
       <c r="G57" s="3">
-        <v>12117200</v>
+        <v>14348600</v>
       </c>
       <c r="H57" s="3">
-        <v>14615900</v>
+        <v>11718200</v>
       </c>
       <c r="I57" s="3">
-        <v>11753600</v>
+        <v>14134600</v>
       </c>
       <c r="J57" s="3">
+        <v>11366500</v>
+      </c>
+      <c r="K57" s="3">
         <v>18337600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16117700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16056600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15549600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17064400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16609200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15159300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16507500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15766500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14560700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13257100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14258100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14983600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>81398800</v>
+        <v>65161700</v>
       </c>
       <c r="E58" s="3">
-        <v>73268900</v>
+        <v>78718200</v>
       </c>
       <c r="F58" s="3">
-        <v>51648900</v>
+        <v>70856100</v>
       </c>
       <c r="G58" s="3">
-        <v>29506800</v>
+        <v>49948100</v>
       </c>
       <c r="H58" s="3">
-        <v>35369400</v>
+        <v>28535100</v>
       </c>
       <c r="I58" s="3">
-        <v>38476400</v>
+        <v>34204700</v>
       </c>
       <c r="J58" s="3">
+        <v>37209400</v>
+      </c>
+      <c r="K58" s="3">
         <v>37220200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>35786500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>35713700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31885600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>38991300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>45547700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>37659800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>29246200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27039100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>39373000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>29719200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23896600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>30472600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21085800</v>
+        <v>19933300</v>
       </c>
       <c r="E59" s="3">
-        <v>30128500</v>
+        <v>20391400</v>
       </c>
       <c r="F59" s="3">
-        <v>22889100</v>
+        <v>29136400</v>
       </c>
       <c r="G59" s="3">
-        <v>27605700</v>
+        <v>22135300</v>
       </c>
       <c r="H59" s="3">
-        <v>19479200</v>
+        <v>26696600</v>
       </c>
       <c r="I59" s="3">
-        <v>79051300</v>
+        <v>18837700</v>
       </c>
       <c r="J59" s="3">
+        <v>76448000</v>
+      </c>
+      <c r="K59" s="3">
         <v>18115600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16619800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16159500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32089100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22236900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21594700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21746600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15410600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7715700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7180600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7091800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8208100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7792700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>117927300</v>
+        <v>98684200</v>
       </c>
       <c r="E60" s="3">
-        <v>117436600</v>
+        <v>114043800</v>
       </c>
       <c r="F60" s="3">
-        <v>89375200</v>
+        <v>113569300</v>
       </c>
       <c r="G60" s="3">
-        <v>69229700</v>
+        <v>86432000</v>
       </c>
       <c r="H60" s="3">
-        <v>69464500</v>
+        <v>66949900</v>
       </c>
       <c r="I60" s="3">
-        <v>129281200</v>
+        <v>67176900</v>
       </c>
       <c r="J60" s="3">
+        <v>125023900</v>
+      </c>
+      <c r="K60" s="3">
         <v>73673500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68524000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67929800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>79524300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>78292600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>83751600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>74565700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>61164400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>50521300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>61114300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>50068100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>46362800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>53248900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>112040800</v>
+        <v>120724500</v>
       </c>
       <c r="E61" s="3">
-        <v>104813200</v>
+        <v>108351200</v>
       </c>
       <c r="F61" s="3">
-        <v>108899900</v>
+        <v>101361600</v>
       </c>
       <c r="G61" s="3">
-        <v>111678300</v>
+        <v>105313700</v>
       </c>
       <c r="H61" s="3">
-        <v>109198200</v>
+        <v>108000700</v>
       </c>
       <c r="I61" s="3">
-        <v>91543400</v>
+        <v>105602200</v>
       </c>
       <c r="J61" s="3">
+        <v>88528800</v>
+      </c>
+      <c r="K61" s="3">
         <v>138147300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>130447800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>123025100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>111790000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>117221400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>119220200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>120042200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>125667300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>116199700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>102072600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>105642400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>110444900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>102823600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>86098700</v>
+        <v>79085800</v>
       </c>
       <c r="E62" s="3">
-        <v>85621400</v>
+        <v>83263400</v>
       </c>
       <c r="F62" s="3">
-        <v>68069300</v>
+        <v>82801800</v>
       </c>
       <c r="G62" s="3">
-        <v>67135400</v>
+        <v>65827800</v>
       </c>
       <c r="H62" s="3">
-        <v>58075000</v>
+        <v>64924500</v>
       </c>
       <c r="I62" s="3">
-        <v>51422000</v>
+        <v>56162500</v>
       </c>
       <c r="J62" s="3">
+        <v>49728700</v>
+      </c>
+      <c r="K62" s="3">
         <v>63438000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>60416600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>57662400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>56805100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>53391500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>39442200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36707000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>39577000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39787300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40259300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27154100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22051300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>29180400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>332151100</v>
+        <v>314272300</v>
       </c>
       <c r="E66" s="3">
-        <v>323745300</v>
+        <v>321213100</v>
       </c>
       <c r="F66" s="3">
-        <v>275429500</v>
+        <v>313084100</v>
       </c>
       <c r="G66" s="3">
-        <v>258227000</v>
+        <v>266359400</v>
       </c>
       <c r="H66" s="3">
-        <v>246251600</v>
+        <v>249723400</v>
       </c>
       <c r="I66" s="3">
-        <v>285540900</v>
+        <v>238142300</v>
       </c>
       <c r="J66" s="3">
+        <v>276137800</v>
+      </c>
+      <c r="K66" s="3">
         <v>288809900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>271439800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>260138500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>260831000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>261490800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>251556700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>241599300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>236306300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>216119500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>211602200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>190835400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>186694500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>193103600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>64285600</v>
+        <v>58518600</v>
       </c>
       <c r="E72" s="3">
-        <v>80262900</v>
+        <v>62168700</v>
       </c>
       <c r="F72" s="3">
-        <v>62853100</v>
+        <v>77619800</v>
       </c>
       <c r="G72" s="3">
-        <v>52554800</v>
+        <v>60783300</v>
       </c>
       <c r="H72" s="3">
-        <v>46971000</v>
+        <v>50824100</v>
       </c>
       <c r="I72" s="3">
-        <v>35946400</v>
+        <v>45424200</v>
       </c>
       <c r="J72" s="3">
+        <v>34762700</v>
+      </c>
+      <c r="K72" s="3">
         <v>49292200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49558300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>56124200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>51033000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52347500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46177200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41186600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>35817000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>35543700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27448000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26570200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26240600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21110400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>97709700</v>
+        <v>92932800</v>
       </c>
       <c r="E76" s="3">
-        <v>93041300</v>
+        <v>94492100</v>
       </c>
       <c r="F76" s="3">
-        <v>69464100</v>
+        <v>89977300</v>
       </c>
       <c r="G76" s="3">
-        <v>66528100</v>
+        <v>67176600</v>
       </c>
       <c r="H76" s="3">
-        <v>59510500</v>
+        <v>64337300</v>
       </c>
       <c r="I76" s="3">
-        <v>53873000</v>
+        <v>57550800</v>
       </c>
       <c r="J76" s="3">
+        <v>52098900</v>
+      </c>
+      <c r="K76" s="3">
         <v>70182700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>67199800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74998100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>69812800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72478000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>58120500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51720100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>47124200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>49771400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41278100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34108100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31810900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27467000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6865600</v>
+        <v>-3575100</v>
       </c>
       <c r="E81" s="3">
-        <v>17536500</v>
+        <v>6639500</v>
       </c>
       <c r="F81" s="3">
-        <v>10610400</v>
+        <v>16959000</v>
       </c>
       <c r="G81" s="3">
-        <v>5647800</v>
+        <v>10261000</v>
       </c>
       <c r="H81" s="3">
-        <v>11370100</v>
+        <v>5461800</v>
       </c>
       <c r="I81" s="3">
-        <v>-13173400</v>
+        <v>10995700</v>
       </c>
       <c r="J81" s="3">
+        <v>-12739600</v>
+      </c>
+      <c r="K81" s="3">
         <v>429300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6504900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10206200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1239300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6325200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4737800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2788300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>151100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8174400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>819600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>49900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5045900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>711900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1939600</v>
+        <v>1848700</v>
       </c>
       <c r="E83" s="3">
-        <v>2030000</v>
+        <v>1875800</v>
       </c>
       <c r="F83" s="3">
-        <v>1980300</v>
+        <v>1963100</v>
       </c>
       <c r="G83" s="3">
-        <v>1861900</v>
+        <v>1915100</v>
       </c>
       <c r="H83" s="3">
-        <v>1883300</v>
+        <v>1800600</v>
       </c>
       <c r="I83" s="3">
-        <v>4897800</v>
+        <v>1821300</v>
       </c>
       <c r="J83" s="3">
+        <v>4736500</v>
+      </c>
+      <c r="K83" s="3">
         <v>4896600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4403400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4554300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4029700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3936500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3841400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3682800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3940500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3632900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3421800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3362800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3690900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3293200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4622800</v>
+        <v>13838800</v>
       </c>
       <c r="E89" s="3">
-        <v>5782600</v>
+        <v>4470500</v>
       </c>
       <c r="F89" s="3">
-        <v>-5139100</v>
+        <v>5592200</v>
       </c>
       <c r="G89" s="3">
-        <v>3018600</v>
+        <v>-4969900</v>
       </c>
       <c r="H89" s="3">
-        <v>1403200</v>
+        <v>2919200</v>
       </c>
       <c r="I89" s="3">
-        <v>2306500</v>
+        <v>1357000</v>
       </c>
       <c r="J89" s="3">
+        <v>2230600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2278000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8462600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5012300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2387800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1176300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4656500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2494500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1862100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1224800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4993100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1771400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3292700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>991900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1609000</v>
+        <v>-3158400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1439700</v>
+        <v>-1556000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1363400</v>
+        <v>-1392300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1726600</v>
+        <v>-1318500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1363400</v>
+        <v>-1669700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2688800</v>
+        <v>-1318500</v>
       </c>
       <c r="J91" s="3">
+        <v>-2600300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2746200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2910500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2924300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2741500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3340700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3367000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>3726200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8889700</v>
+        <v>-8641400</v>
       </c>
       <c r="E94" s="3">
-        <v>-6036900</v>
+        <v>-8597000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4406900</v>
+        <v>-5838100</v>
       </c>
       <c r="G94" s="3">
-        <v>-14241600</v>
+        <v>-4261800</v>
       </c>
       <c r="H94" s="3">
-        <v>11306400</v>
+        <v>-13772600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4808800</v>
+        <v>10934100</v>
       </c>
       <c r="J94" s="3">
+        <v>-4650500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-14880600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6962600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12530800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7329500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9066500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2069800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-340900</v>
+        <v>-6900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2300</v>
+        <v>-329600</v>
       </c>
       <c r="F96" s="3">
-        <v>-374100</v>
+        <v>-2200</v>
       </c>
       <c r="G96" s="3">
-        <v>-9500</v>
+        <v>-361700</v>
       </c>
       <c r="H96" s="3">
-        <v>-404500</v>
+        <v>-9200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1400</v>
+        <v>-391200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-413100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-207800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-218500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-212400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-215200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-7400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-209400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-195500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6272,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7161300</v>
+        <v>-4683900</v>
       </c>
       <c r="E100" s="3">
-        <v>1261000</v>
+        <v>6925500</v>
       </c>
       <c r="F100" s="3">
-        <v>4232400</v>
+        <v>1219500</v>
       </c>
       <c r="G100" s="3">
-        <v>1600600</v>
+        <v>4093000</v>
       </c>
       <c r="H100" s="3">
-        <v>12894100</v>
+        <v>1547900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1309700</v>
+        <v>12469500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1266600</v>
+      </c>
+      <c r="K100" s="3">
         <v>7958500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10703900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9400900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8349100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>27945500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1020900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-440900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15008200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7083500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>20048900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-235200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1511600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3400</v>
+        <v>484800</v>
       </c>
       <c r="E101" s="3">
-        <v>912100</v>
+        <v>-3300</v>
       </c>
       <c r="F101" s="3">
-        <v>-635700</v>
+        <v>882100</v>
       </c>
       <c r="G101" s="3">
-        <v>-181300</v>
+        <v>-614800</v>
       </c>
       <c r="H101" s="3">
-        <v>16400</v>
+        <v>-175400</v>
       </c>
       <c r="I101" s="3">
-        <v>-157200</v>
+        <v>15800</v>
       </c>
       <c r="J101" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="K101" s="3">
         <v>504000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-339800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>46800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-428200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>362200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>543800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-956200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>92900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>117100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>29700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-233700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1223700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2890900</v>
+        <v>998200</v>
       </c>
       <c r="E102" s="3">
-        <v>1918800</v>
+        <v>2795700</v>
       </c>
       <c r="F102" s="3">
-        <v>-5949400</v>
+        <v>1855600</v>
       </c>
       <c r="G102" s="3">
-        <v>-9803800</v>
+        <v>-5753500</v>
       </c>
       <c r="H102" s="3">
-        <v>25620100</v>
+        <v>-9480900</v>
       </c>
       <c r="I102" s="3">
-        <v>-3969200</v>
+        <v>24776400</v>
       </c>
       <c r="J102" s="3">
+        <v>-3838500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4140200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12191800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8481900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13244000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19627100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3969900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-51800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19659900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4926800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13253500</v>
+        <v>13625300</v>
       </c>
       <c r="E8" s="3">
-        <v>13031200</v>
+        <v>12832300</v>
       </c>
       <c r="F8" s="3">
-        <v>13128000</v>
+        <v>12617000</v>
       </c>
       <c r="G8" s="3">
-        <v>13281100</v>
+        <v>12710800</v>
       </c>
       <c r="H8" s="3">
-        <v>11898400</v>
+        <v>12859000</v>
       </c>
       <c r="I8" s="3">
-        <v>11276600</v>
+        <v>11520300</v>
       </c>
       <c r="J8" s="3">
+        <v>10918200</v>
+      </c>
+      <c r="K8" s="3">
         <v>11784600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12404000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11877700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21401400</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23033700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21810600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20659600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21338700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21697300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20114700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19762000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20574300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20486400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6002300</v>
+        <v>6443600</v>
       </c>
       <c r="E9" s="3">
-        <v>5877700</v>
+        <v>5811600</v>
       </c>
       <c r="F9" s="3">
-        <v>6902600</v>
+        <v>5690900</v>
       </c>
       <c r="G9" s="3">
-        <v>6687000</v>
+        <v>6683300</v>
       </c>
       <c r="H9" s="3">
-        <v>5534600</v>
+        <v>6474400</v>
       </c>
       <c r="I9" s="3">
-        <v>5131800</v>
+        <v>5358700</v>
       </c>
       <c r="J9" s="3">
+        <v>4968700</v>
+      </c>
+      <c r="K9" s="3">
         <v>6084800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6091300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5827500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12236400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-6092900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13829900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12877900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11968400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13484000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13469600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11743500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11346300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13146800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12612300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7251200</v>
+        <v>7181700</v>
       </c>
       <c r="E10" s="3">
-        <v>7153500</v>
+        <v>7020700</v>
       </c>
       <c r="F10" s="3">
-        <v>6225400</v>
+        <v>6926100</v>
       </c>
       <c r="G10" s="3">
-        <v>6594200</v>
+        <v>6027500</v>
       </c>
       <c r="H10" s="3">
-        <v>6363800</v>
+        <v>6384600</v>
       </c>
       <c r="I10" s="3">
-        <v>6144700</v>
+        <v>6161600</v>
       </c>
       <c r="J10" s="3">
+        <v>5949400</v>
+      </c>
+      <c r="K10" s="3">
         <v>5699800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6312700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6050200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9165000</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9203800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8932700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8691200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7854700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8227600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8371200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8415700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7427500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7874200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,76 +1128,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-573800</v>
+        <v>-218300</v>
       </c>
       <c r="E14" s="3">
-        <v>-713400</v>
+        <v>-555500</v>
       </c>
       <c r="F14" s="3">
-        <v>491400</v>
+        <v>-690800</v>
       </c>
       <c r="G14" s="3">
-        <v>-426000</v>
+        <v>475800</v>
       </c>
       <c r="H14" s="3">
-        <v>-307600</v>
+        <v>-412400</v>
       </c>
       <c r="I14" s="3">
-        <v>-43800</v>
+        <v>-297900</v>
       </c>
       <c r="J14" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1410800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5669100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8287900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3434100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-4413600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1151300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-4008600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-573900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-606200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-850800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>16700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9200</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1270,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25264700</v>
+        <v>13213500</v>
       </c>
       <c r="E17" s="3">
-        <v>-735200</v>
+        <v>24461700</v>
       </c>
       <c r="F17" s="3">
-        <v>-19329000</v>
+        <v>-711900</v>
       </c>
       <c r="G17" s="3">
-        <v>-4330700</v>
+        <v>-18714700</v>
       </c>
       <c r="H17" s="3">
-        <v>437300</v>
+        <v>-4193100</v>
       </c>
       <c r="I17" s="3">
-        <v>873800</v>
+        <v>423400</v>
       </c>
       <c r="J17" s="3">
+        <v>846100</v>
+      </c>
+      <c r="K17" s="3">
         <v>25684500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8923200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23043600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15091800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-12215800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19431700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15069400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14160300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19873100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19207400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16199900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15429300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19913900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17985400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-12011200</v>
+        <v>411800</v>
       </c>
       <c r="E18" s="3">
-        <v>13766400</v>
+        <v>-11629400</v>
       </c>
       <c r="F18" s="3">
-        <v>32457000</v>
+        <v>13328900</v>
       </c>
       <c r="G18" s="3">
-        <v>17611900</v>
+        <v>31425500</v>
       </c>
       <c r="H18" s="3">
-        <v>11461100</v>
+        <v>17052100</v>
       </c>
       <c r="I18" s="3">
-        <v>10402700</v>
+        <v>11096900</v>
       </c>
       <c r="J18" s="3">
+        <v>10072100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13900000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3480800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11166000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6309600</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3602000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6741200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6499300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1465600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2489800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3914800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4332600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>660400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2501000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,348 +1465,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10753900</v>
+        <v>2018500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1650200</v>
+        <v>10412200</v>
       </c>
       <c r="F20" s="3">
-        <v>-11384600</v>
+        <v>-1597800</v>
       </c>
       <c r="G20" s="3">
-        <v>-75200</v>
+        <v>-11022700</v>
       </c>
       <c r="H20" s="3">
-        <v>-5433600</v>
+        <v>-72800</v>
       </c>
       <c r="I20" s="3">
-        <v>-2375800</v>
+        <v>-5260900</v>
       </c>
       <c r="J20" s="3">
+        <v>-2300300</v>
+      </c>
+      <c r="K20" s="3">
         <v>4972700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-338400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6990200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10509900</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1571600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2452300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>52500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1891500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1199700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>591400</v>
+        <v>4228000</v>
       </c>
       <c r="E21" s="3">
-        <v>13992000</v>
+        <v>572600</v>
       </c>
       <c r="F21" s="3">
-        <v>23035600</v>
+        <v>13547300</v>
       </c>
       <c r="G21" s="3">
-        <v>19451800</v>
+        <v>22303500</v>
       </c>
       <c r="H21" s="3">
-        <v>7828100</v>
+        <v>18833600</v>
       </c>
       <c r="I21" s="3">
-        <v>9848200</v>
+        <v>7579300</v>
       </c>
       <c r="J21" s="3">
+        <v>9535200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4190700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8039100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>227600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21373800</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9110000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13034900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10234600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3518900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8014200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5808700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5156700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2459900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6994000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>905700</v>
+        <v>828800</v>
       </c>
       <c r="E22" s="3">
-        <v>729500</v>
+        <v>876900</v>
       </c>
       <c r="F22" s="3">
-        <v>730600</v>
+        <v>706300</v>
       </c>
       <c r="G22" s="3">
-        <v>621200</v>
+        <v>707400</v>
       </c>
       <c r="H22" s="3">
-        <v>676700</v>
+        <v>601500</v>
       </c>
       <c r="I22" s="3">
-        <v>678300</v>
+        <v>655200</v>
       </c>
       <c r="J22" s="3">
+        <v>656800</v>
+      </c>
+      <c r="K22" s="3">
         <v>3341800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>682800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>650500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1409200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1414100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1438600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1592700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1349600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1207100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1264500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1108200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1092700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1099400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1076300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2162900</v>
+        <v>1601500</v>
       </c>
       <c r="E23" s="3">
-        <v>11386700</v>
+        <v>-2094200</v>
       </c>
       <c r="F23" s="3">
-        <v>20341900</v>
+        <v>11024800</v>
       </c>
       <c r="G23" s="3">
-        <v>16915500</v>
+        <v>19695400</v>
       </c>
       <c r="H23" s="3">
-        <v>5350800</v>
+        <v>16377900</v>
       </c>
       <c r="I23" s="3">
-        <v>7348600</v>
+        <v>5180700</v>
       </c>
       <c r="J23" s="3">
+        <v>7115000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12269000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2459600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4826200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15410300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1164800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3734900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7600800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5202200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3116800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1278700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>701200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2624500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>853300</v>
+        <v>1096800</v>
       </c>
       <c r="E24" s="3">
-        <v>3171500</v>
+        <v>826200</v>
       </c>
       <c r="F24" s="3">
-        <v>2882500</v>
+        <v>3070700</v>
       </c>
       <c r="G24" s="3">
-        <v>6199600</v>
+        <v>2790900</v>
       </c>
       <c r="H24" s="3">
-        <v>177300</v>
+        <v>6002600</v>
       </c>
       <c r="I24" s="3">
-        <v>2221500</v>
+        <v>171600</v>
       </c>
       <c r="J24" s="3">
+        <v>2150900</v>
+      </c>
+      <c r="K24" s="3">
         <v>535200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1279400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>788100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4624600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2711700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2631100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2219600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>255400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>425100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1761000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3016200</v>
+        <v>504700</v>
       </c>
       <c r="E26" s="3">
-        <v>8215200</v>
+        <v>-2920400</v>
       </c>
       <c r="F26" s="3">
-        <v>17459400</v>
+        <v>7954100</v>
       </c>
       <c r="G26" s="3">
-        <v>10715900</v>
+        <v>16904500</v>
       </c>
       <c r="H26" s="3">
-        <v>5173500</v>
+        <v>10375300</v>
       </c>
       <c r="I26" s="3">
-        <v>5127100</v>
+        <v>5009100</v>
       </c>
       <c r="J26" s="3">
+        <v>4964100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-12804200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1180300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5614400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10785700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1179900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6446700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4969800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2982600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>318800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9573400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1023300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>276100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5047000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>863400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3575100</v>
+        <v>176300</v>
       </c>
       <c r="E27" s="3">
-        <v>6639500</v>
+        <v>-3461500</v>
       </c>
       <c r="F27" s="3">
-        <v>16961000</v>
+        <v>6428400</v>
       </c>
       <c r="G27" s="3">
-        <v>10252300</v>
+        <v>16421900</v>
       </c>
       <c r="H27" s="3">
-        <v>5675700</v>
+        <v>9926500</v>
       </c>
       <c r="I27" s="3">
-        <v>4525100</v>
+        <v>5495300</v>
       </c>
       <c r="J27" s="3">
+        <v>4381300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-12705700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>477400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6189100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10206200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1321500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6325200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4737800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2788300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>151100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8174400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>819600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>49900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5032700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>758700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2056,35 +2116,35 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>-2000</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>8700</v>
+        <v>-1900</v>
       </c>
       <c r="H29" s="3">
-        <v>-213800</v>
+        <v>8400</v>
       </c>
       <c r="I29" s="3">
-        <v>6470600</v>
+        <v>-207000</v>
       </c>
       <c r="J29" s="3">
+        <v>6264900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-33900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-48100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-315900</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>82100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2104,17 +2164,20 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>13300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-46800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10753900</v>
+        <v>-2018500</v>
       </c>
       <c r="E32" s="3">
-        <v>1650200</v>
+        <v>-10412200</v>
       </c>
       <c r="F32" s="3">
-        <v>11384600</v>
+        <v>1597800</v>
       </c>
       <c r="G32" s="3">
-        <v>75200</v>
+        <v>11022700</v>
       </c>
       <c r="H32" s="3">
-        <v>5433600</v>
+        <v>72800</v>
       </c>
       <c r="I32" s="3">
-        <v>2375800</v>
+        <v>5260900</v>
       </c>
       <c r="J32" s="3">
+        <v>2300300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4972700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>338400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6990200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10509900</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1571600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2452300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-52500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1887200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1527900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2538700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1891400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3575100</v>
+        <v>176300</v>
       </c>
       <c r="E33" s="3">
-        <v>6639500</v>
+        <v>-3461500</v>
       </c>
       <c r="F33" s="3">
-        <v>16959000</v>
+        <v>6428400</v>
       </c>
       <c r="G33" s="3">
-        <v>10261000</v>
+        <v>16420000</v>
       </c>
       <c r="H33" s="3">
-        <v>5461800</v>
+        <v>9934900</v>
       </c>
       <c r="I33" s="3">
-        <v>10995700</v>
+        <v>5288200</v>
       </c>
       <c r="J33" s="3">
+        <v>10646200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-12739600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>429300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6504900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10206200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1239300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6325200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4737800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2788300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>151100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8174400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>819600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>49900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5045900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>711900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3575100</v>
+        <v>176300</v>
       </c>
       <c r="E35" s="3">
-        <v>6639500</v>
+        <v>-3461500</v>
       </c>
       <c r="F35" s="3">
-        <v>16959000</v>
+        <v>6428400</v>
       </c>
       <c r="G35" s="3">
-        <v>10261000</v>
+        <v>16420000</v>
       </c>
       <c r="H35" s="3">
-        <v>5461800</v>
+        <v>9934900</v>
       </c>
       <c r="I35" s="3">
-        <v>10995700</v>
+        <v>5288200</v>
       </c>
       <c r="J35" s="3">
+        <v>10646200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-12739600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>429300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6504900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10206200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1239300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6325200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4737800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2788300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>151100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8174400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>819600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>49900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5045900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>711900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,620 +2731,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44872600</v>
+        <v>39398100</v>
       </c>
       <c r="E41" s="3">
-        <v>43874300</v>
+        <v>43446400</v>
       </c>
       <c r="F41" s="3">
-        <v>41078600</v>
+        <v>42479900</v>
       </c>
       <c r="G41" s="3">
-        <v>39223000</v>
+        <v>39773000</v>
       </c>
       <c r="H41" s="3">
-        <v>44976500</v>
+        <v>37976400</v>
       </c>
       <c r="I41" s="3">
-        <v>54457400</v>
+        <v>43547000</v>
       </c>
       <c r="J41" s="3">
+        <v>52726600</v>
+      </c>
+      <c r="K41" s="3">
         <v>29681000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34660900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39141800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26862100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35349600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48588000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28960900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24800100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30312000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30196800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>31303200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11643200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19364100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>22163900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5606400</v>
+        <v>6850800</v>
       </c>
       <c r="E42" s="3">
-        <v>13261700</v>
+        <v>5428200</v>
       </c>
       <c r="F42" s="3">
-        <v>20159500</v>
+        <v>12840300</v>
       </c>
       <c r="G42" s="3">
-        <v>21191500</v>
+        <v>19518800</v>
       </c>
       <c r="H42" s="3">
-        <v>16678400</v>
+        <v>20518000</v>
       </c>
       <c r="I42" s="3">
-        <v>2315800</v>
+        <v>16148400</v>
       </c>
       <c r="J42" s="3">
+        <v>2242200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2761800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1370900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1658500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1758000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1858200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5601400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5969000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7167800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4721700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1881400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4880300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6051800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7048900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4023600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17593600</v>
+        <v>19477800</v>
       </c>
       <c r="E43" s="3">
-        <v>18860800</v>
+        <v>17034500</v>
       </c>
       <c r="F43" s="3">
-        <v>22154600</v>
+        <v>18261300</v>
       </c>
       <c r="G43" s="3">
-        <v>19706100</v>
+        <v>21450400</v>
       </c>
       <c r="H43" s="3">
-        <v>17168500</v>
+        <v>19079800</v>
       </c>
       <c r="I43" s="3">
-        <v>19888200</v>
+        <v>16622800</v>
       </c>
       <c r="J43" s="3">
+        <v>19256100</v>
+      </c>
+      <c r="K43" s="3">
         <v>21403400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24108600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20975400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20929300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27033100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22102200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20810100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20322500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21037500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21080500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19335800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>18760900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>19631000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19570700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1133000</v>
+        <v>1315900</v>
       </c>
       <c r="E44" s="3">
-        <v>1056300</v>
+        <v>1096900</v>
       </c>
       <c r="F44" s="3">
-        <v>1117400</v>
+        <v>1022800</v>
       </c>
       <c r="G44" s="3">
-        <v>1408900</v>
+        <v>1081900</v>
       </c>
       <c r="H44" s="3">
-        <v>1173900</v>
+        <v>1364100</v>
       </c>
       <c r="I44" s="3">
-        <v>1619300</v>
+        <v>1136600</v>
       </c>
       <c r="J44" s="3">
+        <v>1567900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1630700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2987300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2773900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2915900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3345800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3598500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3133100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3016300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3291000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3276200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3070400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3217800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3027700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3646500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9904900</v>
+        <v>14745700</v>
       </c>
       <c r="E45" s="3">
-        <v>11939700</v>
+        <v>9590100</v>
       </c>
       <c r="F45" s="3">
-        <v>10815600</v>
+        <v>11560300</v>
       </c>
       <c r="G45" s="3">
-        <v>7160100</v>
+        <v>10471900</v>
       </c>
       <c r="H45" s="3">
-        <v>11682500</v>
+        <v>6932600</v>
       </c>
       <c r="I45" s="3">
-        <v>4278200</v>
+        <v>11311200</v>
       </c>
       <c r="J45" s="3">
+        <v>4142300</v>
+      </c>
+      <c r="K45" s="3">
         <v>82284500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5210400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3895400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8223900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3476400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2922600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2703400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7241400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3130400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2768500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2546200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3420900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1700000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1589500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79110500</v>
+        <v>81788300</v>
       </c>
       <c r="E46" s="3">
-        <v>88992900</v>
+        <v>76596200</v>
       </c>
       <c r="F46" s="3">
-        <v>95325700</v>
+        <v>86164500</v>
       </c>
       <c r="G46" s="3">
-        <v>88689600</v>
+        <v>92296000</v>
       </c>
       <c r="H46" s="3">
-        <v>91679800</v>
+        <v>85870900</v>
       </c>
       <c r="I46" s="3">
-        <v>82558900</v>
+        <v>88766000</v>
       </c>
       <c r="J46" s="3">
+        <v>79935000</v>
+      </c>
+      <c r="K46" s="3">
         <v>137761500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>68338100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>68445100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>60689100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>71063200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>82812600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>61576500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>62548000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>62492500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>59203400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>61136000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>43094700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>50771700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>50994200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>96744300</v>
+        <v>95984600</v>
       </c>
       <c r="E47" s="3">
-        <v>96201200</v>
+        <v>93669600</v>
       </c>
       <c r="F47" s="3">
-        <v>87242500</v>
+        <v>93143700</v>
       </c>
       <c r="G47" s="3">
-        <v>73939600</v>
+        <v>84469700</v>
       </c>
       <c r="H47" s="3">
-        <v>67448500</v>
+        <v>71589600</v>
       </c>
       <c r="I47" s="3">
-        <v>66393800</v>
+        <v>65304900</v>
       </c>
       <c r="J47" s="3">
+        <v>64283700</v>
+      </c>
+      <c r="K47" s="3">
         <v>48511000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55211200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>47849700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>46215400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>41510400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42776400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>61214000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>56022200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>51496000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>35578100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>30224400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>34602700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>28588600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>28078900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23938700</v>
+        <v>23310800</v>
       </c>
       <c r="E48" s="3">
-        <v>25080300</v>
+        <v>23177800</v>
       </c>
       <c r="F48" s="3">
-        <v>24805400</v>
+        <v>24283200</v>
       </c>
       <c r="G48" s="3">
-        <v>23572300</v>
+        <v>24017100</v>
       </c>
       <c r="H48" s="3">
-        <v>23460100</v>
+        <v>22823100</v>
       </c>
       <c r="I48" s="3">
-        <v>22235200</v>
+        <v>22714500</v>
       </c>
       <c r="J48" s="3">
+        <v>21528500</v>
+      </c>
+      <c r="K48" s="3">
         <v>22537800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48271100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>47750200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>47879500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37287600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>37440800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>37449900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>36141000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35058700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35804300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35314700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35342200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35278200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>36248600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>62711400</v>
+        <v>60765300</v>
       </c>
       <c r="E49" s="3">
-        <v>61311600</v>
+        <v>60718300</v>
       </c>
       <c r="F49" s="3">
-        <v>61606500</v>
+        <v>59363000</v>
       </c>
       <c r="G49" s="3">
-        <v>50525100</v>
+        <v>59648500</v>
       </c>
       <c r="H49" s="3">
-        <v>51457800</v>
+        <v>48919300</v>
       </c>
       <c r="I49" s="3">
-        <v>52548100</v>
+        <v>49822400</v>
       </c>
       <c r="J49" s="3">
+        <v>50878000</v>
+      </c>
+      <c r="K49" s="3">
         <v>52720300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>106708100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>98438000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>99057400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>102717100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>101859900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>105103400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>101651800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>100781800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>104424800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>102922300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>101709400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>98653100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>100523000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>144700400</v>
+        <v>149662900</v>
       </c>
       <c r="E52" s="3">
-        <v>144119200</v>
+        <v>140101500</v>
       </c>
       <c r="F52" s="3">
-        <v>134081500</v>
+        <v>139538800</v>
       </c>
       <c r="G52" s="3">
-        <v>96809400</v>
+        <v>129820100</v>
       </c>
       <c r="H52" s="3">
-        <v>80014300</v>
+        <v>93732600</v>
       </c>
       <c r="I52" s="3">
-        <v>71957100</v>
+        <v>77471300</v>
       </c>
       <c r="J52" s="3">
+        <v>69670200</v>
+      </c>
+      <c r="K52" s="3">
         <v>66706200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>80464100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76156600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>81295200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>78065400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>69079000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>44333300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>36956300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>33601500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>30880300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>23282900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10194500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5213900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4725800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>407205100</v>
+        <v>411511900</v>
       </c>
       <c r="E54" s="3">
-        <v>415705100</v>
+        <v>394263300</v>
       </c>
       <c r="F54" s="3">
-        <v>403061500</v>
+        <v>402493100</v>
       </c>
       <c r="G54" s="3">
-        <v>333536000</v>
+        <v>390251400</v>
       </c>
       <c r="H54" s="3">
-        <v>314060600</v>
+        <v>322935500</v>
       </c>
       <c r="I54" s="3">
-        <v>295693100</v>
+        <v>304079100</v>
       </c>
       <c r="J54" s="3">
+        <v>286295400</v>
+      </c>
+      <c r="K54" s="3">
         <v>328236700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>358992600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>338639600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>335136600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>330643700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>333968800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>309677200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>293319400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>283430400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>265891000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>252880300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>224943500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>218505500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>220570600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,416 +3779,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13589100</v>
+        <v>16216800</v>
       </c>
       <c r="E57" s="3">
-        <v>14934200</v>
+        <v>13157200</v>
       </c>
       <c r="F57" s="3">
-        <v>13576900</v>
+        <v>14459500</v>
       </c>
       <c r="G57" s="3">
-        <v>14348600</v>
+        <v>13145400</v>
       </c>
       <c r="H57" s="3">
-        <v>11718200</v>
+        <v>13892500</v>
       </c>
       <c r="I57" s="3">
-        <v>14134600</v>
+        <v>11345800</v>
       </c>
       <c r="J57" s="3">
+        <v>13685400</v>
+      </c>
+      <c r="K57" s="3">
         <v>11366500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18337600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16117700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16056600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15549600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17064400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16609200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15159300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16507500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15766500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14560700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13257100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14258100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14983600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>65161700</v>
+        <v>64140600</v>
       </c>
       <c r="E58" s="3">
-        <v>78718200</v>
+        <v>63090800</v>
       </c>
       <c r="F58" s="3">
-        <v>70856100</v>
+        <v>76216400</v>
       </c>
       <c r="G58" s="3">
-        <v>49948100</v>
+        <v>68604100</v>
       </c>
       <c r="H58" s="3">
-        <v>28535100</v>
+        <v>48360600</v>
       </c>
       <c r="I58" s="3">
-        <v>34204700</v>
+        <v>27628200</v>
       </c>
       <c r="J58" s="3">
+        <v>33117600</v>
+      </c>
+      <c r="K58" s="3">
         <v>37209400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>37220200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>35786500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>35713700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31885600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>38991300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>45547700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>37659800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>29246200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>27039100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>39373000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>29719200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>23896600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>30472600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19933300</v>
+        <v>21632300</v>
       </c>
       <c r="E59" s="3">
-        <v>20391400</v>
+        <v>19299800</v>
       </c>
       <c r="F59" s="3">
-        <v>29136400</v>
+        <v>19743300</v>
       </c>
       <c r="G59" s="3">
-        <v>22135300</v>
+        <v>28210300</v>
       </c>
       <c r="H59" s="3">
-        <v>26696600</v>
+        <v>21431800</v>
       </c>
       <c r="I59" s="3">
-        <v>18837700</v>
+        <v>25848100</v>
       </c>
       <c r="J59" s="3">
+        <v>18239000</v>
+      </c>
+      <c r="K59" s="3">
         <v>76448000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18115600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16619800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16159500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32089100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22236900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21594700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21746600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15410600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7715700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7180600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7091800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8208100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7792700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>98684200</v>
+        <v>101989800</v>
       </c>
       <c r="E60" s="3">
-        <v>114043800</v>
+        <v>95547800</v>
       </c>
       <c r="F60" s="3">
-        <v>113569300</v>
+        <v>110419300</v>
       </c>
       <c r="G60" s="3">
-        <v>86432000</v>
+        <v>109959800</v>
       </c>
       <c r="H60" s="3">
-        <v>66949900</v>
+        <v>83685000</v>
       </c>
       <c r="I60" s="3">
-        <v>67176900</v>
+        <v>64822100</v>
       </c>
       <c r="J60" s="3">
+        <v>65041900</v>
+      </c>
+      <c r="K60" s="3">
         <v>125023900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>73673500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>68524000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>67929800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>79524300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>78292600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>83751600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>74565700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>61164400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50521300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>61114300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>50068100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>46362800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>53248900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>120724500</v>
+        <v>119884900</v>
       </c>
       <c r="E61" s="3">
-        <v>108351200</v>
+        <v>116887600</v>
       </c>
       <c r="F61" s="3">
-        <v>101361600</v>
+        <v>104907600</v>
       </c>
       <c r="G61" s="3">
-        <v>105313700</v>
+        <v>98140100</v>
       </c>
       <c r="H61" s="3">
-        <v>108000700</v>
+        <v>101966600</v>
       </c>
       <c r="I61" s="3">
-        <v>105602200</v>
+        <v>104568200</v>
       </c>
       <c r="J61" s="3">
+        <v>102245900</v>
+      </c>
+      <c r="K61" s="3">
         <v>88528800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>138147300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>130447800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>123025100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>111790000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>117221400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>119220200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>120042200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>125667300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>116199700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>102072600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>105642400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>110444900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>102823600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>79085800</v>
+        <v>80060200</v>
       </c>
       <c r="E62" s="3">
-        <v>83263400</v>
+        <v>76572300</v>
       </c>
       <c r="F62" s="3">
-        <v>82801800</v>
+        <v>80617100</v>
       </c>
       <c r="G62" s="3">
-        <v>65827800</v>
+        <v>80170200</v>
       </c>
       <c r="H62" s="3">
-        <v>64924500</v>
+        <v>63735600</v>
       </c>
       <c r="I62" s="3">
-        <v>56162500</v>
+        <v>62861100</v>
       </c>
       <c r="J62" s="3">
+        <v>54377600</v>
+      </c>
+      <c r="K62" s="3">
         <v>49728700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63438000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>60416600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>57662400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>56805100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>53391500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39442200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>36707000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39577000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39787300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40259300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>27154100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>22051300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>29180400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>314272300</v>
+        <v>316703400</v>
       </c>
       <c r="E66" s="3">
-        <v>321213100</v>
+        <v>304284100</v>
       </c>
       <c r="F66" s="3">
-        <v>313084100</v>
+        <v>311004200</v>
       </c>
       <c r="G66" s="3">
-        <v>266359400</v>
+        <v>303133700</v>
       </c>
       <c r="H66" s="3">
-        <v>249723400</v>
+        <v>257893900</v>
       </c>
       <c r="I66" s="3">
-        <v>238142300</v>
+        <v>241786600</v>
       </c>
       <c r="J66" s="3">
+        <v>230573700</v>
+      </c>
+      <c r="K66" s="3">
         <v>276137800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>288809900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>271439800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>260138500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>260831000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>261490800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>251556700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>241599300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>236306300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>216119500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>211602200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>190835400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>186694500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>193103600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>58518600</v>
+        <v>56580400</v>
       </c>
       <c r="E72" s="3">
-        <v>62168700</v>
+        <v>56658800</v>
       </c>
       <c r="F72" s="3">
-        <v>77619800</v>
+        <v>60192800</v>
       </c>
       <c r="G72" s="3">
-        <v>60783300</v>
+        <v>75152900</v>
       </c>
       <c r="H72" s="3">
-        <v>50824100</v>
+        <v>58851500</v>
       </c>
       <c r="I72" s="3">
-        <v>45424200</v>
+        <v>49208800</v>
       </c>
       <c r="J72" s="3">
+        <v>43980500</v>
+      </c>
+      <c r="K72" s="3">
         <v>34762700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49292200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>49558300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>56124200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>51033000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52347500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46177200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>41186600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>35817000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>35543700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>27448000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26570200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26240600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21110400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>92932800</v>
+        <v>94808500</v>
       </c>
       <c r="E76" s="3">
-        <v>94492100</v>
+        <v>89979200</v>
       </c>
       <c r="F76" s="3">
-        <v>89977300</v>
+        <v>91488900</v>
       </c>
       <c r="G76" s="3">
-        <v>67176600</v>
+        <v>87117700</v>
       </c>
       <c r="H76" s="3">
-        <v>64337300</v>
+        <v>65041600</v>
       </c>
       <c r="I76" s="3">
-        <v>57550800</v>
+        <v>62292500</v>
       </c>
       <c r="J76" s="3">
+        <v>55721700</v>
+      </c>
+      <c r="K76" s="3">
         <v>52098900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>70182700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>67199800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74998100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>69812800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72478000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>58120500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>51720100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47124200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>49771400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41278100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>34108100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31810900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>27467000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3575100</v>
+        <v>176300</v>
       </c>
       <c r="E81" s="3">
-        <v>6639500</v>
+        <v>-3461500</v>
       </c>
       <c r="F81" s="3">
-        <v>16959000</v>
+        <v>6428400</v>
       </c>
       <c r="G81" s="3">
-        <v>10261000</v>
+        <v>16420000</v>
       </c>
       <c r="H81" s="3">
-        <v>5461800</v>
+        <v>9934900</v>
       </c>
       <c r="I81" s="3">
-        <v>10995700</v>
+        <v>5288200</v>
       </c>
       <c r="J81" s="3">
+        <v>10646200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-12739600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>429300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6504900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10206200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1239300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6325200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4737800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2788300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>151100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8174400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>819600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>49900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5045900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>711900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1848700</v>
+        <v>1797700</v>
       </c>
       <c r="E83" s="3">
-        <v>1875800</v>
+        <v>1789900</v>
       </c>
       <c r="F83" s="3">
-        <v>1963100</v>
+        <v>1816200</v>
       </c>
       <c r="G83" s="3">
-        <v>1915100</v>
+        <v>1900700</v>
       </c>
       <c r="H83" s="3">
-        <v>1800600</v>
+        <v>1854200</v>
       </c>
       <c r="I83" s="3">
-        <v>1821300</v>
+        <v>1743400</v>
       </c>
       <c r="J83" s="3">
+        <v>1763400</v>
+      </c>
+      <c r="K83" s="3">
         <v>4736500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4896600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4403400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4554300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4029700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3936500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3841400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3682800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3940500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3632900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3421800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3362800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3690900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3293200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13838800</v>
+        <v>2821200</v>
       </c>
       <c r="E89" s="3">
-        <v>4470500</v>
+        <v>13398900</v>
       </c>
       <c r="F89" s="3">
-        <v>5592200</v>
+        <v>4328400</v>
       </c>
       <c r="G89" s="3">
-        <v>-4969900</v>
+        <v>5414400</v>
       </c>
       <c r="H89" s="3">
-        <v>2919200</v>
+        <v>-4812000</v>
       </c>
       <c r="I89" s="3">
-        <v>1357000</v>
+        <v>2826400</v>
       </c>
       <c r="J89" s="3">
+        <v>1313800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2230600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2278000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8462600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5012300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2387800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1176300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4656500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2494500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1862100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1224800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4993100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1771400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3292700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>991900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3158400</v>
+        <v>-1325700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1556000</v>
+        <v>-3058100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1392300</v>
+        <v>-1506500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1318500</v>
+        <v>-1348000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1669700</v>
+        <v>-1276600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1318500</v>
+        <v>-1616700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1276600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2600300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2746200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2910500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2924300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2741500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3340700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3367000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>3726200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8641400</v>
+        <v>-7565100</v>
       </c>
       <c r="E94" s="3">
-        <v>-8597000</v>
+        <v>-8366800</v>
       </c>
       <c r="F94" s="3">
-        <v>-5838100</v>
+        <v>-8323700</v>
       </c>
       <c r="G94" s="3">
-        <v>-4261800</v>
+        <v>-5652500</v>
       </c>
       <c r="H94" s="3">
-        <v>-13772600</v>
+        <v>-4126400</v>
       </c>
       <c r="I94" s="3">
-        <v>10934100</v>
+        <v>-13334900</v>
       </c>
       <c r="J94" s="3">
+        <v>10586600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4650500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14880600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6962600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12530800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7329500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9066500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2069800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6900</v>
+        <v>-319800</v>
       </c>
       <c r="E96" s="3">
-        <v>-329600</v>
+        <v>-6700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2200</v>
+        <v>-319200</v>
       </c>
       <c r="G96" s="3">
-        <v>-361700</v>
+        <v>-2100</v>
       </c>
       <c r="H96" s="3">
-        <v>-9200</v>
+        <v>-350200</v>
       </c>
       <c r="I96" s="3">
-        <v>-391200</v>
+        <v>-8900</v>
       </c>
       <c r="J96" s="3">
+        <v>-378800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-413100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-207800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-218500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-212400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-215200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-7400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-209400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-195500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4683900</v>
+        <v>482800</v>
       </c>
       <c r="E100" s="3">
-        <v>6925500</v>
+        <v>-4535100</v>
       </c>
       <c r="F100" s="3">
-        <v>1219500</v>
+        <v>6705400</v>
       </c>
       <c r="G100" s="3">
-        <v>4093000</v>
+        <v>1180700</v>
       </c>
       <c r="H100" s="3">
-        <v>1547900</v>
+        <v>3962900</v>
       </c>
       <c r="I100" s="3">
-        <v>12469500</v>
+        <v>1498700</v>
       </c>
       <c r="J100" s="3">
+        <v>12073100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1266600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7958500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10703900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9400900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8349100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>27945500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1020900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-440900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15008200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7083500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>20048900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-235200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1511600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>484800</v>
+        <v>212700</v>
       </c>
       <c r="E101" s="3">
-        <v>-3300</v>
+        <v>469400</v>
       </c>
       <c r="F101" s="3">
-        <v>882100</v>
+        <v>-3200</v>
       </c>
       <c r="G101" s="3">
-        <v>-614800</v>
+        <v>854000</v>
       </c>
       <c r="H101" s="3">
-        <v>-175400</v>
+        <v>-595200</v>
       </c>
       <c r="I101" s="3">
-        <v>15800</v>
+        <v>-169800</v>
       </c>
       <c r="J101" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-152000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>504000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-339800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>46800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-428200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>362200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>543800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-956200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>92900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>117100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>29700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-233700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1223700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>998200</v>
+        <v>-4048400</v>
       </c>
       <c r="E102" s="3">
-        <v>2795700</v>
+        <v>966500</v>
       </c>
       <c r="F102" s="3">
-        <v>1855600</v>
+        <v>2706900</v>
       </c>
       <c r="G102" s="3">
-        <v>-5753500</v>
+        <v>1796600</v>
       </c>
       <c r="H102" s="3">
-        <v>-9480900</v>
+        <v>-5570600</v>
       </c>
       <c r="I102" s="3">
-        <v>24776400</v>
+        <v>-9179600</v>
       </c>
       <c r="J102" s="3">
+        <v>23988900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3838500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4140200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12191800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8481900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13244000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19627100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3969900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-51800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19659900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4926800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,317 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13625300</v>
+        <v>12781000</v>
       </c>
       <c r="E8" s="3">
-        <v>12832300</v>
+        <v>12443200</v>
       </c>
       <c r="F8" s="3">
-        <v>12617000</v>
+        <v>11719000</v>
       </c>
       <c r="G8" s="3">
-        <v>12710800</v>
+        <v>11522500</v>
       </c>
       <c r="H8" s="3">
-        <v>12859000</v>
+        <v>11608100</v>
       </c>
       <c r="I8" s="3">
-        <v>11520300</v>
+        <v>11743500</v>
       </c>
       <c r="J8" s="3">
+        <v>10520800</v>
+      </c>
+      <c r="K8" s="3">
         <v>10918200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11784600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12404000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11877700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21401400</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23033700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21810600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20659600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21338700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21697300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20114700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19762000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20574300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>20486400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6443600</v>
+        <v>6637800</v>
       </c>
       <c r="E9" s="3">
-        <v>5811600</v>
+        <v>5884600</v>
       </c>
       <c r="F9" s="3">
-        <v>5690900</v>
+        <v>5307400</v>
       </c>
       <c r="G9" s="3">
-        <v>6683300</v>
+        <v>5197200</v>
       </c>
       <c r="H9" s="3">
-        <v>6474400</v>
+        <v>6103500</v>
       </c>
       <c r="I9" s="3">
-        <v>5358700</v>
+        <v>5912800</v>
       </c>
       <c r="J9" s="3">
+        <v>4893800</v>
+      </c>
+      <c r="K9" s="3">
         <v>4968700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6084800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6091300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5827500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12236400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-6092900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13829900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12877900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11968400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13484000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13469600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11743500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11346300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13146800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12612300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7181700</v>
+        <v>6143200</v>
       </c>
       <c r="E10" s="3">
-        <v>7020700</v>
+        <v>6558700</v>
       </c>
       <c r="F10" s="3">
-        <v>6926100</v>
+        <v>6411700</v>
       </c>
       <c r="G10" s="3">
-        <v>6027500</v>
+        <v>6325300</v>
       </c>
       <c r="H10" s="3">
-        <v>6384600</v>
+        <v>5504600</v>
       </c>
       <c r="I10" s="3">
-        <v>6161600</v>
+        <v>5830700</v>
       </c>
       <c r="J10" s="3">
+        <v>5627000</v>
+      </c>
+      <c r="K10" s="3">
         <v>5949400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5699800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6312700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6050200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9165000</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9203800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8932700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8691200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7854700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8227600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8371200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8415700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7427500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7874200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,79 +1147,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-218300</v>
+        <v>717600</v>
       </c>
       <c r="E14" s="3">
-        <v>-555500</v>
+        <v>-199300</v>
       </c>
       <c r="F14" s="3">
-        <v>-690800</v>
+        <v>-507300</v>
       </c>
       <c r="G14" s="3">
-        <v>475800</v>
+        <v>-630800</v>
       </c>
       <c r="H14" s="3">
-        <v>-412400</v>
+        <v>434500</v>
       </c>
       <c r="I14" s="3">
-        <v>-297900</v>
+        <v>-376600</v>
       </c>
       <c r="J14" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-42400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1410800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-5669100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8287900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-3434100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-4413600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1151300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-4008600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-573900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-606200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-850800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>16700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9200</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,8 +1295,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13213500</v>
+        <v>35284900</v>
       </c>
       <c r="E17" s="3">
-        <v>24461700</v>
+        <v>12067200</v>
       </c>
       <c r="F17" s="3">
-        <v>-711900</v>
+        <v>22339600</v>
       </c>
       <c r="G17" s="3">
-        <v>-18714700</v>
+        <v>-650100</v>
       </c>
       <c r="H17" s="3">
-        <v>-4193100</v>
+        <v>-17091100</v>
       </c>
       <c r="I17" s="3">
-        <v>423400</v>
+        <v>-3829300</v>
       </c>
       <c r="J17" s="3">
+        <v>386700</v>
+      </c>
+      <c r="K17" s="3">
         <v>846100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25684500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8923200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23043600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15091800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-12215800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19431700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15069400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14160300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19873100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19207400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16199900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15429300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>19913900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17985400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>411800</v>
+        <v>-22503900</v>
       </c>
       <c r="E18" s="3">
-        <v>-11629400</v>
+        <v>376100</v>
       </c>
       <c r="F18" s="3">
-        <v>13328900</v>
+        <v>-10620600</v>
       </c>
       <c r="G18" s="3">
-        <v>31425500</v>
+        <v>12172600</v>
       </c>
       <c r="H18" s="3">
-        <v>17052100</v>
+        <v>28699200</v>
       </c>
       <c r="I18" s="3">
-        <v>11096900</v>
+        <v>15572800</v>
       </c>
       <c r="J18" s="3">
+        <v>10134200</v>
+      </c>
+      <c r="K18" s="3">
         <v>10072100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13900000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3480800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11166000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6309600</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3602000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6741200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6499300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1465600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2489800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3914800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4332600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>660400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2501000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,363 +1498,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2018500</v>
+        <v>6888600</v>
       </c>
       <c r="E20" s="3">
-        <v>10412200</v>
+        <v>1843400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1597800</v>
+        <v>9508900</v>
       </c>
       <c r="G20" s="3">
-        <v>-11022700</v>
+        <v>-1459200</v>
       </c>
       <c r="H20" s="3">
-        <v>-72800</v>
+        <v>-10066500</v>
       </c>
       <c r="I20" s="3">
-        <v>-5260900</v>
+        <v>-66500</v>
       </c>
       <c r="J20" s="3">
+        <v>-4804500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2300300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4972700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-338400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6990200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10509900</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1571600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2452300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>52500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1891500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1199700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4228000</v>
+        <v>-13909900</v>
       </c>
       <c r="E21" s="3">
-        <v>572600</v>
+        <v>3861200</v>
       </c>
       <c r="F21" s="3">
-        <v>13547300</v>
+        <v>523000</v>
       </c>
       <c r="G21" s="3">
-        <v>22303500</v>
+        <v>12372000</v>
       </c>
       <c r="H21" s="3">
-        <v>18833600</v>
+        <v>20368600</v>
       </c>
       <c r="I21" s="3">
-        <v>7579300</v>
+        <v>17199700</v>
       </c>
       <c r="J21" s="3">
+        <v>6921800</v>
+      </c>
+      <c r="K21" s="3">
         <v>9535200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4190700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8039100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>227600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21373800</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9110000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13034900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10234600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3518900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8014200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5808700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5156700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2459900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6994000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>828800</v>
+        <v>777000</v>
       </c>
       <c r="E22" s="3">
-        <v>876900</v>
+        <v>756900</v>
       </c>
       <c r="F22" s="3">
-        <v>706300</v>
+        <v>800800</v>
       </c>
       <c r="G22" s="3">
-        <v>707400</v>
+        <v>645000</v>
       </c>
       <c r="H22" s="3">
-        <v>601500</v>
+        <v>646000</v>
       </c>
       <c r="I22" s="3">
-        <v>655200</v>
+        <v>549300</v>
       </c>
       <c r="J22" s="3">
+        <v>598400</v>
+      </c>
+      <c r="K22" s="3">
         <v>656800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3341800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>682800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>650500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1409200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1414100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1438600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1592700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1349600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1207100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1264500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1108200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1092700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1099400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1076300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1601500</v>
+        <v>-16392400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2094200</v>
+        <v>1462600</v>
       </c>
       <c r="F23" s="3">
-        <v>11024800</v>
+        <v>-1912500</v>
       </c>
       <c r="G23" s="3">
-        <v>19695400</v>
+        <v>10068400</v>
       </c>
       <c r="H23" s="3">
-        <v>16377900</v>
+        <v>17986700</v>
       </c>
       <c r="I23" s="3">
-        <v>5180700</v>
+        <v>14957000</v>
       </c>
       <c r="J23" s="3">
+        <v>4731300</v>
+      </c>
+      <c r="K23" s="3">
         <v>7115000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12269000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2459600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4826200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15410300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1164800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3734900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7600800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5202200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3116800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1278700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>701200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2624500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1096800</v>
+        <v>56100</v>
       </c>
       <c r="E24" s="3">
-        <v>826200</v>
+        <v>1001700</v>
       </c>
       <c r="F24" s="3">
-        <v>3070700</v>
+        <v>754500</v>
       </c>
       <c r="G24" s="3">
-        <v>2790900</v>
+        <v>2804300</v>
       </c>
       <c r="H24" s="3">
-        <v>6002600</v>
+        <v>2548800</v>
       </c>
       <c r="I24" s="3">
-        <v>171600</v>
+        <v>5481800</v>
       </c>
       <c r="J24" s="3">
+        <v>156800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2150900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>535200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1279400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>788100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4624600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2711700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2631100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2219600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>255400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>425100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1761000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>504700</v>
+        <v>-16448500</v>
       </c>
       <c r="E26" s="3">
-        <v>-2920400</v>
+        <v>460900</v>
       </c>
       <c r="F26" s="3">
-        <v>7954100</v>
+        <v>-2667000</v>
       </c>
       <c r="G26" s="3">
-        <v>16904500</v>
+        <v>7264100</v>
       </c>
       <c r="H26" s="3">
-        <v>10375300</v>
+        <v>15438000</v>
       </c>
       <c r="I26" s="3">
-        <v>5009100</v>
+        <v>9475200</v>
       </c>
       <c r="J26" s="3">
+        <v>4574500</v>
+      </c>
+      <c r="K26" s="3">
         <v>4964100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12804200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1180300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5614400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10785700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1179900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6446700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4969800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2982600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>318800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9573400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1023300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>276100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5047000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>863400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>176300</v>
+        <v>-16430900</v>
       </c>
       <c r="E27" s="3">
-        <v>-3461500</v>
+        <v>161000</v>
       </c>
       <c r="F27" s="3">
-        <v>6428400</v>
+        <v>-3161200</v>
       </c>
       <c r="G27" s="3">
-        <v>16421900</v>
+        <v>5870800</v>
       </c>
       <c r="H27" s="3">
-        <v>9926500</v>
+        <v>14997300</v>
       </c>
       <c r="I27" s="3">
-        <v>5495300</v>
+        <v>9065300</v>
       </c>
       <c r="J27" s="3">
+        <v>5018500</v>
+      </c>
+      <c r="K27" s="3">
         <v>4381300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12705700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>477400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6189100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10206200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1321500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6325200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4737800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2788300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>151100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8174400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>819600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>49900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5032700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>758700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2162,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2119,35 +2179,35 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-1900</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>8400</v>
+        <v>-1800</v>
       </c>
       <c r="I29" s="3">
-        <v>-207000</v>
+        <v>7700</v>
       </c>
       <c r="J29" s="3">
+        <v>-189100</v>
+      </c>
+      <c r="K29" s="3">
         <v>6264900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-33900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-48100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-315900</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>82100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2167,17 +2227,20 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>13300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-46800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2018500</v>
+        <v>-6888600</v>
       </c>
       <c r="E32" s="3">
-        <v>-10412200</v>
+        <v>-1843400</v>
       </c>
       <c r="F32" s="3">
-        <v>1597800</v>
+        <v>-9508900</v>
       </c>
       <c r="G32" s="3">
-        <v>11022700</v>
+        <v>1459200</v>
       </c>
       <c r="H32" s="3">
-        <v>72800</v>
+        <v>10066500</v>
       </c>
       <c r="I32" s="3">
-        <v>5260900</v>
+        <v>66500</v>
       </c>
       <c r="J32" s="3">
+        <v>4804500</v>
+      </c>
+      <c r="K32" s="3">
         <v>2300300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4972700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>338400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6990200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10509900</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1571600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2452300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-52500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1887200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1527900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2538700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1891400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>176300</v>
+        <v>-16430900</v>
       </c>
       <c r="E33" s="3">
-        <v>-3461500</v>
+        <v>161000</v>
       </c>
       <c r="F33" s="3">
-        <v>6428400</v>
+        <v>-3161200</v>
       </c>
       <c r="G33" s="3">
-        <v>16420000</v>
+        <v>5870800</v>
       </c>
       <c r="H33" s="3">
-        <v>9934900</v>
+        <v>14995500</v>
       </c>
       <c r="I33" s="3">
-        <v>5288200</v>
+        <v>9073000</v>
       </c>
       <c r="J33" s="3">
+        <v>4829500</v>
+      </c>
+      <c r="K33" s="3">
         <v>10646200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12739600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>429300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6504900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10206200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1239300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6325200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4737800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2788300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>151100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8174400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>819600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>49900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5045900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>711900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>176300</v>
+        <v>-16430900</v>
       </c>
       <c r="E35" s="3">
-        <v>-3461500</v>
+        <v>161000</v>
       </c>
       <c r="F35" s="3">
-        <v>6428400</v>
+        <v>-3161200</v>
       </c>
       <c r="G35" s="3">
-        <v>16420000</v>
+        <v>5870800</v>
       </c>
       <c r="H35" s="3">
-        <v>9934900</v>
+        <v>14995500</v>
       </c>
       <c r="I35" s="3">
-        <v>5288200</v>
+        <v>9073000</v>
       </c>
       <c r="J35" s="3">
+        <v>4829500</v>
+      </c>
+      <c r="K35" s="3">
         <v>10646200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12739600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>429300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6504900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10206200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1239300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6325200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4737800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2788300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>151100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8174400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>819600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>49900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5045900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>711900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,647 +2817,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39398100</v>
+        <v>40266500</v>
       </c>
       <c r="E41" s="3">
-        <v>43446400</v>
+        <v>35980200</v>
       </c>
       <c r="F41" s="3">
-        <v>42479900</v>
+        <v>39677400</v>
       </c>
       <c r="G41" s="3">
-        <v>39773000</v>
+        <v>38794700</v>
       </c>
       <c r="H41" s="3">
-        <v>37976400</v>
+        <v>36322600</v>
       </c>
       <c r="I41" s="3">
-        <v>43547000</v>
+        <v>34681900</v>
       </c>
       <c r="J41" s="3">
+        <v>39769200</v>
+      </c>
+      <c r="K41" s="3">
         <v>52726600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29681000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34660900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39141800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26862100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35349600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48588000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28960900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24800100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30312000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>30196800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>31303200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11643200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>19364100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>22163900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6850800</v>
+        <v>6202000</v>
       </c>
       <c r="E42" s="3">
-        <v>5428200</v>
+        <v>6256500</v>
       </c>
       <c r="F42" s="3">
-        <v>12840300</v>
+        <v>4957300</v>
       </c>
       <c r="G42" s="3">
-        <v>19518800</v>
+        <v>11726300</v>
       </c>
       <c r="H42" s="3">
-        <v>20518000</v>
+        <v>17825500</v>
       </c>
       <c r="I42" s="3">
-        <v>16148400</v>
+        <v>18738000</v>
       </c>
       <c r="J42" s="3">
+        <v>14747500</v>
+      </c>
+      <c r="K42" s="3">
         <v>2242200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2761800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1370900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1658500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1758000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1858200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5601400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5969000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7167800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4721700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1881400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4880300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6051800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7048900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4023600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19477800</v>
+        <v>18270800</v>
       </c>
       <c r="E43" s="3">
-        <v>17034500</v>
+        <v>17788100</v>
       </c>
       <c r="F43" s="3">
-        <v>18261300</v>
+        <v>15556700</v>
       </c>
       <c r="G43" s="3">
-        <v>21450400</v>
+        <v>16677100</v>
       </c>
       <c r="H43" s="3">
-        <v>19079800</v>
+        <v>19589600</v>
       </c>
       <c r="I43" s="3">
-        <v>16622800</v>
+        <v>17424600</v>
       </c>
       <c r="J43" s="3">
+        <v>15180800</v>
+      </c>
+      <c r="K43" s="3">
         <v>19256100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21403400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24108600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20975400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20929300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27033100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22102200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20810100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20322500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21037500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>21080500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>19335800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>18760900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19631000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19570700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1315900</v>
+        <v>1112200</v>
       </c>
       <c r="E44" s="3">
-        <v>1096900</v>
+        <v>1201700</v>
       </c>
       <c r="F44" s="3">
-        <v>1022800</v>
+        <v>1001800</v>
       </c>
       <c r="G44" s="3">
-        <v>1081900</v>
+        <v>934000</v>
       </c>
       <c r="H44" s="3">
-        <v>1364100</v>
+        <v>988000</v>
       </c>
       <c r="I44" s="3">
-        <v>1136600</v>
+        <v>1245800</v>
       </c>
       <c r="J44" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1567900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1630700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2987300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2773900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2915900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3345800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3598500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3133100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3016300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3291000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3276200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3070400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3217800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3027700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3646500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14745700</v>
+        <v>12271300</v>
       </c>
       <c r="E45" s="3">
-        <v>9590100</v>
+        <v>13466500</v>
       </c>
       <c r="F45" s="3">
-        <v>11560300</v>
+        <v>8758100</v>
       </c>
       <c r="G45" s="3">
-        <v>10471900</v>
+        <v>10557400</v>
       </c>
       <c r="H45" s="3">
-        <v>6932600</v>
+        <v>9563400</v>
       </c>
       <c r="I45" s="3">
-        <v>11311200</v>
+        <v>6331200</v>
       </c>
       <c r="J45" s="3">
+        <v>10329900</v>
+      </c>
+      <c r="K45" s="3">
         <v>4142300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82284500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5210400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3895400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8223900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3476400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2922600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2703400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7241400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3130400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2768500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2546200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3420900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1700000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1589500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>81788300</v>
+        <v>78122700</v>
       </c>
       <c r="E46" s="3">
-        <v>76596200</v>
+        <v>74692900</v>
       </c>
       <c r="F46" s="3">
-        <v>86164500</v>
+        <v>69951200</v>
       </c>
       <c r="G46" s="3">
-        <v>92296000</v>
+        <v>78689500</v>
       </c>
       <c r="H46" s="3">
-        <v>85870900</v>
+        <v>84289100</v>
       </c>
       <c r="I46" s="3">
-        <v>88766000</v>
+        <v>78421400</v>
       </c>
       <c r="J46" s="3">
+        <v>81065300</v>
+      </c>
+      <c r="K46" s="3">
         <v>79935000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>137761500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>68338100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>68445100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>60689100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>71063200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>82812600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>61576500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>62548000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>62492500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>59203400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>61136000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>43094700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>50771700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>50994200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95984600</v>
+        <v>91094100</v>
       </c>
       <c r="E47" s="3">
-        <v>93669600</v>
+        <v>87657700</v>
       </c>
       <c r="F47" s="3">
-        <v>93143700</v>
+        <v>85543500</v>
       </c>
       <c r="G47" s="3">
-        <v>84469700</v>
+        <v>85063200</v>
       </c>
       <c r="H47" s="3">
-        <v>71589600</v>
+        <v>77141700</v>
       </c>
       <c r="I47" s="3">
-        <v>65304900</v>
+        <v>65379100</v>
       </c>
       <c r="J47" s="3">
+        <v>59639500</v>
+      </c>
+      <c r="K47" s="3">
         <v>64283700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>48511000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55211200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>47849700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>46215400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>41510400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42776400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>61214000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>56022200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>51496000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>35578100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>30224400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>34602700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>28588600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>28078900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23310800</v>
+        <v>21480900</v>
       </c>
       <c r="E48" s="3">
-        <v>23177800</v>
+        <v>21288500</v>
       </c>
       <c r="F48" s="3">
-        <v>24283200</v>
+        <v>21167100</v>
       </c>
       <c r="G48" s="3">
-        <v>24017100</v>
+        <v>22176500</v>
       </c>
       <c r="H48" s="3">
-        <v>22823100</v>
+        <v>21933500</v>
       </c>
       <c r="I48" s="3">
-        <v>22714500</v>
+        <v>20843100</v>
       </c>
       <c r="J48" s="3">
+        <v>20744000</v>
+      </c>
+      <c r="K48" s="3">
         <v>21528500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22537800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48271100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>47750200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>47879500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>37287600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>37440800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>37449900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>36141000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35058700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35804300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35314700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35342200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35278200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>36248600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>60765300</v>
+        <v>57065600</v>
       </c>
       <c r="E49" s="3">
-        <v>60718300</v>
+        <v>55493700</v>
       </c>
       <c r="F49" s="3">
-        <v>59363000</v>
+        <v>55450800</v>
       </c>
       <c r="G49" s="3">
-        <v>59648500</v>
+        <v>54213100</v>
       </c>
       <c r="H49" s="3">
-        <v>48919300</v>
+        <v>54473800</v>
       </c>
       <c r="I49" s="3">
-        <v>49822400</v>
+        <v>44675400</v>
       </c>
       <c r="J49" s="3">
+        <v>45500200</v>
+      </c>
+      <c r="K49" s="3">
         <v>50878000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>52720300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>106708100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>98438000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>99057400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>102717100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>101859900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>105103400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>101651800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>100781800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>104424800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>102922300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>101709400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>98653100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>100523000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>149662900</v>
+        <v>122609700</v>
       </c>
       <c r="E52" s="3">
-        <v>140101500</v>
+        <v>136679300</v>
       </c>
       <c r="F52" s="3">
-        <v>139538800</v>
+        <v>127947300</v>
       </c>
       <c r="G52" s="3">
-        <v>129820100</v>
+        <v>127433400</v>
       </c>
       <c r="H52" s="3">
-        <v>93732600</v>
+        <v>118557900</v>
       </c>
       <c r="I52" s="3">
-        <v>77471300</v>
+        <v>85601000</v>
       </c>
       <c r="J52" s="3">
+        <v>70750500</v>
+      </c>
+      <c r="K52" s="3">
         <v>69670200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>66706200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>80464100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>76156600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>81295200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>78065400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>69079000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>44333300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>36956300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>33601500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>30880300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>23282900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10194500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5213900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4725800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>411511900</v>
+        <v>370373000</v>
       </c>
       <c r="E54" s="3">
-        <v>394263300</v>
+        <v>375812100</v>
       </c>
       <c r="F54" s="3">
-        <v>402493100</v>
+        <v>360059900</v>
       </c>
       <c r="G54" s="3">
-        <v>390251400</v>
+        <v>367575800</v>
       </c>
       <c r="H54" s="3">
-        <v>322935500</v>
+        <v>356396000</v>
       </c>
       <c r="I54" s="3">
-        <v>304079100</v>
+        <v>294920000</v>
       </c>
       <c r="J54" s="3">
+        <v>277699500</v>
+      </c>
+      <c r="K54" s="3">
         <v>286295400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>328236700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>358992600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>338639600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>335136600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>330643700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>333968800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>309677200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>293319400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>283430400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>265891000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>252880300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>224943500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>218505500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>220570600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,434 +3909,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16216800</v>
+        <v>15337500</v>
       </c>
       <c r="E57" s="3">
-        <v>13157200</v>
+        <v>14810000</v>
       </c>
       <c r="F57" s="3">
-        <v>14459500</v>
+        <v>12015800</v>
       </c>
       <c r="G57" s="3">
-        <v>13145400</v>
+        <v>13205100</v>
       </c>
       <c r="H57" s="3">
-        <v>13892500</v>
+        <v>12005000</v>
       </c>
       <c r="I57" s="3">
-        <v>11345800</v>
+        <v>12687300</v>
       </c>
       <c r="J57" s="3">
+        <v>10361500</v>
+      </c>
+      <c r="K57" s="3">
         <v>13685400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11366500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18337600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16117700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16056600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15549600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17064400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16609200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15159300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16507500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15766500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14560700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13257100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14258100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14983600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>64140600</v>
+        <v>58963300</v>
       </c>
       <c r="E58" s="3">
-        <v>63090800</v>
+        <v>58576300</v>
       </c>
       <c r="F58" s="3">
-        <v>76216400</v>
+        <v>57617500</v>
       </c>
       <c r="G58" s="3">
-        <v>68604100</v>
+        <v>69604400</v>
       </c>
       <c r="H58" s="3">
-        <v>48360600</v>
+        <v>62652500</v>
       </c>
       <c r="I58" s="3">
-        <v>27628200</v>
+        <v>44165200</v>
       </c>
       <c r="J58" s="3">
+        <v>25231400</v>
+      </c>
+      <c r="K58" s="3">
         <v>33117600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>37209400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>37220200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>35786500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>35713700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31885600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>38991300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>45547700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>37659800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>29246200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>27039100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>39373000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>29719200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23896600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>30472600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21632300</v>
+        <v>22150800</v>
       </c>
       <c r="E59" s="3">
-        <v>19299800</v>
+        <v>19755600</v>
       </c>
       <c r="F59" s="3">
-        <v>19743300</v>
+        <v>17625500</v>
       </c>
       <c r="G59" s="3">
-        <v>28210300</v>
+        <v>18030600</v>
       </c>
       <c r="H59" s="3">
-        <v>21431800</v>
+        <v>25763000</v>
       </c>
       <c r="I59" s="3">
-        <v>25848100</v>
+        <v>19572500</v>
       </c>
       <c r="J59" s="3">
+        <v>23605700</v>
+      </c>
+      <c r="K59" s="3">
         <v>18239000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76448000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18115600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16619800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16159500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32089100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22236900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21594700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21746600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15410600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7715700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7180600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7091800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8208100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7792700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>101989800</v>
+        <v>96451600</v>
       </c>
       <c r="E60" s="3">
-        <v>95547800</v>
+        <v>93141900</v>
       </c>
       <c r="F60" s="3">
-        <v>110419300</v>
+        <v>87258800</v>
       </c>
       <c r="G60" s="3">
-        <v>109959800</v>
+        <v>100840100</v>
       </c>
       <c r="H60" s="3">
-        <v>83685000</v>
+        <v>100420500</v>
       </c>
       <c r="I60" s="3">
-        <v>64822100</v>
+        <v>76425100</v>
       </c>
       <c r="J60" s="3">
+        <v>59198600</v>
+      </c>
+      <c r="K60" s="3">
         <v>65041900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>125023900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>73673500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68524000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>67929800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>79524300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>78292600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>83751600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>74565700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>61164400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>50521300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>61114300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>50068100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>46362800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>53248900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>119884900</v>
+        <v>114937400</v>
       </c>
       <c r="E61" s="3">
-        <v>116887600</v>
+        <v>109484600</v>
       </c>
       <c r="F61" s="3">
-        <v>104907600</v>
+        <v>106747300</v>
       </c>
       <c r="G61" s="3">
-        <v>98140100</v>
+        <v>95806600</v>
       </c>
       <c r="H61" s="3">
-        <v>101966600</v>
+        <v>89626200</v>
       </c>
       <c r="I61" s="3">
-        <v>104568200</v>
+        <v>93120800</v>
       </c>
       <c r="J61" s="3">
+        <v>95496600</v>
+      </c>
+      <c r="K61" s="3">
         <v>102245900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>88528800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>138147300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>130447800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>123025100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>111790000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>117221400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>119220200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>120042200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>125667300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>116199700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>102072600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>105642400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>110444900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>102823600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>80060200</v>
+        <v>67780500</v>
       </c>
       <c r="E62" s="3">
-        <v>76572300</v>
+        <v>73114800</v>
       </c>
       <c r="F62" s="3">
-        <v>80617100</v>
+        <v>69929400</v>
       </c>
       <c r="G62" s="3">
-        <v>80170200</v>
+        <v>73623400</v>
       </c>
       <c r="H62" s="3">
-        <v>63735600</v>
+        <v>73215200</v>
       </c>
       <c r="I62" s="3">
-        <v>62861100</v>
+        <v>58206400</v>
       </c>
       <c r="J62" s="3">
+        <v>57407700</v>
+      </c>
+      <c r="K62" s="3">
         <v>54377600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>49728700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>63438000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>60416600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>57662400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>56805100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>53391500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>39442200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>36707000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39577000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39787300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40259300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>27154100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>22051300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>29180400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>316703400</v>
+        <v>292662500</v>
       </c>
       <c r="E66" s="3">
-        <v>304284100</v>
+        <v>289228500</v>
       </c>
       <c r="F66" s="3">
-        <v>311004200</v>
+        <v>277886600</v>
       </c>
       <c r="G66" s="3">
-        <v>303133700</v>
+        <v>284023800</v>
       </c>
       <c r="H66" s="3">
-        <v>257893900</v>
+        <v>276836000</v>
       </c>
       <c r="I66" s="3">
-        <v>241786600</v>
+        <v>235520900</v>
       </c>
       <c r="J66" s="3">
+        <v>220811000</v>
+      </c>
+      <c r="K66" s="3">
         <v>230573700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>276137800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>288809900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>271439800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>260138500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>260831000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>261490800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>251556700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>241599300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>236306300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>216119500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>211602200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>190835400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>186694500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>193103600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56580400</v>
+        <v>35177300</v>
       </c>
       <c r="E72" s="3">
-        <v>56658800</v>
+        <v>51671900</v>
       </c>
       <c r="F72" s="3">
-        <v>60192800</v>
+        <v>51743500</v>
       </c>
       <c r="G72" s="3">
-        <v>75152900</v>
+        <v>54970900</v>
       </c>
       <c r="H72" s="3">
-        <v>58851500</v>
+        <v>68633200</v>
       </c>
       <c r="I72" s="3">
-        <v>49208800</v>
+        <v>53745900</v>
       </c>
       <c r="J72" s="3">
+        <v>44939800</v>
+      </c>
+      <c r="K72" s="3">
         <v>43980500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34762700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>49292200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>49558300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>56124200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>51033000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52347500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46177200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>41186600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>35817000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>35543700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>27448000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26570200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26240600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21110400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>94808500</v>
+        <v>77710500</v>
       </c>
       <c r="E76" s="3">
-        <v>89979200</v>
+        <v>86583600</v>
       </c>
       <c r="F76" s="3">
-        <v>91488900</v>
+        <v>82173300</v>
       </c>
       <c r="G76" s="3">
-        <v>87117700</v>
+        <v>83552000</v>
       </c>
       <c r="H76" s="3">
-        <v>65041600</v>
+        <v>79560000</v>
       </c>
       <c r="I76" s="3">
-        <v>62292500</v>
+        <v>59399100</v>
       </c>
       <c r="J76" s="3">
+        <v>56888400</v>
+      </c>
+      <c r="K76" s="3">
         <v>55721700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52098900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>70182700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>67199800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>74998100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>69812800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>72478000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>58120500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>51720100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47124200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>49771400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41278100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>34108100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31810900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>27467000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>176300</v>
+        <v>-16430900</v>
       </c>
       <c r="E81" s="3">
-        <v>-3461500</v>
+        <v>161000</v>
       </c>
       <c r="F81" s="3">
-        <v>6428400</v>
+        <v>-3161200</v>
       </c>
       <c r="G81" s="3">
-        <v>16420000</v>
+        <v>5870800</v>
       </c>
       <c r="H81" s="3">
-        <v>9934900</v>
+        <v>14995500</v>
       </c>
       <c r="I81" s="3">
-        <v>5288200</v>
+        <v>9073000</v>
       </c>
       <c r="J81" s="3">
+        <v>4829500</v>
+      </c>
+      <c r="K81" s="3">
         <v>10646200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12739600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>429300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6504900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10206200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1239300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6325200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4737800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2788300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>151100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8174400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>819600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>49900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5045900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>711900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1797700</v>
+        <v>1705400</v>
       </c>
       <c r="E83" s="3">
-        <v>1789900</v>
+        <v>1641700</v>
       </c>
       <c r="F83" s="3">
-        <v>1816200</v>
+        <v>1634600</v>
       </c>
       <c r="G83" s="3">
-        <v>1900700</v>
+        <v>1658600</v>
       </c>
       <c r="H83" s="3">
-        <v>1854200</v>
+        <v>1735800</v>
       </c>
       <c r="I83" s="3">
-        <v>1743400</v>
+        <v>1693400</v>
       </c>
       <c r="J83" s="3">
+        <v>1592100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1763400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4736500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4896600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4403400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4554300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4029700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3936500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3841400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3682800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3940500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3632900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3421800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3362800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3690900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3293200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2821200</v>
+        <v>2465300</v>
       </c>
       <c r="E89" s="3">
-        <v>13398900</v>
+        <v>2576500</v>
       </c>
       <c r="F89" s="3">
-        <v>4328400</v>
+        <v>12236500</v>
       </c>
       <c r="G89" s="3">
-        <v>5414400</v>
+        <v>3952900</v>
       </c>
       <c r="H89" s="3">
-        <v>-4812000</v>
+        <v>4944700</v>
       </c>
       <c r="I89" s="3">
-        <v>2826400</v>
+        <v>-4394500</v>
       </c>
       <c r="J89" s="3">
+        <v>2581200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1313800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2230600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2278000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8462600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5012300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2387800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1176300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4656500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2494500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1862100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1224800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4993100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1771400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3292700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>991900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1325700</v>
+        <v>-1126000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3058100</v>
+        <v>-1210700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1506500</v>
+        <v>-2792800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1348000</v>
+        <v>-1375800</v>
       </c>
       <c r="H91" s="3">
+        <v>-1231100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1165900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1476400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1276600</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1616700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1276600</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2600300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2746200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2910500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2924300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2741500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3340700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3367000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>3726200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7565100</v>
+        <v>-1363900</v>
       </c>
       <c r="E94" s="3">
-        <v>-8366800</v>
+        <v>-6908800</v>
       </c>
       <c r="F94" s="3">
-        <v>-8323700</v>
+        <v>-7640900</v>
       </c>
       <c r="G94" s="3">
-        <v>-5652500</v>
+        <v>-7601600</v>
       </c>
       <c r="H94" s="3">
-        <v>-4126400</v>
+        <v>-5162200</v>
       </c>
       <c r="I94" s="3">
-        <v>-13334900</v>
+        <v>-3768400</v>
       </c>
       <c r="J94" s="3">
+        <v>-12178000</v>
+      </c>
+      <c r="K94" s="3">
         <v>10586600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4650500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14880600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6962600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12530800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7329500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9066500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2069800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6468,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-319800</v>
+        <v>-1200</v>
       </c>
       <c r="E96" s="3">
-        <v>-6700</v>
+        <v>-292100</v>
       </c>
       <c r="F96" s="3">
-        <v>-319200</v>
+        <v>-6100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2100</v>
+        <v>-291500</v>
       </c>
       <c r="H96" s="3">
-        <v>-350200</v>
+        <v>-2000</v>
       </c>
       <c r="I96" s="3">
-        <v>-8900</v>
+        <v>-319900</v>
       </c>
       <c r="J96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-378800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-413100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-207800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-218500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-5300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-212400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-215200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-7400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-209400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-195500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +6762,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>482800</v>
+        <v>2268400</v>
       </c>
       <c r="E100" s="3">
-        <v>-4535100</v>
+        <v>440900</v>
       </c>
       <c r="F100" s="3">
-        <v>6705400</v>
+        <v>-4141600</v>
       </c>
       <c r="G100" s="3">
-        <v>1180700</v>
+        <v>6123600</v>
       </c>
       <c r="H100" s="3">
-        <v>3962900</v>
+        <v>1078300</v>
       </c>
       <c r="I100" s="3">
-        <v>1498700</v>
+        <v>3619100</v>
       </c>
       <c r="J100" s="3">
+        <v>1368700</v>
+      </c>
+      <c r="K100" s="3">
         <v>12073100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1266600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7958500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10703900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9400900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8349100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>27945500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1020900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-440900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15008200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7083500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>20048900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-235200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1511600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>212700</v>
+        <v>916600</v>
       </c>
       <c r="E101" s="3">
-        <v>469400</v>
+        <v>194300</v>
       </c>
       <c r="F101" s="3">
-        <v>-3200</v>
+        <v>428700</v>
       </c>
       <c r="G101" s="3">
-        <v>854000</v>
+        <v>-2900</v>
       </c>
       <c r="H101" s="3">
-        <v>-595200</v>
+        <v>779900</v>
       </c>
       <c r="I101" s="3">
-        <v>-169800</v>
+        <v>-543600</v>
       </c>
       <c r="J101" s="3">
+        <v>-155100</v>
+      </c>
+      <c r="K101" s="3">
         <v>15300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-152000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>504000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-339800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>46800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-428200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>362200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>543800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-956200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>92900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>117100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>29700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-233700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1223700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4048400</v>
+        <v>4286300</v>
       </c>
       <c r="E102" s="3">
-        <v>966500</v>
+        <v>-3697200</v>
       </c>
       <c r="F102" s="3">
-        <v>2706900</v>
+        <v>882700</v>
       </c>
       <c r="G102" s="3">
-        <v>1796600</v>
+        <v>2472100</v>
       </c>
       <c r="H102" s="3">
-        <v>-5570600</v>
+        <v>1640800</v>
       </c>
       <c r="I102" s="3">
-        <v>-9179600</v>
+        <v>-5087400</v>
       </c>
       <c r="J102" s="3">
+        <v>-8383200</v>
+      </c>
+      <c r="K102" s="3">
         <v>23988900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3838500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4140200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12191800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8481900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13244000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19627100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3969900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-51800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19659900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4926800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,329 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12781000</v>
+        <v>11523000</v>
       </c>
       <c r="E8" s="3">
-        <v>12443200</v>
+        <v>12026300</v>
       </c>
       <c r="F8" s="3">
-        <v>11719000</v>
+        <v>11708500</v>
       </c>
       <c r="G8" s="3">
-        <v>11522500</v>
+        <v>11027000</v>
       </c>
       <c r="H8" s="3">
-        <v>11608100</v>
+        <v>10842100</v>
       </c>
       <c r="I8" s="3">
-        <v>11743500</v>
+        <v>10922600</v>
       </c>
       <c r="J8" s="3">
+        <v>11050000</v>
+      </c>
+      <c r="K8" s="3">
         <v>10520800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10918200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11784600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12404000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11877700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21401400</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23033700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21810600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20659600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21338700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21697300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20114700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>19762000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>20574300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>20486400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6637800</v>
+        <v>5044800</v>
       </c>
       <c r="E9" s="3">
-        <v>5884600</v>
+        <v>6245800</v>
       </c>
       <c r="F9" s="3">
-        <v>5307400</v>
+        <v>5537100</v>
       </c>
       <c r="G9" s="3">
-        <v>5197200</v>
+        <v>4994000</v>
       </c>
       <c r="H9" s="3">
-        <v>6103500</v>
+        <v>4890300</v>
       </c>
       <c r="I9" s="3">
-        <v>5912800</v>
+        <v>5743100</v>
       </c>
       <c r="J9" s="3">
+        <v>5563600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4893800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4968700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6084800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6091300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5827500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12236400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-6092900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13829900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12877900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11968400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13484000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13469600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11743500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11346300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13146800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>12612300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6143200</v>
+        <v>6478200</v>
       </c>
       <c r="E10" s="3">
-        <v>6558700</v>
+        <v>5780500</v>
       </c>
       <c r="F10" s="3">
-        <v>6411700</v>
+        <v>6171400</v>
       </c>
       <c r="G10" s="3">
-        <v>6325300</v>
+        <v>6033000</v>
       </c>
       <c r="H10" s="3">
-        <v>5504600</v>
+        <v>5951700</v>
       </c>
       <c r="I10" s="3">
-        <v>5830700</v>
+        <v>5179600</v>
       </c>
       <c r="J10" s="3">
+        <v>5486400</v>
+      </c>
+      <c r="K10" s="3">
         <v>5627000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5949400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5699800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6312700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6050200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9165000</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9203800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8932700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8691200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7854700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8227600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8371200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8415700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7427500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7874200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,82 +1166,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>717600</v>
+        <v>-110400</v>
       </c>
       <c r="E14" s="3">
-        <v>-199300</v>
+        <v>138900</v>
       </c>
       <c r="F14" s="3">
-        <v>-507300</v>
+        <v>-171500</v>
       </c>
       <c r="G14" s="3">
-        <v>-630800</v>
+        <v>-690900</v>
       </c>
       <c r="H14" s="3">
-        <v>434500</v>
+        <v>-689300</v>
       </c>
       <c r="I14" s="3">
-        <v>-376600</v>
+        <v>408800</v>
       </c>
       <c r="J14" s="3">
+        <v>-354400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-272000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-42400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1410800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-5669100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8287900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-3434100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-4413600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1151300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-4008600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-573900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-606200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-850800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>16700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9200</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1320,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>35284900</v>
+        <v>30303200</v>
       </c>
       <c r="E17" s="3">
-        <v>12067200</v>
+        <v>32665100</v>
       </c>
       <c r="F17" s="3">
-        <v>22339600</v>
+        <v>11370700</v>
       </c>
       <c r="G17" s="3">
-        <v>-650100</v>
+        <v>20806900</v>
       </c>
       <c r="H17" s="3">
-        <v>-17091100</v>
+        <v>-707400</v>
       </c>
       <c r="I17" s="3">
-        <v>-3829300</v>
+        <v>-16081900</v>
       </c>
       <c r="J17" s="3">
+        <v>-3603200</v>
+      </c>
+      <c r="K17" s="3">
         <v>386700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>846100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25684500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8923200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23043600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15091800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-12215800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19431700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15069400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14160300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19873100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19207400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16199900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15429300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>19913900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17985400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-22503900</v>
+        <v>-18780200</v>
       </c>
       <c r="E18" s="3">
-        <v>376100</v>
+        <v>-20638800</v>
       </c>
       <c r="F18" s="3">
-        <v>-10620600</v>
+        <v>337800</v>
       </c>
       <c r="G18" s="3">
-        <v>12172600</v>
+        <v>-9779900</v>
       </c>
       <c r="H18" s="3">
-        <v>28699200</v>
+        <v>11549500</v>
       </c>
       <c r="I18" s="3">
-        <v>15572800</v>
+        <v>27004500</v>
       </c>
       <c r="J18" s="3">
+        <v>14653200</v>
+      </c>
+      <c r="K18" s="3">
         <v>10134200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10072100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13900000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3480800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11166000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6309600</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3602000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6741200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6499300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1465600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2489800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3914800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4332600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>660400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2501000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,378 +1531,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6888600</v>
+        <v>-4516900</v>
       </c>
       <c r="E20" s="3">
-        <v>1843400</v>
+        <v>5945500</v>
       </c>
       <c r="F20" s="3">
-        <v>9508900</v>
+        <v>1750700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1459200</v>
+        <v>8733800</v>
       </c>
       <c r="H20" s="3">
-        <v>-10066500</v>
+        <v>-1468700</v>
       </c>
       <c r="I20" s="3">
-        <v>-66500</v>
+        <v>-9472100</v>
       </c>
       <c r="J20" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4804500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4972700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-338400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6990200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10509900</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1571600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2452300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>52500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1891500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1199700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13909900</v>
+        <v>-21678200</v>
       </c>
       <c r="E21" s="3">
-        <v>3861200</v>
+        <v>-13088600</v>
       </c>
       <c r="F21" s="3">
-        <v>523000</v>
+        <v>3633200</v>
       </c>
       <c r="G21" s="3">
-        <v>12372000</v>
+        <v>492100</v>
       </c>
       <c r="H21" s="3">
-        <v>20368600</v>
+        <v>11641400</v>
       </c>
       <c r="I21" s="3">
-        <v>17199700</v>
+        <v>19165800</v>
       </c>
       <c r="J21" s="3">
+        <v>16184100</v>
+      </c>
+      <c r="K21" s="3">
         <v>6921800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9535200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4190700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8039100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>227600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21373800</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9110000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13034900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10234600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3518900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8014200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5808700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5156700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2459900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6994000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>777000</v>
+        <v>836600</v>
       </c>
       <c r="E22" s="3">
-        <v>756900</v>
+        <v>731200</v>
       </c>
       <c r="F22" s="3">
-        <v>800800</v>
+        <v>712200</v>
       </c>
       <c r="G22" s="3">
-        <v>645000</v>
+        <v>753500</v>
       </c>
       <c r="H22" s="3">
-        <v>646000</v>
+        <v>606900</v>
       </c>
       <c r="I22" s="3">
-        <v>549300</v>
+        <v>607900</v>
       </c>
       <c r="J22" s="3">
+        <v>516900</v>
+      </c>
+      <c r="K22" s="3">
         <v>598400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>656800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3341800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>682800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>650500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1409200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1414100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1438600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1592700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1349600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1207100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1264500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1108200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1092700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1099400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1076300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16392400</v>
+        <v>-24133700</v>
       </c>
       <c r="E23" s="3">
-        <v>1462600</v>
+        <v>-15424400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1912500</v>
+        <v>1376200</v>
       </c>
       <c r="G23" s="3">
-        <v>10068400</v>
+        <v>-1799600</v>
       </c>
       <c r="H23" s="3">
-        <v>17986700</v>
+        <v>9473900</v>
       </c>
       <c r="I23" s="3">
-        <v>14957000</v>
+        <v>16924600</v>
       </c>
       <c r="J23" s="3">
+        <v>14073800</v>
+      </c>
+      <c r="K23" s="3">
         <v>4731300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7115000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12269000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2459600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4826200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15410300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1164800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3734900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7600800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5202200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3116800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1278700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>701200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2624500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56100</v>
+        <v>-1437700</v>
       </c>
       <c r="E24" s="3">
-        <v>1001700</v>
+        <v>52800</v>
       </c>
       <c r="F24" s="3">
-        <v>754500</v>
+        <v>942500</v>
       </c>
       <c r="G24" s="3">
-        <v>2804300</v>
+        <v>710000</v>
       </c>
       <c r="H24" s="3">
-        <v>2548800</v>
+        <v>2638700</v>
       </c>
       <c r="I24" s="3">
-        <v>5481800</v>
+        <v>2398300</v>
       </c>
       <c r="J24" s="3">
+        <v>5158100</v>
+      </c>
+      <c r="K24" s="3">
         <v>156800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2150900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>535200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1279400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>788100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4624600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2711700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2631100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2219600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>255400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>425100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1761000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16448500</v>
+        <v>-22696000</v>
       </c>
       <c r="E26" s="3">
-        <v>460900</v>
+        <v>-15477200</v>
       </c>
       <c r="F26" s="3">
-        <v>-2667000</v>
+        <v>433700</v>
       </c>
       <c r="G26" s="3">
-        <v>7264100</v>
+        <v>-2509500</v>
       </c>
       <c r="H26" s="3">
-        <v>15438000</v>
+        <v>6835100</v>
       </c>
       <c r="I26" s="3">
-        <v>9475200</v>
+        <v>14526400</v>
       </c>
       <c r="J26" s="3">
+        <v>8915700</v>
+      </c>
+      <c r="K26" s="3">
         <v>4574500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4964100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12804200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1180300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5614400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10785700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1179900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6446700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4969800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2982600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>318800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9573400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1023300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>276100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5047000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>863400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16430900</v>
+        <v>-23260000</v>
       </c>
       <c r="E27" s="3">
-        <v>161000</v>
+        <v>-15460600</v>
       </c>
       <c r="F27" s="3">
-        <v>-3161200</v>
+        <v>151500</v>
       </c>
       <c r="G27" s="3">
-        <v>5870800</v>
+        <v>-2974500</v>
       </c>
       <c r="H27" s="3">
-        <v>14997300</v>
+        <v>5524100</v>
       </c>
       <c r="I27" s="3">
-        <v>9065300</v>
+        <v>14111700</v>
       </c>
       <c r="J27" s="3">
+        <v>8530000</v>
+      </c>
+      <c r="K27" s="3">
         <v>5018500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4381300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12705700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>477400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6189100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10206200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1321500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6325200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4737800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2788300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>151100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8174400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>819600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>49900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5032700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>758700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2182,35 +2242,35 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-1800</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>7700</v>
+        <v>-1700</v>
       </c>
       <c r="J29" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-189100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>6264900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-33900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-48100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-315900</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>82100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2230,17 +2290,20 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>13300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-46800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6888600</v>
+        <v>4516900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1843400</v>
+        <v>-5945500</v>
       </c>
       <c r="F32" s="3">
-        <v>-9508900</v>
+        <v>-1750700</v>
       </c>
       <c r="G32" s="3">
-        <v>1459200</v>
+        <v>-8733800</v>
       </c>
       <c r="H32" s="3">
-        <v>10066500</v>
+        <v>1468700</v>
       </c>
       <c r="I32" s="3">
-        <v>66500</v>
+        <v>9472100</v>
       </c>
       <c r="J32" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K32" s="3">
         <v>4804500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4972700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>338400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6990200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10509900</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1571600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2452300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-52500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1887200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1527900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2538700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1891400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16430900</v>
+        <v>-23260000</v>
       </c>
       <c r="E33" s="3">
-        <v>161000</v>
+        <v>-15460600</v>
       </c>
       <c r="F33" s="3">
-        <v>-3161200</v>
+        <v>151500</v>
       </c>
       <c r="G33" s="3">
-        <v>5870800</v>
+        <v>-2974500</v>
       </c>
       <c r="H33" s="3">
-        <v>14995500</v>
+        <v>5524100</v>
       </c>
       <c r="I33" s="3">
-        <v>9073000</v>
+        <v>14110000</v>
       </c>
       <c r="J33" s="3">
+        <v>8537200</v>
+      </c>
+      <c r="K33" s="3">
         <v>4829500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10646200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12739600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>429300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6504900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10206200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1239300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6325200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4737800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2788300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>151100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8174400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>819600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>49900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5045900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>711900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16430900</v>
+        <v>-23260000</v>
       </c>
       <c r="E35" s="3">
-        <v>161000</v>
+        <v>-15460600</v>
       </c>
       <c r="F35" s="3">
-        <v>-3161200</v>
+        <v>151500</v>
       </c>
       <c r="G35" s="3">
-        <v>5870800</v>
+        <v>-2974500</v>
       </c>
       <c r="H35" s="3">
-        <v>14995500</v>
+        <v>5524100</v>
       </c>
       <c r="I35" s="3">
-        <v>9073000</v>
+        <v>14110000</v>
       </c>
       <c r="J35" s="3">
+        <v>8537200</v>
+      </c>
+      <c r="K35" s="3">
         <v>4829500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10646200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12739600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>429300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6504900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10206200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1239300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6325200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4737800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2788300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>151100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8174400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>819600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>49900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5045900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>711900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,674 +2903,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>40266500</v>
+        <v>44498000</v>
       </c>
       <c r="E41" s="3">
-        <v>35980200</v>
+        <v>37888800</v>
       </c>
       <c r="F41" s="3">
-        <v>39677400</v>
+        <v>33855600</v>
       </c>
       <c r="G41" s="3">
-        <v>38794700</v>
+        <v>37334400</v>
       </c>
       <c r="H41" s="3">
-        <v>36322600</v>
+        <v>36503900</v>
       </c>
       <c r="I41" s="3">
-        <v>34681900</v>
+        <v>34177800</v>
       </c>
       <c r="J41" s="3">
+        <v>32633900</v>
+      </c>
+      <c r="K41" s="3">
         <v>39769200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52726600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29681000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34660900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39141800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26862100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35349600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48588000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28960900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24800100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>30312000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>30196800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>31303200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11643200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>19364100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>22163900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6202000</v>
+        <v>5455300</v>
       </c>
       <c r="E42" s="3">
-        <v>6256500</v>
+        <v>5835800</v>
       </c>
       <c r="F42" s="3">
-        <v>4957300</v>
+        <v>5887000</v>
       </c>
       <c r="G42" s="3">
-        <v>11726300</v>
+        <v>4664600</v>
       </c>
       <c r="H42" s="3">
-        <v>17825500</v>
+        <v>11033900</v>
       </c>
       <c r="I42" s="3">
-        <v>18738000</v>
+        <v>16772900</v>
       </c>
       <c r="J42" s="3">
+        <v>17631500</v>
+      </c>
+      <c r="K42" s="3">
         <v>14747500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2242200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2761800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1370900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1658500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1758000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1858200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5601400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5969000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7167800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4721700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1881400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4880300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>6051800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7048900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4023600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18270800</v>
+        <v>17218900</v>
       </c>
       <c r="E43" s="3">
-        <v>17788100</v>
+        <v>18745100</v>
       </c>
       <c r="F43" s="3">
-        <v>15556700</v>
+        <v>16737700</v>
       </c>
       <c r="G43" s="3">
-        <v>16677100</v>
+        <v>14638100</v>
       </c>
       <c r="H43" s="3">
-        <v>19589600</v>
+        <v>15692300</v>
       </c>
       <c r="I43" s="3">
-        <v>17424600</v>
+        <v>18432800</v>
       </c>
       <c r="J43" s="3">
+        <v>16395700</v>
+      </c>
+      <c r="K43" s="3">
         <v>15180800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19256100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21403400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24108600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20975400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20929300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27033100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>22102200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20810100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20322500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>21037500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>21080500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>19335800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>18760900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19631000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>19570700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1112200</v>
+        <v>1042500</v>
       </c>
       <c r="E44" s="3">
-        <v>1201700</v>
+        <v>1046500</v>
       </c>
       <c r="F44" s="3">
-        <v>1001800</v>
+        <v>1130700</v>
       </c>
       <c r="G44" s="3">
-        <v>934000</v>
+        <v>942600</v>
       </c>
       <c r="H44" s="3">
-        <v>988000</v>
+        <v>878900</v>
       </c>
       <c r="I44" s="3">
-        <v>1245800</v>
+        <v>929700</v>
       </c>
       <c r="J44" s="3">
+        <v>1172200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1038000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1567900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1630700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2987300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2773900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2915900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3345800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3598500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3133100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3016300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3291000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3276200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3070400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3217800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3027700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3646500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12271300</v>
+        <v>8004200</v>
       </c>
       <c r="E45" s="3">
-        <v>13466500</v>
+        <v>9993400</v>
       </c>
       <c r="F45" s="3">
-        <v>8758100</v>
+        <v>12671300</v>
       </c>
       <c r="G45" s="3">
-        <v>10557400</v>
+        <v>8241000</v>
       </c>
       <c r="H45" s="3">
-        <v>9563400</v>
+        <v>9934000</v>
       </c>
       <c r="I45" s="3">
-        <v>6331200</v>
+        <v>8998700</v>
       </c>
       <c r="J45" s="3">
+        <v>5957300</v>
+      </c>
+      <c r="K45" s="3">
         <v>10329900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4142300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>82284500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5210400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3895400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8223900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3476400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2922600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2703400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7241400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3130400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2768500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2546200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3420900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1700000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1589500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>78122700</v>
+        <v>76218900</v>
       </c>
       <c r="E46" s="3">
-        <v>74692900</v>
+        <v>73509600</v>
       </c>
       <c r="F46" s="3">
-        <v>69951200</v>
+        <v>70282300</v>
       </c>
       <c r="G46" s="3">
-        <v>78689500</v>
+        <v>65820600</v>
       </c>
       <c r="H46" s="3">
-        <v>84289100</v>
+        <v>74042900</v>
       </c>
       <c r="I46" s="3">
-        <v>78421400</v>
+        <v>79311800</v>
       </c>
       <c r="J46" s="3">
+        <v>73790600</v>
+      </c>
+      <c r="K46" s="3">
         <v>81065300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>79935000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>137761500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>68338100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>68445100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>60689100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>71063200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>82812600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>61576500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>62548000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>62492500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>59203400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>61136000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>43094700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>50771700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>50994200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>91094100</v>
+        <v>76479300</v>
       </c>
       <c r="E47" s="3">
-        <v>87657700</v>
+        <v>85715000</v>
       </c>
       <c r="F47" s="3">
-        <v>85543500</v>
+        <v>82481500</v>
       </c>
       <c r="G47" s="3">
-        <v>85063200</v>
+        <v>80492100</v>
       </c>
       <c r="H47" s="3">
-        <v>77141700</v>
+        <v>80040200</v>
       </c>
       <c r="I47" s="3">
-        <v>65379100</v>
+        <v>72586500</v>
       </c>
       <c r="J47" s="3">
+        <v>61518400</v>
+      </c>
+      <c r="K47" s="3">
         <v>59639500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>64283700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>48511000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55211200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>47849700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>46215400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>41510400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>42776400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>61214000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>56022200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>51496000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>35578100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>30224400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>34602700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>28588600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>28078900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21480900</v>
+        <v>20707000</v>
       </c>
       <c r="E48" s="3">
-        <v>21288500</v>
+        <v>20212400</v>
       </c>
       <c r="F48" s="3">
-        <v>21167100</v>
+        <v>20031400</v>
       </c>
       <c r="G48" s="3">
-        <v>22176500</v>
+        <v>19917200</v>
       </c>
       <c r="H48" s="3">
-        <v>21933500</v>
+        <v>20867000</v>
       </c>
       <c r="I48" s="3">
-        <v>20843100</v>
+        <v>20638300</v>
       </c>
       <c r="J48" s="3">
+        <v>19612300</v>
+      </c>
+      <c r="K48" s="3">
         <v>20744000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21528500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22537800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>48271100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>47750200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>47879500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>37287600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>37440800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>37449900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>36141000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35058700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35804300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35314700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35342200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>35278200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>36248600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>57065600</v>
+        <v>56511900</v>
       </c>
       <c r="E49" s="3">
-        <v>55493700</v>
+        <v>53695900</v>
       </c>
       <c r="F49" s="3">
-        <v>55450800</v>
+        <v>52216800</v>
       </c>
       <c r="G49" s="3">
-        <v>54213100</v>
+        <v>52176400</v>
       </c>
       <c r="H49" s="3">
-        <v>54473800</v>
+        <v>51011800</v>
       </c>
       <c r="I49" s="3">
-        <v>44675400</v>
+        <v>51257100</v>
       </c>
       <c r="J49" s="3">
+        <v>42037300</v>
+      </c>
+      <c r="K49" s="3">
         <v>45500200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50878000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>52720300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>106708100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>98438000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>99057400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>102717100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>101859900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>105103400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>101651800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>100781800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>104424800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>102922300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>101709400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>98653100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>100523000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>122609700</v>
+        <v>114419500</v>
       </c>
       <c r="E52" s="3">
-        <v>136679300</v>
+        <v>115369600</v>
       </c>
       <c r="F52" s="3">
-        <v>127947300</v>
+        <v>128608400</v>
       </c>
       <c r="G52" s="3">
-        <v>127433400</v>
+        <v>120392000</v>
       </c>
       <c r="H52" s="3">
-        <v>118557900</v>
+        <v>119908500</v>
       </c>
       <c r="I52" s="3">
-        <v>85601000</v>
+        <v>111557000</v>
       </c>
       <c r="J52" s="3">
+        <v>80546300</v>
+      </c>
+      <c r="K52" s="3">
         <v>70750500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>69670200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>66706200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>80464100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>76156600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>81295200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78065400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>69079000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>44333300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>36956300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>33601500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>30880300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>23282900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10194500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5213900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4725800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>370373000</v>
+        <v>344336600</v>
       </c>
       <c r="E54" s="3">
-        <v>375812100</v>
+        <v>348502400</v>
       </c>
       <c r="F54" s="3">
-        <v>360059900</v>
+        <v>353620400</v>
       </c>
       <c r="G54" s="3">
-        <v>367575800</v>
+        <v>338798400</v>
       </c>
       <c r="H54" s="3">
-        <v>356396000</v>
+        <v>345870400</v>
       </c>
       <c r="I54" s="3">
-        <v>294920000</v>
+        <v>335350800</v>
       </c>
       <c r="J54" s="3">
+        <v>277505000</v>
+      </c>
+      <c r="K54" s="3">
         <v>277699500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>286295400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>328236700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>358992600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>338639600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>335136600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>330643700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>333968800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>309677200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>293319400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>283430400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>265891000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>252880300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>224943500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>218505500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>220570600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,452 +4039,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15337500</v>
+        <v>13099800</v>
       </c>
       <c r="E57" s="3">
-        <v>14810000</v>
+        <v>11433700</v>
       </c>
       <c r="F57" s="3">
-        <v>12015800</v>
+        <v>13935500</v>
       </c>
       <c r="G57" s="3">
-        <v>13205100</v>
+        <v>11306300</v>
       </c>
       <c r="H57" s="3">
-        <v>12005000</v>
+        <v>12425400</v>
       </c>
       <c r="I57" s="3">
-        <v>12687300</v>
+        <v>11296100</v>
       </c>
       <c r="J57" s="3">
+        <v>11938100</v>
+      </c>
+      <c r="K57" s="3">
         <v>10361500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13685400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11366500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18337600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16117700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16056600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15549600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17064400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16609200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15159300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16507500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15766500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14560700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13257100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14258100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14983600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>58963300</v>
+        <v>49988500</v>
       </c>
       <c r="E58" s="3">
-        <v>58576300</v>
+        <v>55481500</v>
       </c>
       <c r="F58" s="3">
-        <v>57617500</v>
+        <v>55117300</v>
       </c>
       <c r="G58" s="3">
-        <v>69604400</v>
+        <v>54215200</v>
       </c>
       <c r="H58" s="3">
-        <v>62652500</v>
+        <v>65494300</v>
       </c>
       <c r="I58" s="3">
-        <v>44165200</v>
+        <v>58952900</v>
       </c>
       <c r="J58" s="3">
+        <v>41557300</v>
+      </c>
+      <c r="K58" s="3">
         <v>25231400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33117600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>37209400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37220200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>35786500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>35713700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31885600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>38991300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>45547700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>37659800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>29246200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>27039100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>39373000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>29719200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23896600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>30472600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22150800</v>
+        <v>19056800</v>
       </c>
       <c r="E59" s="3">
-        <v>19755600</v>
+        <v>23840900</v>
       </c>
       <c r="F59" s="3">
-        <v>17625500</v>
+        <v>18589100</v>
       </c>
       <c r="G59" s="3">
-        <v>18030600</v>
+        <v>16584700</v>
       </c>
       <c r="H59" s="3">
-        <v>25763000</v>
+        <v>16965800</v>
       </c>
       <c r="I59" s="3">
-        <v>19572500</v>
+        <v>24241700</v>
       </c>
       <c r="J59" s="3">
+        <v>18416800</v>
+      </c>
+      <c r="K59" s="3">
         <v>23605700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18239000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76448000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18115600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16619800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16159500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>32089100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22236900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21594700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21746600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15410600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7715700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7180600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7091800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8208100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7792700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>96451600</v>
+        <v>82145200</v>
       </c>
       <c r="E60" s="3">
-        <v>93141900</v>
+        <v>90756100</v>
       </c>
       <c r="F60" s="3">
-        <v>87258800</v>
+        <v>87641800</v>
       </c>
       <c r="G60" s="3">
-        <v>100840100</v>
+        <v>82106100</v>
       </c>
       <c r="H60" s="3">
-        <v>100420500</v>
+        <v>94885500</v>
       </c>
       <c r="I60" s="3">
-        <v>76425100</v>
+        <v>94490700</v>
       </c>
       <c r="J60" s="3">
+        <v>71912200</v>
+      </c>
+      <c r="K60" s="3">
         <v>59198600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>65041900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>125023900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>73673500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>68524000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>67929800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>79524300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>78292600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>83751600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>74565700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>61164400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>50521300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>61114300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>50068100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>46362800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>53248900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>114937400</v>
+        <v>124838400</v>
       </c>
       <c r="E61" s="3">
-        <v>109484600</v>
+        <v>108150300</v>
       </c>
       <c r="F61" s="3">
-        <v>106747300</v>
+        <v>103019500</v>
       </c>
       <c r="G61" s="3">
-        <v>95806600</v>
+        <v>100443800</v>
       </c>
       <c r="H61" s="3">
-        <v>89626200</v>
+        <v>90149200</v>
       </c>
       <c r="I61" s="3">
-        <v>93120800</v>
+        <v>84333800</v>
       </c>
       <c r="J61" s="3">
+        <v>87622000</v>
+      </c>
+      <c r="K61" s="3">
         <v>95496600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>102245900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>88528800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>138147300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>130447800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>123025100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>111790000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>117221400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>119220200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>120042200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>125667300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>116199700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>102072600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>105642400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>110444900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>102823600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67780500</v>
+        <v>62773200</v>
       </c>
       <c r="E62" s="3">
-        <v>73114800</v>
+        <v>63778100</v>
       </c>
       <c r="F62" s="3">
-        <v>69929400</v>
+        <v>68797400</v>
       </c>
       <c r="G62" s="3">
-        <v>73623400</v>
+        <v>65800100</v>
       </c>
       <c r="H62" s="3">
-        <v>73215200</v>
+        <v>69275900</v>
       </c>
       <c r="I62" s="3">
-        <v>58206400</v>
+        <v>68891800</v>
       </c>
       <c r="J62" s="3">
+        <v>54769300</v>
+      </c>
+      <c r="K62" s="3">
         <v>57407700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54377600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49728700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>63438000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>60416600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>57662400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56805100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>53391500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39442200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>36707000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39577000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39787300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40259300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>27154100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>22051300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>29180400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>292662500</v>
+        <v>281574100</v>
       </c>
       <c r="E66" s="3">
-        <v>289228500</v>
+        <v>275380700</v>
       </c>
       <c r="F66" s="3">
-        <v>277886600</v>
+        <v>272149600</v>
       </c>
       <c r="G66" s="3">
-        <v>284023800</v>
+        <v>261477400</v>
       </c>
       <c r="H66" s="3">
-        <v>276836000</v>
+        <v>267252200</v>
       </c>
       <c r="I66" s="3">
-        <v>235520900</v>
+        <v>260488800</v>
       </c>
       <c r="J66" s="3">
+        <v>221613400</v>
+      </c>
+      <c r="K66" s="3">
         <v>220811000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>230573700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>276137800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>288809900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>271439800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>260138500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>260831000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>261490800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>251556700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>241599300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>236306300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>216119500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>211602200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>190835400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>186694500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>193103600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35177300</v>
+        <v>9662900</v>
       </c>
       <c r="E72" s="3">
-        <v>51671900</v>
+        <v>33100100</v>
       </c>
       <c r="F72" s="3">
-        <v>51743500</v>
+        <v>48620700</v>
       </c>
       <c r="G72" s="3">
-        <v>54970900</v>
+        <v>48688000</v>
       </c>
       <c r="H72" s="3">
-        <v>68633200</v>
+        <v>51724900</v>
       </c>
       <c r="I72" s="3">
-        <v>53745900</v>
+        <v>64580400</v>
       </c>
       <c r="J72" s="3">
+        <v>50572200</v>
+      </c>
+      <c r="K72" s="3">
         <v>44939800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43980500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34762700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>49292200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>49558300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>56124200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>51033000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52347500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46177200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>41186600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>35817000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>35543700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27448000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26570200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26240600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21110400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77710500</v>
+        <v>62762500</v>
       </c>
       <c r="E76" s="3">
-        <v>86583600</v>
+        <v>73121700</v>
       </c>
       <c r="F76" s="3">
-        <v>82173300</v>
+        <v>81470800</v>
       </c>
       <c r="G76" s="3">
-        <v>83552000</v>
+        <v>77321000</v>
       </c>
       <c r="H76" s="3">
-        <v>79560000</v>
+        <v>78618200</v>
       </c>
       <c r="I76" s="3">
-        <v>59399100</v>
+        <v>74862000</v>
       </c>
       <c r="J76" s="3">
+        <v>55891500</v>
+      </c>
+      <c r="K76" s="3">
         <v>56888400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55721700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52098900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>70182700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>67199800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>74998100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>69812800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>72478000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>58120500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>51720100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>47124200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>49771400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>41278100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>34108100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>31810900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>27467000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16430900</v>
+        <v>-23260000</v>
       </c>
       <c r="E81" s="3">
-        <v>161000</v>
+        <v>-15460600</v>
       </c>
       <c r="F81" s="3">
-        <v>-3161200</v>
+        <v>151500</v>
       </c>
       <c r="G81" s="3">
-        <v>5870800</v>
+        <v>-2974500</v>
       </c>
       <c r="H81" s="3">
-        <v>14995500</v>
+        <v>5524100</v>
       </c>
       <c r="I81" s="3">
-        <v>9073000</v>
+        <v>14110000</v>
       </c>
       <c r="J81" s="3">
+        <v>8537200</v>
+      </c>
+      <c r="K81" s="3">
         <v>4829500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10646200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12739600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>429300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6504900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10206200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1239300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6325200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4737800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2788300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>151100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8174400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>819600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>49900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5045900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>711900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1705400</v>
+        <v>1618800</v>
       </c>
       <c r="E83" s="3">
-        <v>1641700</v>
+        <v>1604700</v>
       </c>
       <c r="F83" s="3">
-        <v>1634600</v>
+        <v>1544800</v>
       </c>
       <c r="G83" s="3">
-        <v>1658600</v>
+        <v>1538100</v>
       </c>
       <c r="H83" s="3">
-        <v>1735800</v>
+        <v>1560700</v>
       </c>
       <c r="I83" s="3">
-        <v>1693400</v>
+        <v>1633300</v>
       </c>
       <c r="J83" s="3">
+        <v>1593400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1592100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1763400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4736500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4896600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4403400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4554300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4029700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3936500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3841400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3682800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3940500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3632900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3421800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3362800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3690900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3293200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2465300</v>
+        <v>1032100</v>
       </c>
       <c r="E89" s="3">
-        <v>2576500</v>
+        <v>2319700</v>
       </c>
       <c r="F89" s="3">
-        <v>12236500</v>
+        <v>2424300</v>
       </c>
       <c r="G89" s="3">
-        <v>3952900</v>
+        <v>11514000</v>
       </c>
       <c r="H89" s="3">
-        <v>4944700</v>
+        <v>3719500</v>
       </c>
       <c r="I89" s="3">
-        <v>-4394500</v>
+        <v>4652700</v>
       </c>
       <c r="J89" s="3">
+        <v>-4135000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2581200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1313800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2230600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2278000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8462600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5012300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2387800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1176300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4656500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2494500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1862100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1224800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4993100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1771400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3292700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>991900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1126000</v>
+        <v>-1247200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1210700</v>
+        <v>-1059500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2792800</v>
+        <v>-1139200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1375800</v>
+        <v>-2627800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1231100</v>
+        <v>-1294600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1165900</v>
+        <v>-1158400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1097000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1476400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1276600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2600300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2746200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2910500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2924300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2741500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3340700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3367000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>3726200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1363900</v>
+        <v>2097100</v>
       </c>
       <c r="E94" s="3">
-        <v>-6908800</v>
+        <v>-1283400</v>
       </c>
       <c r="F94" s="3">
-        <v>-7640900</v>
+        <v>-6500800</v>
       </c>
       <c r="G94" s="3">
-        <v>-7601600</v>
+        <v>-7189700</v>
       </c>
       <c r="H94" s="3">
-        <v>-5162200</v>
+        <v>-7152800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3768400</v>
+        <v>-4857300</v>
       </c>
       <c r="J94" s="3">
+        <v>-3545900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12178000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10586600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4650500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14880600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6962600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12530800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7329500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9066500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2069800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,82 +6701,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-258700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-274800</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-274300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-378800</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-413100</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-218500</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-212400</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1200</v>
       </c>
-      <c r="E96" s="3">
-        <v>-292100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-291500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-319900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-378800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-413100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-207800</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-218500</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-212400</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-215200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-7400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-209400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-195500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,226 +7007,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2268400</v>
+        <v>1289500</v>
       </c>
       <c r="E100" s="3">
-        <v>440900</v>
+        <v>2134400</v>
       </c>
       <c r="F100" s="3">
-        <v>-4141600</v>
+        <v>414800</v>
       </c>
       <c r="G100" s="3">
-        <v>6123600</v>
+        <v>-3897100</v>
       </c>
       <c r="H100" s="3">
-        <v>1078300</v>
+        <v>5762000</v>
       </c>
       <c r="I100" s="3">
-        <v>3619100</v>
+        <v>1014600</v>
       </c>
       <c r="J100" s="3">
+        <v>3405400</v>
+      </c>
+      <c r="K100" s="3">
         <v>1368700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12073100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1266600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7958500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10703900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9400900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8349100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>27945500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1020900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-440900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>15008200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7083500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>20048900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-235200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1511600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>916600</v>
+        <v>2190500</v>
       </c>
       <c r="E101" s="3">
-        <v>194300</v>
+        <v>862500</v>
       </c>
       <c r="F101" s="3">
-        <v>428700</v>
+        <v>182800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2900</v>
+        <v>403400</v>
       </c>
       <c r="H101" s="3">
-        <v>779900</v>
+        <v>-2700</v>
       </c>
       <c r="I101" s="3">
-        <v>-543600</v>
+        <v>733900</v>
       </c>
       <c r="J101" s="3">
+        <v>-511500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-155100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>15300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-152000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>504000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-339800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>46800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-428200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>362200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>543800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-956200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>92900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>117100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>29700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-233700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1223700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4286300</v>
+        <v>6609200</v>
       </c>
       <c r="E102" s="3">
-        <v>-3697200</v>
+        <v>4033200</v>
       </c>
       <c r="F102" s="3">
-        <v>882700</v>
+        <v>-3478800</v>
       </c>
       <c r="G102" s="3">
-        <v>2472100</v>
+        <v>830500</v>
       </c>
       <c r="H102" s="3">
-        <v>1640800</v>
+        <v>2326100</v>
       </c>
       <c r="I102" s="3">
-        <v>-5087400</v>
+        <v>1543900</v>
       </c>
       <c r="J102" s="3">
+        <v>-4787000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8383200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23988900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3838500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4140200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12191800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8481900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13244000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19627100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3969900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-51800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19659900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4926800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,341 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11523000</v>
+        <v>11418100</v>
       </c>
       <c r="E8" s="3">
-        <v>12026300</v>
+        <v>11145700</v>
       </c>
       <c r="F8" s="3">
-        <v>11708500</v>
+        <v>11632500</v>
       </c>
       <c r="G8" s="3">
-        <v>11027000</v>
+        <v>11325100</v>
       </c>
       <c r="H8" s="3">
-        <v>10842100</v>
+        <v>10666000</v>
       </c>
       <c r="I8" s="3">
-        <v>10922600</v>
+        <v>10487100</v>
       </c>
       <c r="J8" s="3">
+        <v>10565000</v>
+      </c>
+      <c r="K8" s="3">
         <v>11050000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10520800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10918200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11784600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12404000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11877700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21401400</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23033700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21810600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20659600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21338700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>21697300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20114700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19762000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>20574300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>20486400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5044800</v>
+        <v>5479900</v>
       </c>
       <c r="E9" s="3">
-        <v>6245800</v>
+        <v>4879600</v>
       </c>
       <c r="F9" s="3">
-        <v>5537100</v>
+        <v>6041300</v>
       </c>
       <c r="G9" s="3">
-        <v>4994000</v>
+        <v>5355800</v>
       </c>
       <c r="H9" s="3">
-        <v>4890300</v>
+        <v>4830500</v>
       </c>
       <c r="I9" s="3">
-        <v>5743100</v>
+        <v>4730200</v>
       </c>
       <c r="J9" s="3">
+        <v>5555000</v>
+      </c>
+      <c r="K9" s="3">
         <v>5563600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4893800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4968700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6084800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6091300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5827500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12236400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>-6092900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13829900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12877900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11968400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13484000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13469600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11743500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11346300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13146800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>12612300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6478200</v>
+        <v>5938100</v>
       </c>
       <c r="E10" s="3">
-        <v>5780500</v>
+        <v>6266100</v>
       </c>
       <c r="F10" s="3">
-        <v>6171400</v>
+        <v>5591200</v>
       </c>
       <c r="G10" s="3">
-        <v>6033000</v>
+        <v>5969300</v>
       </c>
       <c r="H10" s="3">
-        <v>5951700</v>
+        <v>5835500</v>
       </c>
       <c r="I10" s="3">
-        <v>5179600</v>
+        <v>5756900</v>
       </c>
       <c r="J10" s="3">
+        <v>5010000</v>
+      </c>
+      <c r="K10" s="3">
         <v>5486400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5627000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5949400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5699800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6312700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6050200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9165000</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9203800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8932700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8691200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7854700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8227600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8371200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8415700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7427500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7874200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,85 +1185,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-110400</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>138900</v>
+        <v>-106800</v>
       </c>
       <c r="F14" s="3">
-        <v>-171500</v>
+        <v>134400</v>
       </c>
       <c r="G14" s="3">
-        <v>-690900</v>
+        <v>-165900</v>
       </c>
       <c r="H14" s="3">
-        <v>-689300</v>
+        <v>-668300</v>
       </c>
       <c r="I14" s="3">
-        <v>408800</v>
+        <v>-666700</v>
       </c>
       <c r="J14" s="3">
+        <v>395500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-354400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-272000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-42400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1410800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-5669100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8287900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-3434100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-4413600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1151300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-4008600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-573900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-606200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-850800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>16700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>9200</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,8 +1345,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30303200</v>
+        <v>-4141300</v>
       </c>
       <c r="E17" s="3">
-        <v>32665100</v>
+        <v>29311000</v>
       </c>
       <c r="F17" s="3">
-        <v>11370700</v>
+        <v>31595500</v>
       </c>
       <c r="G17" s="3">
-        <v>20806900</v>
+        <v>10998400</v>
       </c>
       <c r="H17" s="3">
-        <v>-707400</v>
+        <v>20125700</v>
       </c>
       <c r="I17" s="3">
-        <v>-16081900</v>
+        <v>-684300</v>
       </c>
       <c r="J17" s="3">
+        <v>-15555300</v>
+      </c>
+      <c r="K17" s="3">
         <v>-3603200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>386700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>846100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25684500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8923200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23043600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15091800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-12215800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19431700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15069400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14160300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19873100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19207400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16199900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>15429300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>19913900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17985400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-18780200</v>
+        <v>15559400</v>
       </c>
       <c r="E18" s="3">
-        <v>-20638800</v>
+        <v>-18165300</v>
       </c>
       <c r="F18" s="3">
-        <v>337800</v>
+        <v>-19963000</v>
       </c>
       <c r="G18" s="3">
-        <v>-9779900</v>
+        <v>326700</v>
       </c>
       <c r="H18" s="3">
-        <v>11549500</v>
+        <v>-9459700</v>
       </c>
       <c r="I18" s="3">
-        <v>27004500</v>
+        <v>11171300</v>
       </c>
       <c r="J18" s="3">
+        <v>26120300</v>
+      </c>
+      <c r="K18" s="3">
         <v>14653200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10134200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10072100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13900000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3480800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11166000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6309600</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3602000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6741200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6499300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1465600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2489800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3914800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4332600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>660400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2501000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,393 +1564,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4516900</v>
+        <v>11277500</v>
       </c>
       <c r="E20" s="3">
-        <v>5945500</v>
+        <v>-4369000</v>
       </c>
       <c r="F20" s="3">
-        <v>1750700</v>
+        <v>5750900</v>
       </c>
       <c r="G20" s="3">
-        <v>8733800</v>
+        <v>1693300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1468700</v>
+        <v>8447900</v>
       </c>
       <c r="I20" s="3">
-        <v>-9472100</v>
+        <v>-1420600</v>
       </c>
       <c r="J20" s="3">
+        <v>-9161900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-62500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4804500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4972700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-338400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6990200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10509900</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1571600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2452300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>52500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1891500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1199700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-21678200</v>
+        <v>28367100</v>
       </c>
       <c r="E21" s="3">
-        <v>-13088600</v>
+        <v>-20968400</v>
       </c>
       <c r="F21" s="3">
-        <v>3633200</v>
+        <v>-12660000</v>
       </c>
       <c r="G21" s="3">
-        <v>492100</v>
+        <v>3514300</v>
       </c>
       <c r="H21" s="3">
-        <v>11641400</v>
+        <v>476000</v>
       </c>
       <c r="I21" s="3">
-        <v>19165800</v>
+        <v>11260300</v>
       </c>
       <c r="J21" s="3">
+        <v>18538300</v>
+      </c>
+      <c r="K21" s="3">
         <v>16184100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6921800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9535200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4190700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8039100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>227600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21373800</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9110000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13034900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10234600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3518900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8014200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5808700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5156700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2459900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6994000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>836600</v>
+        <v>1418600</v>
       </c>
       <c r="E22" s="3">
-        <v>731200</v>
+        <v>809200</v>
       </c>
       <c r="F22" s="3">
-        <v>712200</v>
+        <v>707200</v>
       </c>
       <c r="G22" s="3">
-        <v>753500</v>
+        <v>688900</v>
       </c>
       <c r="H22" s="3">
-        <v>606900</v>
+        <v>728900</v>
       </c>
       <c r="I22" s="3">
-        <v>607900</v>
+        <v>587000</v>
       </c>
       <c r="J22" s="3">
+        <v>588000</v>
+      </c>
+      <c r="K22" s="3">
         <v>516900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>598400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>656800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3341800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>682800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>650500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1409200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1414100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1438600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1592700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1349600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1207100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1264500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1108200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1092700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1099400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1076300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24133700</v>
+        <v>25418300</v>
       </c>
       <c r="E23" s="3">
-        <v>-15424400</v>
+        <v>-23343500</v>
       </c>
       <c r="F23" s="3">
-        <v>1376200</v>
+        <v>-14919400</v>
       </c>
       <c r="G23" s="3">
-        <v>-1799600</v>
+        <v>1331200</v>
       </c>
       <c r="H23" s="3">
-        <v>9473900</v>
+        <v>-1740600</v>
       </c>
       <c r="I23" s="3">
-        <v>16924600</v>
+        <v>9163700</v>
       </c>
       <c r="J23" s="3">
+        <v>16370500</v>
+      </c>
+      <c r="K23" s="3">
         <v>14073800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4731300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7115000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12269000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2459600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4826200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15410300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1164800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3734900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7600800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5202200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3116800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1278700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>701200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2624500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1437700</v>
+        <v>3561500</v>
       </c>
       <c r="E24" s="3">
-        <v>52800</v>
+        <v>-1390600</v>
       </c>
       <c r="F24" s="3">
-        <v>942500</v>
+        <v>51100</v>
       </c>
       <c r="G24" s="3">
-        <v>710000</v>
+        <v>911700</v>
       </c>
       <c r="H24" s="3">
-        <v>2638700</v>
+        <v>686700</v>
       </c>
       <c r="I24" s="3">
-        <v>2398300</v>
+        <v>2552300</v>
       </c>
       <c r="J24" s="3">
+        <v>2319700</v>
+      </c>
+      <c r="K24" s="3">
         <v>5158100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>156800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2150900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>535200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1279400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>788100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4624600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2711700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2631100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2219600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>255400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>425100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1761000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-22696000</v>
+        <v>21856800</v>
       </c>
       <c r="E26" s="3">
-        <v>-15477200</v>
+        <v>-21952900</v>
       </c>
       <c r="F26" s="3">
-        <v>433700</v>
+        <v>-14970500</v>
       </c>
       <c r="G26" s="3">
-        <v>-2509500</v>
+        <v>419500</v>
       </c>
       <c r="H26" s="3">
-        <v>6835100</v>
+        <v>-2427400</v>
       </c>
       <c r="I26" s="3">
-        <v>14526400</v>
+        <v>6611300</v>
       </c>
       <c r="J26" s="3">
+        <v>14050700</v>
+      </c>
+      <c r="K26" s="3">
         <v>8915700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4574500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4964100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12804200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1180300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5614400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10785700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1179900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6446700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4969800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2982600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>318800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>9573400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1023300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>276100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5047000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>863400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-23260000</v>
+        <v>21508200</v>
       </c>
       <c r="E27" s="3">
-        <v>-15460600</v>
+        <v>-22498400</v>
       </c>
       <c r="F27" s="3">
-        <v>151500</v>
+        <v>-14954400</v>
       </c>
       <c r="G27" s="3">
-        <v>-2974500</v>
+        <v>146500</v>
       </c>
       <c r="H27" s="3">
-        <v>5524100</v>
+        <v>-2877200</v>
       </c>
       <c r="I27" s="3">
-        <v>14111700</v>
+        <v>5343200</v>
       </c>
       <c r="J27" s="3">
+        <v>13649700</v>
+      </c>
+      <c r="K27" s="3">
         <v>8530000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5018500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4381300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12705700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>477400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6189100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10206200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1321500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6325200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4737800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2788300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>151100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8174400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>819600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>49900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5032700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>758700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2245,35 +2305,35 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>-1700</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K29" s="3">
         <v>7200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-189100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>6264900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-33900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-48100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-315900</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>82100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2293,17 +2353,20 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>13300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-46800</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2522,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4516900</v>
+        <v>-11277500</v>
       </c>
       <c r="E32" s="3">
-        <v>-5945500</v>
+        <v>4369000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1750700</v>
+        <v>-5750900</v>
       </c>
       <c r="G32" s="3">
-        <v>-8733800</v>
+        <v>-1693300</v>
       </c>
       <c r="H32" s="3">
-        <v>1468700</v>
+        <v>-8447900</v>
       </c>
       <c r="I32" s="3">
-        <v>9472100</v>
+        <v>1420600</v>
       </c>
       <c r="J32" s="3">
+        <v>9161900</v>
+      </c>
+      <c r="K32" s="3">
         <v>62500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4804500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4972700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>338400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6990200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10509900</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1571600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2452300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-52500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1887200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1527900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2538700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1891400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-23260000</v>
+        <v>21508200</v>
       </c>
       <c r="E33" s="3">
-        <v>-15460600</v>
+        <v>-22498400</v>
       </c>
       <c r="F33" s="3">
-        <v>151500</v>
+        <v>-14954400</v>
       </c>
       <c r="G33" s="3">
-        <v>-2974500</v>
+        <v>146500</v>
       </c>
       <c r="H33" s="3">
-        <v>5524100</v>
+        <v>-2877200</v>
       </c>
       <c r="I33" s="3">
-        <v>14110000</v>
+        <v>5343200</v>
       </c>
       <c r="J33" s="3">
+        <v>13648100</v>
+      </c>
+      <c r="K33" s="3">
         <v>8537200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4829500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10646200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12739600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>429300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6504900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10206200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1239300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6325200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4737800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2788300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>151100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8174400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>819600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>49900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5045900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>711900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-23260000</v>
+        <v>21508200</v>
       </c>
       <c r="E35" s="3">
-        <v>-15460600</v>
+        <v>-22498400</v>
       </c>
       <c r="F35" s="3">
-        <v>151500</v>
+        <v>-14954400</v>
       </c>
       <c r="G35" s="3">
-        <v>-2974500</v>
+        <v>146500</v>
       </c>
       <c r="H35" s="3">
-        <v>5524100</v>
+        <v>-2877200</v>
       </c>
       <c r="I35" s="3">
-        <v>14110000</v>
+        <v>5343200</v>
       </c>
       <c r="J35" s="3">
+        <v>13648100</v>
+      </c>
+      <c r="K35" s="3">
         <v>8537200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4829500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10646200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12739600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>429300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6504900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10206200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1239300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6325200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4737800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2788300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>151100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8174400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>819600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>49900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5045900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>711900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,701 +2989,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44498000</v>
+        <v>41732900</v>
       </c>
       <c r="E41" s="3">
-        <v>37888800</v>
+        <v>43041000</v>
       </c>
       <c r="F41" s="3">
-        <v>33855600</v>
+        <v>36648200</v>
       </c>
       <c r="G41" s="3">
-        <v>37334400</v>
+        <v>32747100</v>
       </c>
       <c r="H41" s="3">
-        <v>36503900</v>
+        <v>36112000</v>
       </c>
       <c r="I41" s="3">
-        <v>34177800</v>
+        <v>35308600</v>
       </c>
       <c r="J41" s="3">
+        <v>33058700</v>
+      </c>
+      <c r="K41" s="3">
         <v>32633900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39769200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52726600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29681000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34660900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>39141800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26862100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35349600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48588000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28960900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24800100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>30312000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>30196800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>31303200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11643200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>19364100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>22163900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5455300</v>
+        <v>5018800</v>
       </c>
       <c r="E42" s="3">
-        <v>5835800</v>
+        <v>5276700</v>
       </c>
       <c r="F42" s="3">
-        <v>5887000</v>
+        <v>5644700</v>
       </c>
       <c r="G42" s="3">
-        <v>4664600</v>
+        <v>5694300</v>
       </c>
       <c r="H42" s="3">
-        <v>11033900</v>
+        <v>4511800</v>
       </c>
       <c r="I42" s="3">
-        <v>16772900</v>
+        <v>10672600</v>
       </c>
       <c r="J42" s="3">
+        <v>16223700</v>
+      </c>
+      <c r="K42" s="3">
         <v>17631500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14747500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2242200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2761800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1370900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1658500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1758000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1858200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5601400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5969000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7167800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4721700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1881400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4880300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>6051800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>7048900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4023600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17218900</v>
+        <v>17833400</v>
       </c>
       <c r="E43" s="3">
-        <v>18745100</v>
+        <v>16655100</v>
       </c>
       <c r="F43" s="3">
-        <v>16737700</v>
+        <v>18131400</v>
       </c>
       <c r="G43" s="3">
-        <v>14638100</v>
+        <v>16189600</v>
       </c>
       <c r="H43" s="3">
-        <v>15692300</v>
+        <v>14158800</v>
       </c>
       <c r="I43" s="3">
-        <v>18432800</v>
+        <v>15178500</v>
       </c>
       <c r="J43" s="3">
+        <v>17829300</v>
+      </c>
+      <c r="K43" s="3">
         <v>16395700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15180800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19256100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21403400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24108600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20975400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20929300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27033100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22102200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20810100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20322500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>21037500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>21080500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19335800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>18760900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>19631000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>19570700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1042500</v>
+        <v>1253900</v>
       </c>
       <c r="E44" s="3">
-        <v>1046500</v>
+        <v>1008300</v>
       </c>
       <c r="F44" s="3">
-        <v>1130700</v>
+        <v>1012200</v>
       </c>
       <c r="G44" s="3">
-        <v>942600</v>
+        <v>1093700</v>
       </c>
       <c r="H44" s="3">
-        <v>878900</v>
+        <v>911800</v>
       </c>
       <c r="I44" s="3">
-        <v>929700</v>
+        <v>850100</v>
       </c>
       <c r="J44" s="3">
+        <v>899200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1172200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1038000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1567900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1630700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2987300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2773900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2915900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3345800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3598500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3133100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3016300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3291000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3276200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3070400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3217800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3027700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3646500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8004200</v>
+        <v>6392800</v>
       </c>
       <c r="E45" s="3">
-        <v>9993400</v>
+        <v>7742200</v>
       </c>
       <c r="F45" s="3">
-        <v>12671300</v>
+        <v>9666200</v>
       </c>
       <c r="G45" s="3">
-        <v>8241000</v>
+        <v>12256400</v>
       </c>
       <c r="H45" s="3">
-        <v>9934000</v>
+        <v>7971100</v>
       </c>
       <c r="I45" s="3">
-        <v>8998700</v>
+        <v>9608700</v>
       </c>
       <c r="J45" s="3">
+        <v>8704000</v>
+      </c>
+      <c r="K45" s="3">
         <v>5957300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10329900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4142300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>82284500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5210400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3895400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8223900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3476400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2922600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2703400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7241400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3130400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2768500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2546200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3420900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1700000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1589500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>76218900</v>
+        <v>72231700</v>
       </c>
       <c r="E46" s="3">
-        <v>73509600</v>
+        <v>73723300</v>
       </c>
       <c r="F46" s="3">
-        <v>70282300</v>
+        <v>71102700</v>
       </c>
       <c r="G46" s="3">
-        <v>65820600</v>
+        <v>67981100</v>
       </c>
       <c r="H46" s="3">
-        <v>74042900</v>
+        <v>63665500</v>
       </c>
       <c r="I46" s="3">
-        <v>79311800</v>
+        <v>71618600</v>
       </c>
       <c r="J46" s="3">
+        <v>76715000</v>
+      </c>
+      <c r="K46" s="3">
         <v>73790600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>81065300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>79935000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>137761500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>68338100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>68445100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>60689100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>71063200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>82812600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>61576500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>62548000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>62492500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>59203400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>61136000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>43094700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>50771700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>50994200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>76479300</v>
+        <v>74220500</v>
       </c>
       <c r="E47" s="3">
-        <v>85715000</v>
+        <v>73975200</v>
       </c>
       <c r="F47" s="3">
-        <v>82481500</v>
+        <v>82908500</v>
       </c>
       <c r="G47" s="3">
-        <v>80492100</v>
+        <v>79780900</v>
       </c>
       <c r="H47" s="3">
-        <v>80040200</v>
+        <v>77856600</v>
       </c>
       <c r="I47" s="3">
-        <v>72586500</v>
+        <v>77419600</v>
       </c>
       <c r="J47" s="3">
+        <v>70209900</v>
+      </c>
+      <c r="K47" s="3">
         <v>61518400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>59639500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>64283700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>48511000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55211200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>47849700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>46215400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>41510400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>42776400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>61214000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>56022200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>51496000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>35578100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>30224400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>34602700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>28588600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>28078900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20707000</v>
+        <v>18237000</v>
       </c>
       <c r="E48" s="3">
-        <v>20212400</v>
+        <v>20029000</v>
       </c>
       <c r="F48" s="3">
-        <v>20031400</v>
+        <v>19550600</v>
       </c>
       <c r="G48" s="3">
-        <v>19917200</v>
+        <v>19375500</v>
       </c>
       <c r="H48" s="3">
-        <v>20867000</v>
+        <v>19265000</v>
       </c>
       <c r="I48" s="3">
-        <v>20638300</v>
+        <v>20183800</v>
       </c>
       <c r="J48" s="3">
+        <v>19962600</v>
+      </c>
+      <c r="K48" s="3">
         <v>19612300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20744000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21528500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22537800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>48271100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>47750200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>47879500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>37287600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>37440800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>37449900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>36141000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35058700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35804300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35314700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>35342200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>35278200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>36248600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56511900</v>
+        <v>56293300</v>
       </c>
       <c r="E49" s="3">
-        <v>53695900</v>
+        <v>54661600</v>
       </c>
       <c r="F49" s="3">
-        <v>52216800</v>
+        <v>51937700</v>
       </c>
       <c r="G49" s="3">
-        <v>52176400</v>
+        <v>50507100</v>
       </c>
       <c r="H49" s="3">
-        <v>51011800</v>
+        <v>50468100</v>
       </c>
       <c r="I49" s="3">
-        <v>51257100</v>
+        <v>49341500</v>
       </c>
       <c r="J49" s="3">
+        <v>49578900</v>
+      </c>
+      <c r="K49" s="3">
         <v>42037300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45500200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>50878000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>52720300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>106708100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>98438000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>99057400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>102717100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>101859900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>105103400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>101651800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>100781800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>104424800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>102922300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>101709400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>98653100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>100523000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>114419500</v>
+        <v>106579500</v>
       </c>
       <c r="E52" s="3">
-        <v>115369600</v>
+        <v>110673200</v>
       </c>
       <c r="F52" s="3">
-        <v>128608400</v>
+        <v>111592100</v>
       </c>
       <c r="G52" s="3">
-        <v>120392000</v>
+        <v>124397400</v>
       </c>
       <c r="H52" s="3">
-        <v>119908500</v>
+        <v>116450100</v>
       </c>
       <c r="I52" s="3">
-        <v>111557000</v>
+        <v>115982400</v>
       </c>
       <c r="J52" s="3">
+        <v>107904400</v>
+      </c>
+      <c r="K52" s="3">
         <v>80546300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>70750500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>69670200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>66706200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>80464100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76156600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>81295200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>78065400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>69079000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>44333300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>36956300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>33601500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>30880300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>23282900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10194500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5213900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4725800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>344336600</v>
+        <v>327562000</v>
       </c>
       <c r="E54" s="3">
-        <v>348502400</v>
+        <v>333062300</v>
       </c>
       <c r="F54" s="3">
-        <v>353620400</v>
+        <v>337091700</v>
       </c>
       <c r="G54" s="3">
-        <v>338798400</v>
+        <v>342042100</v>
       </c>
       <c r="H54" s="3">
-        <v>345870400</v>
+        <v>327705400</v>
       </c>
       <c r="I54" s="3">
-        <v>335350800</v>
+        <v>334545900</v>
       </c>
       <c r="J54" s="3">
+        <v>324370700</v>
+      </c>
+      <c r="K54" s="3">
         <v>277505000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>277699500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>286295400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>328236700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>358992600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>338639600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>335136600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>330643700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>333968800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>309677200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>293319400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>283430400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>265891000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>252880300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>224943500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>218505500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>220570600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,470 +4169,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13099800</v>
+        <v>13475700</v>
       </c>
       <c r="E57" s="3">
-        <v>11433700</v>
+        <v>12670900</v>
       </c>
       <c r="F57" s="3">
-        <v>13935500</v>
+        <v>11059300</v>
       </c>
       <c r="G57" s="3">
-        <v>11306300</v>
+        <v>13479200</v>
       </c>
       <c r="H57" s="3">
-        <v>12425400</v>
+        <v>10936100</v>
       </c>
       <c r="I57" s="3">
-        <v>11296100</v>
+        <v>12018500</v>
       </c>
       <c r="J57" s="3">
+        <v>10926200</v>
+      </c>
+      <c r="K57" s="3">
         <v>11938100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10361500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13685400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11366500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18337600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16117700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16056600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15549600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17064400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16609200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15159300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16507500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15766500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14560700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13257100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14258100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>14983600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>49988500</v>
+        <v>32684500</v>
       </c>
       <c r="E58" s="3">
-        <v>55481500</v>
+        <v>48351800</v>
       </c>
       <c r="F58" s="3">
-        <v>55117300</v>
+        <v>53664900</v>
       </c>
       <c r="G58" s="3">
-        <v>54215200</v>
+        <v>53312700</v>
       </c>
       <c r="H58" s="3">
-        <v>65494300</v>
+        <v>52440000</v>
       </c>
       <c r="I58" s="3">
-        <v>58952900</v>
+        <v>63349900</v>
       </c>
       <c r="J58" s="3">
+        <v>57022600</v>
+      </c>
+      <c r="K58" s="3">
         <v>41557300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25231400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33117600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37209400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>37220200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>35786500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>35713700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31885600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>38991300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>45547700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>37659800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>29246200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>27039100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>39373000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>29719200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>23896600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>30472600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19056800</v>
+        <v>20966800</v>
       </c>
       <c r="E59" s="3">
-        <v>23840900</v>
+        <v>18432800</v>
       </c>
       <c r="F59" s="3">
-        <v>18589100</v>
+        <v>23060300</v>
       </c>
       <c r="G59" s="3">
-        <v>16584700</v>
+        <v>17980400</v>
       </c>
       <c r="H59" s="3">
-        <v>16965800</v>
+        <v>16041700</v>
       </c>
       <c r="I59" s="3">
-        <v>24241700</v>
+        <v>16410400</v>
       </c>
       <c r="J59" s="3">
+        <v>23448000</v>
+      </c>
+      <c r="K59" s="3">
         <v>18416800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23605700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18239000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76448000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18115600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16619800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16159500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>32089100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22236900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21594700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21746600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15410600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7715700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7180600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7091800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8208100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7792700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>82145200</v>
+        <v>67127000</v>
       </c>
       <c r="E60" s="3">
-        <v>90756100</v>
+        <v>79455600</v>
       </c>
       <c r="F60" s="3">
-        <v>87641800</v>
+        <v>87784600</v>
       </c>
       <c r="G60" s="3">
-        <v>82106100</v>
+        <v>84772300</v>
       </c>
       <c r="H60" s="3">
-        <v>94885500</v>
+        <v>79417800</v>
       </c>
       <c r="I60" s="3">
-        <v>94490700</v>
+        <v>91778700</v>
       </c>
       <c r="J60" s="3">
+        <v>91396900</v>
+      </c>
+      <c r="K60" s="3">
         <v>71912200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59198600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>65041900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>125023900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>73673500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>68524000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>67929800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>79524300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>78292600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>83751600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>74565700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>61164400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>50521300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>61114300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>50068100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>46362800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>53248900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>124838400</v>
+        <v>108122800</v>
       </c>
       <c r="E61" s="3">
-        <v>108150300</v>
+        <v>120750900</v>
       </c>
       <c r="F61" s="3">
-        <v>103019500</v>
+        <v>104609200</v>
       </c>
       <c r="G61" s="3">
-        <v>100443800</v>
+        <v>99646400</v>
       </c>
       <c r="H61" s="3">
-        <v>90149200</v>
+        <v>97155100</v>
       </c>
       <c r="I61" s="3">
-        <v>84333800</v>
+        <v>87197500</v>
       </c>
       <c r="J61" s="3">
+        <v>81572500</v>
+      </c>
+      <c r="K61" s="3">
         <v>87622000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>95496600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>102245900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>88528800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>138147300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>130447800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>123025100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>111790000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>117221400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>119220200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>120042200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>125667300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>116199700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>102072600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>105642400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>110444900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>102823600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62773200</v>
+        <v>56458200</v>
       </c>
       <c r="E62" s="3">
-        <v>63778100</v>
+        <v>60717900</v>
       </c>
       <c r="F62" s="3">
-        <v>68797400</v>
+        <v>61689900</v>
       </c>
       <c r="G62" s="3">
-        <v>65800100</v>
+        <v>66544800</v>
       </c>
       <c r="H62" s="3">
-        <v>69275900</v>
+        <v>63645600</v>
       </c>
       <c r="I62" s="3">
-        <v>68891800</v>
+        <v>67007700</v>
       </c>
       <c r="J62" s="3">
+        <v>66636200</v>
+      </c>
+      <c r="K62" s="3">
         <v>54769300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>57407700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>54377600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49728700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>63438000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>60416600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>57662400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>56805100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>53391500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39442200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>36707000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39577000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>39787300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>40259300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>27154100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>22051300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>29180400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>281574100</v>
+        <v>243390900</v>
       </c>
       <c r="E66" s="3">
-        <v>275380700</v>
+        <v>272354700</v>
       </c>
       <c r="F66" s="3">
-        <v>272149600</v>
+        <v>266364200</v>
       </c>
       <c r="G66" s="3">
-        <v>261477400</v>
+        <v>263238800</v>
       </c>
       <c r="H66" s="3">
-        <v>267252200</v>
+        <v>252916100</v>
       </c>
       <c r="I66" s="3">
-        <v>260488800</v>
+        <v>258501800</v>
       </c>
       <c r="J66" s="3">
+        <v>251959900</v>
+      </c>
+      <c r="K66" s="3">
         <v>221613400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>220811000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>230573700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>276137800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>288809900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>271439800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>260138500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>260831000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>261490800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>251556700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>241599300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>236306300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>216119500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>211602200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>190835400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>186694500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>193103600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9662900</v>
+        <v>30711300</v>
       </c>
       <c r="E72" s="3">
-        <v>33100100</v>
+        <v>9346500</v>
       </c>
       <c r="F72" s="3">
-        <v>48620700</v>
+        <v>32016300</v>
       </c>
       <c r="G72" s="3">
-        <v>48688000</v>
+        <v>47028700</v>
       </c>
       <c r="H72" s="3">
-        <v>51724900</v>
+        <v>47093900</v>
       </c>
       <c r="I72" s="3">
-        <v>64580400</v>
+        <v>50031300</v>
       </c>
       <c r="J72" s="3">
+        <v>62465900</v>
+      </c>
+      <c r="K72" s="3">
         <v>50572200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>44939800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43980500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34762700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>49292200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>49558300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>56124200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>51033000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52347500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46177200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>41186600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>35817000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>35543700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27448000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26570200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>26240600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>21110400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>62762500</v>
+        <v>84171100</v>
       </c>
       <c r="E76" s="3">
-        <v>73121700</v>
+        <v>60707500</v>
       </c>
       <c r="F76" s="3">
-        <v>81470800</v>
+        <v>70727500</v>
       </c>
       <c r="G76" s="3">
-        <v>77321000</v>
+        <v>78803300</v>
       </c>
       <c r="H76" s="3">
-        <v>78618200</v>
+        <v>74789300</v>
       </c>
       <c r="I76" s="3">
-        <v>74862000</v>
+        <v>76044100</v>
       </c>
       <c r="J76" s="3">
+        <v>72410800</v>
+      </c>
+      <c r="K76" s="3">
         <v>55891500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56888400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55721700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52098900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>70182700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>67199800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>74998100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>69812800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>72478000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>58120500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>51720100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>47124200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>49771400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>41278100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>34108100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>31810900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>27467000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-23260000</v>
+        <v>21508200</v>
       </c>
       <c r="E81" s="3">
-        <v>-15460600</v>
+        <v>-22498400</v>
       </c>
       <c r="F81" s="3">
-        <v>151500</v>
+        <v>-14954400</v>
       </c>
       <c r="G81" s="3">
-        <v>-2974500</v>
+        <v>146500</v>
       </c>
       <c r="H81" s="3">
-        <v>5524100</v>
+        <v>-2877200</v>
       </c>
       <c r="I81" s="3">
-        <v>14110000</v>
+        <v>5343200</v>
       </c>
       <c r="J81" s="3">
+        <v>13648100</v>
+      </c>
+      <c r="K81" s="3">
         <v>8537200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4829500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10646200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12739600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>429300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6504900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10206200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1239300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6325200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4737800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2788300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>151100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8174400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>819600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>49900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5045900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>711900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5994,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1618800</v>
+        <v>1530300</v>
       </c>
       <c r="E83" s="3">
-        <v>1604700</v>
+        <v>1565800</v>
       </c>
       <c r="F83" s="3">
-        <v>1544800</v>
+        <v>1552200</v>
       </c>
       <c r="G83" s="3">
-        <v>1538100</v>
+        <v>1494200</v>
       </c>
       <c r="H83" s="3">
-        <v>1560700</v>
+        <v>1487800</v>
       </c>
       <c r="I83" s="3">
-        <v>1633300</v>
+        <v>1509600</v>
       </c>
       <c r="J83" s="3">
+        <v>1579900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1593400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1592100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1763400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4736500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4896600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4403400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4554300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4029700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3936500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3841400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3682800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3940500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3632900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3421800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3362800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3690900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3293200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1032100</v>
+        <v>2940300</v>
       </c>
       <c r="E89" s="3">
-        <v>2319700</v>
+        <v>998300</v>
       </c>
       <c r="F89" s="3">
-        <v>2424300</v>
+        <v>2243800</v>
       </c>
       <c r="G89" s="3">
-        <v>11514000</v>
+        <v>2344900</v>
       </c>
       <c r="H89" s="3">
-        <v>3719500</v>
+        <v>11137000</v>
       </c>
       <c r="I89" s="3">
-        <v>4652700</v>
+        <v>3597700</v>
       </c>
       <c r="J89" s="3">
+        <v>4500400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4135000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2581200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1313800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2230600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2278000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8462600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5012300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2387800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1176300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4656500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2494500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1862100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1224800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4993100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1771400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3292700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>991900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1247200</v>
+        <v>-1223000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1059500</v>
+        <v>-1206400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1139200</v>
+        <v>-1024800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2627800</v>
+        <v>-1101900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1294600</v>
+        <v>-2541800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1158400</v>
+        <v>-1252200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1120500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1097000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1476400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1276600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2600300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2746200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2910500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2924300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2741500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3340700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3367000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>3726200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2097100</v>
+        <v>-105000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1283400</v>
+        <v>2028400</v>
       </c>
       <c r="F94" s="3">
-        <v>-6500800</v>
+        <v>-1241400</v>
       </c>
       <c r="G94" s="3">
-        <v>-7189700</v>
+        <v>-6288000</v>
       </c>
       <c r="H94" s="3">
-        <v>-7152800</v>
+        <v>-6954300</v>
       </c>
       <c r="I94" s="3">
-        <v>-4857300</v>
+        <v>-6918600</v>
       </c>
       <c r="J94" s="3">
+        <v>-4698300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3545900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12178000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10586600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4650500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14880600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6962600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12530800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7329500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9066500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2069800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +6934,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-258700</v>
+        <v>-6300</v>
       </c>
       <c r="E96" s="3">
+        <v>-250200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1100</v>
       </c>
-      <c r="F96" s="3">
-        <v>-274800</v>
-      </c>
       <c r="G96" s="3">
-        <v>-5700</v>
+        <v>-265800</v>
       </c>
       <c r="H96" s="3">
-        <v>-274300</v>
+        <v>-5500</v>
       </c>
       <c r="I96" s="3">
+        <v>-265300</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-301000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-378800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-413100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-4400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-207800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-218500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-5300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-212400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-215200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-7400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-209400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-195500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7252,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1289500</v>
+        <v>-5347700</v>
       </c>
       <c r="E100" s="3">
-        <v>2134400</v>
+        <v>1247300</v>
       </c>
       <c r="F100" s="3">
-        <v>414800</v>
+        <v>2064500</v>
       </c>
       <c r="G100" s="3">
-        <v>-3897100</v>
+        <v>401300</v>
       </c>
       <c r="H100" s="3">
-        <v>5762000</v>
+        <v>-3769500</v>
       </c>
       <c r="I100" s="3">
-        <v>1014600</v>
+        <v>5573400</v>
       </c>
       <c r="J100" s="3">
+        <v>981400</v>
+      </c>
+      <c r="K100" s="3">
         <v>3405400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1368700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12073100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1266600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7958500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10703900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9400900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8349100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>27945500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1020900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-440900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>15008200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>7083500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>20048900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-235200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1511600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2190500</v>
+        <v>1204200</v>
       </c>
       <c r="E101" s="3">
-        <v>862500</v>
+        <v>2118700</v>
       </c>
       <c r="F101" s="3">
-        <v>182800</v>
+        <v>834200</v>
       </c>
       <c r="G101" s="3">
-        <v>403400</v>
+        <v>176800</v>
       </c>
       <c r="H101" s="3">
-        <v>-2700</v>
+        <v>390200</v>
       </c>
       <c r="I101" s="3">
-        <v>733900</v>
+        <v>-2600</v>
       </c>
       <c r="J101" s="3">
+        <v>709900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-511500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-155100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-152000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>504000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-339800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>46800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-428200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>362200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>543800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-956200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>92900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>117100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>29700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-233700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1223700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6609200</v>
+        <v>-1308100</v>
       </c>
       <c r="E102" s="3">
-        <v>4033200</v>
+        <v>6392800</v>
       </c>
       <c r="F102" s="3">
-        <v>-3478800</v>
+        <v>3901200</v>
       </c>
       <c r="G102" s="3">
-        <v>830500</v>
+        <v>-3364900</v>
       </c>
       <c r="H102" s="3">
-        <v>2326100</v>
+        <v>803400</v>
       </c>
       <c r="I102" s="3">
-        <v>1543900</v>
+        <v>2249900</v>
       </c>
       <c r="J102" s="3">
+        <v>1493300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4787000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8383200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23988900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3838500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4140200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12191800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8481900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13244000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19627100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3969900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-51800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>19659900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4926800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,353 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11418100</v>
+        <v>12445700</v>
       </c>
       <c r="E8" s="3">
-        <v>11145700</v>
+        <v>11836800</v>
       </c>
       <c r="F8" s="3">
-        <v>11632500</v>
+        <v>11554400</v>
       </c>
       <c r="G8" s="3">
-        <v>11325100</v>
+        <v>12059100</v>
       </c>
       <c r="H8" s="3">
-        <v>10666000</v>
+        <v>11740400</v>
       </c>
       <c r="I8" s="3">
-        <v>10487100</v>
+        <v>11057100</v>
       </c>
       <c r="J8" s="3">
+        <v>10871600</v>
+      </c>
+      <c r="K8" s="3">
         <v>10565000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11050000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10520800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10918200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11784600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12404000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11877700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21401400</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23033700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21810600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20659600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>21338700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>21697300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>20114700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>19762000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>20574300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>20486400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5479900</v>
+        <v>6140900</v>
       </c>
       <c r="E9" s="3">
-        <v>4879600</v>
+        <v>5680900</v>
       </c>
       <c r="F9" s="3">
-        <v>6041300</v>
+        <v>5058600</v>
       </c>
       <c r="G9" s="3">
-        <v>5355800</v>
+        <v>6262900</v>
       </c>
       <c r="H9" s="3">
-        <v>4830500</v>
+        <v>5552200</v>
       </c>
       <c r="I9" s="3">
-        <v>4730200</v>
+        <v>5007600</v>
       </c>
       <c r="J9" s="3">
+        <v>4903600</v>
+      </c>
+      <c r="K9" s="3">
         <v>5555000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5563600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4893800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4968700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6084800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6091300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5827500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12236400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>-6092900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13829900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12877900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11968400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13484000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13469600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11743500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11346300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>13146800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>12612300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5938100</v>
+        <v>6304800</v>
       </c>
       <c r="E10" s="3">
-        <v>6266100</v>
+        <v>6155900</v>
       </c>
       <c r="F10" s="3">
-        <v>5591200</v>
+        <v>6495900</v>
       </c>
       <c r="G10" s="3">
-        <v>5969300</v>
+        <v>5796200</v>
       </c>
       <c r="H10" s="3">
-        <v>5835500</v>
+        <v>6188200</v>
       </c>
       <c r="I10" s="3">
-        <v>5756900</v>
+        <v>6049500</v>
       </c>
       <c r="J10" s="3">
+        <v>5968000</v>
+      </c>
+      <c r="K10" s="3">
         <v>5010000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5486400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5627000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5949400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5699800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6312700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6050200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9165000</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9203800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8932700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8691200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7854700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8227600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8371200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8415700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7427500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7874200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1040,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1121,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,88 +1204,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>216600</v>
       </c>
       <c r="E14" s="3">
-        <v>-106800</v>
+        <v>-322100</v>
       </c>
       <c r="F14" s="3">
-        <v>134400</v>
+        <v>-110700</v>
       </c>
       <c r="G14" s="3">
-        <v>-165900</v>
+        <v>139300</v>
       </c>
       <c r="H14" s="3">
-        <v>-668300</v>
+        <v>-171900</v>
       </c>
       <c r="I14" s="3">
-        <v>-666700</v>
+        <v>-692800</v>
       </c>
       <c r="J14" s="3">
+        <v>-691200</v>
+      </c>
+      <c r="K14" s="3">
         <v>395500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-354400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-272000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-42400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1410800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-5669100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8287900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-3434100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-4413600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1151300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-4008600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-573900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-606200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-850800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>16700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>9200</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1348,8 +1370,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-4141300</v>
+        <v>15018400</v>
       </c>
       <c r="E17" s="3">
-        <v>29311000</v>
+        <v>-4615200</v>
       </c>
       <c r="F17" s="3">
-        <v>31595500</v>
+        <v>30385900</v>
       </c>
       <c r="G17" s="3">
-        <v>10998400</v>
+        <v>32754200</v>
       </c>
       <c r="H17" s="3">
-        <v>20125700</v>
+        <v>11401700</v>
       </c>
       <c r="I17" s="3">
-        <v>-684300</v>
+        <v>20863700</v>
       </c>
       <c r="J17" s="3">
+        <v>-709400</v>
+      </c>
+      <c r="K17" s="3">
         <v>-15555300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-3603200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>386700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>846100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25684500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8923200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23043600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15091800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-12215800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19431700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15069400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14160300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19873100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>19207400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16199900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>15429300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>19913900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>17985400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15559400</v>
+        <v>-2572700</v>
       </c>
       <c r="E18" s="3">
-        <v>-18165300</v>
+        <v>16452000</v>
       </c>
       <c r="F18" s="3">
-        <v>-19963000</v>
+        <v>-18831400</v>
       </c>
       <c r="G18" s="3">
-        <v>326700</v>
+        <v>-20695100</v>
       </c>
       <c r="H18" s="3">
-        <v>-9459700</v>
+        <v>338700</v>
       </c>
       <c r="I18" s="3">
-        <v>11171300</v>
+        <v>-9806600</v>
       </c>
       <c r="J18" s="3">
+        <v>11581000</v>
+      </c>
+      <c r="K18" s="3">
         <v>26120300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14653200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10134200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10072100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13900000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3480800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11166000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6309600</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3602000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6741200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6499300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1465600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2489800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3914800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4332600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>660400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2501000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,408 +1597,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11277500</v>
+        <v>-833200</v>
       </c>
       <c r="E20" s="3">
-        <v>-4369000</v>
+        <v>11369000</v>
       </c>
       <c r="F20" s="3">
-        <v>5750900</v>
+        <v>-4529200</v>
       </c>
       <c r="G20" s="3">
-        <v>1693300</v>
+        <v>5961700</v>
       </c>
       <c r="H20" s="3">
-        <v>8447900</v>
+        <v>1755400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1420600</v>
+        <v>8757700</v>
       </c>
       <c r="J20" s="3">
+        <v>-1472700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9161900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-62500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4804500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4972700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-338400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6990200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10509900</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1571600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2452300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>52500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1891500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1199700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>28367100</v>
+        <v>-1793100</v>
       </c>
       <c r="E21" s="3">
-        <v>-20968400</v>
+        <v>29407400</v>
       </c>
       <c r="F21" s="3">
-        <v>-12660000</v>
+        <v>-21737400</v>
       </c>
       <c r="G21" s="3">
-        <v>3514300</v>
+        <v>-13124300</v>
       </c>
       <c r="H21" s="3">
-        <v>476000</v>
+        <v>3643100</v>
       </c>
       <c r="I21" s="3">
-        <v>11260300</v>
+        <v>493400</v>
       </c>
       <c r="J21" s="3">
+        <v>11673200</v>
+      </c>
+      <c r="K21" s="3">
         <v>18538300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16184100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6921800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9535200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4190700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8039100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>227600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21373800</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9110000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13034900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10234600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3518900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8014200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5808700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5156700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2459900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>6994000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1418600</v>
+        <v>876800</v>
       </c>
       <c r="E22" s="3">
-        <v>809200</v>
+        <v>1470600</v>
       </c>
       <c r="F22" s="3">
-        <v>707200</v>
+        <v>838900</v>
       </c>
       <c r="G22" s="3">
-        <v>688900</v>
+        <v>733100</v>
       </c>
       <c r="H22" s="3">
-        <v>728900</v>
+        <v>714200</v>
       </c>
       <c r="I22" s="3">
-        <v>587000</v>
+        <v>755600</v>
       </c>
       <c r="J22" s="3">
+        <v>608600</v>
+      </c>
+      <c r="K22" s="3">
         <v>588000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>516900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>598400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>656800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3341800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>682800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>650500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1409200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1414100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1438600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1592700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1349600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1207100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1264500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1108200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1092700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1099400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1076300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25418300</v>
+        <v>-4282600</v>
       </c>
       <c r="E23" s="3">
-        <v>-23343500</v>
+        <v>26350400</v>
       </c>
       <c r="F23" s="3">
-        <v>-14919400</v>
+        <v>-24199500</v>
       </c>
       <c r="G23" s="3">
-        <v>1331200</v>
+        <v>-15466500</v>
       </c>
       <c r="H23" s="3">
-        <v>-1740600</v>
+        <v>1380000</v>
       </c>
       <c r="I23" s="3">
-        <v>9163700</v>
+        <v>-1804500</v>
       </c>
       <c r="J23" s="3">
+        <v>9499700</v>
+      </c>
+      <c r="K23" s="3">
         <v>16370500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14073800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4731300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7115000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12269000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2459600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4826200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15410300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1164800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3734900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7600800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5202200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3116800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1278700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>701200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2624500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3561500</v>
+        <v>1190700</v>
       </c>
       <c r="E24" s="3">
-        <v>-1390600</v>
+        <v>3692100</v>
       </c>
       <c r="F24" s="3">
-        <v>51100</v>
+        <v>-1441600</v>
       </c>
       <c r="G24" s="3">
-        <v>911700</v>
+        <v>53000</v>
       </c>
       <c r="H24" s="3">
-        <v>686700</v>
+        <v>945100</v>
       </c>
       <c r="I24" s="3">
-        <v>2552300</v>
+        <v>711900</v>
       </c>
       <c r="J24" s="3">
+        <v>2645900</v>
+      </c>
+      <c r="K24" s="3">
         <v>2319700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5158100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>156800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2150900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>535200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1279400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>788100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4624600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2711700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2631100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2219600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>255400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>425100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1761000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21856800</v>
+        <v>-5473400</v>
       </c>
       <c r="E26" s="3">
-        <v>-21952900</v>
+        <v>22658300</v>
       </c>
       <c r="F26" s="3">
-        <v>-14970500</v>
+        <v>-22758000</v>
       </c>
       <c r="G26" s="3">
-        <v>419500</v>
+        <v>-15519500</v>
       </c>
       <c r="H26" s="3">
-        <v>-2427400</v>
+        <v>434900</v>
       </c>
       <c r="I26" s="3">
-        <v>6611300</v>
+        <v>-2516400</v>
       </c>
       <c r="J26" s="3">
+        <v>6853800</v>
+      </c>
+      <c r="K26" s="3">
         <v>14050700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8915700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4574500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4964100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12804200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1180300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5614400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10785700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1179900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6446700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4969800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2982600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>318800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>9573400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1023300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>276100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5047000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>863400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>21508200</v>
+        <v>-5814000</v>
       </c>
       <c r="E27" s="3">
-        <v>-22498400</v>
+        <v>22220300</v>
       </c>
       <c r="F27" s="3">
-        <v>-14954400</v>
+        <v>-23323500</v>
       </c>
       <c r="G27" s="3">
-        <v>146500</v>
+        <v>-15502800</v>
       </c>
       <c r="H27" s="3">
-        <v>-2877200</v>
+        <v>151900</v>
       </c>
       <c r="I27" s="3">
-        <v>5343200</v>
+        <v>-2982700</v>
       </c>
       <c r="J27" s="3">
+        <v>5539200</v>
+      </c>
+      <c r="K27" s="3">
         <v>13649700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8530000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5018500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4381300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12705700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>477400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6189100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10206200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1321500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6325200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4737800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2788300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>151100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8174400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>819600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>49900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5032700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>758700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2342,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2308,35 +2368,35 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-189100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>6264900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-33900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-48100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-315900</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>82100</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2356,17 +2416,20 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>13300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-46800</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,168 +2591,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11277500</v>
+        <v>833200</v>
       </c>
       <c r="E32" s="3">
-        <v>4369000</v>
+        <v>-11369000</v>
       </c>
       <c r="F32" s="3">
-        <v>-5750900</v>
+        <v>4529200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1693300</v>
+        <v>-5961700</v>
       </c>
       <c r="H32" s="3">
-        <v>-8447900</v>
+        <v>-1755400</v>
       </c>
       <c r="I32" s="3">
-        <v>1420600</v>
+        <v>-8757700</v>
       </c>
       <c r="J32" s="3">
+        <v>1472700</v>
+      </c>
+      <c r="K32" s="3">
         <v>9161900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>62500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4804500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4972700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>338400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6990200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10509900</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1571600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2452300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-52500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1887200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1527900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2538700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1891400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>21508200</v>
+        <v>-5814000</v>
       </c>
       <c r="E33" s="3">
-        <v>-22498400</v>
+        <v>22220300</v>
       </c>
       <c r="F33" s="3">
-        <v>-14954400</v>
+        <v>-23323500</v>
       </c>
       <c r="G33" s="3">
-        <v>146500</v>
+        <v>-15502800</v>
       </c>
       <c r="H33" s="3">
-        <v>-2877200</v>
+        <v>151900</v>
       </c>
       <c r="I33" s="3">
-        <v>5343200</v>
+        <v>-2982700</v>
       </c>
       <c r="J33" s="3">
+        <v>5539200</v>
+      </c>
+      <c r="K33" s="3">
         <v>13648100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8537200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4829500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10646200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12739600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>429300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6504900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10206200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1239300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6325200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4737800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2788300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>151100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>8174400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>819600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>49900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5045900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>711900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>21508200</v>
+        <v>-5814000</v>
       </c>
       <c r="E35" s="3">
-        <v>-22498400</v>
+        <v>22220300</v>
       </c>
       <c r="F35" s="3">
-        <v>-14954400</v>
+        <v>-23323500</v>
       </c>
       <c r="G35" s="3">
-        <v>146500</v>
+        <v>-15502800</v>
       </c>
       <c r="H35" s="3">
-        <v>-2877200</v>
+        <v>151900</v>
       </c>
       <c r="I35" s="3">
-        <v>5343200</v>
+        <v>-2982700</v>
       </c>
       <c r="J35" s="3">
+        <v>5539200</v>
+      </c>
+      <c r="K35" s="3">
         <v>13648100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8537200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4829500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10646200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12739600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>429300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6504900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10206200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1239300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6325200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4737800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2788300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>151100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>8174400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>819600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>49900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5045900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>711900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,728 +3075,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41732900</v>
+        <v>42468700</v>
       </c>
       <c r="E41" s="3">
-        <v>43041000</v>
+        <v>43263300</v>
       </c>
       <c r="F41" s="3">
-        <v>36648200</v>
+        <v>44619400</v>
       </c>
       <c r="G41" s="3">
-        <v>32747100</v>
+        <v>37992200</v>
       </c>
       <c r="H41" s="3">
-        <v>36112000</v>
+        <v>33947900</v>
       </c>
       <c r="I41" s="3">
-        <v>35308600</v>
+        <v>37436300</v>
       </c>
       <c r="J41" s="3">
+        <v>36603500</v>
+      </c>
+      <c r="K41" s="3">
         <v>33058700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32633900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39769200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52726600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29681000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34660900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>39141800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26862100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35349600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48588000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28960900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24800100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>30312000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>30196800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>31303200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11643200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>19364100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>22163900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5018800</v>
+        <v>3741400</v>
       </c>
       <c r="E42" s="3">
-        <v>5276700</v>
+        <v>5202800</v>
       </c>
       <c r="F42" s="3">
-        <v>5644700</v>
+        <v>5470200</v>
       </c>
       <c r="G42" s="3">
-        <v>5694300</v>
+        <v>5851700</v>
       </c>
       <c r="H42" s="3">
-        <v>4511800</v>
+        <v>5903100</v>
       </c>
       <c r="I42" s="3">
-        <v>10672600</v>
+        <v>4677300</v>
       </c>
       <c r="J42" s="3">
+        <v>11064000</v>
+      </c>
+      <c r="K42" s="3">
         <v>16223700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17631500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14747500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2242200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2761800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1370900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1658500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1758000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1858200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5601400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5969000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7167800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4721700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1881400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4880300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>6051800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>7048900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4023600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17833400</v>
+        <v>19708200</v>
       </c>
       <c r="E43" s="3">
-        <v>16655100</v>
+        <v>18487300</v>
       </c>
       <c r="F43" s="3">
-        <v>18131400</v>
+        <v>17265900</v>
       </c>
       <c r="G43" s="3">
-        <v>16189600</v>
+        <v>18796300</v>
       </c>
       <c r="H43" s="3">
-        <v>14158800</v>
+        <v>16783300</v>
       </c>
       <c r="I43" s="3">
-        <v>15178500</v>
+        <v>14678000</v>
       </c>
       <c r="J43" s="3">
+        <v>15735100</v>
+      </c>
+      <c r="K43" s="3">
         <v>17829300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16395700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15180800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19256100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21403400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24108600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20975400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20929300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27033100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22102200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20810100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20322500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>21037500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>21080500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19335800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>18760900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>19631000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>19570700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1253900</v>
+        <v>1270900</v>
       </c>
       <c r="E44" s="3">
-        <v>1008300</v>
+        <v>1299900</v>
       </c>
       <c r="F44" s="3">
-        <v>1012200</v>
+        <v>1045300</v>
       </c>
       <c r="G44" s="3">
-        <v>1093700</v>
+        <v>1049300</v>
       </c>
       <c r="H44" s="3">
-        <v>911800</v>
+        <v>1133800</v>
       </c>
       <c r="I44" s="3">
-        <v>850100</v>
+        <v>945200</v>
       </c>
       <c r="J44" s="3">
+        <v>881300</v>
+      </c>
+      <c r="K44" s="3">
         <v>899200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1172200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1038000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1567900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1630700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2987300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2773900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2915900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3345800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3598500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3133100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3016300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3291000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3276200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3070400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3217800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3027700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3646500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6392800</v>
+        <v>2935700</v>
       </c>
       <c r="E45" s="3">
-        <v>7742200</v>
+        <v>6627200</v>
       </c>
       <c r="F45" s="3">
-        <v>9666200</v>
+        <v>8026100</v>
       </c>
       <c r="G45" s="3">
-        <v>12256400</v>
+        <v>10020700</v>
       </c>
       <c r="H45" s="3">
-        <v>7971100</v>
+        <v>12705800</v>
       </c>
       <c r="I45" s="3">
-        <v>9608700</v>
+        <v>8263400</v>
       </c>
       <c r="J45" s="3">
+        <v>9961100</v>
+      </c>
+      <c r="K45" s="3">
         <v>8704000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5957300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10329900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4142300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>82284500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5210400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3895400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8223900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3476400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2922600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2703400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7241400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3130400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2768500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2546200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3420900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1700000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1589500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>72231700</v>
+        <v>70124900</v>
       </c>
       <c r="E46" s="3">
-        <v>73723300</v>
+        <v>74880600</v>
       </c>
       <c r="F46" s="3">
-        <v>71102700</v>
+        <v>76426900</v>
       </c>
       <c r="G46" s="3">
-        <v>67981100</v>
+        <v>73710100</v>
       </c>
       <c r="H46" s="3">
-        <v>63665500</v>
+        <v>70474000</v>
       </c>
       <c r="I46" s="3">
-        <v>71618600</v>
+        <v>66000200</v>
       </c>
       <c r="J46" s="3">
+        <v>74245000</v>
+      </c>
+      <c r="K46" s="3">
         <v>76715000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73790600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>81065300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>79935000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>137761500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>68338100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>68445100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>60689100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>71063200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>82812600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>61576500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>62548000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>62492500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>59203400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>61136000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>43094700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>50771700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>50994200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>74220500</v>
+        <v>71450000</v>
       </c>
       <c r="E47" s="3">
-        <v>73975200</v>
+        <v>76942300</v>
       </c>
       <c r="F47" s="3">
-        <v>82908500</v>
+        <v>76687900</v>
       </c>
       <c r="G47" s="3">
-        <v>79780900</v>
+        <v>85948900</v>
       </c>
       <c r="H47" s="3">
-        <v>77856600</v>
+        <v>82706600</v>
       </c>
       <c r="I47" s="3">
-        <v>77419600</v>
+        <v>80711700</v>
       </c>
       <c r="J47" s="3">
+        <v>80258600</v>
+      </c>
+      <c r="K47" s="3">
         <v>70209900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>61518400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>59639500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>64283700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>48511000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55211200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>47849700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>46215400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>41510400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>42776400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>61214000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>56022200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>51496000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>35578100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>30224400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>34602700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>28588600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>28078900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18237000</v>
+        <v>19042000</v>
       </c>
       <c r="E48" s="3">
-        <v>20029000</v>
+        <v>18905800</v>
       </c>
       <c r="F48" s="3">
-        <v>19550600</v>
+        <v>20763500</v>
       </c>
       <c r="G48" s="3">
-        <v>19375500</v>
+        <v>20267600</v>
       </c>
       <c r="H48" s="3">
-        <v>19265000</v>
+        <v>20086100</v>
       </c>
       <c r="I48" s="3">
-        <v>20183800</v>
+        <v>19971500</v>
       </c>
       <c r="J48" s="3">
+        <v>20924000</v>
+      </c>
+      <c r="K48" s="3">
         <v>19962600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19612300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20744000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21528500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22537800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>48271100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>47750200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>47879500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>37287600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>37440800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>37449900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>36141000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35058700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35804300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>35314700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>35342200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>35278200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>36248600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56293300</v>
+        <v>55817600</v>
       </c>
       <c r="E49" s="3">
-        <v>54661600</v>
+        <v>58357700</v>
       </c>
       <c r="F49" s="3">
-        <v>51937700</v>
+        <v>56666100</v>
       </c>
       <c r="G49" s="3">
-        <v>50507100</v>
+        <v>53842400</v>
       </c>
       <c r="H49" s="3">
-        <v>50468100</v>
+        <v>52359300</v>
       </c>
       <c r="I49" s="3">
-        <v>49341500</v>
+        <v>52318800</v>
       </c>
       <c r="J49" s="3">
+        <v>51151000</v>
+      </c>
+      <c r="K49" s="3">
         <v>49578900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42037300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45500200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>50878000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>52720300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>106708100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>98438000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>99057400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>102717100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>101859900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>105103400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>101651800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>100781800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>104424800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>102922300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>101709400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>98653100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>100523000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +3986,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>106579500</v>
+        <v>94788200</v>
       </c>
       <c r="E52" s="3">
-        <v>110673200</v>
+        <v>110487900</v>
       </c>
       <c r="F52" s="3">
-        <v>111592100</v>
+        <v>114731700</v>
       </c>
       <c r="G52" s="3">
-        <v>124397400</v>
+        <v>115684400</v>
       </c>
       <c r="H52" s="3">
-        <v>116450100</v>
+        <v>128959300</v>
       </c>
       <c r="I52" s="3">
-        <v>115982400</v>
+        <v>120720500</v>
       </c>
       <c r="J52" s="3">
+        <v>120235600</v>
+      </c>
+      <c r="K52" s="3">
         <v>107904400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>80546300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>70750500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>69670200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>66706200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>80464100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>76156600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>81295200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>78065400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>69079000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>44333300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>36956300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>33601500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>30880300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>23282900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10194500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5213900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4725800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>327562000</v>
+        <v>311222800</v>
       </c>
       <c r="E54" s="3">
-        <v>333062300</v>
+        <v>339574200</v>
       </c>
       <c r="F54" s="3">
-        <v>337091700</v>
+        <v>345276100</v>
       </c>
       <c r="G54" s="3">
-        <v>342042100</v>
+        <v>349453300</v>
       </c>
       <c r="H54" s="3">
-        <v>327705400</v>
+        <v>354585200</v>
       </c>
       <c r="I54" s="3">
-        <v>334545900</v>
+        <v>339722800</v>
       </c>
       <c r="J54" s="3">
+        <v>346814100</v>
+      </c>
+      <c r="K54" s="3">
         <v>324370700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>277505000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>277699500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>286295400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>328236700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>358992600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>338639600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>335136600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>330643700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>333968800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>309677200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>293319400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>283430400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>265891000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>252880300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>224943500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>218505500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>220570600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,488 +4299,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13475700</v>
+        <v>17233200</v>
       </c>
       <c r="E57" s="3">
-        <v>12670900</v>
+        <v>13969900</v>
       </c>
       <c r="F57" s="3">
-        <v>11059300</v>
+        <v>13135600</v>
       </c>
       <c r="G57" s="3">
-        <v>13479200</v>
+        <v>11464900</v>
       </c>
       <c r="H57" s="3">
-        <v>10936100</v>
+        <v>13973500</v>
       </c>
       <c r="I57" s="3">
-        <v>12018500</v>
+        <v>11337100</v>
       </c>
       <c r="J57" s="3">
+        <v>12459300</v>
+      </c>
+      <c r="K57" s="3">
         <v>10926200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11938100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10361500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13685400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11366500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18337600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16117700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16056600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15549600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17064400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16609200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15159300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16507500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15766500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14560700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13257100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>14258100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>14983600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32684500</v>
+        <v>29940500</v>
       </c>
       <c r="E58" s="3">
-        <v>48351800</v>
+        <v>33883100</v>
       </c>
       <c r="F58" s="3">
-        <v>53664900</v>
+        <v>50124900</v>
       </c>
       <c r="G58" s="3">
-        <v>53312700</v>
+        <v>55632900</v>
       </c>
       <c r="H58" s="3">
-        <v>52440000</v>
+        <v>55267700</v>
       </c>
       <c r="I58" s="3">
-        <v>63349900</v>
+        <v>54363100</v>
       </c>
       <c r="J58" s="3">
+        <v>65673000</v>
+      </c>
+      <c r="K58" s="3">
         <v>57022600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41557300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25231400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33117600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>37209400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>37220200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>35786500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>35713700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31885600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>38991300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>45547700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>37659800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>29246200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>27039100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>39373000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>29719200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>23896600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>30472600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20966800</v>
+        <v>20348000</v>
       </c>
       <c r="E59" s="3">
-        <v>18432800</v>
+        <v>21735600</v>
       </c>
       <c r="F59" s="3">
-        <v>23060300</v>
+        <v>19108800</v>
       </c>
       <c r="G59" s="3">
-        <v>17980400</v>
+        <v>23905900</v>
       </c>
       <c r="H59" s="3">
-        <v>16041700</v>
+        <v>18639800</v>
       </c>
       <c r="I59" s="3">
-        <v>16410400</v>
+        <v>16630000</v>
       </c>
       <c r="J59" s="3">
+        <v>17012100</v>
+      </c>
+      <c r="K59" s="3">
         <v>23448000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18416800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23605700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18239000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76448000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18115600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16619800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16159500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>32089100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22236900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21594700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21746600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15410600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7715700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7180600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7091800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8208100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7792700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67127000</v>
+        <v>67521800</v>
       </c>
       <c r="E60" s="3">
-        <v>79455600</v>
+        <v>69588700</v>
       </c>
       <c r="F60" s="3">
-        <v>87784600</v>
+        <v>82369300</v>
       </c>
       <c r="G60" s="3">
-        <v>84772300</v>
+        <v>91003700</v>
       </c>
       <c r="H60" s="3">
-        <v>79417800</v>
+        <v>87881000</v>
       </c>
       <c r="I60" s="3">
-        <v>91778700</v>
+        <v>82330200</v>
       </c>
       <c r="J60" s="3">
+        <v>95144400</v>
+      </c>
+      <c r="K60" s="3">
         <v>91396900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71912200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59198600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>65041900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>125023900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>73673500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>68524000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>67929800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>79524300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>78292600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>83751600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>74565700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>61164400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>50521300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>61114300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>50068100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>46362800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>53248900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>108122800</v>
+        <v>109303800</v>
       </c>
       <c r="E61" s="3">
-        <v>120750900</v>
+        <v>112087800</v>
       </c>
       <c r="F61" s="3">
-        <v>104609200</v>
+        <v>125179000</v>
       </c>
       <c r="G61" s="3">
-        <v>99646400</v>
+        <v>108445400</v>
       </c>
       <c r="H61" s="3">
-        <v>97155100</v>
+        <v>103300600</v>
       </c>
       <c r="I61" s="3">
-        <v>87197500</v>
+        <v>100717900</v>
       </c>
       <c r="J61" s="3">
+        <v>90395200</v>
+      </c>
+      <c r="K61" s="3">
         <v>81572500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>87622000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>95496600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>102245900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>88528800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>138147300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>130447800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>123025100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>111790000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>117221400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>119220200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>120042200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>125667300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>116199700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>102072600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>105642400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>110444900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>102823600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56458200</v>
+        <v>56534400</v>
       </c>
       <c r="E62" s="3">
-        <v>60717900</v>
+        <v>58528600</v>
       </c>
       <c r="F62" s="3">
-        <v>61689900</v>
+        <v>62944500</v>
       </c>
       <c r="G62" s="3">
-        <v>66544800</v>
+        <v>63952100</v>
       </c>
       <c r="H62" s="3">
-        <v>63645600</v>
+        <v>68985100</v>
       </c>
       <c r="I62" s="3">
-        <v>67007700</v>
+        <v>65979600</v>
       </c>
       <c r="J62" s="3">
+        <v>69464900</v>
+      </c>
+      <c r="K62" s="3">
         <v>66636200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54769300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>57407700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54377600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49728700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>63438000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>60416600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>57662400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>56805100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>53391500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39442200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>36707000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>39577000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>39787300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>40259300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>27154100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>22051300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>29180400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>243390900</v>
+        <v>245009300</v>
       </c>
       <c r="E66" s="3">
-        <v>272354700</v>
+        <v>252316400</v>
       </c>
       <c r="F66" s="3">
-        <v>266364200</v>
+        <v>282342400</v>
       </c>
       <c r="G66" s="3">
-        <v>263238800</v>
+        <v>276132100</v>
       </c>
       <c r="H66" s="3">
-        <v>252916100</v>
+        <v>272892100</v>
       </c>
       <c r="I66" s="3">
-        <v>258501800</v>
+        <v>262190900</v>
       </c>
       <c r="J66" s="3">
+        <v>267981400</v>
+      </c>
+      <c r="K66" s="3">
         <v>251959900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>221613400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>220811000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>230573700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>276137800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>288809900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>271439800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>260138500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>260831000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>261490800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>251556700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>241599300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>236306300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>216119500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>211602200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>190835400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>186694500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>193103600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5324,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5490,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30711300</v>
+        <v>25658700</v>
       </c>
       <c r="E72" s="3">
-        <v>9346500</v>
+        <v>31837500</v>
       </c>
       <c r="F72" s="3">
-        <v>32016300</v>
+        <v>9689300</v>
       </c>
       <c r="G72" s="3">
-        <v>47028700</v>
+        <v>33190400</v>
       </c>
       <c r="H72" s="3">
-        <v>47093900</v>
+        <v>48753300</v>
       </c>
       <c r="I72" s="3">
-        <v>50031300</v>
+        <v>48820900</v>
       </c>
       <c r="J72" s="3">
+        <v>51866000</v>
+      </c>
+      <c r="K72" s="3">
         <v>62465900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50572200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44939800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43980500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34762700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>49292200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>49558300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>56124200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>51033000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52347500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46177200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>41186600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>35817000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>35543700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>27448000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>26570200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>26240600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>21110400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>84171100</v>
+        <v>66213600</v>
       </c>
       <c r="E76" s="3">
-        <v>60707500</v>
+        <v>87257800</v>
       </c>
       <c r="F76" s="3">
-        <v>70727500</v>
+        <v>62933700</v>
       </c>
       <c r="G76" s="3">
-        <v>78803300</v>
+        <v>73321200</v>
       </c>
       <c r="H76" s="3">
-        <v>74789300</v>
+        <v>81693100</v>
       </c>
       <c r="I76" s="3">
-        <v>76044100</v>
+        <v>77531900</v>
       </c>
       <c r="J76" s="3">
+        <v>78832800</v>
+      </c>
+      <c r="K76" s="3">
         <v>72410800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55891500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56888400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55721700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52098900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>70182700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>67199800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>74998100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>69812800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>72478000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>58120500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>51720100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>47124200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>49771400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41278100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>34108100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>31810900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>27467000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>21508200</v>
+        <v>-5814000</v>
       </c>
       <c r="E81" s="3">
-        <v>-22498400</v>
+        <v>22220300</v>
       </c>
       <c r="F81" s="3">
-        <v>-14954400</v>
+        <v>-23323500</v>
       </c>
       <c r="G81" s="3">
-        <v>146500</v>
+        <v>-15502800</v>
       </c>
       <c r="H81" s="3">
-        <v>-2877200</v>
+        <v>151900</v>
       </c>
       <c r="I81" s="3">
-        <v>5343200</v>
+        <v>-2982700</v>
       </c>
       <c r="J81" s="3">
+        <v>5539200</v>
+      </c>
+      <c r="K81" s="3">
         <v>13648100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8537200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4829500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10646200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12739600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>429300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6504900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10206200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1239300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6325200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4737800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2788300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>151100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>8174400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>819600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>49900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5045900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>711900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,88 +6192,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1530300</v>
+        <v>1612700</v>
       </c>
       <c r="E83" s="3">
-        <v>1565800</v>
+        <v>1586400</v>
       </c>
       <c r="F83" s="3">
-        <v>1552200</v>
+        <v>1623300</v>
       </c>
       <c r="G83" s="3">
-        <v>1494200</v>
+        <v>1609100</v>
       </c>
       <c r="H83" s="3">
-        <v>1487800</v>
+        <v>1549000</v>
       </c>
       <c r="I83" s="3">
-        <v>1509600</v>
+        <v>1542300</v>
       </c>
       <c r="J83" s="3">
+        <v>1564900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1579900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1593400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1592100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1763400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4736500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4896600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4403400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4554300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4029700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3936500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3841400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3682800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3940500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3632900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3421800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3362800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3690900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3293200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2940300</v>
+        <v>1244500</v>
       </c>
       <c r="E89" s="3">
-        <v>998300</v>
+        <v>3048200</v>
       </c>
       <c r="F89" s="3">
-        <v>2243800</v>
+        <v>1034900</v>
       </c>
       <c r="G89" s="3">
-        <v>2344900</v>
+        <v>2326100</v>
       </c>
       <c r="H89" s="3">
-        <v>11137000</v>
+        <v>2430900</v>
       </c>
       <c r="I89" s="3">
-        <v>3597700</v>
+        <v>11545400</v>
       </c>
       <c r="J89" s="3">
+        <v>3729700</v>
+      </c>
+      <c r="K89" s="3">
         <v>4500400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4135000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2581200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1313800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2230600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2278000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8462600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5012300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2387800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1176300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4656500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2494500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1862100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1224800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4993100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1771400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3292700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>991900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +6804,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1223000</v>
+        <v>-1153800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1206400</v>
+        <v>-1267900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1024800</v>
+        <v>-1250600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1101900</v>
+        <v>-1062400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2541800</v>
+        <v>-1142300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1252200</v>
+        <v>-2635000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1298100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1120500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1097000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1476400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1276600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2600300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2746200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2910500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2924300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2741500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3340700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3367000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>3726200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-105000</v>
+        <v>1410600</v>
       </c>
       <c r="E94" s="3">
-        <v>2028400</v>
+        <v>-108800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1241400</v>
+        <v>2102800</v>
       </c>
       <c r="G94" s="3">
-        <v>-6288000</v>
+        <v>-1286900</v>
       </c>
       <c r="H94" s="3">
-        <v>-6954300</v>
+        <v>-6518600</v>
       </c>
       <c r="I94" s="3">
-        <v>-6918600</v>
+        <v>-7209400</v>
       </c>
       <c r="J94" s="3">
+        <v>-7172300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4698300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3545900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12178000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10586600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4650500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14880600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6962600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12530800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7329500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9066500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2069800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,88 +7167,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6300</v>
+        <v>-249000</v>
       </c>
       <c r="E96" s="3">
-        <v>-250200</v>
+        <v>-6500</v>
       </c>
       <c r="F96" s="3">
+        <v>-259400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-265800</v>
-      </c>
       <c r="H96" s="3">
-        <v>-5500</v>
+        <v>-275600</v>
       </c>
       <c r="I96" s="3">
-        <v>-265300</v>
+        <v>-5700</v>
       </c>
       <c r="J96" s="3">
+        <v>-275000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-301000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-378800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-413100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-207800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-218500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-5300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-212400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-215200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-209400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-195500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,244 +7497,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5347700</v>
+        <v>-2187000</v>
       </c>
       <c r="E100" s="3">
-        <v>1247300</v>
+        <v>-5543800</v>
       </c>
       <c r="F100" s="3">
-        <v>2064500</v>
+        <v>1293100</v>
       </c>
       <c r="G100" s="3">
-        <v>401300</v>
+        <v>2140200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3769500</v>
+        <v>416000</v>
       </c>
       <c r="I100" s="3">
-        <v>5573400</v>
+        <v>-3907700</v>
       </c>
       <c r="J100" s="3">
+        <v>5777800</v>
+      </c>
+      <c r="K100" s="3">
         <v>981400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3405400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1368700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12073100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1266600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7958500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10703900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>9400900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8349100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>27945500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1020900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-440900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>15008200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>7083500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>20048900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-235200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1511600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1204200</v>
+        <v>-1262700</v>
       </c>
       <c r="E101" s="3">
-        <v>2118700</v>
+        <v>1248300</v>
       </c>
       <c r="F101" s="3">
-        <v>834200</v>
+        <v>2196400</v>
       </c>
       <c r="G101" s="3">
-        <v>176800</v>
+        <v>864800</v>
       </c>
       <c r="H101" s="3">
-        <v>390200</v>
+        <v>183300</v>
       </c>
       <c r="I101" s="3">
-        <v>-2600</v>
+        <v>404500</v>
       </c>
       <c r="J101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K101" s="3">
         <v>709900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-511500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-155100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-152000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>504000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-339800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>46800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-428200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>362200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>543800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-956200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>92900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>117100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>29700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-233700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1223700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1308100</v>
+        <v>-794600</v>
       </c>
       <c r="E102" s="3">
-        <v>6392800</v>
+        <v>-1356100</v>
       </c>
       <c r="F102" s="3">
-        <v>3901200</v>
+        <v>6627200</v>
       </c>
       <c r="G102" s="3">
-        <v>-3364900</v>
+        <v>4044200</v>
       </c>
       <c r="H102" s="3">
-        <v>803400</v>
+        <v>-3488300</v>
       </c>
       <c r="I102" s="3">
-        <v>2249900</v>
+        <v>832800</v>
       </c>
       <c r="J102" s="3">
+        <v>2332400</v>
+      </c>
+      <c r="K102" s="3">
         <v>1493300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4787000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8383200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23988900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3838500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4140200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12191800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8481900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13244000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19627100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3969900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-51800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>19659900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-4926800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,366 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12445700</v>
+        <v>12218500</v>
       </c>
       <c r="E8" s="3">
-        <v>11836800</v>
+        <v>12208700</v>
       </c>
       <c r="F8" s="3">
-        <v>11554400</v>
+        <v>11611300</v>
       </c>
       <c r="G8" s="3">
-        <v>12059100</v>
+        <v>11334300</v>
       </c>
       <c r="H8" s="3">
-        <v>11740400</v>
+        <v>11829400</v>
       </c>
       <c r="I8" s="3">
-        <v>11057100</v>
+        <v>11516800</v>
       </c>
       <c r="J8" s="3">
+        <v>10846500</v>
+      </c>
+      <c r="K8" s="3">
         <v>10871600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10565000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11050000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10520800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10918200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11784600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12404000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11877700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21401400</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23033700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21810600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20659600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>21338700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>21697300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>20114700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>19762000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>20574300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>20486400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6140900</v>
+        <v>6818800</v>
       </c>
       <c r="E9" s="3">
-        <v>5680900</v>
+        <v>6024000</v>
       </c>
       <c r="F9" s="3">
-        <v>5058600</v>
+        <v>5572700</v>
       </c>
       <c r="G9" s="3">
-        <v>6262900</v>
+        <v>4962200</v>
       </c>
       <c r="H9" s="3">
-        <v>5552200</v>
+        <v>6143600</v>
       </c>
       <c r="I9" s="3">
-        <v>5007600</v>
+        <v>5446400</v>
       </c>
       <c r="J9" s="3">
+        <v>4912200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4903600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5555000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5563600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4893800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4968700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6084800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6091300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5827500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12236400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>-6092900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13829900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12877900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11968400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13484000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13469600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11743500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11346300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>13146800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>12612300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6304800</v>
+        <v>5399700</v>
       </c>
       <c r="E10" s="3">
-        <v>6155900</v>
+        <v>6184700</v>
       </c>
       <c r="F10" s="3">
-        <v>6495900</v>
+        <v>6038600</v>
       </c>
       <c r="G10" s="3">
-        <v>5796200</v>
+        <v>6372100</v>
       </c>
       <c r="H10" s="3">
-        <v>6188200</v>
+        <v>5685800</v>
       </c>
       <c r="I10" s="3">
-        <v>6049500</v>
+        <v>6070400</v>
       </c>
       <c r="J10" s="3">
+        <v>5934300</v>
+      </c>
+      <c r="K10" s="3">
         <v>5968000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5010000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5486400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5627000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5949400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5699800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6312700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6050200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9165000</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9203800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8932700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8691200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7854700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8227600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8371200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8415700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7427500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7874200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1054,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,8 +1138,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,91 +1224,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>216600</v>
+        <v>58200</v>
       </c>
       <c r="E14" s="3">
-        <v>-322100</v>
+        <v>212500</v>
       </c>
       <c r="F14" s="3">
-        <v>-110700</v>
+        <v>-315900</v>
       </c>
       <c r="G14" s="3">
-        <v>139300</v>
+        <v>-108600</v>
       </c>
       <c r="H14" s="3">
-        <v>-171900</v>
+        <v>136700</v>
       </c>
       <c r="I14" s="3">
-        <v>-692800</v>
+        <v>-168700</v>
       </c>
       <c r="J14" s="3">
+        <v>-679600</v>
+      </c>
+      <c r="K14" s="3">
         <v>-691200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>395500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-354400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-272000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-42400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1410800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-5669100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8287900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-3434100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-4413600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1151300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-4008600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-573900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-606200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-850800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>16700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>9200</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,8 +1396,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1427,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15018400</v>
+        <v>8665900</v>
       </c>
       <c r="E17" s="3">
-        <v>-4615200</v>
+        <v>14732300</v>
       </c>
       <c r="F17" s="3">
-        <v>30385900</v>
+        <v>-4527300</v>
       </c>
       <c r="G17" s="3">
-        <v>32754200</v>
+        <v>29807100</v>
       </c>
       <c r="H17" s="3">
-        <v>11401700</v>
+        <v>32130300</v>
       </c>
       <c r="I17" s="3">
-        <v>20863700</v>
+        <v>11184500</v>
       </c>
       <c r="J17" s="3">
+        <v>20466300</v>
+      </c>
+      <c r="K17" s="3">
         <v>-709400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-15555300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-3603200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>386700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>846100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25684500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8923200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23043600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15091800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-12215800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19431700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15069400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14160300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>19873100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>19207400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>16199900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>15429300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>19913900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>17985400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2572700</v>
+        <v>3552700</v>
       </c>
       <c r="E18" s="3">
-        <v>16452000</v>
+        <v>-2523700</v>
       </c>
       <c r="F18" s="3">
-        <v>-18831400</v>
+        <v>16138600</v>
       </c>
       <c r="G18" s="3">
-        <v>-20695100</v>
+        <v>-18472700</v>
       </c>
       <c r="H18" s="3">
-        <v>338700</v>
+        <v>-20300900</v>
       </c>
       <c r="I18" s="3">
-        <v>-9806600</v>
+        <v>332300</v>
       </c>
       <c r="J18" s="3">
+        <v>-9619800</v>
+      </c>
+      <c r="K18" s="3">
         <v>11581000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26120300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14653200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10134200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10072100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13900000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3480800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11166000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6309600</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3602000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6741200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6499300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1465600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2489800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3914800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4332600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>660400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2501000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,423 +1631,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-833200</v>
+        <v>-3961400</v>
       </c>
       <c r="E20" s="3">
-        <v>11369000</v>
+        <v>-817300</v>
       </c>
       <c r="F20" s="3">
-        <v>-4529200</v>
+        <v>11152400</v>
       </c>
       <c r="G20" s="3">
-        <v>5961700</v>
+        <v>-4442900</v>
       </c>
       <c r="H20" s="3">
-        <v>1755400</v>
+        <v>5848200</v>
       </c>
       <c r="I20" s="3">
-        <v>8757700</v>
+        <v>1722000</v>
       </c>
       <c r="J20" s="3">
+        <v>8590900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1472700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9161900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-62500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4804500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4972700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-338400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6990200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10509900</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1571600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2452300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>52500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1891500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1199700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1793100</v>
+        <v>1302700</v>
       </c>
       <c r="E21" s="3">
-        <v>29407400</v>
+        <v>-1759000</v>
       </c>
       <c r="F21" s="3">
-        <v>-21737400</v>
+        <v>28847200</v>
       </c>
       <c r="G21" s="3">
-        <v>-13124300</v>
+        <v>-21323300</v>
       </c>
       <c r="H21" s="3">
-        <v>3643100</v>
+        <v>-12874300</v>
       </c>
       <c r="I21" s="3">
-        <v>493400</v>
+        <v>3573800</v>
       </c>
       <c r="J21" s="3">
+        <v>484000</v>
+      </c>
+      <c r="K21" s="3">
         <v>11673200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18538300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16184100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6921800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9535200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4190700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8039100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>227600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21373800</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9110000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13034900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10234600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3518900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8014200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5808700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5156700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2459900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>6994000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>876800</v>
+        <v>882500</v>
       </c>
       <c r="E22" s="3">
-        <v>1470600</v>
+        <v>860100</v>
       </c>
       <c r="F22" s="3">
-        <v>838900</v>
+        <v>1442600</v>
       </c>
       <c r="G22" s="3">
-        <v>733100</v>
+        <v>822900</v>
       </c>
       <c r="H22" s="3">
-        <v>714200</v>
+        <v>719200</v>
       </c>
       <c r="I22" s="3">
-        <v>755600</v>
+        <v>700600</v>
       </c>
       <c r="J22" s="3">
+        <v>741200</v>
+      </c>
+      <c r="K22" s="3">
         <v>608600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>588000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>516900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>598400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>656800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3341800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>682800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>650500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1409200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1414100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1438600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1592700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1349600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1207100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1264500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1108200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1092700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1099400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1076300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4282600</v>
+        <v>-1291200</v>
       </c>
       <c r="E23" s="3">
-        <v>26350400</v>
+        <v>-4201100</v>
       </c>
       <c r="F23" s="3">
-        <v>-24199500</v>
+        <v>25848500</v>
       </c>
       <c r="G23" s="3">
-        <v>-15466500</v>
+        <v>-23738600</v>
       </c>
       <c r="H23" s="3">
-        <v>1380000</v>
+        <v>-15171900</v>
       </c>
       <c r="I23" s="3">
-        <v>-1804500</v>
+        <v>1353700</v>
       </c>
       <c r="J23" s="3">
+        <v>-1770100</v>
+      </c>
+      <c r="K23" s="3">
         <v>9499700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16370500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14073800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4731300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7115000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12269000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2459600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4826200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15410300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1164800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3734900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7600800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5202200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3116800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1278700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>701200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2624500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1190700</v>
+        <v>-1063700</v>
       </c>
       <c r="E24" s="3">
-        <v>3692100</v>
+        <v>1168100</v>
       </c>
       <c r="F24" s="3">
-        <v>-1441600</v>
+        <v>3621800</v>
       </c>
       <c r="G24" s="3">
-        <v>53000</v>
+        <v>-1414100</v>
       </c>
       <c r="H24" s="3">
-        <v>945100</v>
+        <v>52000</v>
       </c>
       <c r="I24" s="3">
-        <v>711900</v>
+        <v>927100</v>
       </c>
       <c r="J24" s="3">
+        <v>698300</v>
+      </c>
+      <c r="K24" s="3">
         <v>2645900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2319700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5158100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>156800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2150900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>535200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1279400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>788100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4624600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2711700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2631100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2219600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>255400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>425100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1761000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2145,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5473400</v>
+        <v>-227600</v>
       </c>
       <c r="E26" s="3">
-        <v>22658300</v>
+        <v>-5369100</v>
       </c>
       <c r="F26" s="3">
-        <v>-22758000</v>
+        <v>22226700</v>
       </c>
       <c r="G26" s="3">
-        <v>-15519500</v>
+        <v>-22324500</v>
       </c>
       <c r="H26" s="3">
-        <v>434900</v>
+        <v>-15223900</v>
       </c>
       <c r="I26" s="3">
-        <v>-2516400</v>
+        <v>426600</v>
       </c>
       <c r="J26" s="3">
+        <v>-2468400</v>
+      </c>
+      <c r="K26" s="3">
         <v>6853800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14050700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8915700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4574500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4964100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12804200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1180300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5614400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10785700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1179900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6446700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4969800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2982600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>318800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>9573400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1023300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>276100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5047000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>863400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5814000</v>
+        <v>-469600</v>
       </c>
       <c r="E27" s="3">
-        <v>22220300</v>
+        <v>-5703200</v>
       </c>
       <c r="F27" s="3">
-        <v>-23323500</v>
+        <v>21797000</v>
       </c>
       <c r="G27" s="3">
-        <v>-15502800</v>
+        <v>-22879200</v>
       </c>
       <c r="H27" s="3">
-        <v>151900</v>
+        <v>-15207500</v>
       </c>
       <c r="I27" s="3">
-        <v>-2982700</v>
+        <v>149000</v>
       </c>
       <c r="J27" s="3">
+        <v>-2925800</v>
+      </c>
+      <c r="K27" s="3">
         <v>5539200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13649700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8530000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5018500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4381300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12705700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>477400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6189100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10206200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1321500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6325200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4737800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2788300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>151100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>8174400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>819600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>49900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5032700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>758700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,8 +2403,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2371,35 +2432,35 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-189100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>6264900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-33900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-315900</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>82100</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2419,17 +2480,20 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="3">
         <v>13300</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-46800</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2575,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2661,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>833200</v>
+        <v>3961400</v>
       </c>
       <c r="E32" s="3">
-        <v>-11369000</v>
+        <v>817300</v>
       </c>
       <c r="F32" s="3">
-        <v>4529200</v>
+        <v>-11152400</v>
       </c>
       <c r="G32" s="3">
-        <v>-5961700</v>
+        <v>4442900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1755400</v>
+        <v>-5848200</v>
       </c>
       <c r="I32" s="3">
-        <v>-8757700</v>
+        <v>-1722000</v>
       </c>
       <c r="J32" s="3">
+        <v>-8590900</v>
+      </c>
+      <c r="K32" s="3">
         <v>1472700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9161900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>62500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4804500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4972700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>338400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6990200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10509900</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1571600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2452300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-52500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1887200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1527900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2538700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1891400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5814000</v>
+        <v>-469600</v>
       </c>
       <c r="E33" s="3">
-        <v>22220300</v>
+        <v>-5703200</v>
       </c>
       <c r="F33" s="3">
-        <v>-23323500</v>
+        <v>21797000</v>
       </c>
       <c r="G33" s="3">
-        <v>-15502800</v>
+        <v>-22879200</v>
       </c>
       <c r="H33" s="3">
-        <v>151900</v>
+        <v>-15207500</v>
       </c>
       <c r="I33" s="3">
-        <v>-2982700</v>
+        <v>149000</v>
       </c>
       <c r="J33" s="3">
+        <v>-2925800</v>
+      </c>
+      <c r="K33" s="3">
         <v>5539200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13648100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8537200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4829500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10646200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12739600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>429300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6504900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10206200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1239300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6325200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4737800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2788300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>151100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>8174400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>819600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>49900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5045900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>711900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2919,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5814000</v>
+        <v>-469600</v>
       </c>
       <c r="E35" s="3">
-        <v>22220300</v>
+        <v>-5703200</v>
       </c>
       <c r="F35" s="3">
-        <v>-23323500</v>
+        <v>21797000</v>
       </c>
       <c r="G35" s="3">
-        <v>-15502800</v>
+        <v>-22879200</v>
       </c>
       <c r="H35" s="3">
-        <v>151900</v>
+        <v>-15207500</v>
       </c>
       <c r="I35" s="3">
-        <v>-2982700</v>
+        <v>149000</v>
       </c>
       <c r="J35" s="3">
+        <v>-2925800</v>
+      </c>
+      <c r="K35" s="3">
         <v>5539200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13648100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8537200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4829500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10646200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12739600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>429300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6504900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10206200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1239300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6325200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4737800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2788300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>151100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>8174400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>819600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>49900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5045900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>711900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3130,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,755 +3162,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42468700</v>
+        <v>49930400</v>
       </c>
       <c r="E41" s="3">
-        <v>43263300</v>
+        <v>41659800</v>
       </c>
       <c r="F41" s="3">
-        <v>44619400</v>
+        <v>42439200</v>
       </c>
       <c r="G41" s="3">
-        <v>37992200</v>
+        <v>43769500</v>
       </c>
       <c r="H41" s="3">
-        <v>33947900</v>
+        <v>37268500</v>
       </c>
       <c r="I41" s="3">
-        <v>37436300</v>
+        <v>33301300</v>
       </c>
       <c r="J41" s="3">
+        <v>36723200</v>
+      </c>
+      <c r="K41" s="3">
         <v>36603500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33058700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32633900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39769200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52726600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29681000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34660900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39141800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26862100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35349600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>48588000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28960900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24800100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>30312000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>30196800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>31303200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11643200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>19364100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>22163900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3741400</v>
+        <v>2677200</v>
       </c>
       <c r="E42" s="3">
-        <v>5202800</v>
+        <v>3670100</v>
       </c>
       <c r="F42" s="3">
-        <v>5470200</v>
+        <v>5103700</v>
       </c>
       <c r="G42" s="3">
-        <v>5851700</v>
+        <v>5366000</v>
       </c>
       <c r="H42" s="3">
-        <v>5903100</v>
+        <v>5740200</v>
       </c>
       <c r="I42" s="3">
-        <v>4677300</v>
+        <v>5790700</v>
       </c>
       <c r="J42" s="3">
+        <v>4588200</v>
+      </c>
+      <c r="K42" s="3">
         <v>11064000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16223700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17631500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14747500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2242200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2761800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1370900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1658500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1758000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1858200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5601400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5969000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7167800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4721700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1881400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4880300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>6051800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>7048900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4023600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19708200</v>
+        <v>18708000</v>
       </c>
       <c r="E43" s="3">
-        <v>18487300</v>
+        <v>19332800</v>
       </c>
       <c r="F43" s="3">
-        <v>17265900</v>
+        <v>18135200</v>
       </c>
       <c r="G43" s="3">
-        <v>18796300</v>
+        <v>16937000</v>
       </c>
       <c r="H43" s="3">
-        <v>16783300</v>
+        <v>18438200</v>
       </c>
       <c r="I43" s="3">
-        <v>14678000</v>
+        <v>16463700</v>
       </c>
       <c r="J43" s="3">
+        <v>14398400</v>
+      </c>
+      <c r="K43" s="3">
         <v>15735100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17829300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16395700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15180800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19256100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21403400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24108600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20975400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20929300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>27033100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>22102200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20810100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20322500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>21037500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>21080500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>19335800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>18760900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>19631000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>19570700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1270900</v>
+        <v>1180900</v>
       </c>
       <c r="E44" s="3">
-        <v>1299900</v>
+        <v>1246700</v>
       </c>
       <c r="F44" s="3">
-        <v>1045300</v>
+        <v>1275200</v>
       </c>
       <c r="G44" s="3">
-        <v>1049300</v>
+        <v>1025400</v>
       </c>
       <c r="H44" s="3">
-        <v>1133800</v>
+        <v>1029400</v>
       </c>
       <c r="I44" s="3">
-        <v>945200</v>
+        <v>1112200</v>
       </c>
       <c r="J44" s="3">
+        <v>927200</v>
+      </c>
+      <c r="K44" s="3">
         <v>881300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>899200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1172200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1038000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1567900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1630700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2987300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2773900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2915900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3345800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3598500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3133100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3016300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3291000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3276200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3070400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3217800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3027700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3646500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2935700</v>
+        <v>3832100</v>
       </c>
       <c r="E45" s="3">
-        <v>6627200</v>
+        <v>2879800</v>
       </c>
       <c r="F45" s="3">
-        <v>8026100</v>
+        <v>6501000</v>
       </c>
       <c r="G45" s="3">
-        <v>10020700</v>
+        <v>7873200</v>
       </c>
       <c r="H45" s="3">
-        <v>12705800</v>
+        <v>9829800</v>
       </c>
       <c r="I45" s="3">
-        <v>8263400</v>
+        <v>12463800</v>
       </c>
       <c r="J45" s="3">
+        <v>8106000</v>
+      </c>
+      <c r="K45" s="3">
         <v>9961100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8704000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5957300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10329900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4142300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>82284500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5210400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3895400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8223900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3476400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2922600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2703400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7241400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3130400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2768500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2546200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3420900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1700000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1589500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>70124900</v>
+        <v>76328500</v>
       </c>
       <c r="E46" s="3">
-        <v>74880600</v>
+        <v>68789200</v>
       </c>
       <c r="F46" s="3">
-        <v>76426900</v>
+        <v>73454300</v>
       </c>
       <c r="G46" s="3">
-        <v>73710100</v>
+        <v>74971100</v>
       </c>
       <c r="H46" s="3">
-        <v>70474000</v>
+        <v>72306100</v>
       </c>
       <c r="I46" s="3">
-        <v>66000200</v>
+        <v>69131700</v>
       </c>
       <c r="J46" s="3">
+        <v>64743100</v>
+      </c>
+      <c r="K46" s="3">
         <v>74245000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>76715000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73790600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>81065300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>79935000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>137761500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>68338100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>68445100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>60689100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>71063200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>82812600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>61576500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>62548000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>62492500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>59203400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>61136000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>43094700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>50771700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>50994200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71450000</v>
+        <v>77439400</v>
       </c>
       <c r="E47" s="3">
-        <v>76942300</v>
+        <v>70089100</v>
       </c>
       <c r="F47" s="3">
-        <v>76687900</v>
+        <v>75476700</v>
       </c>
       <c r="G47" s="3">
-        <v>85948900</v>
+        <v>75227200</v>
       </c>
       <c r="H47" s="3">
-        <v>82706600</v>
+        <v>84311800</v>
       </c>
       <c r="I47" s="3">
-        <v>80711700</v>
+        <v>81131200</v>
       </c>
       <c r="J47" s="3">
+        <v>79174400</v>
+      </c>
+      <c r="K47" s="3">
         <v>80258600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>70209900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>61518400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>59639500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>64283700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>48511000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55211200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>47849700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>46215400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>41510400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>42776400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>61214000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>56022200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>51496000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>35578100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>30224400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>34602700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>28588600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>28078900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19042000</v>
+        <v>19032400</v>
       </c>
       <c r="E48" s="3">
-        <v>18905800</v>
+        <v>18679300</v>
       </c>
       <c r="F48" s="3">
-        <v>20763500</v>
+        <v>18545700</v>
       </c>
       <c r="G48" s="3">
-        <v>20267600</v>
+        <v>20368000</v>
       </c>
       <c r="H48" s="3">
-        <v>20086100</v>
+        <v>19881500</v>
       </c>
       <c r="I48" s="3">
-        <v>19971500</v>
+        <v>19703500</v>
       </c>
       <c r="J48" s="3">
+        <v>19591100</v>
+      </c>
+      <c r="K48" s="3">
         <v>20924000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19962600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19612300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20744000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21528500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22537800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48271100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>47750200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47879500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>37287600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>37440800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>37449900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>36141000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35058700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>35804300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>35314700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>35342200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>35278200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>36248600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55817600</v>
+        <v>54861800</v>
       </c>
       <c r="E49" s="3">
-        <v>58357700</v>
+        <v>54754400</v>
       </c>
       <c r="F49" s="3">
-        <v>56666100</v>
+        <v>57246100</v>
       </c>
       <c r="G49" s="3">
-        <v>53842400</v>
+        <v>55586700</v>
       </c>
       <c r="H49" s="3">
-        <v>52359300</v>
+        <v>52816800</v>
       </c>
       <c r="I49" s="3">
-        <v>52318800</v>
+        <v>51362000</v>
       </c>
       <c r="J49" s="3">
+        <v>51322300</v>
+      </c>
+      <c r="K49" s="3">
         <v>51151000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>49578900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42037300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45500200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>50878000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>52720300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>106708100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>98438000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>99057400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>102717100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>101859900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>105103400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>101651800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>100781800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>104424800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>102922300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>101709400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>98653100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>100523000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4020,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4106,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>94788200</v>
+        <v>89119100</v>
       </c>
       <c r="E52" s="3">
-        <v>110487900</v>
+        <v>92982800</v>
       </c>
       <c r="F52" s="3">
-        <v>114731700</v>
+        <v>108383400</v>
       </c>
       <c r="G52" s="3">
-        <v>115684400</v>
+        <v>112546400</v>
       </c>
       <c r="H52" s="3">
-        <v>128959300</v>
+        <v>113480900</v>
       </c>
       <c r="I52" s="3">
-        <v>120720500</v>
+        <v>126502900</v>
       </c>
       <c r="J52" s="3">
+        <v>118421100</v>
+      </c>
+      <c r="K52" s="3">
         <v>120235600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107904400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>80546300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>70750500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>69670200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>66706200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>80464100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>76156600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>81295200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>78065400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69079000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>44333300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>36956300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>33601500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>30880300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>23282900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10194500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5213900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4725800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4278,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>311222800</v>
+        <v>316781200</v>
       </c>
       <c r="E54" s="3">
-        <v>339574200</v>
+        <v>305294800</v>
       </c>
       <c r="F54" s="3">
-        <v>345276100</v>
+        <v>333106100</v>
       </c>
       <c r="G54" s="3">
-        <v>349453300</v>
+        <v>338699400</v>
       </c>
       <c r="H54" s="3">
-        <v>354585200</v>
+        <v>342797100</v>
       </c>
       <c r="I54" s="3">
-        <v>339722800</v>
+        <v>347831200</v>
       </c>
       <c r="J54" s="3">
+        <v>333251900</v>
+      </c>
+      <c r="K54" s="3">
         <v>346814100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>324370700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>277505000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>277699500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>286295400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>328236700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>358992600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>338639600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>335136600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>330643700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>333968800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>309677200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>293319400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>283430400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>265891000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>252880300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>224943500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>218505500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>220570600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4398,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,506 +4430,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17233200</v>
+        <v>17425600</v>
       </c>
       <c r="E57" s="3">
-        <v>13969900</v>
+        <v>16905000</v>
       </c>
       <c r="F57" s="3">
-        <v>13135600</v>
+        <v>13703800</v>
       </c>
       <c r="G57" s="3">
-        <v>11464900</v>
+        <v>12885400</v>
       </c>
       <c r="H57" s="3">
-        <v>13973500</v>
+        <v>11246500</v>
       </c>
       <c r="I57" s="3">
-        <v>11337100</v>
+        <v>13707300</v>
       </c>
       <c r="J57" s="3">
+        <v>11121200</v>
+      </c>
+      <c r="K57" s="3">
         <v>12459300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10926200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11938100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10361500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13685400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11366500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18337600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16117700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16056600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15549600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>17064400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16609200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15159300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16507500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>15766500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14560700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>13257100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>14258100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>14983600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29940500</v>
+        <v>38307800</v>
       </c>
       <c r="E58" s="3">
-        <v>33883100</v>
+        <v>29370300</v>
       </c>
       <c r="F58" s="3">
-        <v>50124900</v>
+        <v>33237700</v>
       </c>
       <c r="G58" s="3">
-        <v>55632900</v>
+        <v>49170200</v>
       </c>
       <c r="H58" s="3">
-        <v>55267700</v>
+        <v>54573200</v>
       </c>
       <c r="I58" s="3">
-        <v>54363100</v>
+        <v>54215000</v>
       </c>
       <c r="J58" s="3">
+        <v>53327600</v>
+      </c>
+      <c r="K58" s="3">
         <v>65673000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>57022600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41557300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25231400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33117600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>37209400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>37220200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>35786500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>35713700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31885600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>38991300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>45547700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>37659800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>29246200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>27039100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>39373000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>29719200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>23896600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>30472600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20348000</v>
+        <v>20553500</v>
       </c>
       <c r="E59" s="3">
-        <v>21735600</v>
+        <v>19960400</v>
       </c>
       <c r="F59" s="3">
-        <v>19108800</v>
+        <v>21321600</v>
       </c>
       <c r="G59" s="3">
-        <v>23905900</v>
+        <v>18744800</v>
       </c>
       <c r="H59" s="3">
-        <v>18639800</v>
+        <v>23450600</v>
       </c>
       <c r="I59" s="3">
-        <v>16630000</v>
+        <v>18284700</v>
       </c>
       <c r="J59" s="3">
+        <v>16313200</v>
+      </c>
+      <c r="K59" s="3">
         <v>17012100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23448000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18416800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23605700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18239000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>76448000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18115600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16619800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16159500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>32089100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22236900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21594700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21746600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15410600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7715700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7180600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7091800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8208100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7792700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67521800</v>
+        <v>76287000</v>
       </c>
       <c r="E60" s="3">
-        <v>69588700</v>
+        <v>66235700</v>
       </c>
       <c r="F60" s="3">
-        <v>82369300</v>
+        <v>68263200</v>
       </c>
       <c r="G60" s="3">
-        <v>91003700</v>
+        <v>80800400</v>
       </c>
       <c r="H60" s="3">
-        <v>87881000</v>
+        <v>89270300</v>
       </c>
       <c r="I60" s="3">
-        <v>82330200</v>
+        <v>86207000</v>
       </c>
       <c r="J60" s="3">
+        <v>80762000</v>
+      </c>
+      <c r="K60" s="3">
         <v>95144400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>91396900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71912200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>59198600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>65041900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>125023900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>73673500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>68524000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>67929800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>79524300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>78292600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>83751600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>74565700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>61164400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>50521300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>61114300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>50068100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>46362800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>53248900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>109303800</v>
+        <v>108164700</v>
       </c>
       <c r="E61" s="3">
-        <v>112087800</v>
+        <v>107221800</v>
       </c>
       <c r="F61" s="3">
-        <v>125179000</v>
+        <v>109952800</v>
       </c>
       <c r="G61" s="3">
-        <v>108445400</v>
+        <v>122794600</v>
       </c>
       <c r="H61" s="3">
-        <v>103300600</v>
+        <v>106379800</v>
       </c>
       <c r="I61" s="3">
-        <v>100717900</v>
+        <v>101333000</v>
       </c>
       <c r="J61" s="3">
+        <v>98799500</v>
+      </c>
+      <c r="K61" s="3">
         <v>90395200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81572500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>87622000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>95496600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>102245900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>88528800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>138147300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>130447800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>123025100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>111790000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>117221400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>119220200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>120042200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>125667300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>116199700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>102072600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>105642400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>110444900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>102823600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56534400</v>
+        <v>55548700</v>
       </c>
       <c r="E62" s="3">
-        <v>58528600</v>
+        <v>55457500</v>
       </c>
       <c r="F62" s="3">
-        <v>62944500</v>
+        <v>57413700</v>
       </c>
       <c r="G62" s="3">
-        <v>63952100</v>
+        <v>61745600</v>
       </c>
       <c r="H62" s="3">
-        <v>68985100</v>
+        <v>62734000</v>
       </c>
       <c r="I62" s="3">
-        <v>65979600</v>
+        <v>67671100</v>
       </c>
       <c r="J62" s="3">
+        <v>64722900</v>
+      </c>
+      <c r="K62" s="3">
         <v>69464900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>66636200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>54769300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>57407700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54377600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49728700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>63438000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>60416600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>57662400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>56805100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>53391500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39442200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>36707000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>39577000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>39787300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>40259300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>27154100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>22051300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>29180400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5030,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5116,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5202,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>245009300</v>
+        <v>251676000</v>
       </c>
       <c r="E66" s="3">
-        <v>252316400</v>
+        <v>240342400</v>
       </c>
       <c r="F66" s="3">
-        <v>282342400</v>
+        <v>247510400</v>
       </c>
       <c r="G66" s="3">
-        <v>276132100</v>
+        <v>276964400</v>
       </c>
       <c r="H66" s="3">
-        <v>272892100</v>
+        <v>270872500</v>
       </c>
       <c r="I66" s="3">
-        <v>262190900</v>
+        <v>267694200</v>
       </c>
       <c r="J66" s="3">
+        <v>257196700</v>
+      </c>
+      <c r="K66" s="3">
         <v>267981400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>251959900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>221613400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>220811000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>230573700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>276137800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>288809900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>271439800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>260138500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>260831000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>261490800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>251556700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>241599300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>236306300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>216119500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>211602200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>190835400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>186694500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>193103600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5322,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5406,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5492,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5578,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5664,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25658700</v>
+        <v>14465000</v>
       </c>
       <c r="E72" s="3">
-        <v>31837500</v>
+        <v>25169900</v>
       </c>
       <c r="F72" s="3">
-        <v>9689300</v>
+        <v>31231100</v>
       </c>
       <c r="G72" s="3">
-        <v>33190400</v>
+        <v>9504700</v>
       </c>
       <c r="H72" s="3">
-        <v>48753300</v>
+        <v>32558200</v>
       </c>
       <c r="I72" s="3">
-        <v>48820900</v>
+        <v>47824700</v>
       </c>
       <c r="J72" s="3">
+        <v>47891000</v>
+      </c>
+      <c r="K72" s="3">
         <v>51866000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>62465900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50572200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44939800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>43980500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>34762700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>49292200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>49558300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>56124200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>51033000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>52347500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46177200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>41186600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>35817000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>35543700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>27448000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>26570200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>26240600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>21110400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5836,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5922,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6008,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66213600</v>
+        <v>65105200</v>
       </c>
       <c r="E76" s="3">
-        <v>87257800</v>
+        <v>64952400</v>
       </c>
       <c r="F76" s="3">
-        <v>62933700</v>
+        <v>85595700</v>
       </c>
       <c r="G76" s="3">
-        <v>73321200</v>
+        <v>61735000</v>
       </c>
       <c r="H76" s="3">
-        <v>81693100</v>
+        <v>71924600</v>
       </c>
       <c r="I76" s="3">
-        <v>77531900</v>
+        <v>80137000</v>
       </c>
       <c r="J76" s="3">
+        <v>76055100</v>
+      </c>
+      <c r="K76" s="3">
         <v>78832800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72410800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55891500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56888400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55721700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52098900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>70182700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>67199800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>74998100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>69812800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>72478000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>58120500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>51720100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>47124200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>49771400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>41278100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>34108100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>31810900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>27467000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6180,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5814000</v>
+        <v>-469600</v>
       </c>
       <c r="E81" s="3">
-        <v>22220300</v>
+        <v>-5703200</v>
       </c>
       <c r="F81" s="3">
-        <v>-23323500</v>
+        <v>21797000</v>
       </c>
       <c r="G81" s="3">
-        <v>-15502800</v>
+        <v>-22879200</v>
       </c>
       <c r="H81" s="3">
-        <v>151900</v>
+        <v>-15207500</v>
       </c>
       <c r="I81" s="3">
-        <v>-2982700</v>
+        <v>149000</v>
       </c>
       <c r="J81" s="3">
+        <v>-2925800</v>
+      </c>
+      <c r="K81" s="3">
         <v>5539200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13648100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8537200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4829500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10646200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12739600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>429300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6504900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10206200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1239300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6325200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4737800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2788300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>151100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>8174400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>819600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>49900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5045900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>711900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6391,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1612700</v>
+        <v>1711500</v>
       </c>
       <c r="E83" s="3">
-        <v>1586400</v>
+        <v>1582000</v>
       </c>
       <c r="F83" s="3">
-        <v>1623300</v>
+        <v>1556200</v>
       </c>
       <c r="G83" s="3">
-        <v>1609100</v>
+        <v>1592300</v>
       </c>
       <c r="H83" s="3">
-        <v>1549000</v>
+        <v>1578400</v>
       </c>
       <c r="I83" s="3">
-        <v>1542300</v>
+        <v>1519500</v>
       </c>
       <c r="J83" s="3">
+        <v>1512900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1564900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1579900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1593400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1592100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1763400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4736500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4896600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4403400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4554300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4029700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3936500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3841400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3682800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3940500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3632900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3421800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3362800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3690900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>3293200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6561,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6647,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6733,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6819,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6905,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1244500</v>
+        <v>118600</v>
       </c>
       <c r="E89" s="3">
-        <v>3048200</v>
+        <v>1220800</v>
       </c>
       <c r="F89" s="3">
-        <v>1034900</v>
+        <v>2990100</v>
       </c>
       <c r="G89" s="3">
-        <v>2326100</v>
+        <v>1015200</v>
       </c>
       <c r="H89" s="3">
-        <v>2430900</v>
+        <v>2281800</v>
       </c>
       <c r="I89" s="3">
-        <v>11545400</v>
+        <v>2384600</v>
       </c>
       <c r="J89" s="3">
+        <v>11325500</v>
+      </c>
+      <c r="K89" s="3">
         <v>3729700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4500400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4135000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2581200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1313800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2230600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2278000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8462600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5012300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2387800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1176300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4656500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2494500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1862100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1224800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4993100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1771400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3292700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>991900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7025,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1153800</v>
+        <v>-134131000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1267900</v>
+        <v>-156976000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1250600</v>
+        <v>-172502000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1062400</v>
+        <v>-170156000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1142300</v>
+        <v>-144538000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2635000</v>
+        <v>-155414000</v>
       </c>
       <c r="J91" s="3">
+        <v>-358506000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1298100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1120500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1097000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1476400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1276600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2600300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2746200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2910500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2924300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2741500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3340700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3367000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>3726200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7195,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7281,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1410600</v>
+        <v>608300</v>
       </c>
       <c r="E94" s="3">
-        <v>-108800</v>
+        <v>1383700</v>
       </c>
       <c r="F94" s="3">
-        <v>2102800</v>
+        <v>-106700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1286900</v>
+        <v>2062800</v>
       </c>
       <c r="H94" s="3">
-        <v>-6518600</v>
+        <v>-1262400</v>
       </c>
       <c r="I94" s="3">
-        <v>-7209400</v>
+        <v>-6394400</v>
       </c>
       <c r="J94" s="3">
+        <v>-7072000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7172300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4698300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3545900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12178000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10586600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4650500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14880600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6962600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12530800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7329500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9066500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2069800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,91 +7401,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-249000</v>
+        <v>-1300</v>
       </c>
       <c r="E96" s="3">
-        <v>-6500</v>
+        <v>-244300</v>
       </c>
       <c r="F96" s="3">
-        <v>-259400</v>
+        <v>-6400</v>
       </c>
       <c r="G96" s="3">
+        <v>-254400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1100</v>
       </c>
-      <c r="H96" s="3">
-        <v>-275600</v>
-      </c>
       <c r="I96" s="3">
-        <v>-5700</v>
+        <v>-270300</v>
       </c>
       <c r="J96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-275000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-301000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-378800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-413100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-4400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-207800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-218500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-5300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-212400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-215200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-209400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-195500</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7571,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7657,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,253 +7743,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2187000</v>
+        <v>7695900</v>
       </c>
       <c r="E100" s="3">
-        <v>-5543800</v>
+        <v>-2145300</v>
       </c>
       <c r="F100" s="3">
-        <v>1293100</v>
+        <v>-5438200</v>
       </c>
       <c r="G100" s="3">
-        <v>2140200</v>
+        <v>1268400</v>
       </c>
       <c r="H100" s="3">
-        <v>416000</v>
+        <v>2099500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3907700</v>
+        <v>408100</v>
       </c>
       <c r="J100" s="3">
+        <v>-3833300</v>
+      </c>
+      <c r="K100" s="3">
         <v>5777800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>981400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3405400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1368700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12073100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1266600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7958500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10703900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9400900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8349100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>27945500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1020900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-440900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>15008200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>7083500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>20048900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-235200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1511600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1262700</v>
+        <v>-152200</v>
       </c>
       <c r="E101" s="3">
-        <v>1248300</v>
+        <v>-1238700</v>
       </c>
       <c r="F101" s="3">
-        <v>2196400</v>
+        <v>1224600</v>
       </c>
       <c r="G101" s="3">
-        <v>864800</v>
+        <v>2154600</v>
       </c>
       <c r="H101" s="3">
-        <v>183300</v>
+        <v>848400</v>
       </c>
       <c r="I101" s="3">
-        <v>404500</v>
+        <v>179800</v>
       </c>
       <c r="J101" s="3">
+        <v>396800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>709900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-511500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-155100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-152000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>504000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-339800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>46800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-428200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>362200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>543800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-956200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>92900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>117100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>29700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-233700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1223700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-794600</v>
+        <v>8270600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1356100</v>
+        <v>-779500</v>
       </c>
       <c r="F102" s="3">
-        <v>6627200</v>
+        <v>-1330300</v>
       </c>
       <c r="G102" s="3">
-        <v>4044200</v>
+        <v>6501000</v>
       </c>
       <c r="H102" s="3">
-        <v>-3488300</v>
+        <v>3967200</v>
       </c>
       <c r="I102" s="3">
-        <v>832800</v>
+        <v>-3421900</v>
       </c>
       <c r="J102" s="3">
+        <v>817000</v>
+      </c>
+      <c r="K102" s="3">
         <v>2332400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1493300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4787000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8383200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23988900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3838500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4140200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12191800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8481900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13244000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19627100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3969900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-51800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>19659900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-4926800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,366 +665,378 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12218500</v>
+        <v>10700100</v>
       </c>
       <c r="E8" s="3">
-        <v>12208700</v>
+        <v>11642400</v>
       </c>
       <c r="F8" s="3">
-        <v>11611300</v>
+        <v>11632900</v>
       </c>
       <c r="G8" s="3">
-        <v>11334300</v>
+        <v>11063800</v>
       </c>
       <c r="H8" s="3">
-        <v>11829400</v>
+        <v>10799800</v>
       </c>
       <c r="I8" s="3">
-        <v>11516800</v>
+        <v>11271600</v>
       </c>
       <c r="J8" s="3">
+        <v>10973700</v>
+      </c>
+      <c r="K8" s="3">
         <v>10846500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10871600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10565000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11050000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10520800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10918200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11784600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12404000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11877700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21401400</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>23033700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>21810600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20659600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>21338700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>21697300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>20114700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>19762000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>20574300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>20486400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6818800</v>
+        <v>4983700</v>
       </c>
       <c r="E9" s="3">
-        <v>6024000</v>
+        <v>6497300</v>
       </c>
       <c r="F9" s="3">
-        <v>5572700</v>
+        <v>5739900</v>
       </c>
       <c r="G9" s="3">
-        <v>4962200</v>
+        <v>5309900</v>
       </c>
       <c r="H9" s="3">
-        <v>6143600</v>
+        <v>4728200</v>
       </c>
       <c r="I9" s="3">
-        <v>5446400</v>
+        <v>5853900</v>
       </c>
       <c r="J9" s="3">
+        <v>5189600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4912200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4903600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5555000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5563600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4893800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4968700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6084800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6091300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5827500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12236400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>-6092900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13829900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12877900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11968400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13484000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13469600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11743500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11346300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>13146800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>12612300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5399700</v>
+        <v>5716400</v>
       </c>
       <c r="E10" s="3">
-        <v>6184700</v>
+        <v>5145100</v>
       </c>
       <c r="F10" s="3">
-        <v>6038600</v>
+        <v>5893000</v>
       </c>
       <c r="G10" s="3">
-        <v>6372100</v>
+        <v>5753900</v>
       </c>
       <c r="H10" s="3">
-        <v>5685800</v>
+        <v>6071600</v>
       </c>
       <c r="I10" s="3">
-        <v>6070400</v>
+        <v>5417700</v>
       </c>
       <c r="J10" s="3">
+        <v>5784100</v>
+      </c>
+      <c r="K10" s="3">
         <v>5934300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5968000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5010000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5486400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5627000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5949400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5699800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6312700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6050200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9165000</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9203800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8932700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8691200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7854700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8227600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8371200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8415700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7427500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7874200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,8 +1067,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1141,8 +1154,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,94 +1243,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>58200</v>
+        <v>-883300</v>
       </c>
       <c r="E14" s="3">
-        <v>212500</v>
+        <v>55500</v>
       </c>
       <c r="F14" s="3">
-        <v>-315900</v>
+        <v>202500</v>
       </c>
       <c r="G14" s="3">
-        <v>-108600</v>
+        <v>-301000</v>
       </c>
       <c r="H14" s="3">
-        <v>136700</v>
+        <v>-103500</v>
       </c>
       <c r="I14" s="3">
-        <v>-168700</v>
+        <v>130200</v>
       </c>
       <c r="J14" s="3">
+        <v>-160700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-679600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-691200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>395500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-354400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-272000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-42400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1410800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-5669100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8287900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-3434100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-4413600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1151300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-4008600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-573900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-606200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-850800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>16700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>9200</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1399,8 +1421,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1428,180 +1453,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8665900</v>
+        <v>13354600</v>
       </c>
       <c r="E17" s="3">
-        <v>14732300</v>
+        <v>8257200</v>
       </c>
       <c r="F17" s="3">
-        <v>-4527300</v>
+        <v>14037600</v>
       </c>
       <c r="G17" s="3">
-        <v>29807100</v>
+        <v>-4313800</v>
       </c>
       <c r="H17" s="3">
-        <v>32130300</v>
+        <v>28401500</v>
       </c>
       <c r="I17" s="3">
-        <v>11184500</v>
+        <v>30615200</v>
       </c>
       <c r="J17" s="3">
+        <v>10657100</v>
+      </c>
+      <c r="K17" s="3">
         <v>20466300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-709400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-15555300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-3603200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>386700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>846100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25684500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8923200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23043600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15091800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>-12215800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19431700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15069400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14160300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>19873100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>19207400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>16199900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>15429300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>19913900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>17985400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3552700</v>
+        <v>-2654500</v>
       </c>
       <c r="E18" s="3">
-        <v>-2523700</v>
+        <v>3385100</v>
       </c>
       <c r="F18" s="3">
-        <v>16138600</v>
+        <v>-2404700</v>
       </c>
       <c r="G18" s="3">
-        <v>-18472700</v>
+        <v>15377600</v>
       </c>
       <c r="H18" s="3">
-        <v>-20300900</v>
+        <v>-17601600</v>
       </c>
       <c r="I18" s="3">
-        <v>332300</v>
+        <v>-19343600</v>
       </c>
       <c r="J18" s="3">
+        <v>316600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9619800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11581000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26120300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14653200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10134200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10072100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13900000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3480800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11166000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6309600</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3602000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6741200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6499300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1465600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2489800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3914800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4332600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>660400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2501000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1632,438 +1664,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3961400</v>
+        <v>2403100</v>
       </c>
       <c r="E20" s="3">
-        <v>-817300</v>
+        <v>-3774600</v>
       </c>
       <c r="F20" s="3">
-        <v>11152400</v>
+        <v>-778800</v>
       </c>
       <c r="G20" s="3">
-        <v>-4442900</v>
+        <v>10626500</v>
       </c>
       <c r="H20" s="3">
-        <v>5848200</v>
+        <v>-4233400</v>
       </c>
       <c r="I20" s="3">
-        <v>1722000</v>
+        <v>5572400</v>
       </c>
       <c r="J20" s="3">
+        <v>1640800</v>
+      </c>
+      <c r="K20" s="3">
         <v>8590900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1472700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9161900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-62500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4804500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4972700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-338400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6990200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10509900</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1571600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2452300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>52500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1891500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1199700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1302700</v>
+        <v>1190300</v>
       </c>
       <c r="E21" s="3">
-        <v>-1759000</v>
+        <v>1241300</v>
       </c>
       <c r="F21" s="3">
-        <v>28847200</v>
+        <v>-1676000</v>
       </c>
       <c r="G21" s="3">
-        <v>-21323300</v>
+        <v>27486900</v>
       </c>
       <c r="H21" s="3">
-        <v>-12874300</v>
+        <v>-20317800</v>
       </c>
       <c r="I21" s="3">
-        <v>3573800</v>
+        <v>-12267200</v>
       </c>
       <c r="J21" s="3">
+        <v>3405200</v>
+      </c>
+      <c r="K21" s="3">
         <v>484000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11673200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18538300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16184100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6921800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9535200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4190700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8039100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>227600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21373800</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9110000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>13034900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10234600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3518900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8014200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5808700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5156700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2459900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>6994000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>882500</v>
+        <v>959100</v>
       </c>
       <c r="E22" s="3">
-        <v>860100</v>
+        <v>840800</v>
       </c>
       <c r="F22" s="3">
-        <v>1442600</v>
+        <v>819500</v>
       </c>
       <c r="G22" s="3">
-        <v>822900</v>
+        <v>1374500</v>
       </c>
       <c r="H22" s="3">
-        <v>719200</v>
+        <v>784100</v>
       </c>
       <c r="I22" s="3">
-        <v>700600</v>
+        <v>685300</v>
       </c>
       <c r="J22" s="3">
+        <v>667500</v>
+      </c>
+      <c r="K22" s="3">
         <v>741200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>608600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>588000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>516900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>598400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>656800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3341800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>682800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>650500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1409200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1414100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1438600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1592700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1349600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1207100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1264500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1108200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1092700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1099400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1076300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1291200</v>
+        <v>-1210500</v>
       </c>
       <c r="E23" s="3">
-        <v>-4201100</v>
+        <v>-1230300</v>
       </c>
       <c r="F23" s="3">
-        <v>25848500</v>
+        <v>-4003000</v>
       </c>
       <c r="G23" s="3">
-        <v>-23738600</v>
+        <v>24629600</v>
       </c>
       <c r="H23" s="3">
-        <v>-15171900</v>
+        <v>-22619200</v>
       </c>
       <c r="I23" s="3">
-        <v>1353700</v>
+        <v>-14456400</v>
       </c>
       <c r="J23" s="3">
+        <v>1289900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1770100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9499700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16370500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14073800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4731300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7115000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12269000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2459600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4826200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15410300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1164800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3734900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7600800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5202200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3116800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1278700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>701200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2624500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1063700</v>
+        <v>961800</v>
       </c>
       <c r="E24" s="3">
-        <v>1168100</v>
+        <v>-1013500</v>
       </c>
       <c r="F24" s="3">
-        <v>3621800</v>
+        <v>1113000</v>
       </c>
       <c r="G24" s="3">
-        <v>-1414100</v>
+        <v>3451000</v>
       </c>
       <c r="H24" s="3">
-        <v>52000</v>
+        <v>-1347400</v>
       </c>
       <c r="I24" s="3">
-        <v>927100</v>
+        <v>49500</v>
       </c>
       <c r="J24" s="3">
+        <v>883400</v>
+      </c>
+      <c r="K24" s="3">
         <v>698300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2645900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2319700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5158100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>156800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2150900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>535200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1279400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>788100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4624600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2711700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2631100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2219600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>255400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>425100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1761000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2148,180 +2196,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-227600</v>
+        <v>-2172300</v>
       </c>
       <c r="E26" s="3">
-        <v>-5369100</v>
+        <v>-216800</v>
       </c>
       <c r="F26" s="3">
-        <v>22226700</v>
+        <v>-5115900</v>
       </c>
       <c r="G26" s="3">
-        <v>-22324500</v>
+        <v>21178600</v>
       </c>
       <c r="H26" s="3">
-        <v>-15223900</v>
+        <v>-21271700</v>
       </c>
       <c r="I26" s="3">
-        <v>426600</v>
+        <v>-14506000</v>
       </c>
       <c r="J26" s="3">
+        <v>406500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2468400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6853800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14050700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8915700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4574500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4964100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12804200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1180300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5614400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10785700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1179900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6446700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4969800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2982600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>318800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>9573400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1023300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>276100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>5047000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>863400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-469600</v>
+        <v>-3344900</v>
       </c>
       <c r="E27" s="3">
-        <v>-5703200</v>
+        <v>-447500</v>
       </c>
       <c r="F27" s="3">
-        <v>21797000</v>
+        <v>-5434300</v>
       </c>
       <c r="G27" s="3">
-        <v>-22879200</v>
+        <v>20769100</v>
       </c>
       <c r="H27" s="3">
-        <v>-15207500</v>
+        <v>-21800300</v>
       </c>
       <c r="I27" s="3">
-        <v>149000</v>
+        <v>-14490400</v>
       </c>
       <c r="J27" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2925800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5539200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13649700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8530000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5018500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4381300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12705700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>477400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6189100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10206200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1321500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6325200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4737800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2788300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>151100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>8174400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>819600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>49900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>5032700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>758700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2406,8 +2463,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2435,35 +2495,35 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>7200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-189100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>6264900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-48100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-315900</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>82100</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2483,17 +2543,20 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3">
         <v>13300</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-46800</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2578,8 +2641,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2664,180 +2730,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3961400</v>
+        <v>-2403100</v>
       </c>
       <c r="E32" s="3">
-        <v>817300</v>
+        <v>3774600</v>
       </c>
       <c r="F32" s="3">
-        <v>-11152400</v>
+        <v>778800</v>
       </c>
       <c r="G32" s="3">
-        <v>4442900</v>
+        <v>-10626500</v>
       </c>
       <c r="H32" s="3">
-        <v>-5848200</v>
+        <v>4233400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1722000</v>
+        <v>-5572400</v>
       </c>
       <c r="J32" s="3">
+        <v>-1640800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8590900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1472700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9161900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>62500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4804500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4972700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>338400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6990200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10509900</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1571600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2452300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-52500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1887200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1527900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2538700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1891400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-469600</v>
+        <v>-3344900</v>
       </c>
       <c r="E33" s="3">
-        <v>-5703200</v>
+        <v>-447500</v>
       </c>
       <c r="F33" s="3">
-        <v>21797000</v>
+        <v>-5434300</v>
       </c>
       <c r="G33" s="3">
-        <v>-22879200</v>
+        <v>20769100</v>
       </c>
       <c r="H33" s="3">
-        <v>-15207500</v>
+        <v>-21800300</v>
       </c>
       <c r="I33" s="3">
-        <v>149000</v>
+        <v>-14490400</v>
       </c>
       <c r="J33" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2925800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5539200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13648100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8537200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4829500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10646200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12739600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>429300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6504900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10206200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1239300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6325200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4737800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2788300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>151100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>8174400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>819600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>49900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>5045900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>711900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2922,185 +2997,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-469600</v>
+        <v>-3344900</v>
       </c>
       <c r="E35" s="3">
-        <v>-5703200</v>
+        <v>-447500</v>
       </c>
       <c r="F35" s="3">
-        <v>21797000</v>
+        <v>-5434300</v>
       </c>
       <c r="G35" s="3">
-        <v>-22879200</v>
+        <v>20769100</v>
       </c>
       <c r="H35" s="3">
-        <v>-15207500</v>
+        <v>-21800300</v>
       </c>
       <c r="I35" s="3">
-        <v>149000</v>
+        <v>-14490400</v>
       </c>
       <c r="J35" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2925800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5539200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13648100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8537200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4829500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10646200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12739600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>429300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6504900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10206200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1239300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6325200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4737800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2788300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>151100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>8174400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>819600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>49900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>5045900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>711900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3131,8 +3215,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3163,782 +3248,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49930400</v>
+        <v>50261900</v>
       </c>
       <c r="E41" s="3">
-        <v>41659800</v>
+        <v>47575800</v>
       </c>
       <c r="F41" s="3">
-        <v>42439200</v>
+        <v>39695200</v>
       </c>
       <c r="G41" s="3">
-        <v>43769500</v>
+        <v>40437900</v>
       </c>
       <c r="H41" s="3">
-        <v>37268500</v>
+        <v>41705500</v>
       </c>
       <c r="I41" s="3">
-        <v>33301300</v>
+        <v>35511000</v>
       </c>
       <c r="J41" s="3">
+        <v>31730900</v>
+      </c>
+      <c r="K41" s="3">
         <v>36723200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36603500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33058700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32633900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39769200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>52726600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29681000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34660900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>39141800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26862100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35349600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>48588000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>28960900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24800100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>30312000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>30196800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>31303200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11643200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>19364100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>22163900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2677200</v>
+        <v>2917300</v>
       </c>
       <c r="E42" s="3">
-        <v>3670100</v>
+        <v>1996900</v>
       </c>
       <c r="F42" s="3">
-        <v>5103700</v>
+        <v>3497100</v>
       </c>
       <c r="G42" s="3">
-        <v>5366000</v>
+        <v>4863000</v>
       </c>
       <c r="H42" s="3">
-        <v>5740200</v>
+        <v>5112900</v>
       </c>
       <c r="I42" s="3">
-        <v>5790700</v>
+        <v>5469600</v>
       </c>
       <c r="J42" s="3">
+        <v>5517600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4588200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11064000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16223700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17631500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14747500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2242200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2761800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1370900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1658500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1758000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1858200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5601400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5969000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7167800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4721700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1881400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4880300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>6051800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>7048900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>4023600</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18708000</v>
+        <v>16832400</v>
       </c>
       <c r="E43" s="3">
-        <v>19332800</v>
+        <v>18629300</v>
       </c>
       <c r="F43" s="3">
-        <v>18135200</v>
+        <v>18421200</v>
       </c>
       <c r="G43" s="3">
-        <v>16937000</v>
+        <v>17280000</v>
       </c>
       <c r="H43" s="3">
-        <v>18438200</v>
+        <v>16138300</v>
       </c>
       <c r="I43" s="3">
-        <v>16463700</v>
+        <v>17568800</v>
       </c>
       <c r="J43" s="3">
+        <v>15687300</v>
+      </c>
+      <c r="K43" s="3">
         <v>14398400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15735100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17829300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16395700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15180800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19256100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21403400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24108600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20975400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20929300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>27033100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>22102200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20810100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>20322500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>21037500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>21080500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>19335800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>18760900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>19631000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>19570700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1180900</v>
+        <v>1114200</v>
       </c>
       <c r="E44" s="3">
-        <v>1246700</v>
+        <v>1125200</v>
       </c>
       <c r="F44" s="3">
-        <v>1275200</v>
+        <v>1187900</v>
       </c>
       <c r="G44" s="3">
-        <v>1025400</v>
+        <v>1215000</v>
       </c>
       <c r="H44" s="3">
-        <v>1029400</v>
+        <v>977100</v>
       </c>
       <c r="I44" s="3">
-        <v>1112200</v>
+        <v>980800</v>
       </c>
       <c r="J44" s="3">
+        <v>1059800</v>
+      </c>
+      <c r="K44" s="3">
         <v>927200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>881300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>899200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1172200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1038000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1567900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1630700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2987300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2773900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2915900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3345800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3598500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3133100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3016300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3291000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3276200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3070400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3217800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3027700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3646500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3832100</v>
+        <v>4289000</v>
       </c>
       <c r="E45" s="3">
-        <v>2879800</v>
+        <v>3402000</v>
       </c>
       <c r="F45" s="3">
-        <v>6501000</v>
+        <v>2744000</v>
       </c>
       <c r="G45" s="3">
-        <v>7873200</v>
+        <v>6194400</v>
       </c>
       <c r="H45" s="3">
-        <v>9829800</v>
+        <v>7501900</v>
       </c>
       <c r="I45" s="3">
-        <v>12463800</v>
+        <v>9366200</v>
       </c>
       <c r="J45" s="3">
+        <v>11876100</v>
+      </c>
+      <c r="K45" s="3">
         <v>8106000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9961100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8704000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5957300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10329900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4142300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>82284500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5210400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3895400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8223900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3476400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2922600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2703400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7241400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3130400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2768500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2546200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3420900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1700000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1589500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>76328500</v>
+        <v>75414800</v>
       </c>
       <c r="E46" s="3">
-        <v>68789200</v>
+        <v>72729100</v>
       </c>
       <c r="F46" s="3">
-        <v>73454300</v>
+        <v>65545400</v>
       </c>
       <c r="G46" s="3">
-        <v>74971100</v>
+        <v>69990400</v>
       </c>
       <c r="H46" s="3">
-        <v>72306100</v>
+        <v>71435700</v>
       </c>
       <c r="I46" s="3">
-        <v>69131700</v>
+        <v>68896400</v>
       </c>
       <c r="J46" s="3">
+        <v>65871700</v>
+      </c>
+      <c r="K46" s="3">
         <v>64743100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>74245000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>76715000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>73790600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>81065300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>79935000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>137761500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>68338100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>68445100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>60689100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>71063200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>82812600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>61576500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>62548000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>62492500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>59203400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>61136000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>43094700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>50771700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>50994200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>77439400</v>
+        <v>73030200</v>
       </c>
       <c r="E47" s="3">
-        <v>70089100</v>
+        <v>73787700</v>
       </c>
       <c r="F47" s="3">
-        <v>75476700</v>
+        <v>66783900</v>
       </c>
       <c r="G47" s="3">
-        <v>75227200</v>
+        <v>71917500</v>
       </c>
       <c r="H47" s="3">
-        <v>84311800</v>
+        <v>71679700</v>
       </c>
       <c r="I47" s="3">
-        <v>81131200</v>
+        <v>80335900</v>
       </c>
       <c r="J47" s="3">
+        <v>77305300</v>
+      </c>
+      <c r="K47" s="3">
         <v>79174400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>80258600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>70209900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>61518400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>59639500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>64283700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>48511000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55211200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>47849700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>46215400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>41510400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>42776400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>61214000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>56022200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>51496000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>35578100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>30224400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>34602700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>28588600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>28078900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19032400</v>
+        <v>18005600</v>
       </c>
       <c r="E48" s="3">
-        <v>18679300</v>
+        <v>18134900</v>
       </c>
       <c r="F48" s="3">
-        <v>18545700</v>
+        <v>17798500</v>
       </c>
       <c r="G48" s="3">
-        <v>20368000</v>
+        <v>17671100</v>
       </c>
       <c r="H48" s="3">
-        <v>19881500</v>
+        <v>19407500</v>
       </c>
       <c r="I48" s="3">
-        <v>19703500</v>
+        <v>18944000</v>
       </c>
       <c r="J48" s="3">
+        <v>18774300</v>
+      </c>
+      <c r="K48" s="3">
         <v>19591100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20924000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19962600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19612300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20744000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21528500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22537800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>48271100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47750200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>47879500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>37287600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>37440800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>37449900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>36141000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>35058700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>35804300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>35314700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>35342200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>35278200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>36248600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54861800</v>
+        <v>54292400</v>
       </c>
       <c r="E49" s="3">
-        <v>54754400</v>
+        <v>52274700</v>
       </c>
       <c r="F49" s="3">
-        <v>57246100</v>
+        <v>52172400</v>
       </c>
       <c r="G49" s="3">
-        <v>55586700</v>
+        <v>54546500</v>
       </c>
       <c r="H49" s="3">
-        <v>52816800</v>
+        <v>52965400</v>
       </c>
       <c r="I49" s="3">
-        <v>51362000</v>
+        <v>50326100</v>
       </c>
       <c r="J49" s="3">
+        <v>48939900</v>
+      </c>
+      <c r="K49" s="3">
         <v>51322300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>51151000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>49578900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42037300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45500200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>50878000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>52720300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>106708100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>98438000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>99057400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>102717100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>101859900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>105103400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>101651800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>100781800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>104424800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>102922300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>101709400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>98653100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>100523000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4023,8 +4136,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4109,94 +4225,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>89119100</v>
+        <v>93085300</v>
       </c>
       <c r="E52" s="3">
-        <v>92982800</v>
+        <v>84916500</v>
       </c>
       <c r="F52" s="3">
-        <v>108383400</v>
+        <v>88598000</v>
       </c>
       <c r="G52" s="3">
-        <v>112546400</v>
+        <v>103272300</v>
       </c>
       <c r="H52" s="3">
-        <v>113480900</v>
+        <v>107239100</v>
       </c>
       <c r="I52" s="3">
-        <v>126502900</v>
+        <v>108129500</v>
       </c>
       <c r="J52" s="3">
+        <v>120537400</v>
+      </c>
+      <c r="K52" s="3">
         <v>118421100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>120235600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>107904400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>80546300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>70750500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>69670200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>66706200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>80464100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>76156600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>81295200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>78065400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>69079000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>44333300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>36956300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>33601500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>30880300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>23282900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10194500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5213900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4725800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4281,94 +4403,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>316781200</v>
+        <v>313828200</v>
       </c>
       <c r="E54" s="3">
-        <v>305294800</v>
+        <v>301842800</v>
       </c>
       <c r="F54" s="3">
-        <v>333106100</v>
+        <v>290898100</v>
       </c>
       <c r="G54" s="3">
-        <v>338699400</v>
+        <v>317397900</v>
       </c>
       <c r="H54" s="3">
-        <v>342797100</v>
+        <v>322727500</v>
       </c>
       <c r="I54" s="3">
-        <v>347831200</v>
+        <v>326631900</v>
       </c>
       <c r="J54" s="3">
+        <v>331428700</v>
+      </c>
+      <c r="K54" s="3">
         <v>333251900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>346814100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>324370700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>277505000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>277699500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>286295400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>328236700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>358992600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>338639600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>335136600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>330643700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>333968800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>309677200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>293319400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>283430400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>265891000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>252880300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>224943500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>218505500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>220570600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4399,8 +4527,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4431,524 +4560,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17425600</v>
+        <v>14880800</v>
       </c>
       <c r="E57" s="3">
-        <v>16905000</v>
+        <v>12437000</v>
       </c>
       <c r="F57" s="3">
-        <v>13703800</v>
+        <v>16107800</v>
       </c>
       <c r="G57" s="3">
-        <v>12885400</v>
+        <v>13057600</v>
       </c>
       <c r="H57" s="3">
-        <v>11246500</v>
+        <v>12277700</v>
       </c>
       <c r="I57" s="3">
-        <v>13707300</v>
+        <v>10716200</v>
       </c>
       <c r="J57" s="3">
+        <v>13060900</v>
+      </c>
+      <c r="K57" s="3">
         <v>11121200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12459300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10926200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11938100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10361500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13685400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11366500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18337600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16117700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16056600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15549600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>17064400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16609200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15159300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>16507500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>15766500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>14560700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>13257100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>14258100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>14983600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38307800</v>
+        <v>45234000</v>
       </c>
       <c r="E58" s="3">
-        <v>29370300</v>
+        <v>36501400</v>
       </c>
       <c r="F58" s="3">
-        <v>33237700</v>
+        <v>27985200</v>
       </c>
       <c r="G58" s="3">
-        <v>49170200</v>
+        <v>31670300</v>
       </c>
       <c r="H58" s="3">
-        <v>54573200</v>
+        <v>46851500</v>
       </c>
       <c r="I58" s="3">
-        <v>54215000</v>
+        <v>51999700</v>
       </c>
       <c r="J58" s="3">
+        <v>51658400</v>
+      </c>
+      <c r="K58" s="3">
         <v>53327600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>65673000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>57022600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41557300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>25231400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33117600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>37209400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>37220200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>35786500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>35713700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>31885600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>38991300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>45547700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>37659800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>29246200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>27039100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>39373000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>29719200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>23896600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>30472600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20553500</v>
+        <v>17959100</v>
       </c>
       <c r="E59" s="3">
-        <v>19960400</v>
+        <v>23751200</v>
       </c>
       <c r="F59" s="3">
-        <v>21321600</v>
+        <v>19019200</v>
       </c>
       <c r="G59" s="3">
-        <v>18744800</v>
+        <v>20316200</v>
       </c>
       <c r="H59" s="3">
-        <v>23450600</v>
+        <v>17860900</v>
       </c>
       <c r="I59" s="3">
-        <v>18284700</v>
+        <v>22344700</v>
       </c>
       <c r="J59" s="3">
+        <v>17422500</v>
+      </c>
+      <c r="K59" s="3">
         <v>16313200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17012100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23448000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18416800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23605700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18239000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>76448000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18115600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16619800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16159500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>32089100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>22236900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21594700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21746600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>15410600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7715700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7180600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7091800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>8208100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7792700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76287000</v>
+        <v>78074000</v>
       </c>
       <c r="E60" s="3">
-        <v>66235700</v>
+        <v>72689600</v>
       </c>
       <c r="F60" s="3">
-        <v>68263200</v>
+        <v>63112200</v>
       </c>
       <c r="G60" s="3">
-        <v>80800400</v>
+        <v>65044100</v>
       </c>
       <c r="H60" s="3">
-        <v>89270300</v>
+        <v>76990100</v>
       </c>
       <c r="I60" s="3">
-        <v>86207000</v>
+        <v>85060600</v>
       </c>
       <c r="J60" s="3">
+        <v>82141800</v>
+      </c>
+      <c r="K60" s="3">
         <v>80762000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>95144400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>91396900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71912200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59198600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>65041900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>125023900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>73673500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>68524000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>67929800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>79524300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>78292600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>83751600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>74565700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>61164400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>50521300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>61114300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>50068100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>46362800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>53248900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>108164700</v>
+        <v>105277100</v>
       </c>
       <c r="E61" s="3">
-        <v>107221800</v>
+        <v>103064000</v>
       </c>
       <c r="F61" s="3">
-        <v>109952800</v>
+        <v>102165600</v>
       </c>
       <c r="G61" s="3">
-        <v>122794600</v>
+        <v>104767800</v>
       </c>
       <c r="H61" s="3">
-        <v>106379800</v>
+        <v>117004000</v>
       </c>
       <c r="I61" s="3">
-        <v>101333000</v>
+        <v>101363300</v>
       </c>
       <c r="J61" s="3">
+        <v>96554400</v>
+      </c>
+      <c r="K61" s="3">
         <v>98799500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>90395200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81572500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>87622000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>95496600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>102245900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>88528800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>138147300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>130447800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>123025100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>111790000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>117221400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>119220200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>120042200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>125667300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>116199700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>102072600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>105642400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>110444900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>102823600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55548700</v>
+        <v>51817300</v>
       </c>
       <c r="E62" s="3">
-        <v>55457500</v>
+        <v>52929200</v>
       </c>
       <c r="F62" s="3">
-        <v>57413700</v>
+        <v>52842300</v>
       </c>
       <c r="G62" s="3">
-        <v>61745600</v>
+        <v>54706300</v>
       </c>
       <c r="H62" s="3">
-        <v>62734000</v>
+        <v>58833800</v>
       </c>
       <c r="I62" s="3">
-        <v>67671100</v>
+        <v>59775700</v>
       </c>
       <c r="J62" s="3">
+        <v>64479900</v>
+      </c>
+      <c r="K62" s="3">
         <v>64722900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>69464900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>66636200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54769300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>57407700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>54377600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49728700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>63438000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>60416600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>57662400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>56805100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>53391500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>39442200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>36707000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>39577000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>39787300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>40259300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>27154100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>22051300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>29180400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5033,8 +5181,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5119,8 +5270,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5205,94 +5359,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>251676000</v>
+        <v>246601900</v>
       </c>
       <c r="E66" s="3">
-        <v>240342400</v>
+        <v>239807800</v>
       </c>
       <c r="F66" s="3">
-        <v>247510400</v>
+        <v>229008700</v>
       </c>
       <c r="G66" s="3">
-        <v>276964400</v>
+        <v>235838600</v>
       </c>
       <c r="H66" s="3">
-        <v>270872500</v>
+        <v>263903700</v>
       </c>
       <c r="I66" s="3">
-        <v>267694200</v>
+        <v>258099000</v>
       </c>
       <c r="J66" s="3">
+        <v>255070600</v>
+      </c>
+      <c r="K66" s="3">
         <v>257196700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>267981400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>251959900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>221613400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>220811000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>230573700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>276137800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>288809900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>271439800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>260138500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>260831000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>261490800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>251556700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>241599300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>236306300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>216119500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>211602200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>190835400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>186694500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>193103600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5323,8 +5483,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5409,8 +5570,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5495,8 +5659,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5581,8 +5748,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5667,94 +5837,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14465000</v>
+        <v>10273200</v>
       </c>
       <c r="E72" s="3">
-        <v>25169900</v>
+        <v>13782900</v>
       </c>
       <c r="F72" s="3">
-        <v>31231100</v>
+        <v>23983000</v>
       </c>
       <c r="G72" s="3">
-        <v>9504700</v>
+        <v>29758300</v>
       </c>
       <c r="H72" s="3">
-        <v>32558200</v>
+        <v>9056500</v>
       </c>
       <c r="I72" s="3">
-        <v>47824700</v>
+        <v>31022900</v>
       </c>
       <c r="J72" s="3">
+        <v>45569500</v>
+      </c>
+      <c r="K72" s="3">
         <v>47891000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>51866000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>62465900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50572200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44939800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>43980500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>34762700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>49292200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>49558300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>56124200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>51033000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>52347500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>46177200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>41186600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>35817000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>35543700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>27448000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>26570200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>26240600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>21110400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5839,8 +6015,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5925,8 +6104,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6011,94 +6193,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65105200</v>
+        <v>67226300</v>
       </c>
       <c r="E76" s="3">
-        <v>64952400</v>
+        <v>62035100</v>
       </c>
       <c r="F76" s="3">
-        <v>85595700</v>
+        <v>61889400</v>
       </c>
       <c r="G76" s="3">
-        <v>61735000</v>
+        <v>81559300</v>
       </c>
       <c r="H76" s="3">
-        <v>71924600</v>
+        <v>58823800</v>
       </c>
       <c r="I76" s="3">
-        <v>80137000</v>
+        <v>68532900</v>
       </c>
       <c r="J76" s="3">
+        <v>76358000</v>
+      </c>
+      <c r="K76" s="3">
         <v>76055100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78832800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>72410800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55891500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>56888400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>55721700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52098900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>70182700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>67199800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>74998100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>69812800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>72478000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>58120500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>51720100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>47124200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>49771400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>41278100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>34108100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>31810900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>27467000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6183,185 +6371,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-469600</v>
+        <v>-3344900</v>
       </c>
       <c r="E81" s="3">
-        <v>-5703200</v>
+        <v>-447500</v>
       </c>
       <c r="F81" s="3">
-        <v>21797000</v>
+        <v>-5434300</v>
       </c>
       <c r="G81" s="3">
-        <v>-22879200</v>
+        <v>20769100</v>
       </c>
       <c r="H81" s="3">
-        <v>-15207500</v>
+        <v>-21800300</v>
       </c>
       <c r="I81" s="3">
-        <v>149000</v>
+        <v>-14490400</v>
       </c>
       <c r="J81" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2925800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5539200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13648100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8537200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4829500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10646200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12739600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>429300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6504900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10206200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1239300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6325200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4737800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2788300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>151100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>8174400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>819600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>49900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>5045900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>711900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6392,94 +6589,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1711500</v>
+        <v>1441700</v>
       </c>
       <c r="E83" s="3">
-        <v>1582000</v>
+        <v>1630800</v>
       </c>
       <c r="F83" s="3">
-        <v>1556200</v>
+        <v>1507400</v>
       </c>
       <c r="G83" s="3">
-        <v>1592300</v>
+        <v>1482800</v>
       </c>
       <c r="H83" s="3">
-        <v>1578400</v>
+        <v>1517300</v>
       </c>
       <c r="I83" s="3">
-        <v>1519500</v>
+        <v>1504000</v>
       </c>
       <c r="J83" s="3">
+        <v>1447800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1512900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1564900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1579900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1593400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1592100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1763400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4736500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4896600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4403400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4554300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4029700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3936500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3841400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3682800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3940500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3632900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3421800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3362800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>3690900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>3293200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6564,8 +6765,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6650,8 +6854,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6736,8 +6943,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6822,8 +7032,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6908,94 +7121,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>118600</v>
+        <v>-1185600</v>
       </c>
       <c r="E89" s="3">
-        <v>1220800</v>
+        <v>113000</v>
       </c>
       <c r="F89" s="3">
-        <v>2990100</v>
+        <v>1163300</v>
       </c>
       <c r="G89" s="3">
-        <v>1015200</v>
+        <v>2849100</v>
       </c>
       <c r="H89" s="3">
-        <v>2281800</v>
+        <v>967300</v>
       </c>
       <c r="I89" s="3">
-        <v>2384600</v>
+        <v>2174200</v>
       </c>
       <c r="J89" s="3">
+        <v>2272200</v>
+      </c>
+      <c r="K89" s="3">
         <v>11325500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3729700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4500400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4135000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2581200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1313800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2230600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2278000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8462600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5012300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2387800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1176300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4656500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2494500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1862100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1224800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4993100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1771400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3292700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>991900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7026,94 +7245,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-191183000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-134131000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-156976000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-172502000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-170156000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-144538000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-155414000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-358506000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1298100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1120500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1097000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1476400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1276600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2600300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2746200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2910500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2924300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2741500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3340700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3367000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>3726200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7198,8 +7421,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7284,94 +7510,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>608300</v>
+        <v>-2114500</v>
       </c>
       <c r="E94" s="3">
-        <v>1383700</v>
+        <v>579600</v>
       </c>
       <c r="F94" s="3">
-        <v>-106700</v>
+        <v>1318500</v>
       </c>
       <c r="G94" s="3">
-        <v>2062800</v>
+        <v>-101700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1262400</v>
+        <v>1965500</v>
       </c>
       <c r="I94" s="3">
-        <v>-6394400</v>
+        <v>-1202900</v>
       </c>
       <c r="J94" s="3">
+        <v>-6092900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7072000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7172300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4698300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3545900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12178000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10586600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4650500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14880600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6962600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12530800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7329500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9066500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2069800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7402,94 +7634,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-215900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-232800</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-242400</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-257600</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-275000</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-378800</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1300</v>
       </c>
-      <c r="E96" s="3">
-        <v>-244300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-254400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-270300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-275000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-301000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-378800</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-413100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-4400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-207800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-218500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-5300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-212400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-215200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-7400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-209400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-195500</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7574,8 +7810,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7660,8 +7899,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7746,262 +7988,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7695900</v>
+        <v>3638100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2145300</v>
+        <v>7333000</v>
       </c>
       <c r="F100" s="3">
-        <v>-5438200</v>
+        <v>-2044200</v>
       </c>
       <c r="G100" s="3">
-        <v>1268400</v>
+        <v>-5181700</v>
       </c>
       <c r="H100" s="3">
-        <v>2099500</v>
+        <v>1208600</v>
       </c>
       <c r="I100" s="3">
-        <v>408100</v>
+        <v>2000500</v>
       </c>
       <c r="J100" s="3">
+        <v>388800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3833300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5777800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>981400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3405400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1368700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12073100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1266600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7958500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10703900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9400900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8349100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>27945500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1020900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-440900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>15008200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>7083500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>20048900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-235200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1511600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-152200</v>
+        <v>2348100</v>
       </c>
       <c r="E101" s="3">
-        <v>-1238700</v>
+        <v>-145000</v>
       </c>
       <c r="F101" s="3">
-        <v>1224600</v>
+        <v>-1180300</v>
       </c>
       <c r="G101" s="3">
-        <v>2154600</v>
+        <v>1166800</v>
       </c>
       <c r="H101" s="3">
-        <v>848400</v>
+        <v>2053000</v>
       </c>
       <c r="I101" s="3">
-        <v>179800</v>
+        <v>808400</v>
       </c>
       <c r="J101" s="3">
+        <v>171300</v>
+      </c>
+      <c r="K101" s="3">
         <v>396800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>709900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-511500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-155100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>504000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-339800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>46800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-428200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>362200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>543800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-956200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>92900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>117100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>29700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-233700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1223700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8270600</v>
+        <v>2686100</v>
       </c>
       <c r="E102" s="3">
-        <v>-779500</v>
+        <v>7880600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1330300</v>
+        <v>-742700</v>
       </c>
       <c r="G102" s="3">
-        <v>6501000</v>
+        <v>-1267500</v>
       </c>
       <c r="H102" s="3">
-        <v>3967200</v>
+        <v>6194400</v>
       </c>
       <c r="I102" s="3">
-        <v>-3421900</v>
+        <v>3780100</v>
       </c>
       <c r="J102" s="3">
+        <v>-3260500</v>
+      </c>
+      <c r="K102" s="3">
         <v>817000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2332400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1493300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4787000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8383200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23988900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3838500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4140200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12191800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8481900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13244000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19627100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3969900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-51800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>19659900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-4926800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFTBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>SFTBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,378 +665,390 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10700100</v>
+        <v>11085800</v>
       </c>
       <c r="E8" s="3">
-        <v>11642400</v>
+        <v>10341800</v>
       </c>
       <c r="F8" s="3">
-        <v>11632900</v>
+        <v>11252600</v>
       </c>
       <c r="G8" s="3">
-        <v>11063800</v>
+        <v>11243500</v>
       </c>
       <c r="H8" s="3">
-        <v>10799800</v>
+        <v>10693400</v>
       </c>
       <c r="I8" s="3">
-        <v>11271600</v>
+        <v>10438300</v>
       </c>
       <c r="J8" s="3">
+        <v>10894200</v>
+      </c>
+      <c r="K8" s="3">
         <v>10973700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10846500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10871600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10565000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11050000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10520800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10918200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11784600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12404000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11877700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21401400</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23033700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>21810600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>20659600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>21338700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>21697300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>20114700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>19762000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>20574300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>20486400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>19028900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4983700</v>
+        <v>5108200</v>
       </c>
       <c r="E9" s="3">
-        <v>6497300</v>
+        <v>4816900</v>
       </c>
       <c r="F9" s="3">
-        <v>5739900</v>
+        <v>6279800</v>
       </c>
       <c r="G9" s="3">
-        <v>5309900</v>
+        <v>5547700</v>
       </c>
       <c r="H9" s="3">
-        <v>4728200</v>
+        <v>5132100</v>
       </c>
       <c r="I9" s="3">
-        <v>5853900</v>
+        <v>4569900</v>
       </c>
       <c r="J9" s="3">
+        <v>5657900</v>
+      </c>
+      <c r="K9" s="3">
         <v>5189600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4912200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4903600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5555000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5563600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4893800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4968700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6084800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6091300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5827500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12236400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>-6092900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13829900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12877900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11968400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13484000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>13469600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11743500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>11346300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>13146800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>12612300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>11539000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5716400</v>
+        <v>5977600</v>
       </c>
       <c r="E10" s="3">
-        <v>5145100</v>
+        <v>5525000</v>
       </c>
       <c r="F10" s="3">
-        <v>5893000</v>
+        <v>4972800</v>
       </c>
       <c r="G10" s="3">
-        <v>5753900</v>
+        <v>5695800</v>
       </c>
       <c r="H10" s="3">
-        <v>6071600</v>
+        <v>5561300</v>
       </c>
       <c r="I10" s="3">
-        <v>5417700</v>
+        <v>5868400</v>
       </c>
       <c r="J10" s="3">
+        <v>5236300</v>
+      </c>
+      <c r="K10" s="3">
         <v>5784100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5934300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5968000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5010000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5486400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5627000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5949400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5699800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6312700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6050200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9165000</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9203800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8932700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8691200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7854700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8227600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8371200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8415700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7427500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>7874200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>7490000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1068,8 +1080,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1157,8 +1170,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,97 +1262,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-883300</v>
+        <v>-26000</v>
       </c>
       <c r="E14" s="3">
-        <v>55500</v>
+        <v>-853700</v>
       </c>
       <c r="F14" s="3">
-        <v>202500</v>
+        <v>53600</v>
       </c>
       <c r="G14" s="3">
-        <v>-301000</v>
+        <v>195700</v>
       </c>
       <c r="H14" s="3">
-        <v>-103500</v>
+        <v>-290900</v>
       </c>
       <c r="I14" s="3">
-        <v>130200</v>
+        <v>-100000</v>
       </c>
       <c r="J14" s="3">
+        <v>125900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-160700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-679600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-691200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>395500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-354400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-272000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-42400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1410800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-5669100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8287900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-3434100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-4413600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1151300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-4008600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-3647700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-573900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-606200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-1071200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-850800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>16700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>9200</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1424,8 +1446,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1454,186 +1479,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13354600</v>
+        <v>11527000</v>
       </c>
       <c r="E17" s="3">
-        <v>8257200</v>
+        <v>12907500</v>
       </c>
       <c r="F17" s="3">
-        <v>14037600</v>
+        <v>7980800</v>
       </c>
       <c r="G17" s="3">
-        <v>-4313800</v>
+        <v>13567600</v>
       </c>
       <c r="H17" s="3">
-        <v>28401500</v>
+        <v>-4169400</v>
       </c>
       <c r="I17" s="3">
-        <v>30615200</v>
+        <v>27450600</v>
       </c>
       <c r="J17" s="3">
+        <v>29590200</v>
+      </c>
+      <c r="K17" s="3">
         <v>10657100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20466300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-709400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-15555300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-3603200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>386700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>846100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25684500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8923200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23043600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15091800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>-12215800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19431700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15069400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14160300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>19873100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>19207400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>16199900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>15429300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>19913900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>17985400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>16118400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2654500</v>
+        <v>-441100</v>
       </c>
       <c r="E18" s="3">
-        <v>3385100</v>
+        <v>-2565600</v>
       </c>
       <c r="F18" s="3">
-        <v>-2404700</v>
+        <v>3271800</v>
       </c>
       <c r="G18" s="3">
-        <v>15377600</v>
+        <v>-2324100</v>
       </c>
       <c r="H18" s="3">
-        <v>-17601600</v>
+        <v>14862800</v>
       </c>
       <c r="I18" s="3">
-        <v>-19343600</v>
+        <v>-17012300</v>
       </c>
       <c r="J18" s="3">
+        <v>-18696000</v>
+      </c>
+      <c r="K18" s="3">
         <v>316600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9619800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11581000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26120300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14653200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10134200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10072100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13900000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3480800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11166000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6309600</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3602000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6741200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6499300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1465600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2489800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3914800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4332600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>660400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2501000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>2910500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1665,453 +1697,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2403100</v>
+        <v>-3381200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3774600</v>
+        <v>2322700</v>
       </c>
       <c r="F20" s="3">
-        <v>-778800</v>
+        <v>-3648300</v>
       </c>
       <c r="G20" s="3">
-        <v>10626500</v>
+        <v>-752700</v>
       </c>
       <c r="H20" s="3">
-        <v>-4233400</v>
+        <v>10270700</v>
       </c>
       <c r="I20" s="3">
-        <v>5572400</v>
+        <v>-4091700</v>
       </c>
       <c r="J20" s="3">
+        <v>5385900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1640800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8590900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1472700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9161900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-62500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4804500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4972700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-338400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6990200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10509900</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1571600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2452300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>52500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1887200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1891500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1527900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2538700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1891400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1199700</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>749300</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1190300</v>
+        <v>-2416700</v>
       </c>
       <c r="E21" s="3">
-        <v>1241300</v>
+        <v>1150500</v>
       </c>
       <c r="F21" s="3">
-        <v>-1676000</v>
+        <v>1199700</v>
       </c>
       <c r="G21" s="3">
-        <v>27486900</v>
+        <v>-1619900</v>
       </c>
       <c r="H21" s="3">
-        <v>-20317800</v>
+        <v>26566700</v>
       </c>
       <c r="I21" s="3">
-        <v>-12267200</v>
+        <v>-19637600</v>
       </c>
       <c r="J21" s="3">
+        <v>-11856500</v>
+      </c>
+      <c r="K21" s="3">
         <v>3405200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>484000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11673200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18538300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16184100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6921800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9535200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4190700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8039100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>227600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21373800</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9110000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>13034900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>10234600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3518900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>8014200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5808700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>5156700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2459900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>6994000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>6674600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>959100</v>
+        <v>1033100</v>
       </c>
       <c r="E22" s="3">
-        <v>840800</v>
+        <v>927000</v>
       </c>
       <c r="F22" s="3">
-        <v>819500</v>
+        <v>812700</v>
       </c>
       <c r="G22" s="3">
-        <v>1374500</v>
+        <v>792100</v>
       </c>
       <c r="H22" s="3">
-        <v>784100</v>
+        <v>1328500</v>
       </c>
       <c r="I22" s="3">
-        <v>685300</v>
+        <v>757900</v>
       </c>
       <c r="J22" s="3">
+        <v>662300</v>
+      </c>
+      <c r="K22" s="3">
         <v>667500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>741200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>608600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>588000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>516900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>598400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>656800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3341800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>682800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>650500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1409200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1414100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1438600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1592700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1349600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1207100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1264500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1108200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1092700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1099400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1076300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>974900</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1210500</v>
+        <v>-4855400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1230300</v>
+        <v>-1169900</v>
       </c>
       <c r="F23" s="3">
-        <v>-4003000</v>
+        <v>-1189200</v>
       </c>
       <c r="G23" s="3">
-        <v>24629600</v>
+        <v>-3868900</v>
       </c>
       <c r="H23" s="3">
-        <v>-22619200</v>
+        <v>23805000</v>
       </c>
       <c r="I23" s="3">
-        <v>-14456400</v>
+        <v>-21861900</v>
       </c>
       <c r="J23" s="3">
+        <v>-13972500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1289900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1770100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9499700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16370500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14073800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4731300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7115000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12269000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2459600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4826200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15410300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1164800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3734900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7600800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5202200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1628700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3116800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1278700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>701200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2330400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2624500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>2684800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>961800</v>
+        <v>383300</v>
       </c>
       <c r="E24" s="3">
-        <v>-1013500</v>
+        <v>929600</v>
       </c>
       <c r="F24" s="3">
-        <v>1113000</v>
+        <v>-979600</v>
       </c>
       <c r="G24" s="3">
-        <v>3451000</v>
+        <v>1075700</v>
       </c>
       <c r="H24" s="3">
-        <v>-1347400</v>
+        <v>3335500</v>
       </c>
       <c r="I24" s="3">
-        <v>49500</v>
+        <v>-1302300</v>
       </c>
       <c r="J24" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K24" s="3">
         <v>883400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>698300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2645900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2319700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5158100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>156800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2150900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>535200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1279400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>788100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4624600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-2711700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2631100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2219600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1947500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-6456500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>255400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>425100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-7377500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1761000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>2424600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,186 +2247,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2172300</v>
+        <v>-5238700</v>
       </c>
       <c r="E26" s="3">
-        <v>-216800</v>
+        <v>-2099500</v>
       </c>
       <c r="F26" s="3">
-        <v>-5115900</v>
+        <v>-209600</v>
       </c>
       <c r="G26" s="3">
-        <v>21178600</v>
+        <v>-4944700</v>
       </c>
       <c r="H26" s="3">
-        <v>-21271700</v>
+        <v>20469500</v>
       </c>
       <c r="I26" s="3">
-        <v>-14506000</v>
+        <v>-20559600</v>
       </c>
       <c r="J26" s="3">
+        <v>-14020300</v>
+      </c>
+      <c r="K26" s="3">
         <v>406500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2468400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6853800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14050700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8915700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4574500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4964100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12804200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1180300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5614400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10785700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1179900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6446700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4969800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2982600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>318800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>9573400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1023300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>276100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>5047000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>863400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3344900</v>
+        <v>-6213300</v>
       </c>
       <c r="E27" s="3">
-        <v>-447500</v>
+        <v>-3232900</v>
       </c>
       <c r="F27" s="3">
-        <v>-5434300</v>
+        <v>-432500</v>
       </c>
       <c r="G27" s="3">
-        <v>20769100</v>
+        <v>-5252400</v>
       </c>
       <c r="H27" s="3">
-        <v>-21800300</v>
+        <v>20073800</v>
       </c>
       <c r="I27" s="3">
-        <v>-14490400</v>
+        <v>-21070500</v>
       </c>
       <c r="J27" s="3">
+        <v>-14005300</v>
+      </c>
+      <c r="K27" s="3">
         <v>142000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2925800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5539200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13649700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8530000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5018500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4381300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12705700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>477400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6189100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10206200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1321500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6325200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4737800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2788300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>151100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>8174400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>819600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>49900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>5032700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>758700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2466,8 +2523,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2498,35 +2558,35 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>7200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-189100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>6264900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-33900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-48100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-315900</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>82100</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2546,17 +2606,20 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3">
         <v>13300</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-46800</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>4421900</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2644,8 +2707,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2733,186 +2799,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2403100</v>
+        <v>3381200</v>
       </c>
       <c r="E32" s="3">
-        <v>3774600</v>
+        <v>-2322700</v>
       </c>
       <c r="F32" s="3">
-        <v>778800</v>
+        <v>3648300</v>
       </c>
       <c r="G32" s="3">
-        <v>-10626500</v>
+        <v>752700</v>
       </c>
       <c r="H32" s="3">
-        <v>4233400</v>
+        <v>-10270700</v>
       </c>
       <c r="I32" s="3">
-        <v>-5572400</v>
+        <v>4091700</v>
       </c>
       <c r="J32" s="3">
+        <v>-5385900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1640800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8590900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1472700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9161900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>62500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4804500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4972700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>338400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6990200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10509900</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1571600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2452300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-52500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1887200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1891500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1527900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2538700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1891400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1199700</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-749300</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3344900</v>
+        <v>-6213300</v>
       </c>
       <c r="E33" s="3">
-        <v>-447500</v>
+        <v>-3232900</v>
       </c>
       <c r="F33" s="3">
-        <v>-5434300</v>
+        <v>-432500</v>
       </c>
       <c r="G33" s="3">
-        <v>20769100</v>
+        <v>-5252400</v>
       </c>
       <c r="H33" s="3">
-        <v>-21800300</v>
+        <v>20073800</v>
       </c>
       <c r="I33" s="3">
-        <v>-14490400</v>
+        <v>-21070500</v>
       </c>
       <c r="J33" s="3">
+        <v>-14005300</v>
+      </c>
+      <c r="K33" s="3">
         <v>142000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2925800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5539200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13648100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8537200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4829500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10646200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12739600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>429300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6504900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10206200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1239300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6325200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4737800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2788300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>151100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>8174400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>819600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>49900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>5045900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>711900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3000,191 +3075,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3344900</v>
+        <v>-6213300</v>
       </c>
       <c r="E35" s="3">
-        <v>-447500</v>
+        <v>-3232900</v>
       </c>
       <c r="F35" s="3">
-        <v>-5434300</v>
+        <v>-432500</v>
       </c>
       <c r="G35" s="3">
-        <v>20769100</v>
+        <v>-5252400</v>
       </c>
       <c r="H35" s="3">
-        <v>-21800300</v>
+        <v>20073800</v>
       </c>
       <c r="I35" s="3">
-        <v>-14490400</v>
+        <v>-21070500</v>
       </c>
       <c r="J35" s="3">
+        <v>-14005300</v>
+      </c>
+      <c r="K35" s="3">
         <v>142000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2925800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5539200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13648100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8537200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4829500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10646200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12739600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>429300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6504900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10206200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1239300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6325200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4737800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2788300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>151100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>8174400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>819600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>49900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>5045900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>711900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3216,8 +3300,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3249,809 +3334,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50261900</v>
+        <v>44539900</v>
       </c>
       <c r="E41" s="3">
-        <v>47575800</v>
+        <v>48579200</v>
       </c>
       <c r="F41" s="3">
-        <v>39695200</v>
+        <v>45983000</v>
       </c>
       <c r="G41" s="3">
-        <v>40437900</v>
+        <v>38366300</v>
       </c>
       <c r="H41" s="3">
-        <v>41705500</v>
+        <v>39084100</v>
       </c>
       <c r="I41" s="3">
-        <v>35511000</v>
+        <v>40309200</v>
       </c>
       <c r="J41" s="3">
+        <v>34322200</v>
+      </c>
+      <c r="K41" s="3">
         <v>31730900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36723200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36603500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33058700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>32633900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>39769200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>52726600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29681000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>34660900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>39141800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26862100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>35349600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>48588000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>28960900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>24800100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>30312000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>30196800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>31303200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11643200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>19364100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>22163900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>23734800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2917300</v>
+        <v>2972900</v>
       </c>
       <c r="E42" s="3">
-        <v>1996900</v>
+        <v>2819600</v>
       </c>
       <c r="F42" s="3">
-        <v>3497100</v>
+        <v>1930000</v>
       </c>
       <c r="G42" s="3">
-        <v>4863000</v>
+        <v>3380000</v>
       </c>
       <c r="H42" s="3">
-        <v>5112900</v>
+        <v>4700200</v>
       </c>
       <c r="I42" s="3">
-        <v>5469600</v>
+        <v>4941800</v>
       </c>
       <c r="J42" s="3">
+        <v>5286400</v>
+      </c>
+      <c r="K42" s="3">
         <v>5517600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4588200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11064000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16223700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17631500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14747500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2242200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2761800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1370900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1658500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1758000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1858200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5601400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5969000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7167800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4721700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1881400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4880300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>6051800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>7048900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>4023600</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>3167000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16832400</v>
+        <v>17692600</v>
       </c>
       <c r="E43" s="3">
-        <v>18629300</v>
+        <v>16268800</v>
       </c>
       <c r="F43" s="3">
-        <v>18421200</v>
+        <v>18005600</v>
       </c>
       <c r="G43" s="3">
-        <v>17280000</v>
+        <v>17804400</v>
       </c>
       <c r="H43" s="3">
-        <v>16138300</v>
+        <v>16701500</v>
       </c>
       <c r="I43" s="3">
-        <v>17568800</v>
+        <v>15598000</v>
       </c>
       <c r="J43" s="3">
+        <v>16980600</v>
+      </c>
+      <c r="K43" s="3">
         <v>15687300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14398400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15735100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17829300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16395700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15180800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19256100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21403400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>24108600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20975400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20929300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>27033100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>22102200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>20810100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>20322500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>21037500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>21080500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>19335800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>18760900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>19631000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>19570700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>20475500</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1114200</v>
+        <v>1125600</v>
       </c>
       <c r="E44" s="3">
-        <v>1125200</v>
+        <v>1076900</v>
       </c>
       <c r="F44" s="3">
-        <v>1187900</v>
+        <v>1087500</v>
       </c>
       <c r="G44" s="3">
-        <v>1215000</v>
+        <v>1148100</v>
       </c>
       <c r="H44" s="3">
-        <v>977100</v>
+        <v>1174300</v>
       </c>
       <c r="I44" s="3">
-        <v>980800</v>
+        <v>944300</v>
       </c>
       <c r="J44" s="3">
+        <v>948000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1059800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>927200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>881300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>899200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1172200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1038000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1567900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1630700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2987300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2773900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2915900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3345800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3598500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3133100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3016300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3291000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3276200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3070400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3217800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3027700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3646500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3158400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4289000</v>
+        <v>5402600</v>
       </c>
       <c r="E45" s="3">
-        <v>3402000</v>
+        <v>4145400</v>
       </c>
       <c r="F45" s="3">
-        <v>2744000</v>
+        <v>3288100</v>
       </c>
       <c r="G45" s="3">
-        <v>6194400</v>
+        <v>2652100</v>
       </c>
       <c r="H45" s="3">
-        <v>7501900</v>
+        <v>5987000</v>
       </c>
       <c r="I45" s="3">
-        <v>9366200</v>
+        <v>7250800</v>
       </c>
       <c r="J45" s="3">
+        <v>9052700</v>
+      </c>
+      <c r="K45" s="3">
         <v>11876100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8106000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9961100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8704000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5957300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10329900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4142300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>82284500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5210400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3895400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8223900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3476400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2922600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2703400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7241400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3130400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2768500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2546200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3420900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1700000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1589500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1532200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>75414800</v>
+        <v>71733700</v>
       </c>
       <c r="E46" s="3">
-        <v>72729100</v>
+        <v>72890000</v>
       </c>
       <c r="F46" s="3">
-        <v>65545400</v>
+        <v>70294200</v>
       </c>
       <c r="G46" s="3">
-        <v>69990400</v>
+        <v>63351000</v>
       </c>
       <c r="H46" s="3">
-        <v>71435700</v>
+        <v>67647200</v>
       </c>
       <c r="I46" s="3">
-        <v>68896400</v>
+        <v>69044100</v>
       </c>
       <c r="J46" s="3">
+        <v>66589800</v>
+      </c>
+      <c r="K46" s="3">
         <v>65871700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64743100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>74245000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76715000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>73790600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>81065300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>79935000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>137761500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>68338100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>68445100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>60689100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>71063200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>82812600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>61576500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>62548000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>62492500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>59203400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>61136000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>43094700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>50771700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>50994200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>52067900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>73030200</v>
+        <v>75396200</v>
       </c>
       <c r="E47" s="3">
-        <v>73787700</v>
+        <v>70585200</v>
       </c>
       <c r="F47" s="3">
-        <v>66783900</v>
+        <v>71317300</v>
       </c>
       <c r="G47" s="3">
-        <v>71917500</v>
+        <v>64548100</v>
       </c>
       <c r="H47" s="3">
-        <v>71679700</v>
+        <v>69509800</v>
       </c>
       <c r="I47" s="3">
-        <v>80335900</v>
+        <v>69280000</v>
       </c>
       <c r="J47" s="3">
+        <v>77646300</v>
+      </c>
+      <c r="K47" s="3">
         <v>77305300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>79174400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>80258600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>70209900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>61518400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>59639500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>64283700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>48511000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>55211200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>47849700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>46215400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>41510400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>42776400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>61214000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>56022200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>51496000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>35578100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>30224400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>34602700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>28588600</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>28078900</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>20956300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18005600</v>
+        <v>17618700</v>
       </c>
       <c r="E48" s="3">
-        <v>18134900</v>
+        <v>17402800</v>
       </c>
       <c r="F48" s="3">
-        <v>17798500</v>
+        <v>17527700</v>
       </c>
       <c r="G48" s="3">
-        <v>17671100</v>
+        <v>17202600</v>
       </c>
       <c r="H48" s="3">
-        <v>19407500</v>
+        <v>17079500</v>
       </c>
       <c r="I48" s="3">
-        <v>18944000</v>
+        <v>18757800</v>
       </c>
       <c r="J48" s="3">
+        <v>18309700</v>
+      </c>
+      <c r="K48" s="3">
         <v>18774300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19591100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20924000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19962600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19612300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20744000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21528500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22537800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>48271100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>47750200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>47879500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>37287600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>37440800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>37449900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>36141000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>35058700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>35804300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>35314700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>35342200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>35278200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>36248600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>33833600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54292400</v>
+        <v>53531900</v>
       </c>
       <c r="E49" s="3">
-        <v>52274700</v>
+        <v>52474800</v>
       </c>
       <c r="F49" s="3">
-        <v>52172400</v>
+        <v>50524600</v>
       </c>
       <c r="G49" s="3">
-        <v>54546500</v>
+        <v>50425700</v>
       </c>
       <c r="H49" s="3">
-        <v>52965400</v>
+        <v>52720400</v>
       </c>
       <c r="I49" s="3">
-        <v>50326100</v>
+        <v>51192200</v>
       </c>
       <c r="J49" s="3">
+        <v>48641300</v>
+      </c>
+      <c r="K49" s="3">
         <v>48939900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>51322300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>51151000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>49578900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42037300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45500200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>50878000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>52720300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>106708100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>98438000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>99057400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>102717100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>101859900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>105103400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>101651800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>100781800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>104424800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>102922300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>101709400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>98653100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>100523000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>91284100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4139,8 +4252,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4228,97 +4344,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93085300</v>
+        <v>87226300</v>
       </c>
       <c r="E52" s="3">
-        <v>84916500</v>
+        <v>89968900</v>
       </c>
       <c r="F52" s="3">
-        <v>88598000</v>
+        <v>82073600</v>
       </c>
       <c r="G52" s="3">
-        <v>103272300</v>
+        <v>85631800</v>
       </c>
       <c r="H52" s="3">
-        <v>107239100</v>
+        <v>99814900</v>
       </c>
       <c r="I52" s="3">
-        <v>108129500</v>
+        <v>103648800</v>
       </c>
       <c r="J52" s="3">
+        <v>104509400</v>
+      </c>
+      <c r="K52" s="3">
         <v>120537400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>118421100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>120235600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>107904400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>80546300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>70750500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>69670200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>66706200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>80464100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>76156600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>81295200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>78065400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>69079000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>44333300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>36956300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>33601500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>30880300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>23282900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>10194500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5213900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>4725800</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>4946200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4406,97 +4528,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>313828200</v>
+        <v>305506700</v>
       </c>
       <c r="E54" s="3">
-        <v>301842800</v>
+        <v>303321600</v>
       </c>
       <c r="F54" s="3">
-        <v>290898100</v>
+        <v>291737500</v>
       </c>
       <c r="G54" s="3">
-        <v>317397900</v>
+        <v>281159100</v>
       </c>
       <c r="H54" s="3">
-        <v>322727500</v>
+        <v>306771800</v>
       </c>
       <c r="I54" s="3">
-        <v>326631900</v>
+        <v>311922900</v>
       </c>
       <c r="J54" s="3">
+        <v>315696600</v>
+      </c>
+      <c r="K54" s="3">
         <v>331428700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>333251900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>346814100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>324370700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>277505000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>277699500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>286295400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>328236700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>358992600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>338639600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>335136600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>330643700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>333968800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>309677200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>293319400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>283430400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>265891000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>252880300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>224943500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>218505500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>220570600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>203088200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4528,8 +4656,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4561,542 +4690,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14880800</v>
+        <v>15560500</v>
       </c>
       <c r="E57" s="3">
-        <v>12437000</v>
+        <v>14382600</v>
       </c>
       <c r="F57" s="3">
-        <v>16107800</v>
+        <v>12020600</v>
       </c>
       <c r="G57" s="3">
-        <v>13057600</v>
+        <v>15568500</v>
       </c>
       <c r="H57" s="3">
-        <v>12277700</v>
+        <v>12620400</v>
       </c>
       <c r="I57" s="3">
-        <v>10716200</v>
+        <v>11866700</v>
       </c>
       <c r="J57" s="3">
+        <v>10357400</v>
+      </c>
+      <c r="K57" s="3">
         <v>13060900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11121200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12459300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10926200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11938100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10361500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13685400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11366500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18337600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16117700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16056600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15549600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>17064400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16609200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>15159300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>16507500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>15766500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>14560700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>13257100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>14258100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>14983600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>12886800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>45234000</v>
+        <v>39259000</v>
       </c>
       <c r="E58" s="3">
-        <v>36501400</v>
+        <v>43719600</v>
       </c>
       <c r="F58" s="3">
-        <v>27985200</v>
+        <v>35279300</v>
       </c>
       <c r="G58" s="3">
-        <v>31670300</v>
+        <v>27048300</v>
       </c>
       <c r="H58" s="3">
-        <v>46851500</v>
+        <v>30610100</v>
       </c>
       <c r="I58" s="3">
-        <v>51999700</v>
+        <v>45282900</v>
       </c>
       <c r="J58" s="3">
+        <v>50258800</v>
+      </c>
+      <c r="K58" s="3">
         <v>51658400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53327600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>65673000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>57022600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>41557300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25231400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33117600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>37209400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>37220200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>35786500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>35713700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>31885600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>38991300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>45547700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>37659800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>29246200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>27039100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>39373000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>29719200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>23896600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>30472600</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>31748200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17959100</v>
+        <v>18483100</v>
       </c>
       <c r="E59" s="3">
-        <v>23751200</v>
+        <v>17357900</v>
       </c>
       <c r="F59" s="3">
-        <v>19019200</v>
+        <v>22956100</v>
       </c>
       <c r="G59" s="3">
-        <v>20316200</v>
+        <v>18382400</v>
       </c>
       <c r="H59" s="3">
-        <v>17860900</v>
+        <v>19636000</v>
       </c>
       <c r="I59" s="3">
-        <v>22344700</v>
+        <v>17262900</v>
       </c>
       <c r="J59" s="3">
+        <v>21596700</v>
+      </c>
+      <c r="K59" s="3">
         <v>17422500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16313200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17012100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23448000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18416800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23605700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18239000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>76448000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18115600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16619800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16159500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>32089100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>22236900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21594700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>21746600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>15410600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7715700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7180600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7091800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>8208100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>7792700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>7709300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>78074000</v>
+        <v>73302700</v>
       </c>
       <c r="E60" s="3">
-        <v>72689600</v>
+        <v>75460100</v>
       </c>
       <c r="F60" s="3">
-        <v>63112200</v>
+        <v>70256000</v>
       </c>
       <c r="G60" s="3">
-        <v>65044100</v>
+        <v>60999300</v>
       </c>
       <c r="H60" s="3">
-        <v>76990100</v>
+        <v>62866500</v>
       </c>
       <c r="I60" s="3">
-        <v>85060600</v>
+        <v>74412500</v>
       </c>
       <c r="J60" s="3">
+        <v>82212900</v>
+      </c>
+      <c r="K60" s="3">
         <v>82141800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>80762000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>95144400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>91396900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71912200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>59198600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>65041900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>125023900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>73673500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>68524000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>67929800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>79524300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>78292600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>83751600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>74565700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>61164400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>50521300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>61114300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>50068100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>46362800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>53248900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>52344300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>105277100</v>
+        <v>102795300</v>
       </c>
       <c r="E61" s="3">
-        <v>103064000</v>
+        <v>101752600</v>
       </c>
       <c r="F61" s="3">
-        <v>102165600</v>
+        <v>99613500</v>
       </c>
       <c r="G61" s="3">
-        <v>104767800</v>
+        <v>98745200</v>
       </c>
       <c r="H61" s="3">
-        <v>117004000</v>
+        <v>101260300</v>
       </c>
       <c r="I61" s="3">
-        <v>101363300</v>
+        <v>113086900</v>
       </c>
       <c r="J61" s="3">
+        <v>97969700</v>
+      </c>
+      <c r="K61" s="3">
         <v>96554400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>98799500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>90395200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>81572500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>87622000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>95496600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>102245900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>88528800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>138147300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>130447800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>123025100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>111790000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>117221400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>119220200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>120042200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>125667300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>116199700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>102072600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>105642400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>110444900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>102823600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>97522900</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51817300</v>
+        <v>51911500</v>
       </c>
       <c r="E62" s="3">
-        <v>52929200</v>
+        <v>50082500</v>
       </c>
       <c r="F62" s="3">
-        <v>52842300</v>
+        <v>51157100</v>
       </c>
       <c r="G62" s="3">
-        <v>54706300</v>
+        <v>51073200</v>
       </c>
       <c r="H62" s="3">
-        <v>58833800</v>
+        <v>52874800</v>
       </c>
       <c r="I62" s="3">
-        <v>59775700</v>
+        <v>56864200</v>
       </c>
       <c r="J62" s="3">
+        <v>57774400</v>
+      </c>
+      <c r="K62" s="3">
         <v>64479900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>64722900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>69464900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>66636200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54769300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>57407700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>54377600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49728700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>63438000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>60416600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>57662400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>56805100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>53391500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>39442200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>36707000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>39577000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>39787300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>40259300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>27154100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>22051300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>29180400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>25490400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5184,8 +5332,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5273,8 +5424,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5362,97 +5516,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>246601900</v>
+        <v>240681800</v>
       </c>
       <c r="E66" s="3">
-        <v>239807800</v>
+        <v>238346000</v>
       </c>
       <c r="F66" s="3">
-        <v>229008700</v>
+        <v>231779300</v>
       </c>
       <c r="G66" s="3">
-        <v>235838600</v>
+        <v>221341700</v>
       </c>
       <c r="H66" s="3">
-        <v>263903700</v>
+        <v>227943000</v>
       </c>
       <c r="I66" s="3">
-        <v>258099000</v>
+        <v>255068500</v>
       </c>
       <c r="J66" s="3">
+        <v>249458100</v>
+      </c>
+      <c r="K66" s="3">
         <v>255070600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>257196700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>267981400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>251959900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>221613400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>220811000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>230573700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>276137800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>288809900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>271439800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>260138500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>260831000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>261490800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>251556700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>241599300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>236306300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>216119500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>211602200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>190835400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>186694500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>193103600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>182757400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5484,8 +5644,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5573,8 +5734,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5662,8 +5826,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5751,8 +5918,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5840,97 +6010,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10273200</v>
+        <v>3264300</v>
       </c>
       <c r="E72" s="3">
-        <v>13782900</v>
+        <v>9929300</v>
       </c>
       <c r="F72" s="3">
-        <v>23983000</v>
+        <v>13321400</v>
       </c>
       <c r="G72" s="3">
-        <v>29758300</v>
+        <v>23180100</v>
       </c>
       <c r="H72" s="3">
-        <v>9056500</v>
+        <v>28762100</v>
       </c>
       <c r="I72" s="3">
-        <v>31022900</v>
+        <v>8753300</v>
       </c>
       <c r="J72" s="3">
+        <v>29984300</v>
+      </c>
+      <c r="K72" s="3">
         <v>45569500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47891000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>51866000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>62465900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50572200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44939800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>43980500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>34762700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>49292200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>49558300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>56124200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>51033000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>52347500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>46177200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>41186600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>35817000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>35543700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>27448000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>26570200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>26240600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>21110400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>25797300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6018,8 +6194,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6107,8 +6286,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6196,97 +6378,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67226300</v>
+        <v>64824900</v>
       </c>
       <c r="E76" s="3">
-        <v>62035100</v>
+        <v>64975600</v>
       </c>
       <c r="F76" s="3">
-        <v>61889400</v>
+        <v>59958200</v>
       </c>
       <c r="G76" s="3">
-        <v>81559300</v>
+        <v>59817400</v>
       </c>
       <c r="H76" s="3">
-        <v>58823800</v>
+        <v>78828800</v>
       </c>
       <c r="I76" s="3">
-        <v>68532900</v>
+        <v>56854400</v>
       </c>
       <c r="J76" s="3">
+        <v>66238500</v>
+      </c>
+      <c r="K76" s="3">
         <v>76358000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76055100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78832800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72410800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55891500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>56888400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>55721700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>52098900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>70182700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>67199800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>74998100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>69812800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>72478000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>58120500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>51720100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>47124200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>49771400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>41278100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>34108100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>31810900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>27467000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>20330800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6374,191 +6562,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3344900</v>
+        <v>-6213300</v>
       </c>
       <c r="E81" s="3">
-        <v>-447500</v>
+        <v>-3232900</v>
       </c>
       <c r="F81" s="3">
-        <v>-5434300</v>
+        <v>-432500</v>
       </c>
       <c r="G81" s="3">
-        <v>20769100</v>
+        <v>-5252400</v>
       </c>
       <c r="H81" s="3">
-        <v>-21800300</v>
+        <v>20073800</v>
       </c>
       <c r="I81" s="3">
-        <v>-14490400</v>
+        <v>-21070500</v>
       </c>
       <c r="J81" s="3">
+        <v>-14005300</v>
+      </c>
+      <c r="K81" s="3">
         <v>142000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2925800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5539200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13648100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8537200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4829500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10646200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12739600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>429300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6504900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10206200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1239300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6325200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4737800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2788300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>151100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>8174400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>819600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>49900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>5045900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>711900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>4535800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6590,97 +6787,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1441700</v>
+        <v>1405600</v>
       </c>
       <c r="E83" s="3">
-        <v>1630800</v>
+        <v>1393500</v>
       </c>
       <c r="F83" s="3">
-        <v>1507400</v>
+        <v>1576200</v>
       </c>
       <c r="G83" s="3">
-        <v>1482800</v>
+        <v>1456900</v>
       </c>
       <c r="H83" s="3">
-        <v>1517300</v>
+        <v>1433200</v>
       </c>
       <c r="I83" s="3">
-        <v>1504000</v>
+        <v>1466500</v>
       </c>
       <c r="J83" s="3">
+        <v>1453600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1447800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1512900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1564900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1579900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1593400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1592100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1763400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4736500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4896600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4403400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4554300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4029700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3936500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3841400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3682800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3940500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3632900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3421800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>3362800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>3690900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>3293200</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>3014800</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6768,8 +6969,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6857,8 +7061,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6946,8 +7153,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7035,8 +7245,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7124,97 +7337,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1185600</v>
+        <v>1735300</v>
       </c>
       <c r="E89" s="3">
-        <v>113000</v>
+        <v>-1145900</v>
       </c>
       <c r="F89" s="3">
-        <v>1163300</v>
+        <v>109200</v>
       </c>
       <c r="G89" s="3">
-        <v>2849100</v>
+        <v>1124300</v>
       </c>
       <c r="H89" s="3">
-        <v>967300</v>
+        <v>2753700</v>
       </c>
       <c r="I89" s="3">
-        <v>2174200</v>
+        <v>934900</v>
       </c>
       <c r="J89" s="3">
+        <v>2101400</v>
+      </c>
+      <c r="K89" s="3">
         <v>2272200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11325500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3729700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4500400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4135000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2581200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1313800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2230600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2278000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8462600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5012300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2387800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1176300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4656500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2494500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1862100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1224800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4993100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1771400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3292700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>991900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>7126000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7246,97 +7465,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-169859000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-191183000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-134131000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-156976000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-172502000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-170156000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-144538000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-155414000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-358506000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1298100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1120500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1097000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1476400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1276600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2600300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2746200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2910500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2924300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2741500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3340700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3367000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3030400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2483400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2476300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2112300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2567700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>3726200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-4086000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-5754700</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7424,8 +7647,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7513,97 +7739,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2114500</v>
+        <v>-3051600</v>
       </c>
       <c r="E94" s="3">
-        <v>579600</v>
+        <v>-2043700</v>
       </c>
       <c r="F94" s="3">
-        <v>1318500</v>
+        <v>560200</v>
       </c>
       <c r="G94" s="3">
-        <v>-101700</v>
+        <v>1274300</v>
       </c>
       <c r="H94" s="3">
-        <v>1965500</v>
+        <v>-98300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1202900</v>
+        <v>1899700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1162600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6092900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7072000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7172300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4698300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3545900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12178000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>10586600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4650500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14880600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6962600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12530800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7329500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9066500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2069800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8109300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-15965800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9507700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5499200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9657900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-7388700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1926500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-26685900</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7635,97 +7867,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-215900</v>
+        <v>-4800</v>
       </c>
       <c r="E96" s="3">
+        <v>-208600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1200</v>
       </c>
-      <c r="F96" s="3">
-        <v>-232800</v>
-      </c>
       <c r="G96" s="3">
-        <v>-6100</v>
+        <v>-225000</v>
       </c>
       <c r="H96" s="3">
-        <v>-242400</v>
+        <v>-5900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1100</v>
+        <v>-234300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-257600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-275000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-301000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-378800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-413100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-4400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-207800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-218500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-5300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-212400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-215200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-7400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-209400</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-195500</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7813,8 +8049,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7902,8 +8141,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7991,271 +8233,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3638100</v>
+        <v>-3600400</v>
       </c>
       <c r="E100" s="3">
-        <v>7333000</v>
+        <v>3516300</v>
       </c>
       <c r="F100" s="3">
-        <v>-2044200</v>
+        <v>7087500</v>
       </c>
       <c r="G100" s="3">
-        <v>-5181700</v>
+        <v>-1975700</v>
       </c>
       <c r="H100" s="3">
-        <v>1208600</v>
+        <v>-5008200</v>
       </c>
       <c r="I100" s="3">
-        <v>2000500</v>
+        <v>1168100</v>
       </c>
       <c r="J100" s="3">
+        <v>1933500</v>
+      </c>
+      <c r="K100" s="3">
         <v>388800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3833300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5777800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>981400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3405400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1368700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12073100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1266600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7958500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10703900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>9400900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8349100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>27945500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1020900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-440900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>15008200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>7083500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>20048900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-235200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1511600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1860100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>15437700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2348100</v>
+        <v>877400</v>
       </c>
       <c r="E101" s="3">
-        <v>-145000</v>
+        <v>2269500</v>
       </c>
       <c r="F101" s="3">
-        <v>-1180300</v>
+        <v>-140200</v>
       </c>
       <c r="G101" s="3">
-        <v>1166800</v>
+        <v>-1140800</v>
       </c>
       <c r="H101" s="3">
-        <v>2053000</v>
+        <v>1127700</v>
       </c>
       <c r="I101" s="3">
-        <v>808400</v>
+        <v>1984300</v>
       </c>
       <c r="J101" s="3">
+        <v>781300</v>
+      </c>
+      <c r="K101" s="3">
         <v>171300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>396800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>709900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-511500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-155100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-152000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>504000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-339800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>46800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-428200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>362200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>543800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-956200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>92900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>117100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>29700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-233700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1223700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-786100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2686100</v>
+        <v>-4039300</v>
       </c>
       <c r="E102" s="3">
-        <v>7880600</v>
+        <v>2596200</v>
       </c>
       <c r="F102" s="3">
-        <v>-742700</v>
+        <v>7616700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1267500</v>
+        <v>-717800</v>
       </c>
       <c r="H102" s="3">
-        <v>6194400</v>
+        <v>-1225100</v>
       </c>
       <c r="I102" s="3">
-        <v>3780100</v>
+        <v>5987000</v>
       </c>
       <c r="J102" s="3">
+        <v>3653600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3260500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>817000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2332400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1493300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4787000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8383200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23988900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3838500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4140200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12191800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8481900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13244000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19627100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3969900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5511900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-51800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1106400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>19659900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-8092000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-2799800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1571000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-4926800</v>
       </c>
     </row>
